--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="pending to automate" sheetId="16" r:id="rId17"/>
     <sheet name="error ptscreen" sheetId="9" r:id="rId18"/>
     <sheet name="git commands" sheetId="24" r:id="rId19"/>
+    <sheet name="Test unit v1" sheetId="25" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'inline ajax edit v1'!$C$48:$C$49</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="702">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -2097,41 +2098,187 @@
     <t>being followed by git.</t>
   </si>
   <si>
-    <t>Adding all new files to local repository</t>
-  </si>
-  <si>
     <t>git add .</t>
   </si>
   <si>
-    <t>Git init labels a directory to be tracked by git</t>
-  </si>
-  <si>
     <t>git init</t>
   </si>
   <si>
     <t>This command checks the whole laravel directory to be tracked with git</t>
   </si>
   <si>
-    <t>git add   thisfile.php</t>
-  </si>
-  <si>
-    <t>Registering changes to recently modified files or added files</t>
-  </si>
-  <si>
-    <t>git commit -m "Any description"</t>
-  </si>
-  <si>
     <t>GIT &amp; GITHUB: Helpful git tips</t>
   </si>
   <si>
-    <t>Adding a specific file to local repository (useless)</t>
+    <t>IT IS RECOMMENDED TO USE POWERSHELL FOR MANAGING GIT FROM TERMINAL</t>
+  </si>
+  <si>
+    <t>Interpreting git status</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>somefile.php</t>
+  </si>
+  <si>
+    <t>anoterfile.php</t>
+  </si>
+  <si>
+    <t>Red text: file is not being tracked, when commiting changes won't be saved</t>
+  </si>
+  <si>
+    <t>Green text: tracked file.  Changes will be registered after commiting</t>
+  </si>
+  <si>
+    <t>Nothing to commit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>laravel&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for command line</t>
+    </r>
+  </si>
+  <si>
+    <t>REMEMBER THAT THERE IS ALWAYS A RISK OF CONFLICTS WHEN SYNCING</t>
+  </si>
+  <si>
+    <t>git pull origin master</t>
+  </si>
+  <si>
+    <t>git push -u origin master</t>
+  </si>
+  <si>
+    <t>git push origin master</t>
+  </si>
+  <si>
+    <t>git push origin master --force</t>
+  </si>
+  <si>
+    <t>NOT RECOMMENDED SINCE THIS DELETES REMOTE REPOSITORIES COMMITS</t>
+  </si>
+  <si>
+    <t>Forcing a change from local to remote repository</t>
+  </si>
+  <si>
+    <t>RESOLVING CONFLICTS</t>
+  </si>
+  <si>
+    <t>1. Make contact with the one who is simultaneously working on same file.</t>
+  </si>
+  <si>
+    <t>2. It is better to keep remote and modify local.  SAVE LOCAL IN A TEMPORARY DIFFERENT FILE.</t>
+  </si>
+  <si>
+    <t>3. Force pull remote as mentioned. BE SURE TO SAVE YOUR CHANGES IN A TEMPORARY DIFFERENT FILE</t>
+  </si>
+  <si>
+    <t>git fetch --all</t>
+  </si>
+  <si>
+    <t>git reset --hard origin/master</t>
+  </si>
+  <si>
+    <t>FAST git commit</t>
+  </si>
+  <si>
+    <t>Cmt. name</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>git commit -m "first commit"</t>
+  </si>
+  <si>
+    <t>testtwo</t>
+  </si>
+  <si>
+    <t>Go to github and create repository called</t>
+  </si>
+  <si>
+    <t>alejoto</t>
+  </si>
+  <si>
+    <t>STARTING GIT AND GITHUB SCENARIO (DO THIS ONLY ONCE)</t>
+  </si>
+  <si>
+    <t>SYNCING LOCAL AND REMOTE REPOSITORIES</t>
+  </si>
+  <si>
+    <t>BEFORE START WORKING DO ALWAYS A PULL REQUEST</t>
+  </si>
+  <si>
+    <t>sometimes password is requested.  After giving password, copy paste next line, no matter if machine is still thinking</t>
+  </si>
+  <si>
+    <t>second branch test</t>
+  </si>
+  <si>
+    <t>Branch name</t>
+  </si>
+  <si>
+    <t>All changes after doing this wont be registered on master (main) repository.  If someone syncs remote repo no changes will be catched from this branch</t>
+  </si>
+  <si>
+    <t>tracking changes on new branch</t>
+  </si>
+  <si>
+    <t>commit msg</t>
+  </si>
+  <si>
+    <t>This is not ideal because if possible each coll should be working on his own branch</t>
+  </si>
+  <si>
+    <t>After finishing changes in branch, adding changes to main repo is easy</t>
+  </si>
+  <si>
+    <t>git checkout master</t>
+  </si>
+  <si>
+    <t>After testing everything working fine it is advisable to delete branch</t>
+  </si>
+  <si>
+    <t>VERIFY WITH PROJECT COORDINATOR IF BRANCHES ARE GOING TO BE DELETED.  NOT RECOMMENDED.</t>
+  </si>
+  <si>
+    <t>WORKING WITH BRANCHES (useful when many colls are on same project)</t>
+  </si>
+  <si>
+    <t>alias phpunit='vendor/bin/phpunit'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2337,8 +2484,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2444,6 +2636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2718,7 +2916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2810,10 +3008,6 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2823,6 +3017,21 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4046,16 +4255,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>24383</xdr:rowOff>
+      <xdr:rowOff>148208</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4066,7 +4275,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8562975" y="171450"/>
+          <a:off x="7858125" y="295275"/>
           <a:ext cx="914400" cy="995933"/>
           <a:chOff x="9210675" y="461392"/>
           <a:chExt cx="914400" cy="995933"/>
@@ -4549,11 +4758,11 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="94" t="s">
         <v>595</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="78" t="s">
@@ -4564,26 +4773,26 @@
       <c r="B6" s="78"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="94" t="s">
         <v>598</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="94" t="s">
         <v>603</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="85" t="s">
-        <v>661</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
+      <c r="B11" s="94" t="s">
+        <v>656</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5302,10 +5511,10 @@
       <c r="B12" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="97" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="86"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
@@ -9606,10 +9815,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J23"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9617,115 +9826,521 @@
     <col min="1" max="16384" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G2" s="89" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="G3" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="G3" s="88" t="s">
+        <v>665</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="98" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="107" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="105" t="str">
+        <f>"cd "&amp;C7</f>
+        <v>cd testtwo</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>654</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="42" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="95" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>656</v>
-      </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="C10" s="105" t="s">
+        <v>653</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>682</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
+        <v>684</v>
+      </c>
+      <c r="F13" s="106" t="str">
+        <f>C7</f>
+        <v>testtwo</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="105" t="str">
+        <f>"git remote add origin https://github.com/alejoto/"&amp;C7&amp;".git"</f>
+        <v>git remote add origin https://github.com/alejoto/testtwo.git</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>685</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="105"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="107" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>667</v>
+      </c>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="74" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>653</v>
+      </c>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="G24" s="74" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="105" t="str">
+        <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
+        <v>git commit -m "second branch test"</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="G25" s="74" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="105" t="s">
+        <v>668</v>
+      </c>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="105" t="s">
+        <v>667</v>
+      </c>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="K32" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" s="93" t="s">
+        <v>670</v>
+      </c>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="105" t="s">
+        <v>677</v>
+      </c>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="105" t="s">
+        <v>678</v>
+      </c>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="99" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="42" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="95" t="s">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C40" s="105" t="s">
         <v>648</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="99" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="103" t="s">
+        <v>659</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>660</v>
+      </c>
+      <c r="D42" s="100"/>
+      <c r="E42" s="42" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="103" t="s">
+        <v>659</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>661</v>
+      </c>
+      <c r="D43" s="100"/>
+      <c r="E43" s="42" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="103"/>
+      <c r="C44" s="103" t="s">
+        <v>664</v>
+      </c>
+      <c r="D44" s="103"/>
+      <c r="E44" s="42" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="107" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="42" t="s">
+        <v>691</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="D48" s="43"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="105" t="str">
+        <f>"git branch "&amp;C48</f>
+        <v>git branch two</v>
+      </c>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="105" t="str">
+        <f>"git checkout "&amp;C48</f>
+        <v>git checkout two</v>
+      </c>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="42" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="42" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="42" t="s">
+        <v>694</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>690</v>
+      </c>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="105" t="s">
         <v>653</v>
       </c>
-      <c r="G18" s="42" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="95" t="s">
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="95" t="s">
-        <v>654</v>
-      </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="G19" s="96" t="s">
+      <c r="C56" s="105" t="str">
+        <f>"git commit -m "&amp;$A$1&amp;E54&amp;$A$1</f>
+        <v>git commit -m "second branch test"</v>
+      </c>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="105" t="str">
+        <f>"git push origin "&amp;C48</f>
+        <v>git push origin two</v>
+      </c>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="105" t="str">
+        <f>"git pull origin "&amp;C48</f>
+        <v>git pull origin two</v>
+      </c>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="42" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="42" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="105" t="s">
+        <v>697</v>
+      </c>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="105" t="str">
+        <f>"git merge "&amp;C48</f>
+        <v>git merge two</v>
+      </c>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="105" t="s">
+        <v>669</v>
+      </c>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="42" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="42" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="97" t="s">
-        <v>658</v>
-      </c>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="95" t="s">
-        <v>660</v>
-      </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
+      <c r="C68" s="93" t="str">
+        <f>"git branch -d "&amp;C48</f>
+        <v>git branch -d two</v>
+      </c>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="93" t="str">
+        <f>"git push origin --delete "&amp;C48</f>
+        <v>git push origin --delete two</v>
+      </c>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10070,6 +10685,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,32 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="15" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
     <sheet name="Start project" sheetId="21" r:id="rId2"/>
     <sheet name="view controllers" sheetId="22" r:id="rId3"/>
     <sheet name="tables and models" sheetId="23" r:id="rId4"/>
-    <sheet name="AutoLaravel v1" sheetId="6" r:id="rId5"/>
-    <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId6"/>
-    <sheet name="FormGeneratorV1" sheetId="12" r:id="rId7"/>
-    <sheet name="CRUD v1" sheetId="18" r:id="rId8"/>
-    <sheet name="Modal edit form" sheetId="19" r:id="rId9"/>
-    <sheet name="imperfect update v1" sheetId="20" r:id="rId10"/>
-    <sheet name="inline ajax edit v1" sheetId="14" r:id="rId11"/>
-    <sheet name="amChartsv1" sheetId="17" r:id="rId12"/>
-    <sheet name="laravelAuth v1" sheetId="7" r:id="rId13"/>
-    <sheet name="Laravel mail v1" sheetId="10" r:id="rId14"/>
-    <sheet name="Controller generator" sheetId="11" state="hidden" r:id="rId15"/>
-    <sheet name="table relations v1" sheetId="13" r:id="rId16"/>
-    <sheet name="pending to automate" sheetId="16" r:id="rId17"/>
-    <sheet name="error ptscreen" sheetId="9" r:id="rId18"/>
-    <sheet name="git commands" sheetId="24" r:id="rId19"/>
-    <sheet name="Test unit v1" sheetId="25" r:id="rId20"/>
+    <sheet name="query automation v1" sheetId="26" r:id="rId5"/>
+    <sheet name="AutoLaravel v1" sheetId="6" r:id="rId6"/>
+    <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId7"/>
+    <sheet name="FormGeneratorV1" sheetId="12" r:id="rId8"/>
+    <sheet name="CRUD v1" sheetId="18" r:id="rId9"/>
+    <sheet name="Modal edit form" sheetId="19" r:id="rId10"/>
+    <sheet name="imperfect update v1" sheetId="20" r:id="rId11"/>
+    <sheet name="inline ajax edit v1" sheetId="14" r:id="rId12"/>
+    <sheet name="amChartsv1" sheetId="17" r:id="rId13"/>
+    <sheet name="laravelAuth v1" sheetId="7" r:id="rId14"/>
+    <sheet name="Laravel mail v1" sheetId="10" r:id="rId15"/>
+    <sheet name="Controller generator" sheetId="11" state="hidden" r:id="rId16"/>
+    <sheet name="table relations v1" sheetId="13" r:id="rId17"/>
+    <sheet name="pending to automate" sheetId="16" r:id="rId18"/>
+    <sheet name="error ptscreen" sheetId="9" r:id="rId19"/>
+    <sheet name="git commands" sheetId="24" r:id="rId20"/>
+    <sheet name="Test unit v1" sheetId="25" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'inline ajax edit v1'!$C$48:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'inline ajax edit v1'!$C$48:$C$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="737">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -1891,12 +1892,6 @@
     <t>//Next lines: 11 to 20</t>
   </si>
   <si>
-    <t>Prioritize this task</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
     <t>Deprecated.  Just copy / paste edry content in new project</t>
   </si>
   <si>
@@ -2026,9 +2021,6 @@
     <t xml:space="preserve">MORE ATTRIBUTES CAN BE ADDED, SUCH AS CC AND CCO.  </t>
   </si>
   <si>
-    <t>tmst_reset</t>
-  </si>
-  <si>
     <t>$link=</t>
   </si>
   <si>
@@ -2051,9 +2043,6 @@
   </si>
   <si>
     <t>trapeadora</t>
-  </si>
-  <si>
-    <t>tables</t>
   </si>
   <si>
     <t>field3</t>
@@ -2273,12 +2262,142 @@
   <si>
     <t>alias phpunit='vendor/bin/phpunit'</t>
   </si>
+  <si>
+    <t>STARTING WITH LARAVEL TEST DRIVEN PROGRAMMING</t>
+  </si>
+  <si>
+    <t>First of all create alias on terminal (recommended powershell)</t>
+  </si>
+  <si>
+    <t>Query automation</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>condition operator</t>
+  </si>
+  <si>
+    <t>Query name</t>
+  </si>
+  <si>
+    <t>myvotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    );</t>
+  </si>
+  <si>
+    <t>'something'</t>
+  </si>
+  <si>
+    <t>$user</t>
+  </si>
+  <si>
+    <t>where('</t>
+  </si>
+  <si>
+    <t>checkfield11</t>
+  </si>
+  <si>
+    <t>$none</t>
+  </si>
+  <si>
+    <t>Fields 11 to 20</t>
+  </si>
+  <si>
+    <t>As model scopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On app/model folder open file </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As php query </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(controller, router and views)</t>
+    </r>
+  </si>
+  <si>
+    <t>class User extends Eloquent {</t>
+  </si>
+  <si>
+    <t>Scope name</t>
+  </si>
+  <si>
+    <t>public function</t>
+  </si>
+  <si>
+    <t>thechoosen</t>
+  </si>
+  <si>
+    <t>($query)</t>
+  </si>
+  <si>
+    <t>$query-&gt;where('</t>
+  </si>
+  <si>
+    <t>Test unit</t>
+  </si>
+  <si>
+    <t>In CMD</t>
+  </si>
+  <si>
+    <t>In POWERSHELL</t>
+  </si>
+  <si>
+    <t>Set-Alias phpunit vendor/bin/phpunit</t>
+  </si>
+  <si>
+    <t>solla2011</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>b_teamchecker</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>unavailable</t>
+  </si>
+  <si>
+    <t>Unavailable tasks (adopted by others)</t>
+  </si>
+  <si>
+    <t>unavailable module</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2529,8 +2648,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2642,6 +2769,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF122D46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,7 +3049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3017,10 +3150,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3032,6 +3161,15 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3064,6 +3202,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF122D46"/>
       <color rgb="FF00642D"/>
       <color rgb="FF08233A"/>
       <color rgb="FF00FF00"/>
@@ -3759,6 +3898,230 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129158</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8067675" y="1038225"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -3979,7 +4342,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4203,7 +4566,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4251,7 +4614,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4439,6 +4802,231 @@
             <a:schemeClr val="tx1">
               <a:lumMod val="85000"/>
               <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81533</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8010525" y="2133600"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
@@ -4739,11 +5327,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E11"/>
+  <dimension ref="B3:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4754,60 +5340,74 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="78" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="94" t="s">
-        <v>595</v>
-      </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="110" t="s">
+        <v>593</v>
+      </c>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="78" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="78"/>
+      <c r="B6" s="110" t="s">
+        <v>700</v>
+      </c>
+      <c r="C6" s="112"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="94" t="s">
-        <v>598</v>
-      </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="94" t="s">
-        <v>603</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="94" t="s">
-        <v>656</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+      <c r="B7" s="78"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="110" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="110" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="110" t="s">
+        <v>652</v>
+      </c>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="78" t="s">
+        <v>726</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:D9"/>
+  <mergeCells count="5">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7:D7" location="'AutoLaravel v1'!C13" display="Create new laravel project"/>
+    <hyperlink ref="B8:D8" location="'AutoLaravel v1'!C13" display="Create new laravel project"/>
     <hyperlink ref="B3" location="'Start project'!A1" display="Start a project"/>
     <hyperlink ref="B4" location="'view controllers'!A1" display="View and controllers creation"/>
     <hyperlink ref="B5" location="'tables and models'!A1" display="Tables and models"/>
-    <hyperlink ref="B9:D9" location="'Laravel mail v1'!A1" display="Mail sender constructor"/>
-    <hyperlink ref="B11:D11" location="'git commands'!A1" display="GIT &amp; GITHUB: Helpful git tips"/>
+    <hyperlink ref="B10:D10" location="'Laravel mail v1'!A1" display="Mail sender constructor"/>
+    <hyperlink ref="B12:D12" location="'git commands'!A1" display="GIT &amp; GITHUB: Helpful git tips"/>
+    <hyperlink ref="B6:C6" location="'query automation v1'!A1" display="Query automation"/>
+    <hyperlink ref="B15" location="'Test unit v1'!A1" display="Test unit"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4815,6 +5415,470 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="73" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="74" t="str">
+        <f>'AutoLaravel v1'!D37</f>
+        <v>trapear</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;E9&amp;A3&amp;" "&amp;E10</f>
+        <v>php artisan generate:view --path="app/views/trapear" unavailable</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>735</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>E10</f>
+        <v>unavailable</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="46" t="str">
+        <f>A1&amp;C13&amp;A2</f>
+        <v>&lt;div id='unavailable' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="str">
+        <f>"        &lt;h3 class='text-success'&gt;"&amp;E12&amp;"&lt;/h3&gt;"</f>
+        <v xml:space="preserve">        &lt;h3 class='text-success'&gt;Unavailable tasks (adopted by others)&lt;/h3&gt;</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>557</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="46" t="s">
+        <v>560</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D37" s="46" t="str">
+        <f>"&lt;a href='#' id='openmodal_"&amp;C13&amp;"'&gt;"&amp;C13&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href='#' id='openmodal_unavailable'&gt;unavailable&lt;/a&gt;</v>
+      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="D38" s="46" t="str">
+        <f>"@include('"&amp;E9&amp;"."&amp;E10&amp;"')"</f>
+        <v>@include('trapear.unavailable')</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="46" t="str">
+        <f>"$('#openmodal_"&amp;C13&amp;"').click(function(e){"</f>
+        <v>$('#openmodal_unavailable').click(function(e){</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="46" t="str">
+        <f>"    $('#"&amp;C13&amp;"').modal('show');"</f>
+        <v xml:space="preserve">    $('#unavailable').modal('show');</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L44"/>
   <sheetViews>
@@ -5381,7 +6445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q246"/>
   <sheetViews>
@@ -5511,10 +6575,10 @@
       <c r="B12" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="113" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="95"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
@@ -7847,7 +8911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B9"/>
   <sheetViews>
@@ -7895,7 +8959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K39"/>
   <sheetViews>
@@ -8094,7 +9158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
@@ -8117,18 +9181,18 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="67" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -8150,7 +9214,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="67" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -8161,7 +9225,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="67" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -8178,27 +9242,27 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>605</v>
-      </c>
-      <c r="E13" s="43" t="s">
+      <c r="F13" s="65" t="s">
+        <v>606</v>
+      </c>
+      <c r="G13" s="43" t="s">
         <v>609</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>608</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>611</v>
       </c>
       <c r="H13" s="12" t="str">
         <f>E13&amp;"."&amp;G13</f>
@@ -8222,33 +9286,33 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G18" s="46" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H18" s="42"/>
       <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="75" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="43"/>
@@ -8268,7 +9332,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="75" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="43"/>
@@ -8350,22 +9414,22 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G27" s="46" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="43"/>
@@ -8385,7 +9449,7 @@
         <v>160</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="43"/>
@@ -8402,7 +9466,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -8438,10 +9502,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="43"/>
@@ -8484,7 +9548,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" s="67" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -8495,7 +9559,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C39" s="67" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="67"/>
@@ -8506,7 +9570,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40" s="67" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="67"/>
@@ -8529,7 +9593,7 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -8554,7 +9618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -8695,7 +9759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
@@ -9674,7 +10738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -9786,7 +10850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
@@ -9810,542 +10874,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N69"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="42"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G2" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
-        <v>647</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>665</v>
-      </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="107" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
-        <v>681</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="D7" s="43"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="105" t="str">
-        <f>"cd "&amp;C7</f>
-        <v>cd testtwo</v>
-      </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="105" t="s">
-        <v>654</v>
-      </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="42" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="105" t="s">
-        <v>653</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="105" t="s">
-        <v>682</v>
-      </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
-        <v>684</v>
-      </c>
-      <c r="F13" s="106" t="str">
-        <f>C7</f>
-        <v>testtwo</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="105" t="str">
-        <f>"git remote add origin https://github.com/alejoto/"&amp;C7&amp;".git"</f>
-        <v>git remote add origin https://github.com/alejoto/testtwo.git</v>
-      </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="105" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>685</v>
-      </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="107" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="105" t="s">
-        <v>667</v>
-      </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>680</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>690</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="74" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="105" t="s">
-        <v>653</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="G24" s="74" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="105" t="str">
-        <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
-        <v>git commit -m "second branch test"</v>
-      </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="G25" s="74" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="105" t="s">
-        <v>668</v>
-      </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="105" t="s">
-        <v>667</v>
-      </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="42" t="s">
-        <v>674</v>
-      </c>
-      <c r="K31" s="42" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
-        <v>675</v>
-      </c>
-      <c r="K32" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="L32" s="93" t="s">
-        <v>670</v>
-      </c>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
-        <v>676</v>
-      </c>
-      <c r="K33" s="42" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="105" t="s">
-        <v>677</v>
-      </c>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="105" t="s">
-        <v>678</v>
-      </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="99" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="42" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="105" t="s">
-        <v>648</v>
-      </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="99" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="103" t="s">
-        <v>659</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>660</v>
-      </c>
-      <c r="D42" s="100"/>
-      <c r="E42" s="42" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="103" t="s">
-        <v>659</v>
-      </c>
-      <c r="C43" s="102" t="s">
-        <v>661</v>
-      </c>
-      <c r="D43" s="100"/>
-      <c r="E43" s="42" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="103"/>
-      <c r="C44" s="103" t="s">
-        <v>664</v>
-      </c>
-      <c r="D44" s="103"/>
-      <c r="E44" s="42" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="107" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="42" t="s">
-        <v>691</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>575</v>
-      </c>
-      <c r="D48" s="43"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="105" t="str">
-        <f>"git branch "&amp;C48</f>
-        <v>git branch two</v>
-      </c>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="105" t="str">
-        <f>"git checkout "&amp;C48</f>
-        <v>git checkout two</v>
-      </c>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="42" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="42" t="s">
-        <v>694</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>690</v>
-      </c>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="105" t="s">
-        <v>653</v>
-      </c>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="105" t="str">
-        <f>"git commit -m "&amp;$A$1&amp;E54&amp;$A$1</f>
-        <v>git commit -m "second branch test"</v>
-      </c>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="105" t="str">
-        <f>"git push origin "&amp;C48</f>
-        <v>git push origin two</v>
-      </c>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="105" t="str">
-        <f>"git pull origin "&amp;C48</f>
-        <v>git pull origin two</v>
-      </c>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="42" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="42" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="105" t="s">
-        <v>697</v>
-      </c>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="105" t="str">
-        <f>"git merge "&amp;C48</f>
-        <v>git merge two</v>
-      </c>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="105" t="s">
-        <v>669</v>
-      </c>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="42" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="42" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="93" t="str">
-        <f>"git branch -d "&amp;C48</f>
-        <v>git branch -d two</v>
-      </c>
-      <c r="D68" s="108"/>
-      <c r="E68" s="108"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="93" t="str">
-        <f>"git push origin --delete "&amp;C48</f>
-        <v>git push origin --delete two</v>
-      </c>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10458,7 +10986,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -10513,7 +11041,7 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -10597,7 +11125,7 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B33" s="80" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -10687,10 +11215,580 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>643</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>661</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="94" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="103" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>677</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="101" t="str">
+        <f>"cd "&amp;C7</f>
+        <v>cd testtwo</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>650</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="42" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>649</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>678</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="F13" s="102" t="str">
+        <f>C7</f>
+        <v>testtwo</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="101" t="str">
+        <f>"git remote add origin https://github.com/alejoto/"&amp;C7&amp;".git"</f>
+        <v>git remote add origin https://github.com/alejoto/testtwo.git</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>664</v>
+      </c>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>681</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="103" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>663</v>
+      </c>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>736</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="74" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>649</v>
+      </c>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="G24" s="74" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="101" t="str">
+        <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
+        <v>git commit -m "unavailable module"</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="G25" s="74" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>664</v>
+      </c>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>681</v>
+      </c>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="91"/>
+      <c r="C28" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>663</v>
+      </c>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="91"/>
+      <c r="C31" s="101" t="s">
+        <v>681</v>
+      </c>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="91"/>
+      <c r="C32" s="101" t="s">
+        <v>730</v>
+      </c>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="42" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="42" t="s">
+        <v>671</v>
+      </c>
+      <c r="K37" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="L37" s="93" t="s">
+        <v>666</v>
+      </c>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>673</v>
+      </c>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>674</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="95" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="42" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>644</v>
+      </c>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="95" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="99" t="s">
+        <v>655</v>
+      </c>
+      <c r="C47" s="97" t="s">
+        <v>656</v>
+      </c>
+      <c r="D47" s="96"/>
+      <c r="E47" s="42" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="99" t="s">
+        <v>655</v>
+      </c>
+      <c r="C48" s="98" t="s">
+        <v>657</v>
+      </c>
+      <c r="D48" s="96"/>
+      <c r="E48" s="42" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="99"/>
+      <c r="C49" s="99" t="s">
+        <v>660</v>
+      </c>
+      <c r="D49" s="99"/>
+      <c r="E49" s="42" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="103" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="D53" s="43"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="101" t="str">
+        <f>"git branch "&amp;C53</f>
+        <v>git branch two</v>
+      </c>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="101" t="str">
+        <f>"git checkout "&amp;C53</f>
+        <v>git checkout two</v>
+      </c>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="42" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="42" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="42" t="s">
+        <v>690</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>686</v>
+      </c>
+      <c r="F59" s="43"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="101" t="s">
+        <v>649</v>
+      </c>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="101" t="str">
+        <f>"git commit -m "&amp;$A$1&amp;E59&amp;$A$1</f>
+        <v>git commit -m "second branch test"</v>
+      </c>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="101" t="str">
+        <f>"git push origin "&amp;C53</f>
+        <v>git push origin two</v>
+      </c>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="101" t="str">
+        <f>"git pull origin "&amp;C53</f>
+        <v>git pull origin two</v>
+      </c>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="42" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="42" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="101" t="s">
+        <v>693</v>
+      </c>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="101" t="str">
+        <f>"git merge "&amp;C53</f>
+        <v>git merge two</v>
+      </c>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="101" t="s">
+        <v>665</v>
+      </c>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="42" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="42" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="93" t="str">
+        <f>"git branch -d "&amp;C53</f>
+        <v>git branch -d two</v>
+      </c>
+      <c r="D73" s="104"/>
+      <c r="E73" s="104"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="93" t="str">
+        <f>"git push origin --delete "&amp;C53</f>
+        <v>git push origin --delete two</v>
+      </c>
+      <c r="D74" s="104"/>
+      <c r="E74" s="104"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10698,13 +11796,53 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
-        <v>701</v>
-      </c>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>697</v>
+      </c>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>729</v>
+      </c>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10712,7 +11850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -10809,7 +11947,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="73" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
@@ -10836,7 +11974,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -10867,7 +12005,7 @@
     <row r="20" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -10919,7 +12057,7 @@
     <row r="29" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -10939,7 +12077,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>636</v>
+        <v>731</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>376</v>
@@ -10949,7 +12087,7 @@
       </c>
       <c r="H33" s="62" t="str">
         <f>D33</f>
-        <v>trapear</v>
+        <v>c3</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -10958,18 +12096,18 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>637</v>
+        <v>732</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>E33&amp;D33&amp;"/"</f>
-        <v>app/views/trapear/</v>
+        <v>app/views/c3/</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>380</v>
       </c>
       <c r="H34" s="62" t="str">
         <f>D34&amp;".blade.php"</f>
-        <v>trapeadora.blade.php</v>
+        <v>b_teamchecker.blade.php</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -10978,7 +12116,7 @@
       </c>
       <c r="C35" s="17" t="str">
         <f>"mkdir "&amp;E33&amp;D33</f>
-        <v>mkdir app/views/trapear</v>
+        <v>mkdir app/views/c3</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -10992,7 +12130,7 @@
       </c>
       <c r="C36" s="17" t="str">
         <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D33&amp;B3&amp;" "&amp;D34</f>
-        <v>php artisan generate:view --path="app/views/trapear" trapeadora</v>
+        <v>php artisan generate:view --path="app/views/c3" b_teamchecker</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -11000,7 +12138,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="12" t="str">
         <f>UPPER(LEFT(D33,1))&amp;RIGHT(D33,LEN(D33)-1)&amp;"Controller"</f>
-        <v>TrapearController</v>
+        <v>C3Controller</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -11009,7 +12147,7 @@
       </c>
       <c r="C37" s="17" t="str">
         <f>A4&amp;B5&amp;H36</f>
-        <v>php artisan generate:controller TrapearController</v>
+        <v>php artisan generate:controller C3Controller</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -11026,7 +12164,7 @@
       </c>
       <c r="C39" s="19" t="str">
         <f>E34&amp;H34</f>
-        <v>app/views/trapear/trapeadora.blade.php</v>
+        <v>app/views/c3/b_teamchecker.blade.php</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="10" t="s">
@@ -11109,11 +12247,11 @@
       </c>
       <c r="D48" s="10" t="str">
         <f>" app/Controllers/"&amp;H36&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/TrapearController.php</v>
+        <v xml:space="preserve"> app/Controllers/C3Controller.php</v>
       </c>
       <c r="G48" s="12" t="str">
         <f>UPPER(LEFT(D34,1))&amp;RIGHT(D34,LEN(D34)-1)</f>
-        <v>Trapeadora</v>
+        <v>B_teamchecker</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>382</v>
@@ -11133,7 +12271,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="46" t="str">
         <f>"    return View::make('"&amp;D33&amp;IF(D33&lt;&gt;"",".","")&amp;D34&amp;"'"&amp;")"</f>
-        <v xml:space="preserve">    return View::make('trapear.trapeadora')</v>
+        <v xml:space="preserve">    return View::make('c3.b_teamchecker')</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
@@ -11144,7 +12282,7 @@
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="46" t="str">
         <f>"      -&gt;with('title','"&amp;D34&amp;"');"</f>
-        <v xml:space="preserve">      -&gt;with('title','trapeadora');</v>
+        <v xml:space="preserve">      -&gt;with('title','b_teamchecker');</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -11176,7 +12314,7 @@
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="46" t="str">
         <f>B6&amp;D33&amp;C1&amp;H36&amp;C2</f>
-        <v>Route::controller('trapear','TrapearController');</v>
+        <v>Route::controller('c3','C3Controller');</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -11190,7 +12328,7 @@
     </row>
     <row r="57" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B57" s="81" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C57" s="19"/>
       <c r="E57" s="19"/>
@@ -11255,8 +12393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C45"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -11352,7 +12490,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="73" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
@@ -11379,7 +12517,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -11410,7 +12548,7 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -11470,7 +12608,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D31" s="9"/>
       <c r="F31" s="46" t="str">
@@ -11537,15 +12675,15 @@
         <v>62</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>638</v>
+        <v>262</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>table</v>
+        <v>thetask</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Table</v>
+        <v>Thetask</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
@@ -11580,7 +12718,7 @@
         <v>63</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>93</v>
@@ -11588,7 +12726,9 @@
       <c r="F38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="9"/>
+      <c r="G38" s="9" t="s">
+        <v>714</v>
+      </c>
       <c r="H38" s="9"/>
       <c r="J38" s="12">
         <f>IF(C38="",0,1)</f>
@@ -11596,7 +12736,7 @@
       </c>
       <c r="K38" s="12">
         <f>IF(G38="",0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="12" t="s">
         <v>92</v>
@@ -11626,7 +12766,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>93</v>
@@ -11672,7 +12812,7 @@
         <v>65</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>92</v>
@@ -11715,7 +12855,7 @@
         <v>66</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>93</v>
@@ -11758,7 +12898,7 @@
         <v>67</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>92</v>
@@ -11801,7 +12941,7 @@
         <v>68</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>93</v>
@@ -11844,7 +12984,7 @@
         <v>69</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>92</v>
@@ -11887,7 +13027,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>93</v>
@@ -12016,7 +13156,7 @@
       </c>
       <c r="C51" s="17" t="str">
         <f>A4&amp;A5&amp;A6&amp;D36&amp;B1&amp;M33</f>
-        <v>php artisan generate:migration create_tables_table --fields="pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer,field6:string,field7:integer,field8:string"</v>
+        <v>php artisan generate:migration create_thetasks_table --fields="pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer,field6:string,field7:integer,field8:string"</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -12041,7 +13181,7 @@
       </c>
       <c r="C53" s="17" t="str">
         <f>A4&amp;B4&amp;G36</f>
-        <v>php artisan generate:model Table</v>
+        <v>php artisan generate:model Thetask</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -12062,7 +13202,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12" t="str">
         <f>D36</f>
-        <v>tables</v>
+        <v>thetasks</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -12070,7 +13210,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>629</v>
+        <v>733</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -12078,7 +13218,7 @@
         <v>261</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -12087,7 +13227,7 @@
       </c>
       <c r="C60" s="17" t="str">
         <f>C3&amp;D58&amp;C4&amp;D57&amp;C5&amp;C6&amp;D58&amp;":"&amp;D59&amp;C6</f>
-        <v>php artisan generate:migration add_tmst_reset_to_tables_table --fields="tmst_reset:string"</v>
+        <v>php artisan generate:migration add_user_id_to_thetasks_table --fields="user_id:integer"</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -12171,7 +13311,7 @@
     <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D47 H38:H47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D47 H38:H47 D59">
       <formula1>$M$38:$M$47</formula1>
     </dataValidation>
   </dataValidations>
@@ -12182,6 +13322,621 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="42" t="str">
+        <f>IF('tables and models'!D36&lt;&gt;"",'tables and models'!D36,"")</f>
+        <v>thetasks</v>
+      </c>
+      <c r="E5" s="12" t="str">
+        <f>LEFT(C5,LEN(C5)-1)</f>
+        <v>thetask</v>
+      </c>
+      <c r="F5" s="12" t="str">
+        <f>UPPER(LEFT(E5,1))&amp;RIGHT(E5,LEN(E5)-1)</f>
+        <v>Thetask</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="42" t="str">
+        <f>IF('tables and models'!C38&lt;&gt;"",'tables and models'!C38,"")</f>
+        <v>pagename</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>703</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>711</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="42" t="str">
+        <f>IF('tables and models'!G38&lt;&gt;"",'tables and models'!G38,"")</f>
+        <v>checkfield11</v>
+      </c>
+      <c r="I9" s="106" t="s">
+        <v>703</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="42" t="str">
+        <f>IF('tables and models'!C39&lt;&gt;"",'tables and models'!C39,"")</f>
+        <v>pagedescription</v>
+      </c>
+      <c r="D10" s="106"/>
+      <c r="E10" s="43"/>
+      <c r="G10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="42" t="str">
+        <f>IF('tables and models'!G39&lt;&gt;"",'tables and models'!G39,"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="42" t="str">
+        <f>IF('tables and models'!C40&lt;&gt;"",'tables and models'!C40,"")</f>
+        <v>field3</v>
+      </c>
+      <c r="D11" s="106"/>
+      <c r="E11" s="43"/>
+      <c r="G11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="42" t="str">
+        <f>IF('tables and models'!G40&lt;&gt;"",'tables and models'!G40,"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="106"/>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="42" t="str">
+        <f>IF('tables and models'!C41&lt;&gt;"",'tables and models'!C41,"")</f>
+        <v>field4</v>
+      </c>
+      <c r="D12" s="106"/>
+      <c r="E12" s="43"/>
+      <c r="G12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="42" t="str">
+        <f>IF('tables and models'!G41&lt;&gt;"",'tables and models'!G41,"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="106"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="42" t="str">
+        <f>IF('tables and models'!C42&lt;&gt;"",'tables and models'!C42,"")</f>
+        <v>field5</v>
+      </c>
+      <c r="D13" s="106"/>
+      <c r="E13" s="43"/>
+      <c r="G13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="42" t="str">
+        <f>IF('tables and models'!G42&lt;&gt;"",'tables and models'!G42,"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="42" t="str">
+        <f>IF('tables and models'!C43&lt;&gt;"",'tables and models'!C43,"")</f>
+        <v>field6</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>703</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="42" t="str">
+        <f>IF('tables and models'!G43&lt;&gt;"",'tables and models'!G43,"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="106"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="42" t="str">
+        <f>IF('tables and models'!C44&lt;&gt;"",'tables and models'!C44,"")</f>
+        <v>field7</v>
+      </c>
+      <c r="D15" s="106"/>
+      <c r="E15" s="43"/>
+      <c r="G15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="42" t="str">
+        <f>IF('tables and models'!G44&lt;&gt;"",'tables and models'!G44,"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="106"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="42" t="str">
+        <f>IF('tables and models'!C45&lt;&gt;"",'tables and models'!C45,"")</f>
+        <v>field8</v>
+      </c>
+      <c r="D16" s="106"/>
+      <c r="E16" s="43"/>
+      <c r="G16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="42" t="str">
+        <f>IF('tables and models'!G45&lt;&gt;"",'tables and models'!G45,"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="106"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="42" t="str">
+        <f>IF('tables and models'!C46&lt;&gt;"",'tables and models'!C46,"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="106"/>
+      <c r="E17" s="43"/>
+      <c r="G17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="42" t="str">
+        <f>IF('tables and models'!G46&lt;&gt;"",'tables and models'!G46,"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="106"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="42" t="str">
+        <f>IF('tables and models'!C47&lt;&gt;"",'tables and models'!C47,"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="106"/>
+      <c r="E18" s="43"/>
+      <c r="G18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="42" t="str">
+        <f>IF('tables and models'!G47&lt;&gt;"",'tables and models'!G47,"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="106"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="109" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="D22" s="43"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="str">
+        <f>"    $"&amp;C22&amp;"    =    "&amp;F5&amp;"::"</f>
+        <v xml:space="preserve">    $myvotes    =    Thetask::</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="H24" s="10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="str">
+        <f>IF(D9&lt;&gt;"","        "&amp;IF(C8="column","",$A$2)&amp;$A$1&amp;C9&amp;"' , '"&amp;D9&amp;"'"&amp;E9&amp;")","")</f>
+        <v xml:space="preserve">        where('pagename' , '=''something')</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="H25" s="46" t="str">
+        <f>IF(I9&lt;&gt;"","        "&amp;IF(H8="column","",$A$2)&amp;$A$1&amp;H9&amp;"' , '"&amp;I9&amp;"'"&amp;J9&amp;")","")</f>
+        <v xml:space="preserve">        where('checkfield11' , '='$none)</v>
+      </c>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="str">
+        <f t="shared" ref="B26:B34" si="0">IF(D10&lt;&gt;"","        "&amp;IF(C9="column","",$A$2)&amp;$A$1&amp;C10&amp;"' , '"&amp;D10&amp;"'"&amp;E10&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="H26" s="46" t="str">
+        <f t="shared" ref="H26:H34" si="1">IF(I10&lt;&gt;"","        "&amp;IF(H9="column","",$A$2)&amp;$A$1&amp;H10&amp;"' , '"&amp;I10&amp;"'"&amp;J10&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="H27" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="H28" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="H29" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        -&gt;where('field6' , '='$user)</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="H30" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="H31" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="H32" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="H33" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="H34" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="109" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="E39" s="10" t="str">
+        <f>F5&amp;".php"</f>
+        <v>Thetask.php</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>723</v>
+      </c>
+      <c r="E40" s="12" t="str">
+        <f>LEFT(C40,LEN(C40)-1)</f>
+        <v>thechoose</v>
+      </c>
+      <c r="F40" s="12" t="str">
+        <f>UPPER(LEFT(E40,1))&amp;RIGHT(E40,LEN(E40)-1)</f>
+        <v>Thechoose</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="46" t="str">
+        <f>"    "&amp;A3&amp;"scope"&amp;F40&amp;B1&amp;" { return"</f>
+        <v xml:space="preserve">    public functionscopeThechoose($query) { return</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="46" t="str">
+        <f>"        "&amp;$B$2&amp;C9</f>
+        <v xml:space="preserve">        $query-&gt;where('pagename</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="40" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="39" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="39" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="39" t="s">
+        <v>706</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Only options from list" sqref="D9:D18 I9:I18">
+      <formula1>$B$56:$B$59</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S98"/>
   <sheetViews>
@@ -12280,7 +14035,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="73" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12330,7 +14085,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -12345,7 +14100,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -12465,7 +14220,7 @@
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>376</v>
@@ -12484,7 +14239,7 @@
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="9" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E38" s="19" t="str">
         <f>E37&amp;D37&amp;"/"</f>
@@ -12789,7 +14544,7 @@
         <v>62</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F68" s="12" t="str">
         <f>LEFT(D68,LEN(D68)-1)</f>
@@ -12832,7 +14587,7 @@
         <v>63</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>93</v>
@@ -12878,7 +14633,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>93</v>
@@ -12924,7 +14679,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D72" s="9"/>
       <c r="F72" s="10" t="s">
@@ -12965,7 +14720,7 @@
         <v>66</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D73" s="9"/>
       <c r="F73" s="10" t="s">
@@ -13006,7 +14761,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D74" s="9"/>
       <c r="F74" s="10" t="s">
@@ -13047,7 +14802,7 @@
         <v>68</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D75" s="9"/>
       <c r="F75" s="10" t="s">
@@ -13088,7 +14843,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D76" s="9"/>
       <c r="F76" s="10" t="s">
@@ -13129,7 +14884,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D77" s="9"/>
       <c r="F77" s="10" t="s">
@@ -13376,7 +15131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I66"/>
   <sheetViews>
@@ -13723,7 +15478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O112"/>
   <sheetViews>
@@ -15051,7 +16806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D29"/>
   <sheetViews>
@@ -15208,468 +16963,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-    </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="73" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="E9" s="74" t="str">
-        <f>'AutoLaravel v1'!D37</f>
-        <v>trapear</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="17" t="str">
-        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;E9&amp;A3&amp;" "&amp;E10</f>
-        <v>php artisan generate:view --path="app/views/trapear" team</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>584</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>E10</f>
-        <v>team</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="str">
-        <f>A1&amp;C13&amp;A2</f>
-        <v>&lt;div id='team' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
-        <v>552</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
-        <v>550</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="str">
-        <f>"        &lt;h3 class='text-success'&gt;"&amp;E12&amp;"&lt;/h3&gt;"</f>
-        <v xml:space="preserve">        &lt;h3 class='text-success'&gt;Prioritize this task&lt;/h3&gt;</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
-        <v>553</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
-        <v>554</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
-        <v>555</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
-        <v>557</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
-        <v>560</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
-        <v>561</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
-        <v>562</v>
-      </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="46" t="s">
-        <v>563</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
-        <v>564</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="46" t="s">
-        <v>565</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="D37" s="46" t="str">
-        <f>"&lt;a href='#' id='openmodal_"&amp;C13&amp;"'&gt;"&amp;C13&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href='#' id='openmodal_team'&gt;team&lt;/a&gt;</v>
-      </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="D38" s="46" t="str">
-        <f>"@include('"&amp;E9&amp;"."&amp;E10&amp;"')"</f>
-        <v>@include('trapear.team')</v>
-      </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="46" t="str">
-        <f>"$('#openmodal_"&amp;C13&amp;"').click(function(e){"</f>
-        <v>$('#openmodal_team').click(function(e){</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="46" t="s">
-        <v>569</v>
-      </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="46" t="str">
-        <f>"    $('#"&amp;C13&amp;"').modal('show');"</f>
-        <v xml:space="preserve">    $('#team').modal('show');</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="749">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -2031,12 +2031,6 @@
   </si>
   <si>
     <t xml:space="preserve">            -&gt;subject($maildata['subject']);</t>
-  </si>
-  <si>
-    <t>healmy5_health</t>
-  </si>
-  <si>
-    <t>anita</t>
   </si>
   <si>
     <t>trapear</t>
@@ -2227,9 +2221,6 @@
     <t>sometimes password is requested.  After giving password, copy paste next line, no matter if machine is still thinking</t>
   </si>
   <si>
-    <t>second branch test</t>
-  </si>
-  <si>
     <t>Branch name</t>
   </si>
   <si>
@@ -2309,9 +2300,6 @@
   </si>
   <si>
     <t>where('</t>
-  </si>
-  <si>
-    <t>checkfield11</t>
   </si>
   <si>
     <t>$none</t>
@@ -2390,7 +2378,55 @@
     <t>Unavailable tasks (adopted by others)</t>
   </si>
   <si>
-    <t>unavailable module</t>
+    <t>healmy5_dose</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>localdrugs</t>
+  </si>
+  <si>
+    <t>genericname</t>
+  </si>
+  <si>
+    <t>active_numerator</t>
+  </si>
+  <si>
+    <t>active_ingredient_unit</t>
+  </si>
+  <si>
+    <t>dosage_form</t>
+  </si>
+  <si>
+    <t>commercial_name</t>
+  </si>
+  <si>
+    <t>application_route</t>
+  </si>
+  <si>
+    <t>labeler</t>
+  </si>
+  <si>
+    <t>fdaNDC_id</t>
+  </si>
+  <si>
+    <t>fixing request bug</t>
+  </si>
+  <si>
+    <t>git diff HEAD</t>
+  </si>
+  <si>
+    <t>if whishing to see changes type</t>
+  </si>
+  <si>
+    <t>from controller to model</t>
+  </si>
+  <si>
+    <t>git log --name-status HEAD^..HEAD</t>
+  </si>
+  <si>
+    <t>Displaying changed files with last commit</t>
   </si>
 </sst>
 </file>
@@ -5329,7 +5365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5357,7 +5395,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="110" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C6" s="112"/>
     </row>
@@ -5381,14 +5419,14 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="110" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C12" s="112"/>
       <c r="D12" s="112"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="78" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -5472,7 +5510,7 @@
         <v>546</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5494,7 +5532,7 @@
         <v>549</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -9162,9 +9200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
-    </sheetView>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9332,7 +9368,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="75" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="43"/>
@@ -9429,7 +9465,7 @@
         <v>622</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="43"/>
@@ -10882,7 +10918,7 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F9"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10986,7 +11022,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>632</v>
+        <v>573</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -11018,7 +11054,7 @@
       </c>
       <c r="C16" s="17" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir anita</v>
+        <v>mkdir t3</v>
       </c>
       <c r="D16" s="77"/>
       <c r="E16" s="17"/>
@@ -11031,7 +11067,7 @@
       </c>
       <c r="C17" s="17" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd anita</v>
+        <v>cd t3</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -11080,7 +11116,7 @@
       </c>
       <c r="C24" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd c:\wamp\www\github\anita</v>
+        <v>cd c:\wamp\www\github\t3</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -11215,10 +11251,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11241,10 +11277,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H3" s="89"/>
       <c r="I3" s="89"/>
@@ -11252,20 +11288,20 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="94" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="103" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>677</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>679</v>
       </c>
       <c r="D7" s="43"/>
     </row>
@@ -11285,12 +11321,12 @@
         <v>86</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D9" s="91"/>
       <c r="E9" s="91"/>
       <c r="F9" s="42" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11298,7 +11334,7 @@
         <v>86</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D10" s="91"/>
       <c r="E10" s="91"/>
@@ -11308,14 +11344,14 @@
         <v>86</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="91"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F13" s="102" t="str">
         <f>C7</f>
@@ -11341,7 +11377,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D15" s="91"/>
       <c r="E15" s="91"/>
@@ -11354,7 +11390,7 @@
         <v>86</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D16" s="91"/>
       <c r="E16" s="91"/>
@@ -11375,12 +11411,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="103" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -11388,24 +11424,24 @@
         <v>86</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D21" s="91"/>
       <c r="E21" s="91"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="74" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -11413,149 +11449,144 @@
         <v>86</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D24" s="91"/>
       <c r="E24" s="91"/>
       <c r="G24" s="74" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="101" t="str">
-        <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
-        <v>git commit -m "unavailable module"</v>
-      </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
       <c r="G25" s="74" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="101" t="s">
-        <v>664</v>
-      </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
+      <c r="D26" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="101" t="s">
-        <v>681</v>
+      <c r="C27" s="101" t="str">
+        <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
+        <v>git commit -m "from controller to model"</v>
       </c>
       <c r="D27" s="91"/>
       <c r="E27" s="91"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
+      <c r="B28" s="91" t="s">
+        <v>86</v>
+      </c>
       <c r="C28" s="101" t="s">
-        <v>730</v>
+        <v>662</v>
       </c>
       <c r="D28" s="91"/>
       <c r="E28" s="91"/>
     </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>679</v>
+      </c>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+    </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="91" t="s">
-        <v>86</v>
-      </c>
+      <c r="B30" s="91"/>
       <c r="C30" s="101" t="s">
-        <v>663</v>
+        <v>726</v>
       </c>
       <c r="D30" s="91"/>
       <c r="E30" s="91"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
-      <c r="C31" s="101" t="s">
-        <v>681</v>
-      </c>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-    </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="91"/>
-      <c r="C32" s="101" t="s">
-        <v>730</v>
-      </c>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
+      <c r="B32" s="42" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+      <c r="B33" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="101" t="s">
+        <v>747</v>
+      </c>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>661</v>
+      </c>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="91"/>
+      <c r="C37" s="101" t="s">
+        <v>679</v>
+      </c>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="91"/>
+      <c r="C38" s="101" t="s">
+        <v>726</v>
+      </c>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="42" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="42" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="K42" s="42" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="42" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="42" t="s">
-        <v>670</v>
-      </c>
-      <c r="K36" s="42" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
-        <v>671</v>
-      </c>
-      <c r="K37" s="92" t="s">
+      <c r="K43" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="L37" s="93" t="s">
-        <v>666</v>
-      </c>
-      <c r="M37" s="93"/>
-      <c r="N37" s="93"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="K38" s="42" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="101" t="s">
-        <v>673</v>
-      </c>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="101" t="s">
-        <v>674</v>
-      </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="95" t="s">
-        <v>662</v>
-      </c>
+      <c r="L43" s="93" t="s">
+        <v>664</v>
+      </c>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
-        <v>645</v>
+        <v>670</v>
+      </c>
+      <c r="K44" s="42" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
@@ -11563,218 +11594,256 @@
         <v>86</v>
       </c>
       <c r="C45" s="101" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="D45" s="91"/>
       <c r="E45" s="91"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="101" t="s">
+        <v>672</v>
+      </c>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="95" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="42" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="101" t="s">
+        <v>642</v>
+      </c>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="95" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="99" t="s">
+        <v>653</v>
+      </c>
+      <c r="C53" s="97" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="99" t="s">
+      <c r="D53" s="96"/>
+      <c r="E53" s="42" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="99" t="s">
+        <v>653</v>
+      </c>
+      <c r="C54" s="98" t="s">
         <v>655</v>
       </c>
-      <c r="C47" s="97" t="s">
-        <v>656</v>
-      </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="42" t="s">
+      <c r="D54" s="96"/>
+      <c r="E54" s="42" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="99"/>
+      <c r="C55" s="99" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="99" t="s">
-        <v>655</v>
-      </c>
-      <c r="C48" s="98" t="s">
-        <v>657</v>
-      </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="42" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="99"/>
-      <c r="C49" s="99" t="s">
-        <v>660</v>
-      </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="42" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="103" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="C53" s="43" t="s">
+      <c r="D55" s="99"/>
+      <c r="E55" s="42" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="103" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="42" t="s">
+        <v>684</v>
+      </c>
+      <c r="C59" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="D53" s="43"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="101" t="str">
-        <f>"git branch "&amp;C53</f>
-        <v>git branch two</v>
-      </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="101" t="str">
-        <f>"git checkout "&amp;C53</f>
-        <v>git checkout two</v>
-      </c>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="42" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="42" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="42" t="s">
-        <v>690</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>686</v>
-      </c>
-      <c r="F59" s="43"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="43"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="101" t="s">
-        <v>649</v>
+      <c r="C60" s="101" t="str">
+        <f>"git branch "&amp;C59</f>
+        <v>git branch two</v>
       </c>
       <c r="D60" s="91"/>
       <c r="E60" s="91"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="91" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="101" t="str">
-        <f>"git commit -m "&amp;$A$1&amp;E59&amp;$A$1</f>
-        <v>git commit -m "second branch test"</v>
+        <f>"git checkout "&amp;C59</f>
+        <v>git checkout two</v>
       </c>
       <c r="D61" s="91"/>
       <c r="E61" s="91"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="91" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="42" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="42" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>743</v>
+      </c>
+      <c r="F65" s="43"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="101" t="str">
-        <f>"git push origin "&amp;C53</f>
-        <v>git push origin two</v>
-      </c>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="101" t="str">
-        <f>"git pull origin "&amp;C53</f>
-        <v>git pull origin two</v>
-      </c>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-      <c r="F64" s="42" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="42" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="101" t="s">
-        <v>693</v>
-      </c>
-      <c r="D67" s="91"/>
-      <c r="E67" s="91"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="101" t="s">
+        <v>647</v>
+      </c>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="91" t="s">
         <v>86</v>
       </c>
       <c r="C68" s="101" t="str">
-        <f>"git merge "&amp;C53</f>
-        <v>git merge two</v>
+        <f>"git commit -m "&amp;$A$1&amp;E65&amp;$A$1</f>
+        <v>git commit -m "fixing request bug"</v>
       </c>
       <c r="D68" s="91"/>
       <c r="E68" s="91"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="101" t="s">
-        <v>665</v>
+      <c r="C69" s="101" t="str">
+        <f>"git push origin "&amp;C59</f>
+        <v>git push origin two</v>
       </c>
       <c r="D69" s="91"/>
       <c r="E69" s="91"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="42" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="42" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="92" t="s">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="101" t="str">
+        <f>"git pull origin "&amp;C59</f>
+        <v>git pull origin two</v>
+      </c>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="42" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="42" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="101" t="s">
+        <v>690</v>
+      </c>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="101" t="str">
+        <f>"git merge "&amp;C59</f>
+        <v>git merge two</v>
+      </c>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="101" t="s">
+        <v>663</v>
+      </c>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="42" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="42" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="93" t="str">
-        <f>"git branch -d "&amp;C53</f>
+      <c r="C80" s="93" t="str">
+        <f>"git branch -d "&amp;C59</f>
         <v>git branch -d two</v>
       </c>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="92" t="s">
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="93" t="str">
-        <f>"git push origin --delete "&amp;C53</f>
+      <c r="C81" s="93" t="str">
+        <f>"git push origin --delete "&amp;C59</f>
         <v>git push origin --delete two</v>
       </c>
-      <c r="D74" s="104"/>
-      <c r="E74" s="104"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11788,7 +11857,7 @@
   <dimension ref="B3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11798,17 +11867,17 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -11816,7 +11885,7 @@
         <v>86</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
@@ -11825,7 +11894,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -11833,7 +11902,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D9" s="101"/>
       <c r="E9" s="101"/>
@@ -11850,8 +11919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -11957,7 +12026,7 @@
       </c>
       <c r="C14" s="74" t="str">
         <f>'Start project'!C13</f>
-        <v>anita</v>
+        <v>t3</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -11983,7 +12052,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\anita</v>
+        <v>cd c:\wamp\www\github\t3</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -12014,7 +12083,7 @@
       </c>
       <c r="C22" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\anita</v>
+        <v>cd c:\wamp\www\github\t3</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -12077,7 +12146,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>376</v>
@@ -12096,7 +12165,7 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>E33&amp;D33&amp;"/"</f>
@@ -12393,8 +12462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -12500,7 +12569,7 @@
       </c>
       <c r="C14" s="74" t="str">
         <f>'Start project'!C13</f>
-        <v>anita</v>
+        <v>t3</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -12526,7 +12595,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\anita</v>
+        <v>cd c:\wamp\www\github\t3</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -12557,7 +12626,7 @@
       </c>
       <c r="C22" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\anita</v>
+        <v>cd c:\wamp\www\github\t3</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -12608,12 +12677,12 @@
         <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>631</v>
+        <v>732</v>
       </c>
       <c r="D31" s="9"/>
       <c r="F31" s="46" t="str">
         <f>"   'database'  =&gt; '"&amp;C31&amp;"',"</f>
-        <v xml:space="preserve">   'database'  =&gt; 'healmy5_health',</v>
+        <v xml:space="preserve">   'database'  =&gt; 'healmy5_dose',</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -12626,12 +12695,12 @@
         <v>57</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>58</v>
+        <v>733</v>
       </c>
       <c r="D32" s="9"/>
       <c r="F32" s="46" t="str">
         <f>"   'username'  =&gt; '"&amp;C32&amp;"',"</f>
-        <v xml:space="preserve">   'username'  =&gt; 'healmy5_root',</v>
+        <v xml:space="preserve">   'username'  =&gt; 'root',</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
@@ -12646,13 +12715,11 @@
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="F33" s="46" t="str">
         <f>"   'password'  =&gt; '"&amp;C33&amp;"',"</f>
-        <v xml:space="preserve">   'password'  =&gt; 'laravel',</v>
+        <v xml:space="preserve">   'password'  =&gt; '',</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
@@ -12661,7 +12728,7 @@
       <c r="K33" s="23"/>
       <c r="M33" s="12" t="str">
         <f>IF(SUM(J38:K47)&gt;0,B2&amp;P47&amp;Q47&amp;B3,"")</f>
-        <v>--fields="pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer,field6:string,field7:integer,field8:string"</v>
+        <v>--fields="genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string"</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25"/>
@@ -12675,15 +12742,15 @@
         <v>62</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>262</v>
+        <v>734</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>thetask</v>
+        <v>localdrug</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Thetask</v>
+        <v>Localdrug</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
@@ -12718,7 +12785,7 @@
         <v>63</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>586</v>
+        <v>735</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>93</v>
@@ -12726,9 +12793,7 @@
       <c r="F38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>714</v>
-      </c>
+      <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="J38" s="12">
         <f>IF(C38="",0,1)</f>
@@ -12736,14 +12801,14 @@
       </c>
       <c r="K38" s="12">
         <f>IF(G38="",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="12" t="s">
         <v>92</v>
       </c>
       <c r="N38" s="61" t="str">
         <f>IF(AND(C38&lt;&gt;"",D38&lt;&gt;""),IF(N37="concatenator1","",",")&amp;C38&amp;":"&amp;D38,"")</f>
-        <v>pagename:string</v>
+        <v>genericname:string</v>
       </c>
       <c r="O38" s="61" t="str">
         <f>IF(AND(G38&lt;&gt;"",H38&lt;&gt;""),","&amp;G38&amp;":"&amp;H38,"")</f>
@@ -12751,7 +12816,7 @@
       </c>
       <c r="P38" s="61" t="str">
         <f>P37&amp;N38</f>
-        <v>pagename:string</v>
+        <v>genericname:string</v>
       </c>
       <c r="Q38" s="61" t="str">
         <f>Q37&amp;O38</f>
@@ -12766,7 +12831,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>587</v>
+        <v>736</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>93</v>
@@ -12789,7 +12854,7 @@
       </c>
       <c r="N39" s="61" t="str">
         <f t="shared" ref="N39:N47" si="2">IF(AND(C39&lt;&gt;"",D39&lt;&gt;""),IF(N38="concatenator1","",",")&amp;C39&amp;":"&amp;D39,"")</f>
-        <v>,pagedescription:string</v>
+        <v>,active_numerator:string</v>
       </c>
       <c r="O39" s="61" t="str">
         <f t="shared" ref="O39:O47" si="3">IF(AND(G39&lt;&gt;"",H39&lt;&gt;""),","&amp;G39&amp;":"&amp;H39,"")</f>
@@ -12797,7 +12862,7 @@
       </c>
       <c r="P39" s="61" t="str">
         <f t="shared" ref="P39:Q47" si="4">P38&amp;N39</f>
-        <v>pagename:string,pagedescription:string</v>
+        <v>genericname:string,active_numerator:string</v>
       </c>
       <c r="Q39" s="61" t="str">
         <f t="shared" si="4"/>
@@ -12812,10 +12877,10 @@
         <v>65</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>635</v>
+        <v>737</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>75</v>
@@ -12835,7 +12900,7 @@
       </c>
       <c r="N40" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>,field3:integer</v>
+        <v>,active_ingredient_unit:string</v>
       </c>
       <c r="O40" s="61" t="str">
         <f t="shared" si="3"/>
@@ -12843,7 +12908,7 @@
       </c>
       <c r="P40" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>pagename:string,pagedescription:string,field3:integer</v>
+        <v>genericname:string,active_numerator:string,active_ingredient_unit:string</v>
       </c>
       <c r="Q40" s="61" t="str">
         <f t="shared" si="4"/>
@@ -12855,7 +12920,7 @@
         <v>66</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>636</v>
+        <v>738</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>93</v>
@@ -12878,7 +12943,7 @@
       </c>
       <c r="N41" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>,field4:string</v>
+        <v>,dosage_form:string</v>
       </c>
       <c r="O41" s="61" t="str">
         <f t="shared" si="3"/>
@@ -12886,7 +12951,7 @@
       </c>
       <c r="P41" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>pagename:string,pagedescription:string,field3:integer,field4:string</v>
+        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string</v>
       </c>
       <c r="Q41" s="61" t="str">
         <f t="shared" si="4"/>
@@ -12898,10 +12963,10 @@
         <v>67</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>637</v>
+        <v>739</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>77</v>
@@ -12921,7 +12986,7 @@
       </c>
       <c r="N42" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>,field5:integer</v>
+        <v>,commercial_name:string</v>
       </c>
       <c r="O42" s="61" t="str">
         <f t="shared" si="3"/>
@@ -12929,7 +12994,7 @@
       </c>
       <c r="P42" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer</v>
+        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string</v>
       </c>
       <c r="Q42" s="61" t="str">
         <f t="shared" si="4"/>
@@ -12941,7 +13006,7 @@
         <v>68</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>638</v>
+        <v>740</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>93</v>
@@ -12964,7 +13029,7 @@
       </c>
       <c r="N43" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>,field6:string</v>
+        <v>,application_route:string</v>
       </c>
       <c r="O43" s="61" t="str">
         <f t="shared" si="3"/>
@@ -12972,7 +13037,7 @@
       </c>
       <c r="P43" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer,field6:string</v>
+        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string</v>
       </c>
       <c r="Q43" s="61" t="str">
         <f t="shared" si="4"/>
@@ -12984,10 +13049,10 @@
         <v>69</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>639</v>
+        <v>741</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>79</v>
@@ -13007,7 +13072,7 @@
       </c>
       <c r="N44" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>,field7:integer</v>
+        <v>,labeler:string</v>
       </c>
       <c r="O44" s="61" t="str">
         <f t="shared" si="3"/>
@@ -13015,7 +13080,7 @@
       </c>
       <c r="P44" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer,field6:string,field7:integer</v>
+        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string</v>
       </c>
       <c r="Q44" s="61" t="str">
         <f t="shared" si="4"/>
@@ -13027,7 +13092,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>640</v>
+        <v>742</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>93</v>
@@ -13050,7 +13115,7 @@
       </c>
       <c r="N45" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>,field8:string</v>
+        <v>,fdaNDC_id:string</v>
       </c>
       <c r="O45" s="61" t="str">
         <f t="shared" si="3"/>
@@ -13058,7 +13123,7 @@
       </c>
       <c r="P45" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer,field6:string,field7:integer,field8:string</v>
+        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string</v>
       </c>
       <c r="Q45" s="61" t="str">
         <f t="shared" si="4"/>
@@ -13097,7 +13162,7 @@
       </c>
       <c r="P46" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer,field6:string,field7:integer,field8:string</v>
+        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string</v>
       </c>
       <c r="Q46" s="61" t="str">
         <f t="shared" si="4"/>
@@ -13136,7 +13201,7 @@
       </c>
       <c r="P47" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer,field6:string,field7:integer,field8:string</v>
+        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string</v>
       </c>
       <c r="Q47" s="61" t="str">
         <f t="shared" si="4"/>
@@ -13156,7 +13221,7 @@
       </c>
       <c r="C51" s="17" t="str">
         <f>A4&amp;A5&amp;A6&amp;D36&amp;B1&amp;M33</f>
-        <v>php artisan generate:migration create_thetasks_table --fields="pagename:string,pagedescription:string,field3:integer,field4:string,field5:integer,field6:string,field7:integer,field8:string"</v>
+        <v>php artisan generate:migration create_localdrugs_table --fields="genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string"</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -13181,7 +13246,7 @@
       </c>
       <c r="C53" s="17" t="str">
         <f>A4&amp;B4&amp;G36</f>
-        <v>php artisan generate:model Thetask</v>
+        <v>php artisan generate:model Localdrug</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -13202,7 +13267,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12" t="str">
         <f>D36</f>
-        <v>thetasks</v>
+        <v>localdrugs</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -13210,7 +13275,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -13227,7 +13292,7 @@
       </c>
       <c r="C60" s="17" t="str">
         <f>C3&amp;D58&amp;C4&amp;D57&amp;C5&amp;C6&amp;D58&amp;":"&amp;D59&amp;C6</f>
-        <v>php artisan generate:migration add_user_id_to_thetasks_table --fields="user_id:integer"</v>
+        <v>php artisan generate:migration add_user_id_to_localdrugs_table --fields="user_id:integer"</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -13311,7 +13376,7 @@
     <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D47 H38:H47 D59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59 H38:H47 D38:D47">
       <formula1>$M$38:$M$47</formula1>
     </dataValidation>
   </dataValidations>
@@ -13325,9 +13390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13336,10 +13399,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B1" s="105" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
@@ -13347,12 +13410,12 @@
         <v>276</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="105" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13361,15 +13424,15 @@
       </c>
       <c r="C5" s="42" t="str">
         <f>IF('tables and models'!D36&lt;&gt;"",'tables and models'!D36,"")</f>
-        <v>thetasks</v>
+        <v>localdrugs</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>LEFT(C5,LEN(C5)-1)</f>
-        <v>thetask</v>
+        <v>localdrug</v>
       </c>
       <c r="F5" s="12" t="str">
         <f>UPPER(LEFT(E5,1))&amp;RIGHT(E5,LEN(E5)-1)</f>
-        <v>Thetask</v>
+        <v>Localdrug</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -13377,19 +13440,19 @@
         <v>354</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>354</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -13398,26 +13461,26 @@
       </c>
       <c r="C9" s="42" t="str">
         <f>IF('tables and models'!C38&lt;&gt;"",'tables and models'!C38,"")</f>
-        <v>pagename</v>
+        <v>genericname</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="42" t="str">
         <f>IF('tables and models'!G38&lt;&gt;"",'tables and models'!G38,"")</f>
-        <v>checkfield11</v>
+        <v/>
       </c>
       <c r="I9" s="106" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -13426,7 +13489,7 @@
       </c>
       <c r="C10" s="42" t="str">
         <f>IF('tables and models'!C39&lt;&gt;"",'tables and models'!C39,"")</f>
-        <v>pagedescription</v>
+        <v>active_numerator</v>
       </c>
       <c r="D10" s="106"/>
       <c r="E10" s="43"/>
@@ -13446,7 +13509,7 @@
       </c>
       <c r="C11" s="42" t="str">
         <f>IF('tables and models'!C40&lt;&gt;"",'tables and models'!C40,"")</f>
-        <v>field3</v>
+        <v>active_ingredient_unit</v>
       </c>
       <c r="D11" s="106"/>
       <c r="E11" s="43"/>
@@ -13466,7 +13529,7 @@
       </c>
       <c r="C12" s="42" t="str">
         <f>IF('tables and models'!C41&lt;&gt;"",'tables and models'!C41,"")</f>
-        <v>field4</v>
+        <v>dosage_form</v>
       </c>
       <c r="D12" s="106"/>
       <c r="E12" s="43"/>
@@ -13486,7 +13549,7 @@
       </c>
       <c r="C13" s="42" t="str">
         <f>IF('tables and models'!C42&lt;&gt;"",'tables and models'!C42,"")</f>
-        <v>field5</v>
+        <v>commercial_name</v>
       </c>
       <c r="D13" s="106"/>
       <c r="E13" s="43"/>
@@ -13506,13 +13569,13 @@
       </c>
       <c r="C14" s="42" t="str">
         <f>IF('tables and models'!C43&lt;&gt;"",'tables and models'!C43,"")</f>
-        <v>field6</v>
+        <v>application_route</v>
       </c>
       <c r="D14" s="106" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>78</v>
@@ -13530,7 +13593,7 @@
       </c>
       <c r="C15" s="42" t="str">
         <f>IF('tables and models'!C44&lt;&gt;"",'tables and models'!C44,"")</f>
-        <v>field7</v>
+        <v>labeler</v>
       </c>
       <c r="D15" s="106"/>
       <c r="E15" s="43"/>
@@ -13550,7 +13613,7 @@
       </c>
       <c r="C16" s="42" t="str">
         <f>IF('tables and models'!C45&lt;&gt;"",'tables and models'!C45,"")</f>
-        <v>field8</v>
+        <v>fdaNDC_id</v>
       </c>
       <c r="D16" s="106"/>
       <c r="E16" s="43"/>
@@ -13606,35 +13669,35 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="109" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D22" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="str">
         <f>"    $"&amp;C22&amp;"    =    "&amp;F5&amp;"::"</f>
-        <v xml:space="preserve">    $myvotes    =    Thetask::</v>
+        <v xml:space="preserve">    $myvotes    =    Localdrug::</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
       <c r="H24" s="10" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="str">
         <f>IF(D9&lt;&gt;"","        "&amp;IF(C8="column","",$A$2)&amp;$A$1&amp;C9&amp;"' , '"&amp;D9&amp;"'"&amp;E9&amp;")","")</f>
-        <v xml:space="preserve">        where('pagename' , '=''something')</v>
+        <v xml:space="preserve">        where('genericname' , '=''something')</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -13642,7 +13705,7 @@
       <c r="F25" s="46"/>
       <c r="H25" s="46" t="str">
         <f>IF(I9&lt;&gt;"","        "&amp;IF(H8="column","",$A$2)&amp;$A$1&amp;H9&amp;"' , '"&amp;I9&amp;"'"&amp;J9&amp;")","")</f>
-        <v xml:space="preserve">        where('checkfield11' , '='$none)</v>
+        <v xml:space="preserve">        where('' , '='$none)</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
@@ -13719,7 +13782,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        -&gt;where('field6' , '='$user)</v>
+        <v xml:space="preserve">        -&gt;where('application_route' , '='$user)</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -13803,7 +13866,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -13812,24 +13875,24 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="109" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E39" s="10" t="str">
         <f>F5&amp;".php"</f>
-        <v>Thetask.php</v>
+        <v>Localdrug.php</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E40" s="12" t="str">
         <f>LEFT(C40,LEN(C40)-1)</f>
@@ -13842,7 +13905,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="46"/>
@@ -13862,7 +13925,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="str">
         <f>"        "&amp;$B$2&amp;C9</f>
-        <v xml:space="preserve">        $query-&gt;where('pagename</v>
+        <v xml:space="preserve">        $query-&gt;where('genericname</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
@@ -13901,27 +13964,27 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="40" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="39" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -13941,7 +14004,7 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14220,7 +14283,7 @@
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>376</v>
@@ -14239,7 +14302,7 @@
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E38" s="19" t="str">
         <f>E37&amp;D37&amp;"/"</f>
@@ -14679,7 +14742,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D72" s="9"/>
       <c r="F72" s="10" t="s">
@@ -14720,7 +14783,7 @@
         <v>66</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D73" s="9"/>
       <c r="F73" s="10" t="s">
@@ -14761,7 +14824,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D74" s="9"/>
       <c r="F74" s="10" t="s">
@@ -14802,7 +14865,7 @@
         <v>68</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D75" s="9"/>
       <c r="F75" s="10" t="s">
@@ -14843,7 +14906,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D76" s="9"/>
       <c r="F76" s="10" t="s">
@@ -14884,7 +14947,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D77" s="9"/>
       <c r="F77" s="10" t="s">

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,33 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
     <sheet name="Start project" sheetId="21" r:id="rId2"/>
     <sheet name="view controllers" sheetId="22" r:id="rId3"/>
     <sheet name="tables and models" sheetId="23" r:id="rId4"/>
-    <sheet name="query automation v1" sheetId="26" r:id="rId5"/>
-    <sheet name="AutoLaravel v1" sheetId="6" r:id="rId6"/>
-    <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId7"/>
-    <sheet name="FormGeneratorV1" sheetId="12" r:id="rId8"/>
-    <sheet name="CRUD v1" sheetId="18" r:id="rId9"/>
-    <sheet name="Modal edit form" sheetId="19" r:id="rId10"/>
-    <sheet name="imperfect update v1" sheetId="20" r:id="rId11"/>
-    <sheet name="inline ajax edit v1" sheetId="14" r:id="rId12"/>
-    <sheet name="amChartsv1" sheetId="17" r:id="rId13"/>
-    <sheet name="laravelAuth v1" sheetId="7" r:id="rId14"/>
-    <sheet name="Laravel mail v1" sheetId="10" r:id="rId15"/>
-    <sheet name="Controller generator" sheetId="11" state="hidden" r:id="rId16"/>
-    <sheet name="table relations v1" sheetId="13" r:id="rId17"/>
-    <sheet name="pending to automate" sheetId="16" r:id="rId18"/>
-    <sheet name="error ptscreen" sheetId="9" r:id="rId19"/>
-    <sheet name="git commands" sheetId="24" r:id="rId20"/>
-    <sheet name="Test unit v1" sheetId="25" r:id="rId21"/>
+    <sheet name="dbRelations" sheetId="27" r:id="rId5"/>
+    <sheet name="query automation v1" sheetId="26" r:id="rId6"/>
+    <sheet name="AutoLaravel v1" sheetId="6" r:id="rId7"/>
+    <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId8"/>
+    <sheet name="FormGeneratorV1" sheetId="12" r:id="rId9"/>
+    <sheet name="CRUD v1" sheetId="18" r:id="rId10"/>
+    <sheet name="Modal edit form" sheetId="19" r:id="rId11"/>
+    <sheet name="imperfect update v1" sheetId="20" r:id="rId12"/>
+    <sheet name="inline ajax edit v1" sheetId="14" r:id="rId13"/>
+    <sheet name="amChartsv1" sheetId="17" r:id="rId14"/>
+    <sheet name="laravelAuth v1" sheetId="7" r:id="rId15"/>
+    <sheet name="Laravel mail v1" sheetId="10" r:id="rId16"/>
+    <sheet name="Controller generator" sheetId="11" state="hidden" r:id="rId17"/>
+    <sheet name="table relations v1" sheetId="13" r:id="rId18"/>
+    <sheet name="pending to automate" sheetId="16" r:id="rId19"/>
+    <sheet name="error ptscreen" sheetId="9" r:id="rId20"/>
+    <sheet name="git commands" sheetId="24" r:id="rId21"/>
+    <sheet name="Test unit v1" sheetId="25" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'inline ajax edit v1'!$C$48:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'inline ajax edit v1'!$C$48:$C$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="771">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -1967,9 +1968,6 @@
     <t>No need for adding .blade.php extension</t>
   </si>
   <si>
-    <t>resetpwd</t>
-  </si>
-  <si>
     <t>'driver' =&gt; 'smtp',   'host' =&gt; 'whub32.webhostinghub.com',     'port' =&gt; 25,</t>
   </si>
   <si>
@@ -2021,15 +2019,6 @@
     <t xml:space="preserve">MORE ATTRIBUTES CAN BE ADDED, SUCH AS CC AND CCO.  </t>
   </si>
   <si>
-    <t>$link=</t>
-  </si>
-  <si>
-    <t>$subject='Reset password request';</t>
-  </si>
-  <si>
-    <t>$name='TaskingEasy user';</t>
-  </si>
-  <si>
     <t xml:space="preserve">            -&gt;subject($maildata['subject']);</t>
   </si>
   <si>
@@ -2055,12 +2044,6 @@
   </si>
   <si>
     <t>field8</t>
-  </si>
-  <si>
-    <t>$user=User::</t>
-  </si>
-  <si>
-    <t>$email=$_POST['abc']</t>
   </si>
   <si>
     <t>HELPFUL GIT COMMANDS FROM TERMINAL</t>
@@ -2372,12 +2355,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>unavailable</t>
-  </si>
-  <si>
-    <t>Unavailable tasks (adopted by others)</t>
-  </si>
-  <si>
     <t>healmy5_dose</t>
   </si>
   <si>
@@ -2420,20 +2397,110 @@
     <t>if whishing to see changes type</t>
   </si>
   <si>
-    <t>from controller to model</t>
-  </si>
-  <si>
     <t>git log --name-status HEAD^..HEAD</t>
   </si>
   <si>
     <t>Displaying changed files with last commit</t>
+  </si>
+  <si>
+    <t>Database relationships pool</t>
+  </si>
+  <si>
+    <t>DB relations version 1</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>Table1 (singular lowercase)</t>
+  </si>
+  <si>
+    <t>hasMany</t>
+  </si>
+  <si>
+    <t>hasOne</t>
+  </si>
+  <si>
+    <t>BelongsTo</t>
+  </si>
+  <si>
+    <t>Other1</t>
+  </si>
+  <si>
+    <t>Other2</t>
+  </si>
+  <si>
+    <t>Table2 (singular lowercase)</t>
+  </si>
+  <si>
+    <t>inverse relation</t>
+  </si>
+  <si>
+    <t>&lt;img class='hmdhide' src="{{asset('assets/img/progressBar.gif')}}"   alt=""  id='progress_bar_for_start_here_email'&gt;</t>
+  </si>
+  <si>
+    <t>TB Modal creator</t>
+  </si>
+  <si>
+    <t>removecoll</t>
+  </si>
+  <si>
+    <t>Remove one collaborator from this project</t>
+  </si>
+  <si>
+    <t>compactv2/left</t>
+  </si>
+  <si>
+    <t> standardize dry update with find</t>
+  </si>
+  <si>
+    <t>:::  excersise 10 times with update dry technique</t>
+  </si>
+  <si>
+    <t>:::  DRY same id with info equals to object and post variable</t>
+  </si>
+  <si>
+    <t>PENDING TO ADD TO DRY</t>
+  </si>
+  <si>
+    <t>View tester: open EmailtesterController.php</t>
+  </si>
+  <si>
+    <t>test url</t>
+  </si>
+  <si>
+    <t>$coll=</t>
+  </si>
+  <si>
+    <t>$pmanager=</t>
+  </si>
+  <si>
+    <t>$project=</t>
+  </si>
+  <si>
+    <t>Controller tester</t>
+  </si>
+  <si>
+    <t>$subject='Progress report';</t>
+  </si>
+  <si>
+    <t>reportofadopted</t>
+  </si>
+  <si>
+    <t>$list=</t>
+  </si>
+  <si>
+    <t>progress request</t>
+  </si>
+  <si>
+    <t>dosetracker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2688,6 +2755,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3085,7 +3159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3136,7 +3210,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3170,9 +3243,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3202,9 +3273,15 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3260,53 +3337,183 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6195094" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="0"/>
+          <a:ext cx="6195094" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="4800">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Welcome to DRY laravel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6760377" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="638175"/>
+          <a:ext cx="6760377" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>The place</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> where you can automate everything about laravel increasing your productivity, accuracy and time saving</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80392</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Grupo 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Grupo 7"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9210675" y="461392"/>
-          <a:ext cx="914400" cy="995933"/>
-          <a:chOff x="9210675" y="461392"/>
-          <a:chExt cx="914400" cy="995933"/>
+          <a:off x="419100" y="3476625"/>
+          <a:ext cx="285750" cy="171449"/>
+          <a:chOff x="6315075" y="2876550"/>
+          <a:chExt cx="914400" cy="485775"/>
         </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Rectángulo redondeado 1"/>
+          <xdr:cNvPr id="4" name="Rectángulo 3"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9210675" y="704850"/>
-            <a:ext cx="914400" cy="685800"/>
+            <a:off x="6315075" y="2876550"/>
+            <a:ext cx="914400" cy="485775"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
+          <a:grpFill/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -3335,23 +3542,18 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvPr id="5" name="Triángulo isósceles 4"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="2633469">
-            <a:off x="9305959" y="461392"/>
-            <a:ext cx="701794" cy="697710"/>
+          <a:xfrm>
+            <a:off x="6334125" y="3067050"/>
+            <a:ext cx="885825" cy="285751"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="triangle">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
+          <a:grpFill/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -3380,76 +3582,18 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="CuadroTexto 2"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvPr id="7" name="Triángulo isósceles 6"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="981075"/>
-            <a:ext cx="257175" cy="476250"/>
+          <a:xfrm rot="10800000">
+            <a:off x="6324600" y="2886074"/>
+            <a:ext cx="895350" cy="295275"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="triangle">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
+          <a:grpFill/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -3482,1127 +3626,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>80392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6381750" y="270892"/>
-          <a:ext cx="914400" cy="995933"/>
-          <a:chOff x="9210675" y="461392"/>
-          <a:chExt cx="914400" cy="995933"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9210675" y="704850"/>
-            <a:ext cx="914400" cy="685800"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2633469">
-            <a:off x="9305959" y="461392"/>
-            <a:ext cx="701794" cy="697710"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="981075"/>
-            <a:ext cx="257175" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>81533</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6715125" y="228600"/>
-          <a:ext cx="914400" cy="995933"/>
-          <a:chOff x="9210675" y="461392"/>
-          <a:chExt cx="914400" cy="995933"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9210675" y="704850"/>
-            <a:ext cx="914400" cy="685800"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2633469">
-            <a:off x="9305959" y="461392"/>
-            <a:ext cx="701794" cy="697710"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="981075"/>
-            <a:ext cx="257175" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129158</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8067675" y="1038225"/>
-          <a:ext cx="914400" cy="995933"/>
-          <a:chOff x="9210675" y="461392"/>
-          <a:chExt cx="914400" cy="995933"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9210675" y="704850"/>
-            <a:ext cx="914400" cy="685800"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2633469">
-            <a:off x="9305959" y="461392"/>
-            <a:ext cx="701794" cy="697710"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="981075"/>
-            <a:ext cx="257175" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>43433</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8410575" y="190500"/>
-          <a:ext cx="914400" cy="995933"/>
-          <a:chOff x="9210675" y="461392"/>
-          <a:chExt cx="914400" cy="995933"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9210675" y="704850"/>
-            <a:ext cx="914400" cy="685800"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2633469">
-            <a:off x="9305959" y="461392"/>
-            <a:ext cx="701794" cy="697710"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="981075"/>
-            <a:ext cx="257175" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>24383</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7210425" y="171450"/>
-          <a:ext cx="914400" cy="995933"/>
-          <a:chOff x="9210675" y="461392"/>
-          <a:chExt cx="914400" cy="995933"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9210675" y="704850"/>
-            <a:ext cx="914400" cy="685800"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2633469">
-            <a:off x="9305959" y="461392"/>
-            <a:ext cx="701794" cy="697710"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="981075"/>
-            <a:ext cx="257175" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4650,7 +3674,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4875,7 +3899,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5036,6 +4060,1798 @@
                   <a:schemeClr val="tx1">
                     <a:lumMod val="85000"/>
                     <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Grupo 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9210675" y="461392"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectángulo redondeado 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6381750" y="270892"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81533</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6715125" y="228600"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100583</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7953375" y="266700"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129158</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8067675" y="1038225"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43433</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8410575" y="190500"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14858</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9210675" y="352425"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24383</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7239000" y="171450"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
@@ -5363,101 +6179,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E15"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="B8:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="50"/>
-    <col min="2" max="5" width="11.7109375" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="50"/>
+    <col min="1" max="1" width="11.42578125" style="108"/>
+    <col min="2" max="5" width="11.7109375" style="108" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="108"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="78" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="107" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="110" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="111" t="s">
         <v>593</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="H9" s="110" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="107" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
-        <v>697</v>
-      </c>
-      <c r="C6" s="112"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="110" t="s">
+      <c r="H10" s="110" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="111" t="s">
+        <v>691</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="H11" s="110" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="111" t="s">
+        <v>644</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="H12" s="110" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="107"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="107"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="111" t="s">
+        <v>740</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="111" t="s">
         <v>596</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="110" t="s">
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="111" t="s">
         <v>601</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="110" t="s">
-        <v>650</v>
-      </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="78" t="s">
-        <v>722</v>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="107" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B4:D4"/>
+  <mergeCells count="6">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8:D8" location="'AutoLaravel v1'!C13" display="Create new laravel project"/>
-    <hyperlink ref="B3" location="'Start project'!A1" display="Start a project"/>
-    <hyperlink ref="B4" location="'view controllers'!A1" display="View and controllers creation"/>
-    <hyperlink ref="B5" location="'tables and models'!A1" display="Tables and models"/>
-    <hyperlink ref="B10:D10" location="'Laravel mail v1'!A1" display="Mail sender constructor"/>
+    <hyperlink ref="B17:D17" location="'AutoLaravel v1'!C13" display="Create new laravel project"/>
+    <hyperlink ref="B8" location="'Start project'!A1" display="Start a project"/>
+    <hyperlink ref="B9" location="'view controllers'!A1" display="View and controllers creation"/>
+    <hyperlink ref="B10" location="'tables and models'!A1" display="Tables and models"/>
+    <hyperlink ref="B19:D19" location="'Laravel mail v1'!A1" display="Mail sender constructor"/>
     <hyperlink ref="B12:D12" location="'git commands'!A1" display="GIT &amp; GITHUB: Helpful git tips"/>
-    <hyperlink ref="B6:C6" location="'query automation v1'!A1" display="Query automation"/>
-    <hyperlink ref="B15" location="'Test unit v1'!A1" display="Test unit"/>
+    <hyperlink ref="B11:C11" location="'query automation v1'!A1" display="Query automation"/>
+    <hyperlink ref="B23" location="'Test unit v1'!A1" display="Test unit"/>
+    <hyperlink ref="B16:D16" location="dbRelations!A1" display="Database relationships pool"/>
+    <hyperlink ref="B14" location="'Modal edit form'!A1" display="TB Modal creator"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B47"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5487,7 +6492,7 @@
       <c r="A5" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>566</v>
       </c>
     </row>
@@ -5500,17 +6505,21 @@
       <c r="B9" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="E9" s="74" t="str">
-        <f>'AutoLaravel v1'!D37</f>
-        <v>trapear</v>
-      </c>
+      <c r="E9" s="73" t="str">
+        <f>'view controllers'!D33</f>
+        <v>c3</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>755</v>
+      </c>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>546</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5518,8 +6527,8 @@
         <v>114</v>
       </c>
       <c r="C11" s="17" t="str">
-        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;E9&amp;A3&amp;" "&amp;E10</f>
-        <v>php artisan generate:view --path="app/views/trapear" unavailable</v>
+        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;G9&amp;A3&amp;" "&amp;E10</f>
+        <v>php artisan generate:view --path="app/views/compactv2/left" removecoll</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -5532,7 +6541,7 @@
         <v>549</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -5543,13 +6552,13 @@
       </c>
       <c r="C13" s="12" t="str">
         <f>E10</f>
-        <v>unavailable</v>
+        <v>removecoll</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="str">
         <f>A1&amp;C13&amp;A2</f>
-        <v>&lt;div id='unavailable' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
+        <v>&lt;div id='removecoll' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -5592,7 +6601,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="str">
         <f>"        &lt;h3 class='text-success'&gt;"&amp;E12&amp;"&lt;/h3&gt;"</f>
-        <v xml:space="preserve">        &lt;h3 class='text-success'&gt;Unavailable tasks (adopted by others)&lt;/h3&gt;</v>
+        <v xml:space="preserve">        &lt;h3 class='text-success'&gt;Remove one collaborator from this project&lt;/h3&gt;</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -5848,7 +6857,7 @@
       </c>
       <c r="D37" s="46" t="str">
         <f>"&lt;a href='#' id='openmodal_"&amp;C13&amp;"'&gt;"&amp;C13&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href='#' id='openmodal_unavailable'&gt;unavailable&lt;/a&gt;</v>
+        <v>&lt;a href='#' id='openmodal_removecoll'&gt;removecoll&lt;/a&gt;</v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="46"/>
@@ -5860,8 +6869,8 @@
         <v>570</v>
       </c>
       <c r="D38" s="46" t="str">
-        <f>"@include('"&amp;E9&amp;"."&amp;E10&amp;"')"</f>
-        <v>@include('trapear.unavailable')</v>
+        <f>"@include('"&amp;G9&amp;"."&amp;E10&amp;"')"</f>
+        <v>@include('compactv2/left.removecoll')</v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="46"/>
@@ -5876,7 +6885,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="str">
         <f>"$('#openmodal_"&amp;C13&amp;"').click(function(e){"</f>
-        <v>$('#openmodal_unavailable').click(function(e){</v>
+        <v>$('#openmodal_removecoll').click(function(e){</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
@@ -5895,7 +6904,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="str">
         <f>"    $('#"&amp;C13&amp;"').modal('show');"</f>
-        <v xml:space="preserve">    $('#unavailable').modal('show');</v>
+        <v xml:space="preserve">    $('#removecoll').modal('show');</v>
       </c>
       <c r="C46" s="46"/>
       <c r="D46" s="46"/>
@@ -5913,16 +6922,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5930,10 +6938,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="12" t="str">
@@ -5963,201 +6971,201 @@
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="74" t="s">
         <v>574</v>
       </c>
       <c r="E5" s="10">
         <v>11</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="74"/>
       <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="74" t="s">
         <v>428</v>
       </c>
       <c r="K5" s="10">
         <v>11</v>
       </c>
-      <c r="L5" s="75"/>
+      <c r="L5" s="74"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="74" t="s">
         <v>575</v>
       </c>
       <c r="E6" s="10">
         <v>12</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="74"/>
       <c r="H6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="74" t="s">
         <v>429</v>
       </c>
       <c r="K6" s="10">
         <v>12</v>
       </c>
-      <c r="L6" s="75"/>
+      <c r="L6" s="74"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="74" t="s">
         <v>576</v>
       </c>
       <c r="E7" s="10">
         <v>13</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="74"/>
       <c r="H7" s="10">
         <v>3</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="74" t="s">
         <v>432</v>
       </c>
       <c r="K7" s="10">
         <v>13</v>
       </c>
-      <c r="L7" s="75"/>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="74" t="s">
         <v>577</v>
       </c>
       <c r="E8" s="10">
         <v>14</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="74"/>
       <c r="H8" s="10">
         <v>4</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="74" t="s">
         <v>433</v>
       </c>
       <c r="K8" s="10">
         <v>14</v>
       </c>
-      <c r="L8" s="75"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="74" t="s">
         <v>578</v>
       </c>
       <c r="E9" s="10">
         <v>15</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="74"/>
       <c r="H9" s="10">
         <v>5</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="74" t="s">
         <v>434</v>
       </c>
       <c r="K9" s="10">
         <v>15</v>
       </c>
-      <c r="L9" s="75"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="75"/>
+      <c r="C10" s="74"/>
       <c r="E10" s="10">
         <v>16</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="74"/>
       <c r="H10" s="10">
         <v>6</v>
       </c>
-      <c r="I10" s="75"/>
+      <c r="I10" s="74"/>
       <c r="K10" s="10">
         <v>16</v>
       </c>
-      <c r="L10" s="75"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="74"/>
       <c r="E11" s="10">
         <v>17</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="74"/>
       <c r="H11" s="10">
         <v>7</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="74"/>
       <c r="K11" s="10">
         <v>17</v>
       </c>
-      <c r="L11" s="75"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="74"/>
       <c r="E12" s="10">
         <v>18</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="74"/>
       <c r="H12" s="10">
         <v>8</v>
       </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="74"/>
       <c r="K12" s="10">
         <v>18</v>
       </c>
-      <c r="L12" s="75"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
       <c r="E13" s="10">
         <v>19</v>
       </c>
-      <c r="F13" s="75"/>
+      <c r="F13" s="74"/>
       <c r="H13" s="10">
         <v>9</v>
       </c>
-      <c r="I13" s="75"/>
+      <c r="I13" s="74"/>
       <c r="K13" s="10">
         <v>19</v>
       </c>
-      <c r="L13" s="75"/>
+      <c r="L13" s="74"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="75"/>
+      <c r="C14" s="74"/>
       <c r="E14" s="10">
         <v>20</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="74"/>
       <c r="H14" s="10">
         <v>10</v>
       </c>
-      <c r="I14" s="75"/>
+      <c r="I14" s="74"/>
       <c r="K14" s="10">
         <v>20</v>
       </c>
-      <c r="L14" s="75"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -6483,12 +7491,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q246"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6613,10 +7621,10 @@
       <c r="B12" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="116" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="111"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
@@ -6632,7 +7640,7 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="64" t="s">
         <v>435</v>
       </c>
       <c r="C14" s="43"/>
@@ -6812,15 +7820,15 @@
         <f>IF(G33&lt;&gt;"",",'"&amp;G33&amp;"'","")</f>
         <v/>
       </c>
-      <c r="N33" s="72" t="str">
+      <c r="N33" s="71" t="str">
         <f>IF(E33="",L33,IF(B32="NAME","",",")&amp;"'"&amp;E33&amp;"'")</f>
         <v>'prayer'</v>
       </c>
-      <c r="O33" s="69" t="str">
+      <c r="O33" s="68" t="str">
         <f>IF(J33="",M33,",'"&amp;J33&amp;"'")</f>
         <v/>
       </c>
-      <c r="P33" s="71" t="str">
+      <c r="P33" s="70" t="str">
         <f>IF(B33&lt;&gt;"",IF(B32="NAME","",",")&amp;"array('"&amp;B33&amp;"',"&amp;IF(D33="yes",1,0)&amp;")","")</f>
         <v>array('pagename',1)</v>
       </c>
@@ -6858,15 +7866,15 @@
         <f t="shared" ref="M34:M42" si="1">IF(G34&lt;&gt;"",",'"&amp;G34&amp;"'","")</f>
         <v/>
       </c>
-      <c r="N34" s="72" t="str">
+      <c r="N34" s="71" t="str">
         <f t="shared" ref="N34:N42" si="2">IF(E34="",L34,IF(B33="NAME","",",")&amp;"'"&amp;E34&amp;"'")</f>
         <v>,'text'</v>
       </c>
-      <c r="O34" s="69" t="str">
+      <c r="O34" s="68" t="str">
         <f t="shared" ref="O34:O42" si="3">IF(J34="",M34,",'"&amp;J34&amp;"'")</f>
         <v/>
       </c>
-      <c r="P34" s="71" t="str">
+      <c r="P34" s="70" t="str">
         <f t="shared" ref="P34:P42" si="4">IF(B34&lt;&gt;"",IF(B33="NAME","",",")&amp;"array('"&amp;B34&amp;"',"&amp;IF(D34="yes",1,0)&amp;")","")</f>
         <v>,array('pagedescription',1)</v>
       </c>
@@ -6902,15 +7910,15 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N35" s="72" t="str">
+      <c r="N35" s="71" t="str">
         <f t="shared" si="2"/>
         <v>,'field3'</v>
       </c>
-      <c r="O35" s="69" t="str">
+      <c r="O35" s="68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P35" s="71" t="str">
+      <c r="P35" s="70" t="str">
         <f t="shared" si="4"/>
         <v>,array('field3',1)</v>
       </c>
@@ -6946,15 +7954,15 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N36" s="72" t="str">
+      <c r="N36" s="71" t="str">
         <f t="shared" si="2"/>
         <v>,'field4'</v>
       </c>
-      <c r="O36" s="69" t="str">
+      <c r="O36" s="68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P36" s="71" t="str">
+      <c r="P36" s="70" t="str">
         <f t="shared" si="4"/>
         <v>,array('field4',1)</v>
       </c>
@@ -6990,15 +7998,15 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N37" s="72" t="str">
+      <c r="N37" s="71" t="str">
         <f t="shared" si="2"/>
         <v>,'field5'</v>
       </c>
-      <c r="O37" s="69" t="str">
+      <c r="O37" s="68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P37" s="71" t="str">
+      <c r="P37" s="70" t="str">
         <f t="shared" si="4"/>
         <v>,array('field5',1)</v>
       </c>
@@ -7034,15 +8042,15 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N38" s="72" t="str">
+      <c r="N38" s="71" t="str">
         <f t="shared" si="2"/>
         <v>,'field6'</v>
       </c>
-      <c r="O38" s="69" t="str">
+      <c r="O38" s="68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P38" s="71" t="str">
+      <c r="P38" s="70" t="str">
         <f t="shared" si="4"/>
         <v>,array('field6',1)</v>
       </c>
@@ -7078,15 +8086,15 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N39" s="72" t="str">
+      <c r="N39" s="71" t="str">
         <f t="shared" si="2"/>
         <v>,'field7'</v>
       </c>
-      <c r="O39" s="69" t="str">
+      <c r="O39" s="68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P39" s="71" t="str">
+      <c r="P39" s="70" t="str">
         <f t="shared" si="4"/>
         <v>,array('field7',1)</v>
       </c>
@@ -7122,15 +8130,15 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N40" s="72" t="str">
+      <c r="N40" s="71" t="str">
         <f t="shared" si="2"/>
         <v>,'field8'</v>
       </c>
-      <c r="O40" s="69" t="str">
+      <c r="O40" s="68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P40" s="71" t="str">
+      <c r="P40" s="70" t="str">
         <f t="shared" si="4"/>
         <v>,array('field8',1)</v>
       </c>
@@ -7166,15 +8174,15 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N41" s="72" t="str">
+      <c r="N41" s="71" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O41" s="69" t="str">
+      <c r="O41" s="68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P41" s="71" t="str">
+      <c r="P41" s="70" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7210,15 +8218,15 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N42" s="72" t="str">
+      <c r="N42" s="71" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O42" s="69" t="str">
+      <c r="O42" s="68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P42" s="71" t="str">
+      <c r="P42" s="70" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7251,47 +8259,47 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C46" s="66" t="str">
+      <c r="C46" s="65" t="str">
         <f>P33&amp;P34&amp;P35&amp;P36&amp;P37</f>
         <v>array('pagename',1),array('pagedescription',1),array('field3',1),array('field4',1),array('field5',1)</v>
       </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C47" s="66" t="str">
+      <c r="C47" s="65" t="str">
         <f>P38&amp;P39&amp;P40&amp;P41&amp;P42</f>
         <v>,array('field6',1),array('field7',1),array('field8',1)</v>
       </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C48" s="64" t="str">
+      <c r="C48" s="63" t="str">
         <f>Q33&amp;Q34&amp;Q35&amp;Q36&amp;Q37</f>
         <v/>
       </c>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="66" t="str">
+      <c r="C49" s="65" t="str">
         <f>Q38&amp;Q39&amp;Q40&amp;Q41&amp;Q42</f>
         <v/>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
@@ -7315,47 +8323,47 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="66" t="str">
+      <c r="C52" s="65" t="str">
         <f>N33&amp;N34&amp;N35&amp;N36&amp;N37</f>
         <v>'prayer','text','field3','field4','field5'</v>
       </c>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="66" t="str">
+      <c r="C53" s="65" t="str">
         <f>N38&amp;N39&amp;N40&amp;N41&amp;N42</f>
         <v>,'field6','field7','field8'</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="66" t="str">
+      <c r="C54" s="65" t="str">
         <f>O33&amp;O34&amp;O35&amp;O36&amp;O37</f>
         <v/>
       </c>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="66" t="str">
+      <c r="C55" s="65" t="str">
         <f>O38&amp;O39&amp;O40&amp;O41&amp;O42</f>
         <v/>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
@@ -7379,47 +8387,47 @@
       <c r="H57" s="23"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="66" t="str">
+      <c r="C58" s="65" t="str">
         <f>P33&amp;P34&amp;P35&amp;P36&amp;P37</f>
         <v>array('pagename',1),array('pagedescription',1),array('field3',1),array('field4',1),array('field5',1)</v>
       </c>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="23"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="66" t="str">
+      <c r="C59" s="65" t="str">
         <f>P38&amp;P39&amp;P40&amp;P41&amp;P42</f>
         <v>,array('field6',1),array('field7',1),array('field8',1)</v>
       </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="23"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="66" t="str">
+      <c r="C60" s="65" t="str">
         <f>Q33&amp;Q34&amp;Q35&amp;Q36&amp;Q37</f>
         <v/>
       </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="66" t="str">
+      <c r="C61" s="65" t="str">
         <f>Q38&amp;Q39&amp;Q40&amp;Q41&amp;Q42</f>
         <v/>
       </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
@@ -7453,7 +8461,7 @@
       <c r="H64" s="23"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="66" t="s">
         <v>461</v>
       </c>
       <c r="D65" s="23"/>
@@ -7463,7 +8471,7 @@
       <c r="H65" s="23"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="66" t="s">
         <v>455</v>
       </c>
       <c r="D66" s="23"/>
@@ -7473,7 +8481,7 @@
       <c r="H66" s="23"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="66" t="s">
         <v>472</v>
       </c>
       <c r="D67" s="23"/>
@@ -7483,7 +8491,7 @@
       <c r="H67" s="23"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="66" t="s">
         <v>481</v>
       </c>
       <c r="D68" s="23"/>
@@ -7493,7 +8501,7 @@
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C69" s="67" t="str">
+      <c r="C69" s="66" t="str">
         <f>"-&gt;with('title','"&amp;C11&amp;"');"</f>
         <v>-&gt;with('title','pages');</v>
       </c>
@@ -7519,7 +8527,7 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="67" t="s">
+      <c r="B73" s="66" t="s">
         <v>384</v>
       </c>
       <c r="C73" s="23"/>
@@ -7530,7 +8538,7 @@
       <c r="H73" s="23"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="68" t="s">
+      <c r="B74" s="67" t="s">
         <v>423</v>
       </c>
       <c r="C74" s="23"/>
@@ -7541,7 +8549,7 @@
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="67" t="s">
         <v>424</v>
       </c>
       <c r="C75" s="23"/>
@@ -7552,7 +8560,7 @@
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="66" t="s">
         <v>425</v>
       </c>
       <c r="C76" s="23"/>
@@ -7618,7 +8626,7 @@
       <c r="H81" s="23"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="70" t="str">
+      <c r="B82" s="69" t="str">
         <f>IF(C29="yes","        &lt;th&gt;Delete&lt;/th&gt;","")</f>
         <v xml:space="preserve">        &lt;th&gt;Delete&lt;/th&gt;</v>
       </c>
@@ -7820,7 +8828,7 @@
       <c r="H99" s="23"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="70" t="str">
+      <c r="B100" s="69" t="str">
         <f>IF(C29="yes","            &lt;td&gt;Delete&lt;/td&gt;","")</f>
         <v xml:space="preserve">            &lt;td&gt;Delete&lt;/td&gt;</v>
       </c>
@@ -7876,7 +8884,7 @@
       <c r="H104" s="23"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="67" t="s">
+      <c r="B105" s="66" t="s">
         <v>424</v>
       </c>
       <c r="C105" s="23"/>
@@ -8783,136 +9791,136 @@
       </c>
     </row>
     <row r="220" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N220" s="55" t="s">
+      <c r="N220" s="54" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="221" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N221" s="55" t="s">
+      <c r="N221" s="54" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="222" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N222" s="55" t="s">
+      <c r="N222" s="54" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="223" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N223" s="60" t="str">
+      <c r="N223" s="59" t="str">
         <f>IF('AutoLaravel v1'!C70&lt;&gt;"",'AutoLaravel v1'!C70,"")</f>
         <v>pagename</v>
       </c>
     </row>
     <row r="224" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N224" s="60" t="str">
+      <c r="N224" s="59" t="str">
         <f>IF('AutoLaravel v1'!C71&lt;&gt;"",'AutoLaravel v1'!C71,"")</f>
         <v>pagedescription</v>
       </c>
     </row>
     <row r="225" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N225" s="60" t="str">
+      <c r="N225" s="59" t="str">
         <f>IF('AutoLaravel v1'!C72&lt;&gt;"",'AutoLaravel v1'!C72,"")</f>
         <v>field3</v>
       </c>
     </row>
     <row r="226" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N226" s="60" t="str">
+      <c r="N226" s="59" t="str">
         <f>IF('AutoLaravel v1'!C73&lt;&gt;"",'AutoLaravel v1'!C73,"")</f>
         <v>field4</v>
       </c>
     </row>
     <row r="227" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N227" s="60" t="str">
+      <c r="N227" s="59" t="str">
         <f>IF('AutoLaravel v1'!C74&lt;&gt;"",'AutoLaravel v1'!C74,"")</f>
         <v>field5</v>
       </c>
     </row>
     <row r="228" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N228" s="60" t="str">
+      <c r="N228" s="59" t="str">
         <f>IF('AutoLaravel v1'!C75&lt;&gt;"",'AutoLaravel v1'!C75,"")</f>
         <v>field6</v>
       </c>
     </row>
     <row r="229" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N229" s="60" t="str">
+      <c r="N229" s="59" t="str">
         <f>IF('AutoLaravel v1'!C76&lt;&gt;"",'AutoLaravel v1'!C76,"")</f>
         <v>field7</v>
       </c>
     </row>
     <row r="230" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N230" s="60" t="str">
+      <c r="N230" s="59" t="str">
         <f>IF('AutoLaravel v1'!C77&lt;&gt;"",'AutoLaravel v1'!C77,"")</f>
         <v>field8</v>
       </c>
     </row>
     <row r="231" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N231" s="60" t="str">
+      <c r="N231" s="59" t="str">
         <f>IF('AutoLaravel v1'!C78&lt;&gt;"",'AutoLaravel v1'!C78,"")</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N232" s="60" t="str">
+      <c r="N232" s="59" t="str">
         <f>IF('AutoLaravel v1'!C79&lt;&gt;"",'AutoLaravel v1'!C79,"")</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N233" s="55" t="str">
+      <c r="N233" s="54" t="str">
         <f>IF('AutoLaravel v1'!G70&lt;&gt;"",'AutoLaravel v1'!G70,"")</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N234" s="55" t="str">
+      <c r="N234" s="54" t="str">
         <f>IF('AutoLaravel v1'!G71&lt;&gt;"",'AutoLaravel v1'!G71,"")</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N235" s="55" t="str">
+      <c r="N235" s="54" t="str">
         <f>IF('AutoLaravel v1'!G72&lt;&gt;"",'AutoLaravel v1'!G72,"")</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N236" s="55" t="str">
+      <c r="N236" s="54" t="str">
         <f>IF('AutoLaravel v1'!G73&lt;&gt;"",'AutoLaravel v1'!G73,"")</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N237" s="55" t="str">
+      <c r="N237" s="54" t="str">
         <f>IF('AutoLaravel v1'!G74&lt;&gt;"",'AutoLaravel v1'!G74,"")</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N238" s="55" t="str">
+      <c r="N238" s="54" t="str">
         <f>IF('AutoLaravel v1'!G75&lt;&gt;"",'AutoLaravel v1'!G75,"")</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N239" s="55" t="str">
+      <c r="N239" s="54" t="str">
         <f>IF('AutoLaravel v1'!G76&lt;&gt;"",'AutoLaravel v1'!G76,"")</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N240" s="55" t="str">
+      <c r="N240" s="54" t="str">
         <f>IF('AutoLaravel v1'!G77&lt;&gt;"",'AutoLaravel v1'!G77,"")</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N241" s="55" t="str">
+      <c r="N241" s="54" t="str">
         <f>IF('AutoLaravel v1'!G78&lt;&gt;"",'AutoLaravel v1'!G78,"")</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N242" s="55" t="str">
+      <c r="N242" s="54" t="str">
         <f>IF('AutoLaravel v1'!G79&lt;&gt;"",'AutoLaravel v1'!G79,"")</f>
         <v/>
       </c>
@@ -8949,7 +9957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B9"/>
   <sheetViews>
@@ -8997,7 +10005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K39"/>
   <sheetViews>
@@ -9196,39 +10204,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="10"/>
     <col min="6" max="6" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="67" t="s">
-        <v>610</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="66" t="s">
+        <v>609</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -9237,8 +10249,8 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="67" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="66" t="s">
         <v>133</v>
       </c>
       <c r="D7" s="23"/>
@@ -9248,9 +10260,9 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="67" t="s">
-        <v>611</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="66" t="s">
+        <v>610</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -9259,9 +10271,9 @@
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="67" t="s">
-        <v>612</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="66" t="s">
+        <v>611</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -9270,48 +10282,52 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="82" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="79" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="79" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="64" t="s">
         <v>603</v>
       </c>
       <c r="E13" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="64" t="s">
         <v>606</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>609</v>
+        <v>767</v>
       </c>
       <c r="H13" s="12" t="str">
         <f>E13&amp;"."&amp;G13</f>
-        <v>emails.resetpwd</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>emails.reportofadopted</v>
+      </c>
+      <c r="K13" s="79" t="str">
+        <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
+        <v>c:\wamp\www\github\dosetracker</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="17" t="str">
-        <f>"php artisan generate:view --path="&amp;A1&amp;"app/views/"&amp;E13&amp;A1&amp;" "&amp;G13</f>
-        <v>php artisan generate:view --path="app/views/emails" resetpwd</v>
+        <f>"Copy-Item "&amp;K13&amp;"\app\views\templates\email2.blade.php "&amp;K13&amp;"\app\views\emails"</f>
+        <v>Copy-Item c:\wamp\www\github\dosetracker\app\views\templates\email2.blade.php c:\wamp\www\github\dosetracker\app\views\emails</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -9319,334 +10335,452 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f>"Rename-Item "&amp;K13&amp;"\app\views\"&amp;E13&amp;"\email2.blade.php "&amp;G13&amp;".blade.php"</f>
+        <v>Rename-Item c:\wamp\www\github\dosetracker\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="str">
+        <f>"public function get"&amp;UPPER(LEFT(G13,1))&amp;RIGHT(G13,LEN(G13)-1)&amp;"() {"</f>
+        <v>public function getReportofadopted() {</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="str">
+        <f>"    return View::make('"&amp;E13&amp;"."&amp;G13&amp;"');"</f>
+        <v xml:space="preserve">    return View::make('emails.reportofadopted');</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="J28" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="46" t="s">
+      <c r="H29" s="42"/>
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="74" t="s">
+        <v>762</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="43"/>
+      <c r="F30" s="80" t="str">
+        <f>IF(B30&lt;&gt;"",LEFT(B30,FIND("=",B30)-1),"")</f>
+        <v>$coll</v>
+      </c>
+      <c r="G30" s="46" t="str">
+        <f>IF(F30&lt;&gt;"",IF(G29="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F30,LEN(F30)-1)&amp;"'   =&gt;   "&amp;F30,"")</f>
+        <v>'coll'   =&gt;   $coll</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="J30" s="42" t="str">
+        <f>IF(F30&lt;&gt;"","{{"&amp;F30&amp;"}}","")</f>
+        <v>{{$coll}}</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="74" t="s">
+        <v>763</v>
+      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="43"/>
+      <c r="F31" s="80" t="str">
+        <f t="shared" ref="F31:F34" si="0">IF(B31&lt;&gt;"",LEFT(B31,FIND("=",B31)-1),"")</f>
+        <v>$pmanager</v>
+      </c>
+      <c r="G31" s="46" t="str">
+        <f>IF(F31&lt;&gt;"",IF(G30="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F31,LEN(F31)-1)&amp;"'   =&gt;   "&amp;F31,"")</f>
+        <v>,'pmanager'   =&gt;   $pmanager</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="J31" s="42" t="str">
+        <f t="shared" ref="J31:J34" si="1">IF(F31&lt;&gt;"","{{"&amp;F31&amp;"}}","")</f>
+        <v>{{$pmanager}}</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="74" t="s">
+        <v>764</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="43"/>
+      <c r="F32" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>$project</v>
+      </c>
+      <c r="G32" s="46" t="str">
+        <f t="shared" ref="G32:G34" si="2">IF(F32&lt;&gt;"",IF(G31="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F32,LEN(F32)-1)&amp;"'   =&gt;   "&amp;F32,"")</f>
+        <v>,'project'   =&gt;   $project</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="J32" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>{{$project}}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="74" t="s">
+        <v>768</v>
+      </c>
+      <c r="C33" s="74"/>
+      <c r="D33" s="43"/>
+      <c r="F33" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>$list</v>
+      </c>
+      <c r="G33" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>,'list'   =&gt;   $list</v>
+      </c>
+      <c r="H33" s="42"/>
+      <c r="J33" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>{{$list}}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="43"/>
+      <c r="F34" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="J34" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
-        <v>627</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="43"/>
-      <c r="F19" s="83" t="str">
-        <f>IF(B19&lt;&gt;"",LEFT(B19,FIND("=",B19)-1),"")</f>
-        <v>$link</v>
-      </c>
-      <c r="G19" s="46" t="str">
-        <f>IF(F19&lt;&gt;"",IF(G18="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F19,LEN(F19)-1)&amp;"'   =&gt;   "&amp;F19,"")</f>
-        <v>'link'   =&gt;   $link</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="J19" s="42" t="str">
-        <f>IF(F19&lt;&gt;"","{{"&amp;F19&amp;"}}","")</f>
-        <v>{{$link}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="75" t="s">
-        <v>639</v>
-      </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="43"/>
-      <c r="F20" s="83" t="str">
-        <f t="shared" ref="F20:F23" si="0">IF(B20&lt;&gt;"",LEFT(B20,FIND("=",B20)-1),"")</f>
-        <v>$user</v>
-      </c>
-      <c r="G20" s="46" t="str">
-        <f>IF(F20&lt;&gt;"",IF(G19="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F20,LEN(F20)-1)&amp;"'   =&gt;   "&amp;F20,"")</f>
-        <v>,'user'   =&gt;   $user</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="J20" s="42" t="str">
-        <f t="shared" ref="J20:J23" si="1">IF(F20&lt;&gt;"","{{"&amp;F20&amp;"}}","")</f>
-        <v>{{$user}}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="43"/>
-      <c r="F21" s="83" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G21" s="46" t="str">
-        <f t="shared" ref="G21:G23" si="2">IF(F21&lt;&gt;"",IF(G20="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F21,LEN(F21)-1)&amp;"'   =&gt;   "&amp;F21,"")</f>
-        <v/>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="J21" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="43"/>
-      <c r="F22" s="83" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="J22" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="43"/>
-      <c r="F23" s="83" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H23" s="42"/>
-      <c r="J23" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="46" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="46" t="s">
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>762</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="43"/>
+      <c r="F39" s="80" t="str">
+        <f>IF(B39&lt;&gt;"",LEFT(B39,FIND("=",B39)-1),"")</f>
+        <v>$coll</v>
+      </c>
+      <c r="G39" s="46" t="str">
+        <f>"    'recipient'    =&gt;    "&amp;F39</f>
+        <v xml:space="preserve">    'recipient'    =&gt;    $coll</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="74" t="s">
+        <v>762</v>
+      </c>
+      <c r="C40" s="74"/>
+      <c r="D40" s="43"/>
+      <c r="F40" s="80" t="str">
+        <f t="shared" ref="F40:F43" si="3">IF(B40&lt;&gt;"",LEFT(B40,FIND("=",B40)-1),"")</f>
+        <v>$coll</v>
+      </c>
+      <c r="G40" s="46" t="str">
+        <f>"   , 'r_name'    =&gt;    "&amp;F40</f>
+        <v xml:space="preserve">   , 'r_name'    =&gt;    $coll</v>
+      </c>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="B28" s="75" t="s">
-        <v>640</v>
-      </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="43"/>
-      <c r="F28" s="83" t="str">
-        <f>IF(B28&lt;&gt;"",LEFT(B28,FIND("=",B28)-1),"")</f>
-        <v>$email</v>
-      </c>
-      <c r="G28" s="46" t="str">
-        <f>"    'recipient'    =&gt;    "&amp;F28</f>
-        <v xml:space="preserve">    'recipient'    =&gt;    $email</v>
-      </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="B41" s="74" t="s">
+        <v>763</v>
+      </c>
+      <c r="C41" s="74"/>
+      <c r="D41" s="43"/>
+      <c r="F41" s="81" t="str">
+        <f>IF(B41&lt;&gt;"",LEFT(B41,FIND("=",B41)-1),"'support@healmydisease.com'")</f>
+        <v>$pmanager</v>
+      </c>
+      <c r="G41" s="46" t="str">
+        <f>"   , 'sender'    =&gt;    "&amp;F41</f>
+        <v xml:space="preserve">   , 'sender'    =&gt;    $pmanager</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="75" t="s">
-        <v>629</v>
-      </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="43"/>
-      <c r="F29" s="83" t="str">
-        <f t="shared" ref="F29:F32" si="3">IF(B29&lt;&gt;"",LEFT(B29,FIND("=",B29)-1),"")</f>
-        <v>$name</v>
-      </c>
-      <c r="G29" s="46" t="str">
-        <f>"   , 'r_name'    =&gt;    "&amp;F29</f>
-        <v xml:space="preserve">   , 'r_name'    =&gt;    $name</v>
-      </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="43"/>
-      <c r="F30" s="84" t="str">
-        <f>IF(B30&lt;&gt;"",LEFT(B30,FIND("=",B30)-1),"'support@healmydisease.com'")</f>
-        <v>'support@healmydisease.com'</v>
-      </c>
-      <c r="G30" s="46" t="str">
-        <f>"   , 'sender'    =&gt;    "&amp;F30</f>
-        <v xml:space="preserve">   , 'sender'    =&gt;    'support@healmydisease.com'</v>
-      </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="43"/>
-      <c r="F31" s="84" t="str">
-        <f>IF(B31&lt;&gt;"",LEFT(B31,FIND("=",B31)-1),"'The HMD team'")</f>
-        <v>'The HMD team'</v>
-      </c>
-      <c r="G31" s="46" t="str">
-        <f>"   , 's_name'    =&gt;    "&amp;F31</f>
-        <v xml:space="preserve">   , 's_name'    =&gt;    'The HMD team'</v>
-      </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="B32" s="75" t="s">
-        <v>628</v>
-      </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="43"/>
-      <c r="F32" s="83" t="str">
+      <c r="B42" s="74" t="s">
+        <v>763</v>
+      </c>
+      <c r="C42" s="74"/>
+      <c r="D42" s="43"/>
+      <c r="F42" s="81" t="str">
+        <f>IF(B42&lt;&gt;"",LEFT(B42,FIND("=",B42)-1),"'The HMD team'")</f>
+        <v>$pmanager</v>
+      </c>
+      <c r="G42" s="46" t="str">
+        <f>"   , 's_name'    =&gt;    "&amp;F42</f>
+        <v xml:space="preserve">   , 's_name'    =&gt;    $pmanager</v>
+      </c>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>766</v>
+      </c>
+      <c r="C43" s="74"/>
+      <c r="D43" s="43"/>
+      <c r="F43" s="80" t="str">
         <f t="shared" si="3"/>
         <v>$subject</v>
       </c>
-      <c r="G32" s="46" t="str">
-        <f>"   , 'subject'    =&gt;    "&amp;F32</f>
+      <c r="G43" s="46" t="str">
+        <f>"   , 'subject'    =&gt;    "&amp;F43</f>
         <v xml:space="preserve">   , 'subject'    =&gt;    $subject</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="46" t="s">
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="67" t="str">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="66" t="str">
         <f>"Mail::send(   '"&amp;H13&amp;"',   $mssgdata,  function($message) use ($maildata) {"</f>
-        <v>Mail::send(   'emails.resetpwd',   $mssgdata,  function($message) use ($maildata) {</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="67" t="s">
+        <v>Mail::send(   'emails.reportofadopted',   $mssgdata,  function($message) use ($maildata) {</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="66" t="s">
+        <v>622</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="67" t="s">
-        <v>624</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="67" t="s">
+      <c r="D50" s="23"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="66" t="s">
+        <v>626</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9654,7 +10788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -9795,7 +10929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
@@ -10774,7 +11908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -10792,81 +11926,81 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-    </row>
-    <row r="13" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+    <row r="15" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
         <v>364</v>
       </c>
     </row>
@@ -10883,33 +12017,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10918,7 +12025,7 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -11022,7 +12129,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>573</v>
+        <v>770</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -11054,9 +12161,9 @@
       </c>
       <c r="C16" s="17" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir t3</v>
-      </c>
-      <c r="D16" s="77"/>
+        <v>mkdir dosetracker</v>
+      </c>
+      <c r="D16" s="76"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -11067,7 +12174,7 @@
       </c>
       <c r="C17" s="17" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd t3</v>
+        <v>cd dosetracker</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -11116,7 +12223,7 @@
       </c>
       <c r="C24" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd c:\wamp\www\github\t3</v>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -11130,13 +12237,13 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D27" s="54"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -11145,13 +12252,13 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
@@ -11159,30 +12266,33 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="80" t="s">
+    <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B33" s="114" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="73"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="73"/>
-    </row>
-    <row r="36" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="72"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="72"/>
+    </row>
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
@@ -11235,6 +12345,9 @@
     <row r="98" x14ac:dyDescent="0.25"/>
     <row r="99" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B33:E33"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Select from list" sqref="C14">
       <formula1>#REF!</formula1>
@@ -11251,10 +12364,37 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11263,419 +12403,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="97" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
-        <v>641</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>659</v>
-      </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
+        <v>635</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>653</v>
+      </c>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="94" t="s">
-        <v>651</v>
+      <c r="B5" s="91" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="103" t="s">
-        <v>680</v>
+      <c r="B6" s="100" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="101" t="str">
+      <c r="C8" s="98" t="str">
         <f>"cd "&amp;C7</f>
         <v>cd testtwo</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="101" t="s">
-        <v>648</v>
-      </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="C9" s="98" t="s">
+        <v>642</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="42" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="101" t="s">
-        <v>647</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
+      <c r="C10" s="98" t="s">
+        <v>641</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="101" t="s">
-        <v>676</v>
-      </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
+      <c r="C11" s="98" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>678</v>
-      </c>
-      <c r="F13" s="102" t="str">
+        <v>672</v>
+      </c>
+      <c r="F13" s="99" t="str">
         <f>C7</f>
         <v>testtwo</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="101" t="str">
+      <c r="C14" s="98" t="str">
         <f>"git remote add origin https://github.com/alejoto/"&amp;C7&amp;".git"</f>
         <v>git remote add origin https://github.com/alejoto/testtwo.git</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="101" t="s">
-        <v>662</v>
-      </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
+      <c r="C15" s="98" t="s">
+        <v>656</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="101" t="s">
-        <v>679</v>
-      </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
+      <c r="C16" s="98" t="s">
+        <v>673</v>
+      </c>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="103" t="s">
-        <v>681</v>
+      <c r="B19" s="100" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="101" t="s">
-        <v>661</v>
-      </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
+      <c r="C21" s="98" t="s">
+        <v>655</v>
+      </c>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
       <c r="F23" s="43"/>
-      <c r="G23" s="74" t="s">
-        <v>644</v>
+      <c r="G23" s="73" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="101" t="s">
-        <v>647</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="G24" s="74" t="s">
-        <v>645</v>
+      <c r="C24" s="98" t="s">
+        <v>641</v>
+      </c>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="G24" s="73" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="74" t="s">
-        <v>646</v>
+      <c r="B25" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>736</v>
+      </c>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="G25" s="73" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" s="42" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="101" t="str">
+      <c r="C27" s="98" t="str">
         <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
-        <v>git commit -m "from controller to model"</v>
-      </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
+        <v>git commit -m "progress request"</v>
+      </c>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="101" t="s">
-        <v>662</v>
-      </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
+      <c r="C28" s="98" t="s">
+        <v>656</v>
+      </c>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="101" t="s">
-        <v>679</v>
-      </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
+      <c r="C29" s="98" t="s">
+        <v>673</v>
+      </c>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="101" t="s">
-        <v>726</v>
-      </c>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="98" t="s">
+        <v>720</v>
+      </c>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="101" t="s">
-        <v>747</v>
-      </c>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
+      <c r="C33" s="98" t="s">
+        <v>738</v>
+      </c>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="101" t="s">
-        <v>661</v>
-      </c>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
+      <c r="C36" s="98" t="s">
+        <v>655</v>
+      </c>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="91"/>
-      <c r="C37" s="101" t="s">
-        <v>679</v>
-      </c>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="98" t="s">
+        <v>673</v>
+      </c>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="91"/>
-      <c r="C38" s="101" t="s">
-        <v>726</v>
-      </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="98" t="s">
+        <v>720</v>
+      </c>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="42" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="K42" s="42" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
-        <v>669</v>
-      </c>
-      <c r="K43" s="92" t="s">
+        <v>663</v>
+      </c>
+      <c r="K43" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="L43" s="93" t="s">
-        <v>664</v>
-      </c>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
+      <c r="L43" s="90" t="s">
+        <v>658</v>
+      </c>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="K44" s="42" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="98" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="91" t="s">
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="101" t="s">
-        <v>671</v>
-      </c>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="101" t="s">
-        <v>672</v>
-      </c>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
+      <c r="C46" s="98" t="s">
+        <v>666</v>
+      </c>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="95" t="s">
-        <v>660</v>
+      <c r="B47" s="92" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="42" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="101" t="s">
-        <v>642</v>
-      </c>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
+      <c r="C51" s="98" t="s">
+        <v>636</v>
+      </c>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="92" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="96" t="s">
+        <v>647</v>
+      </c>
+      <c r="C53" s="94" t="s">
+        <v>648</v>
+      </c>
+      <c r="D53" s="93"/>
+      <c r="E53" s="42" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="96" t="s">
+        <v>647</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>649</v>
+      </c>
+      <c r="D54" s="93"/>
+      <c r="E54" s="42" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="96"/>
+      <c r="C55" s="96" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="99" t="s">
-        <v>653</v>
-      </c>
-      <c r="C53" s="97" t="s">
-        <v>654</v>
-      </c>
-      <c r="D53" s="96"/>
-      <c r="E53" s="42" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="99" t="s">
-        <v>653</v>
-      </c>
-      <c r="C54" s="98" t="s">
-        <v>655</v>
-      </c>
-      <c r="D54" s="96"/>
-      <c r="E54" s="42" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="99"/>
-      <c r="C55" s="99" t="s">
-        <v>658</v>
-      </c>
-      <c r="D55" s="99"/>
+      <c r="D55" s="96"/>
       <c r="E55" s="42" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="103" t="s">
-        <v>693</v>
+      <c r="B58" s="100" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="42" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>575</v>
@@ -11683,167 +12831,167 @@
       <c r="D59" s="43"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="101" t="str">
+      <c r="C60" s="98" t="str">
         <f>"git branch "&amp;C59</f>
         <v>git branch two</v>
       </c>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="101" t="str">
+      <c r="C61" s="98" t="str">
         <f>"git checkout "&amp;C59</f>
         <v>git checkout two</v>
       </c>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="42" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="42" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D65" s="42" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F65" s="43"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="101" t="s">
-        <v>647</v>
-      </c>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
+      <c r="C66" s="98" t="s">
+        <v>641</v>
+      </c>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D67" s="42" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="91" t="s">
+      <c r="B68" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="101" t="str">
+      <c r="C68" s="98" t="str">
         <f>"git commit -m "&amp;$A$1&amp;E65&amp;$A$1</f>
         <v>git commit -m "fixing request bug"</v>
       </c>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="101" t="str">
+      <c r="C69" s="98" t="str">
         <f>"git push origin "&amp;C59</f>
         <v>git push origin two</v>
       </c>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="91" t="s">
+      <c r="B71" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="101" t="str">
+      <c r="C71" s="98" t="str">
         <f>"git pull origin "&amp;C59</f>
         <v>git pull origin two</v>
       </c>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
       <c r="F71" s="42" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="42" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="91" t="s">
+      <c r="B74" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="101" t="s">
-        <v>690</v>
-      </c>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
+      <c r="C74" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="91" t="s">
+      <c r="B75" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="101" t="str">
+      <c r="C75" s="98" t="str">
         <f>"git merge "&amp;C59</f>
         <v>git merge two</v>
       </c>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="101" t="s">
-        <v>663</v>
-      </c>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
+      <c r="C76" s="98" t="s">
+        <v>657</v>
+      </c>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="42" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="42" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="92" t="s">
+      <c r="B80" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="93" t="str">
+      <c r="C80" s="90" t="str">
         <f>"git branch -d "&amp;C59</f>
         <v>git branch -d two</v>
       </c>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="92" t="s">
+      <c r="B81" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="93" t="str">
+      <c r="C81" s="90" t="str">
         <f>"git push origin --delete "&amp;C59</f>
         <v>git push origin --delete two</v>
       </c>
-      <c r="D81" s="104"/>
-      <c r="E81" s="104"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11852,7 +13000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G9"/>
   <sheetViews>
@@ -11867,47 +13015,47 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="101" t="s">
-        <v>694</v>
-      </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
+      <c r="C6" s="98" t="s">
+        <v>688</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="101" t="s">
-        <v>725</v>
-      </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
+      <c r="C9" s="98" t="s">
+        <v>719</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11917,10 +13065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -12015,7 +13163,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>589</v>
       </c>
     </row>
@@ -12024,9 +13172,9 @@
       <c r="B14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="74" t="str">
+      <c r="C14" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>t3</v>
+        <v>dosetracker</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -12034,7 +13182,7 @@
       <c r="B15" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="74" t="str">
+      <c r="C15" s="73" t="str">
         <f>'Start project'!C14</f>
         <v>github</v>
       </c>
@@ -12052,7 +13200,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\t3</v>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -12064,38 +13212,38 @@
         <v>86</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="17" t="str">
-        <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\t3</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>9</v>
+      <c r="C23" s="17" t="str">
+        <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -12103,20 +13251,20 @@
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:7" s="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="54"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
@@ -12146,7 +13294,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>376</v>
@@ -12154,7 +13302,7 @@
       <c r="G33" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="H33" s="62" t="str">
+      <c r="H33" s="61" t="str">
         <f>D33</f>
         <v>c3</v>
       </c>
@@ -12165,7 +13313,7 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>E33&amp;D33&amp;"/"</f>
@@ -12174,7 +13322,7 @@
       <c r="G34" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="H34" s="62" t="str">
+      <c r="H34" s="61" t="str">
         <f>D34&amp;".blade.php"</f>
         <v>b_teamchecker.blade.php</v>
       </c>
@@ -12245,7 +13393,7 @@
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="66" t="s">
         <v>384</v>
       </c>
       <c r="D41" s="23"/>
@@ -12255,7 +13403,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="67" t="s">
         <v>423</v>
       </c>
       <c r="D42" s="23"/>
@@ -12267,7 +13415,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="67" t="s">
         <v>424</v>
       </c>
       <c r="D43" s="23"/>
@@ -12277,7 +13425,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="66" t="s">
         <v>425</v>
       </c>
       <c r="D44" s="23"/>
@@ -12297,7 +13445,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="66" t="s">
         <v>424</v>
       </c>
       <c r="D46" s="23"/>
@@ -12396,7 +13544,7 @@
       <c r="E56" s="19"/>
     </row>
     <row r="57" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="78" t="s">
         <v>599</v>
       </c>
       <c r="C57" s="19"/>
@@ -12448,6 +13596,7 @@
     <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="104" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B57" location="'tables and models'!A1" display="Tables and models"/>
@@ -12460,11 +13609,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S108"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:D47"/>
-    </sheetView>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12558,7 +13705,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>589</v>
       </c>
     </row>
@@ -12567,9 +13714,9 @@
       <c r="B14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="74" t="str">
+      <c r="C14" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>t3</v>
+        <v>dosetracker</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -12577,7 +13724,7 @@
       <c r="B15" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="74" t="str">
+      <c r="C15" s="73" t="str">
         <f>'Start project'!C14</f>
         <v>github</v>
       </c>
@@ -12595,7 +13742,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\t3</v>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -12607,38 +13754,38 @@
         <v>86</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="17" t="str">
-        <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\t3</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>9</v>
+      <c r="C23" s="17" t="str">
+        <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -12652,13 +13799,13 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
@@ -12677,7 +13824,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="D31" s="9"/>
       <c r="F31" s="46" t="str">
@@ -12695,7 +13842,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="D32" s="9"/>
       <c r="F32" s="46" t="str">
@@ -12742,7 +13889,7 @@
         <v>62</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>LEFT(D36,LEN(D36)-1)</f>
@@ -12785,7 +13932,7 @@
         <v>63</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>93</v>
@@ -12806,23 +13953,23 @@
       <c r="M38" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="61" t="str">
+      <c r="N38" s="60" t="str">
         <f>IF(AND(C38&lt;&gt;"",D38&lt;&gt;""),IF(N37="concatenator1","",",")&amp;C38&amp;":"&amp;D38,"")</f>
         <v>genericname:string</v>
       </c>
-      <c r="O38" s="61" t="str">
+      <c r="O38" s="60" t="str">
         <f>IF(AND(G38&lt;&gt;"",H38&lt;&gt;""),","&amp;G38&amp;":"&amp;H38,"")</f>
         <v/>
       </c>
-      <c r="P38" s="61" t="str">
+      <c r="P38" s="60" t="str">
         <f>P37&amp;N38</f>
         <v>genericname:string</v>
       </c>
-      <c r="Q38" s="61" t="str">
+      <c r="Q38" s="60" t="str">
         <f>Q37&amp;O38</f>
         <v/>
       </c>
-      <c r="S38" s="61" t="s">
+      <c r="S38" s="60" t="s">
         <v>416</v>
       </c>
     </row>
@@ -12831,7 +13978,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>93</v>
@@ -12852,23 +13999,23 @@
       <c r="M39" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="N39" s="61" t="str">
+      <c r="N39" s="60" t="str">
         <f t="shared" ref="N39:N47" si="2">IF(AND(C39&lt;&gt;"",D39&lt;&gt;""),IF(N38="concatenator1","",",")&amp;C39&amp;":"&amp;D39,"")</f>
         <v>,active_numerator:string</v>
       </c>
-      <c r="O39" s="61" t="str">
+      <c r="O39" s="60" t="str">
         <f t="shared" ref="O39:O47" si="3">IF(AND(G39&lt;&gt;"",H39&lt;&gt;""),","&amp;G39&amp;":"&amp;H39,"")</f>
         <v/>
       </c>
-      <c r="P39" s="61" t="str">
+      <c r="P39" s="60" t="str">
         <f t="shared" ref="P39:Q47" si="4">P38&amp;N39</f>
         <v>genericname:string,active_numerator:string</v>
       </c>
-      <c r="Q39" s="61" t="str">
+      <c r="Q39" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S39" s="61" t="s">
+      <c r="S39" s="60" t="s">
         <v>417</v>
       </c>
     </row>
@@ -12877,7 +14024,7 @@
         <v>65</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>93</v>
@@ -12898,19 +14045,19 @@
       <c r="M40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="N40" s="61" t="str">
+      <c r="N40" s="60" t="str">
         <f t="shared" si="2"/>
         <v>,active_ingredient_unit:string</v>
       </c>
-      <c r="O40" s="61" t="str">
+      <c r="O40" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P40" s="61" t="str">
+      <c r="P40" s="60" t="str">
         <f t="shared" si="4"/>
         <v>genericname:string,active_numerator:string,active_ingredient_unit:string</v>
       </c>
-      <c r="Q40" s="61" t="str">
+      <c r="Q40" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -12920,7 +14067,7 @@
         <v>66</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>93</v>
@@ -12941,19 +14088,19 @@
       <c r="M41" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="N41" s="61" t="str">
+      <c r="N41" s="60" t="str">
         <f t="shared" si="2"/>
         <v>,dosage_form:string</v>
       </c>
-      <c r="O41" s="61" t="str">
+      <c r="O41" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P41" s="61" t="str">
+      <c r="P41" s="60" t="str">
         <f t="shared" si="4"/>
         <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string</v>
       </c>
-      <c r="Q41" s="61" t="str">
+      <c r="Q41" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -12963,7 +14110,7 @@
         <v>67</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>93</v>
@@ -12984,19 +14131,19 @@
       <c r="M42" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="N42" s="61" t="str">
+      <c r="N42" s="60" t="str">
         <f t="shared" si="2"/>
         <v>,commercial_name:string</v>
       </c>
-      <c r="O42" s="61" t="str">
+      <c r="O42" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P42" s="61" t="str">
+      <c r="P42" s="60" t="str">
         <f t="shared" si="4"/>
         <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string</v>
       </c>
-      <c r="Q42" s="61" t="str">
+      <c r="Q42" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13006,7 +14153,7 @@
         <v>68</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>93</v>
@@ -13027,19 +14174,19 @@
       <c r="M43" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="N43" s="61" t="str">
+      <c r="N43" s="60" t="str">
         <f t="shared" si="2"/>
         <v>,application_route:string</v>
       </c>
-      <c r="O43" s="61" t="str">
+      <c r="O43" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P43" s="61" t="str">
+      <c r="P43" s="60" t="str">
         <f t="shared" si="4"/>
         <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string</v>
       </c>
-      <c r="Q43" s="61" t="str">
+      <c r="Q43" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13049,7 +14196,7 @@
         <v>69</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>93</v>
@@ -13070,19 +14217,19 @@
       <c r="M44" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="N44" s="61" t="str">
+      <c r="N44" s="60" t="str">
         <f t="shared" si="2"/>
         <v>,labeler:string</v>
       </c>
-      <c r="O44" s="61" t="str">
+      <c r="O44" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P44" s="61" t="str">
+      <c r="P44" s="60" t="str">
         <f t="shared" si="4"/>
         <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string</v>
       </c>
-      <c r="Q44" s="61" t="str">
+      <c r="Q44" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13092,7 +14239,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>93</v>
@@ -13113,19 +14260,19 @@
       <c r="M45" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="N45" s="61" t="str">
+      <c r="N45" s="60" t="str">
         <f t="shared" si="2"/>
         <v>,fdaNDC_id:string</v>
       </c>
-      <c r="O45" s="61" t="str">
+      <c r="O45" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P45" s="61" t="str">
+      <c r="P45" s="60" t="str">
         <f t="shared" si="4"/>
         <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string</v>
       </c>
-      <c r="Q45" s="61" t="str">
+      <c r="Q45" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13152,19 +14299,19 @@
       <c r="M46" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="N46" s="61" t="str">
+      <c r="N46" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O46" s="61" t="str">
+      <c r="O46" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P46" s="61" t="str">
+      <c r="P46" s="60" t="str">
         <f t="shared" si="4"/>
         <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string</v>
       </c>
-      <c r="Q46" s="61" t="str">
+      <c r="Q46" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13191,19 +14338,19 @@
       <c r="M47" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="N47" s="61" t="str">
+      <c r="N47" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O47" s="61" t="str">
+      <c r="O47" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P47" s="61" t="str">
+      <c r="P47" s="60" t="str">
         <f t="shared" si="4"/>
         <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string</v>
       </c>
-      <c r="Q47" s="61" t="str">
+      <c r="Q47" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -13275,7 +14422,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -13374,6 +14521,7 @@
     <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="109" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59 H38:H47 D38:D47">
@@ -13388,6 +14536,173 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="109" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="J5" s="79" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="E6" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="J6" s="79" t="str">
+        <f>IF(OR(E6=L24,E6=L25),"BelongsTo","enter relationship")</f>
+        <v>BelongsTo</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="79" t="str">
+        <f>UPPER(LEFT(B6,1))&amp;MID(B6,2,LEN(B6)-2)</f>
+        <v>User</v>
+      </c>
+      <c r="C7" s="79" t="str">
+        <f>LOWER(B7)</f>
+        <v>user</v>
+      </c>
+      <c r="G7" s="79" t="str">
+        <f>UPPER(LEFT(G6,1))&amp;MID(G6,2,LEN(G6)-2)</f>
+        <v>Project</v>
+      </c>
+      <c r="H7" s="79" t="str">
+        <f>LOWER(G7)</f>
+        <v>project</v>
+      </c>
+      <c r="L7" s="79" t="str">
+        <f>B7</f>
+        <v>User</v>
+      </c>
+      <c r="M7" s="79" t="str">
+        <f>C7</f>
+        <v>user</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="str">
+        <f>"INSERT INSIDE "&amp;B7&amp;" MODEL"</f>
+        <v>INSERT INSIDE User MODEL</v>
+      </c>
+      <c r="G9" s="10" t="str">
+        <f>"INSERT INSIDE "&amp;G7&amp;" MODEL"</f>
+        <v>INSERT INSIDE Project MODEL</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="str">
+        <f>"    public function "&amp;H7&amp;"(){"</f>
+        <v xml:space="preserve">    public function project(){</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="46" t="str">
+        <f>"    public function "&amp;M7&amp;"(){"</f>
+        <v xml:space="preserve">    public function user(){</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="str">
+        <f>"        return $this-&gt;"&amp;E6&amp;"('"&amp;G7&amp;"');"</f>
+        <v xml:space="preserve">        return $this-&gt;hasMany('Project');</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="G12" s="46" t="str">
+        <f>"        return $this-&gt;"&amp;J6&amp;"('"&amp;L7&amp;"');"</f>
+        <v xml:space="preserve">        return $this-&gt;BelongsTo('User');</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="G13" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="63" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="63" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="63" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="63" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="63" t="s">
+        <v>748</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+      <formula1>$L$24:$L$28</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13397,25 +14712,25 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>710</v>
-      </c>
-      <c r="B1" s="105" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+    <row r="1" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="105" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
-        <v>718</v>
+      <c r="B2" s="102" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13440,19 +14755,19 @@
         <v>354</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>354</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -13463,11 +14778,11 @@
         <f>IF('tables and models'!C38&lt;&gt;"",'tables and models'!C38,"")</f>
         <v>genericname</v>
       </c>
-      <c r="D9" s="106" t="s">
-        <v>700</v>
-      </c>
-      <c r="E9" s="107" t="s">
-        <v>708</v>
+      <c r="D9" s="103" t="s">
+        <v>694</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>702</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>73</v>
@@ -13476,11 +14791,11 @@
         <f>IF('tables and models'!G38&lt;&gt;"",'tables and models'!G38,"")</f>
         <v/>
       </c>
-      <c r="I9" s="106" t="s">
-        <v>700</v>
+      <c r="I9" s="103" t="s">
+        <v>694</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -13491,7 +14806,7 @@
         <f>IF('tables and models'!C39&lt;&gt;"",'tables and models'!C39,"")</f>
         <v>active_numerator</v>
       </c>
-      <c r="D10" s="106"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="43"/>
       <c r="G10" s="10" t="s">
         <v>74</v>
@@ -13500,7 +14815,7 @@
         <f>IF('tables and models'!G39&lt;&gt;"",'tables and models'!G39,"")</f>
         <v/>
       </c>
-      <c r="I10" s="106"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -13511,7 +14826,7 @@
         <f>IF('tables and models'!C40&lt;&gt;"",'tables and models'!C40,"")</f>
         <v>active_ingredient_unit</v>
       </c>
-      <c r="D11" s="106"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="43"/>
       <c r="G11" s="10" t="s">
         <v>75</v>
@@ -13520,7 +14835,7 @@
         <f>IF('tables and models'!G40&lt;&gt;"",'tables and models'!G40,"")</f>
         <v/>
       </c>
-      <c r="I11" s="106"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -13531,7 +14846,7 @@
         <f>IF('tables and models'!C41&lt;&gt;"",'tables and models'!C41,"")</f>
         <v>dosage_form</v>
       </c>
-      <c r="D12" s="106"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="43"/>
       <c r="G12" s="10" t="s">
         <v>76</v>
@@ -13540,7 +14855,7 @@
         <f>IF('tables and models'!G41&lt;&gt;"",'tables and models'!G41,"")</f>
         <v/>
       </c>
-      <c r="I12" s="106"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -13551,7 +14866,7 @@
         <f>IF('tables and models'!C42&lt;&gt;"",'tables and models'!C42,"")</f>
         <v>commercial_name</v>
       </c>
-      <c r="D13" s="106"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="43"/>
       <c r="G13" s="10" t="s">
         <v>77</v>
@@ -13560,7 +14875,7 @@
         <f>IF('tables and models'!G42&lt;&gt;"",'tables and models'!G42,"")</f>
         <v/>
       </c>
-      <c r="I13" s="106"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -13571,11 +14886,11 @@
         <f>IF('tables and models'!C43&lt;&gt;"",'tables and models'!C43,"")</f>
         <v>application_route</v>
       </c>
-      <c r="D14" s="106" t="s">
-        <v>700</v>
+      <c r="D14" s="103" t="s">
+        <v>694</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>78</v>
@@ -13584,7 +14899,7 @@
         <f>IF('tables and models'!G43&lt;&gt;"",'tables and models'!G43,"")</f>
         <v/>
       </c>
-      <c r="I14" s="106"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -13595,7 +14910,7 @@
         <f>IF('tables and models'!C44&lt;&gt;"",'tables and models'!C44,"")</f>
         <v>labeler</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="43"/>
       <c r="G15" s="10" t="s">
         <v>79</v>
@@ -13604,7 +14919,7 @@
         <f>IF('tables and models'!G44&lt;&gt;"",'tables and models'!G44,"")</f>
         <v/>
       </c>
-      <c r="I15" s="106"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -13615,7 +14930,7 @@
         <f>IF('tables and models'!C45&lt;&gt;"",'tables and models'!C45,"")</f>
         <v>fdaNDC_id</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="43"/>
       <c r="G16" s="10" t="s">
         <v>80</v>
@@ -13624,7 +14939,7 @@
         <f>IF('tables and models'!G45&lt;&gt;"",'tables and models'!G45,"")</f>
         <v/>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="43"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -13635,7 +14950,7 @@
         <f>IF('tables and models'!C46&lt;&gt;"",'tables and models'!C46,"")</f>
         <v/>
       </c>
-      <c r="D17" s="106"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="43"/>
       <c r="G17" s="10" t="s">
         <v>81</v>
@@ -13644,7 +14959,7 @@
         <f>IF('tables and models'!G46&lt;&gt;"",'tables and models'!G46,"")</f>
         <v/>
       </c>
-      <c r="I17" s="106"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="43"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -13655,7 +14970,7 @@
         <f>IF('tables and models'!C47&lt;&gt;"",'tables and models'!C47,"")</f>
         <v/>
       </c>
-      <c r="D18" s="106"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="43"/>
       <c r="G18" s="10" t="s">
         <v>82</v>
@@ -13664,20 +14979,20 @@
         <f>IF('tables and models'!G47&lt;&gt;"",'tables and models'!G47,"")</f>
         <v/>
       </c>
-      <c r="I18" s="106"/>
+      <c r="I18" s="103"/>
       <c r="J18" s="43"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="109" t="s">
-        <v>715</v>
+      <c r="B21" s="106" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D22" s="43"/>
     </row>
@@ -13691,7 +15006,7 @@
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
       <c r="H24" s="10" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -13866,7 +15181,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -13874,13 +15189,13 @@
       <c r="F36" s="46"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="109" t="s">
-        <v>713</v>
+      <c r="B38" s="106" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E39" s="10" t="str">
         <f>F5&amp;".php"</f>
@@ -13889,10 +15204,10 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E40" s="12" t="str">
         <f>LEFT(C40,LEN(C40)-1)</f>
@@ -13905,7 +15220,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="46"/>
@@ -13964,27 +15279,27 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="40" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="39" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -13999,12 +15314,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14097,7 +15412,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>597</v>
       </c>
     </row>
@@ -14142,7 +15457,7 @@
         <v>86</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="76" t="s">
         <v>422</v>
       </c>
       <c r="E18" s="17"/>
@@ -14156,7 +15471,7 @@
         <v>86</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="77" t="str">
+      <c r="D19" s="76" t="str">
         <f>"rename-item edry "&amp;C15</f>
         <v>rename-item edry t3</v>
       </c>
@@ -14239,13 +15554,13 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
@@ -14253,13 +15568,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="53"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
@@ -14283,7 +15598,7 @@
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>376</v>
@@ -14291,7 +15606,7 @@
       <c r="G37" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="H37" s="62" t="str">
+      <c r="H37" s="61" t="str">
         <f>D37</f>
         <v>trapear</v>
       </c>
@@ -14302,7 +15617,7 @@
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E38" s="19" t="str">
         <f>E37&amp;D37&amp;"/"</f>
@@ -14311,7 +15626,7 @@
       <c r="G38" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="H38" s="62" t="str">
+      <c r="H38" s="61" t="str">
         <f>D38&amp;".blade.php"</f>
         <v>trapeadora.blade.php</v>
       </c>
@@ -14382,7 +15697,7 @@
       <c r="E44" s="19"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="66" t="s">
         <v>384</v>
       </c>
       <c r="D45" s="23"/>
@@ -14392,7 +15707,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="67" t="s">
         <v>423</v>
       </c>
       <c r="D46" s="23"/>
@@ -14404,7 +15719,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="67" t="s">
         <v>424</v>
       </c>
       <c r="D47" s="23"/>
@@ -14414,7 +15729,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="66" t="s">
         <v>425</v>
       </c>
       <c r="D48" s="23"/>
@@ -14434,7 +15749,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="66" t="s">
         <v>424</v>
       </c>
       <c r="D50" s="23"/>
@@ -14671,23 +15986,23 @@
       <c r="M70" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="N70" s="61" t="str">
+      <c r="N70" s="60" t="str">
         <f>IF(AND(C70&lt;&gt;"",D70&lt;&gt;""),IF(N69="concatenator1","",",")&amp;C70&amp;":"&amp;D70,"")</f>
         <v>pagename:string</v>
       </c>
-      <c r="O70" s="61" t="str">
+      <c r="O70" s="60" t="str">
         <f>IF(AND(G70&lt;&gt;"",H70&lt;&gt;""),","&amp;G70&amp;":"&amp;H70,"")</f>
         <v/>
       </c>
-      <c r="P70" s="61" t="str">
+      <c r="P70" s="60" t="str">
         <f>P69&amp;N70</f>
         <v>pagename:string</v>
       </c>
-      <c r="Q70" s="61" t="str">
+      <c r="Q70" s="60" t="str">
         <f>Q69&amp;O70</f>
         <v/>
       </c>
-      <c r="S70" s="61" t="s">
+      <c r="S70" s="60" t="s">
         <v>416</v>
       </c>
     </row>
@@ -14717,23 +16032,23 @@
       <c r="M71" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="N71" s="61" t="str">
+      <c r="N71" s="60" t="str">
         <f t="shared" ref="N71:N79" si="2">IF(AND(C71&lt;&gt;"",D71&lt;&gt;""),IF(N70="concatenator1","",",")&amp;C71&amp;":"&amp;D71,"")</f>
         <v>,pagedescription:string</v>
       </c>
-      <c r="O71" s="61" t="str">
+      <c r="O71" s="60" t="str">
         <f t="shared" ref="O71:O79" si="3">IF(AND(G71&lt;&gt;"",H71&lt;&gt;""),","&amp;G71&amp;":"&amp;H71,"")</f>
         <v/>
       </c>
-      <c r="P71" s="61" t="str">
+      <c r="P71" s="60" t="str">
         <f t="shared" ref="P71:P79" si="4">P70&amp;N71</f>
         <v>pagename:string,pagedescription:string</v>
       </c>
-      <c r="Q71" s="61" t="str">
+      <c r="Q71" s="60" t="str">
         <f t="shared" ref="Q71:Q79" si="5">Q70&amp;O71</f>
         <v/>
       </c>
-      <c r="S71" s="61" t="s">
+      <c r="S71" s="60" t="s">
         <v>417</v>
       </c>
     </row>
@@ -14742,7 +16057,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D72" s="9"/>
       <c r="F72" s="10" t="s">
@@ -14761,19 +16076,19 @@
       <c r="M72" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="N72" s="61" t="str">
+      <c r="N72" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O72" s="61" t="str">
+      <c r="O72" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P72" s="61" t="str">
+      <c r="P72" s="60" t="str">
         <f t="shared" si="4"/>
         <v>pagename:string,pagedescription:string</v>
       </c>
-      <c r="Q72" s="61" t="str">
+      <c r="Q72" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14783,7 +16098,7 @@
         <v>66</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D73" s="9"/>
       <c r="F73" s="10" t="s">
@@ -14802,19 +16117,19 @@
       <c r="M73" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="N73" s="61" t="str">
+      <c r="N73" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O73" s="61" t="str">
+      <c r="O73" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P73" s="61" t="str">
+      <c r="P73" s="60" t="str">
         <f t="shared" si="4"/>
         <v>pagename:string,pagedescription:string</v>
       </c>
-      <c r="Q73" s="61" t="str">
+      <c r="Q73" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14824,7 +16139,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D74" s="9"/>
       <c r="F74" s="10" t="s">
@@ -14843,19 +16158,19 @@
       <c r="M74" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="N74" s="61" t="str">
+      <c r="N74" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O74" s="61" t="str">
+      <c r="O74" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P74" s="61" t="str">
+      <c r="P74" s="60" t="str">
         <f t="shared" si="4"/>
         <v>pagename:string,pagedescription:string</v>
       </c>
-      <c r="Q74" s="61" t="str">
+      <c r="Q74" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14865,7 +16180,7 @@
         <v>68</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D75" s="9"/>
       <c r="F75" s="10" t="s">
@@ -14884,19 +16199,19 @@
       <c r="M75" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="N75" s="61" t="str">
+      <c r="N75" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O75" s="61" t="str">
+      <c r="O75" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P75" s="61" t="str">
+      <c r="P75" s="60" t="str">
         <f t="shared" si="4"/>
         <v>pagename:string,pagedescription:string</v>
       </c>
-      <c r="Q75" s="61" t="str">
+      <c r="Q75" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14906,7 +16221,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D76" s="9"/>
       <c r="F76" s="10" t="s">
@@ -14925,19 +16240,19 @@
       <c r="M76" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="N76" s="61" t="str">
+      <c r="N76" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O76" s="61" t="str">
+      <c r="O76" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P76" s="61" t="str">
+      <c r="P76" s="60" t="str">
         <f t="shared" si="4"/>
         <v>pagename:string,pagedescription:string</v>
       </c>
-      <c r="Q76" s="61" t="str">
+      <c r="Q76" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -14947,7 +16262,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D77" s="9"/>
       <c r="F77" s="10" t="s">
@@ -14966,19 +16281,19 @@
       <c r="M77" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="N77" s="61" t="str">
+      <c r="N77" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O77" s="61" t="str">
+      <c r="O77" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P77" s="61" t="str">
+      <c r="P77" s="60" t="str">
         <f t="shared" si="4"/>
         <v>pagename:string,pagedescription:string</v>
       </c>
-      <c r="Q77" s="61" t="str">
+      <c r="Q77" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -15005,19 +16320,19 @@
       <c r="M78" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="N78" s="61" t="str">
+      <c r="N78" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O78" s="61" t="str">
+      <c r="O78" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P78" s="61" t="str">
+      <c r="P78" s="60" t="str">
         <f t="shared" si="4"/>
         <v>pagename:string,pagedescription:string</v>
       </c>
-      <c r="Q78" s="61" t="str">
+      <c r="Q78" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -15044,19 +16359,19 @@
       <c r="M79" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="N79" s="61" t="str">
+      <c r="N79" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O79" s="61" t="str">
+      <c r="O79" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P79" s="61" t="str">
+      <c r="P79" s="60" t="str">
         <f t="shared" si="4"/>
         <v>pagename:string,pagedescription:string</v>
       </c>
-      <c r="Q79" s="61" t="str">
+      <c r="Q79" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -15194,7 +16509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I66"/>
   <sheetViews>
@@ -15541,12 +16856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16279,6 +17594,9 @@
         <f>UPPER(LEFT(D44,1))&amp;RIGHT(D44,LEN(D44)-1)</f>
         <v>Trapeartrapeadora</v>
       </c>
+      <c r="H44" s="10" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
@@ -16289,6 +17607,9 @@
         <v>trapear</v>
       </c>
       <c r="E45" s="12"/>
+      <c r="H45" s="10" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
@@ -16520,23 +17841,23 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="59" t="str">
+      <c r="B76" s="58" t="str">
         <f>"         "&amp;IF('AutoLaravel v1'!G70&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G70&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G71&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G71&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G72&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G72&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G73&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G73&amp;$C$3,"")</f>
         <v xml:space="preserve">         </v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="55" t="s">
         <v>412</v>
       </c>
-      <c r="D76" s="57"/>
+      <c r="D76" s="56"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="58" t="str">
+      <c r="B77" s="57" t="str">
         <f>"         "&amp;IF('AutoLaravel v1'!G74&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G74&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G75&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G75&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G76&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G76&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G77&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G77&amp;$C$3,"")</f>
         <v xml:space="preserve">         </v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="58" t="str">
+      <c r="B78" s="57" t="str">
         <f>"         "&amp;IF('AutoLaravel v1'!G78&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G78&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G79&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!D68&amp;"_"&amp;'AutoLaravel v1'!G79&amp;$C$3,"")</f>
         <v xml:space="preserve">         </v>
       </c>
@@ -16561,21 +17882,21 @@
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="63" t="s">
+      <c r="G83" s="62" t="s">
         <v>274</v>
       </c>
       <c r="H83" s="12" t="str">
         <f>'AutoLaravel v1'!D68</f>
         <v>pages</v>
       </c>
-      <c r="I83" s="63" t="s">
+      <c r="I83" s="62" t="s">
         <v>213</v>
       </c>
       <c r="J83" s="12" t="str">
         <f>'AutoLaravel v1'!G68</f>
         <v>Page</v>
       </c>
-      <c r="K83" s="63" t="s">
+      <c r="K83" s="62" t="s">
         <v>275</v>
       </c>
       <c r="L83" s="12" t="str">
@@ -16867,163 +18188,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>541</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -22,21 +22,22 @@
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId8"/>
     <sheet name="FormGeneratorV1" sheetId="12" r:id="rId9"/>
     <sheet name="CRUD v1" sheetId="18" r:id="rId10"/>
-    <sheet name="Modal edit form" sheetId="19" r:id="rId11"/>
-    <sheet name="imperfect update v1" sheetId="20" r:id="rId12"/>
-    <sheet name="inline ajax edit v1" sheetId="14" r:id="rId13"/>
-    <sheet name="amChartsv1" sheetId="17" r:id="rId14"/>
-    <sheet name="laravelAuth v1" sheetId="7" r:id="rId15"/>
-    <sheet name="Laravel mail v1" sheetId="10" r:id="rId16"/>
-    <sheet name="Controller generator" sheetId="11" state="hidden" r:id="rId17"/>
-    <sheet name="table relations v1" sheetId="13" r:id="rId18"/>
-    <sheet name="pending to automate" sheetId="16" r:id="rId19"/>
-    <sheet name="error ptscreen" sheetId="9" r:id="rId20"/>
-    <sheet name="git commands" sheetId="24" r:id="rId21"/>
-    <sheet name="Test unit v1" sheetId="25" r:id="rId22"/>
+    <sheet name="Modal2" sheetId="28" r:id="rId11"/>
+    <sheet name="Modal edit form" sheetId="19" state="hidden" r:id="rId12"/>
+    <sheet name="imperfect update v1" sheetId="20" r:id="rId13"/>
+    <sheet name="inline ajax edit v1" sheetId="14" r:id="rId14"/>
+    <sheet name="amChartsv1" sheetId="17" r:id="rId15"/>
+    <sheet name="laravelAuth v1" sheetId="7" r:id="rId16"/>
+    <sheet name="Laravel mail v1" sheetId="10" r:id="rId17"/>
+    <sheet name="Controller generator" sheetId="11" state="hidden" r:id="rId18"/>
+    <sheet name="table relations v1" sheetId="13" r:id="rId19"/>
+    <sheet name="pending to automate" sheetId="16" r:id="rId20"/>
+    <sheet name="error ptscreen" sheetId="9" r:id="rId21"/>
+    <sheet name="git commands" sheetId="24" r:id="rId22"/>
+    <sheet name="Test unit v1" sheetId="25" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'inline ajax edit v1'!$C$48:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'inline ajax edit v1'!$C$48:$C$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,8 +48,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>maria adelaida Escobar Hurtado</author>
+  </authors>
+  <commentList>
+    <comment ref="D36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IF PIVOT TABLE FOLLOW THESE RULES:
+1. Both tables on singular, separated by "_"
+2. Order names acording to alphabetical order.
+3. PIVOT TABLES DO NOT NEED MODELS.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="792">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -2346,48 +2373,12 @@
     <t>solla2011</t>
   </si>
   <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>b_teamchecker</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>healmy5_dose</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>localdrugs</t>
-  </si>
-  <si>
-    <t>genericname</t>
-  </si>
-  <si>
-    <t>active_numerator</t>
-  </si>
-  <si>
-    <t>active_ingredient_unit</t>
-  </si>
-  <si>
-    <t>dosage_form</t>
-  </si>
-  <si>
-    <t>commercial_name</t>
-  </si>
-  <si>
-    <t>application_route</t>
-  </si>
-  <si>
-    <t>labeler</t>
-  </si>
-  <si>
-    <t>fdaNDC_id</t>
-  </si>
-  <si>
     <t>fixing request bug</t>
   </si>
   <si>
@@ -2439,18 +2430,6 @@
     <t>&lt;img class='hmdhide' src="{{asset('assets/img/progressBar.gif')}}"   alt=""  id='progress_bar_for_start_here_email'&gt;</t>
   </si>
   <si>
-    <t>TB Modal creator</t>
-  </si>
-  <si>
-    <t>removecoll</t>
-  </si>
-  <si>
-    <t>Remove one collaborator from this project</t>
-  </si>
-  <si>
-    <t>compactv2/left</t>
-  </si>
-  <si>
     <t> standardize dry update with find</t>
   </si>
   <si>
@@ -2490,17 +2469,150 @@
     <t>$list=</t>
   </si>
   <si>
-    <t>progress request</t>
-  </si>
-  <si>
-    <t>dosetracker</t>
+    <t>a_base</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>Project details</t>
+  </si>
+  <si>
+    <t>Template improved (click here)</t>
+  </si>
+  <si>
+    <t>INSIDE MODAL BODY (IT IS RECOMMENDED TO DELETE HEADER AND FOOTER)</t>
+  </si>
+  <si>
+    <t>&lt;div class="container-fluid"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div class="row-fluid"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;div class="span12 c4rightbox"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Any text, spans are relative with 12 columns proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;div class="span12 c4rightbox"&gt; &lt;!-- c4rightbox has border with round corner and bcg color white --&gt;</t>
+  </si>
+  <si>
+    <t>c4bcg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c4bcg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to modal class</t>
+    </r>
+  </si>
+  <si>
+    <t>c4/c2_center</t>
+  </si>
+  <si>
+    <t>modal_c_drop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div class="modal-body c4bcg"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;div class="container-fluid"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;div class="row-fluid"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;div class="span12 c4rightbox"&gt; &lt;!-- c4rightbox has border with round corner and bcg color white --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;div class="span12 c4rightbox"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Any text, spans are relative with 12 columns proportion</t>
+  </si>
+  <si>
+    <t>Modal generator</t>
+  </si>
+  <si>
+    <t>c4/c1_left</t>
+  </si>
+  <si>
+    <t>e_newproject</t>
+  </si>
+  <si>
+    <t>Create a new project</t>
+  </si>
+  <si>
+    <t>createproject finished</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>php artisan generate:pivot posts tags</t>
+  </si>
+  <si>
+    <t>It doesn't matter which order you provide the table names (or whether you pluralize them or not). The command will correctly create a post_tag migration that has post_id and tag_id fields.</t>
+  </si>
+  <si>
+    <t>TABLE 1</t>
+  </si>
+  <si>
+    <t>TABLE 2</t>
+  </si>
+  <si>
+    <t>ADDING PIVOT TABLES. Note: write table names in alphabetical order</t>
+  </si>
+  <si>
+    <t>Adding foreing keys (skip if already done)</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>cacambas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2766,8 +2878,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2885,6 +3003,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF122D46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3159,7 +3289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3244,7 +3374,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3273,15 +3402,17 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3344,7 +3475,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6195094" cy="843757"/>
+    <xdr:ext cx="9585573" cy="843757"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -3353,7 +3484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="666750" y="0"/>
-          <a:ext cx="6195094" cy="843757"/>
+          <a:ext cx="9585573" cy="843757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3383,10 +3514,10 @@
           <a:r>
             <a:rPr lang="es-ES" sz="4800">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Welcome to DRY laravel</a:t>
+            <a:t>Welcome to the DRY laravel template</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3439,9 +3570,8 @@
           <a:r>
             <a:rPr lang="es-ES" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
@@ -3450,9 +3580,8 @@
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
@@ -3460,9 +3589,8 @@
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
@@ -3628,6 +3756,230 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24383</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7239000" y="171450"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3674,7 +4026,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3899,7 +4251,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5696,16 +6048,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>24383</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14858</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5716,7 +6068,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7239000" y="171450"/>
+          <a:off x="9210675" y="352425"/>
           <a:ext cx="914400" cy="995933"/>
           <a:chOff x="9210675" y="461392"/>
           <a:chExt cx="914400" cy="995933"/>
@@ -6180,10 +6532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B8:H23"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6193,6 +6545,11 @@
     <col min="6" max="16384" width="11.42578125" style="108"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="107" t="s">
         <v>588</v>
@@ -6204,16 +6561,17 @@
       </c>
       <c r="C9" s="112"/>
       <c r="D9" s="112"/>
-      <c r="H9" s="110" t="s">
-        <v>759</v>
+      <c r="H9" s="109" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="111" t="s">
         <v>598</v>
       </c>
-      <c r="H10" s="110" t="s">
-        <v>756</v>
+      <c r="C10" s="113"/>
+      <c r="H10" s="109" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -6221,8 +6579,8 @@
         <v>691</v>
       </c>
       <c r="C11" s="111"/>
-      <c r="H11" s="110" t="s">
-        <v>757</v>
+      <c r="H11" s="109" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -6231,8 +6589,8 @@
       </c>
       <c r="C12" s="111"/>
       <c r="D12" s="111"/>
-      <c r="H12" s="110" t="s">
-        <v>758</v>
+      <c r="H12" s="109" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -6240,7 +6598,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="107" t="s">
-        <v>752</v>
+        <v>777</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -6248,10 +6606,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="111" t="s">
-        <v>740</v>
-      </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
+        <v>728</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="111" t="s">
@@ -6274,13 +6632,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17:D17" location="'AutoLaravel v1'!C13" display="Create new laravel project"/>
@@ -6292,7 +6651,7 @@
     <hyperlink ref="B11:C11" location="'query automation v1'!A1" display="Query automation"/>
     <hyperlink ref="B23" location="'Test unit v1'!A1" display="Test unit"/>
     <hyperlink ref="B16:D16" location="dbRelations!A1" display="Database relationships pool"/>
-    <hyperlink ref="B14" location="'Modal edit form'!A1" display="TB Modal creator"/>
+    <hyperlink ref="B14" location="Modal2!A1" display="TB Modal creator"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6459,9 +6818,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -6507,10 +6866,10 @@
       </c>
       <c r="E9" s="73" t="str">
         <f>'view controllers'!D33</f>
-        <v>c3</v>
+        <v>c4</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
       <c r="H9" s="43"/>
     </row>
@@ -6519,7 +6878,7 @@
         <v>546</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6527,8 +6886,8 @@
         <v>114</v>
       </c>
       <c r="C11" s="17" t="str">
-        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;G9&amp;A3&amp;" "&amp;E10</f>
-        <v>php artisan generate:view --path="app/views/compactv2/left" removecoll</v>
+        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;G9&amp;A3&amp;" modal_"&amp;E10</f>
+        <v>php artisan generate:view --path="app/views/c4/c1_left" modal_e_newproject</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -6541,7 +6900,7 @@
         <v>549</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -6551,14 +6910,14 @@
         <v>542</v>
       </c>
       <c r="C13" s="12" t="str">
-        <f>E10</f>
-        <v>removecoll</v>
+        <f>"modal_"&amp;E10</f>
+        <v>modal_e_newproject</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="str">
         <f>A1&amp;C13&amp;A2</f>
-        <v>&lt;div id='removecoll' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
+        <v>&lt;div id='modal_e_newproject' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -6572,7 +6931,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -6586,7 +6945,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
-        <v>550</v>
+        <v>768</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -6599,9 +6958,442 @@
       <c r="K17" s="23"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="str">
+        <f>"                    &lt;h4&gt;"&amp;E12&amp;"&lt;/h4&gt;"</f>
+        <v xml:space="preserve">                    &lt;h4&gt;Create a new project&lt;/h4&gt;</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>773</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="s">
+        <v>773</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D34" s="46" t="str">
+        <f>"&lt;a href='#' id='openmodal_"&amp;C13&amp;"'&gt;"&amp;C13&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href='#' id='openmodal_modal_e_newproject'&gt;modal_e_newproject&lt;/a&gt;</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="D35" s="46" t="str">
+        <f>"@include('"&amp;G9&amp;".modal_"&amp;E10&amp;"')"</f>
+        <v>@include('c4/c1_left.modal_e_newproject')</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="46" t="str">
+        <f>"$('#openmodal_"&amp;C13&amp;"').click(function(e){"</f>
+        <v>$('#openmodal_modal_e_newproject').click(function(e){</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="46" t="str">
+        <f>"    $('#"&amp;C13&amp;"').modal('show');"</f>
+        <v xml:space="preserve">    $('#modal_e_newproject').modal('show');</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="72" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="73" t="str">
+        <f>'view controllers'!D33</f>
+        <v>c4</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>766</v>
+      </c>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;G9&amp;A3&amp;" "&amp;E10</f>
+        <v>php artisan generate:view --path="app/views/c4/c2_center" modal_c_drop</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>755</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>E10</f>
+        <v>modal_c_drop</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="46" t="str">
+        <f>A1&amp;C13&amp;A2</f>
+        <v>&lt;div id='modal_c_drop' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="116" t="s">
+        <v>756</v>
+      </c>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="str">
         <f>"        &lt;h3 class='text-success'&gt;"&amp;E12&amp;"&lt;/h3&gt;"</f>
-        <v xml:space="preserve">        &lt;h3 class='text-success'&gt;Remove one collaborator from this project&lt;/h3&gt;</v>
+        <v xml:space="preserve">        &lt;h3 class='text-success'&gt;Project details&lt;/h3&gt;</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -6613,7 +7405,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
         <v>551</v>
       </c>
@@ -6627,7 +7419,7 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
         <v>553</v>
       </c>
@@ -6641,7 +7433,7 @@
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="s">
         <v>554</v>
       </c>
@@ -6655,7 +7447,7 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="46" t="s">
         <v>555</v>
       </c>
@@ -6669,7 +7461,7 @@
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
         <v>556</v>
       </c>
@@ -6683,7 +7475,7 @@
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
         <v>557</v>
       </c>
@@ -6697,7 +7489,7 @@
       <c r="J24" s="46"/>
       <c r="K24" s="46"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="s">
         <v>558</v>
       </c>
@@ -6711,7 +7503,7 @@
       <c r="J25" s="46"/>
       <c r="K25" s="46"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
         <v>559</v>
       </c>
@@ -6725,7 +7517,7 @@
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="46" t="s">
         <v>560</v>
       </c>
@@ -6739,7 +7531,7 @@
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
         <v>561</v>
       </c>
@@ -6753,7 +7545,7 @@
       <c r="J28" s="46"/>
       <c r="K28" s="46"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="46" t="s">
         <v>551</v>
       </c>
@@ -6767,7 +7559,7 @@
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
         <v>562</v>
       </c>
@@ -6781,7 +7573,7 @@
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="46" t="s">
         <v>563</v>
       </c>
@@ -6795,7 +7587,7 @@
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="46" t="s">
         <v>564</v>
       </c>
@@ -6857,7 +7649,7 @@
       </c>
       <c r="D37" s="46" t="str">
         <f>"&lt;a href='#' id='openmodal_"&amp;C13&amp;"'&gt;"&amp;C13&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href='#' id='openmodal_removecoll'&gt;removecoll&lt;/a&gt;</v>
+        <v>&lt;a href='#' id='openmodal_modal_c_drop'&gt;modal_c_drop&lt;/a&gt;</v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="46"/>
@@ -6870,7 +7662,7 @@
       </c>
       <c r="D38" s="46" t="str">
         <f>"@include('"&amp;G9&amp;"."&amp;E10&amp;"')"</f>
-        <v>@include('compactv2/left.removecoll')</v>
+        <v>@include('c4/c2_center.modal_c_drop')</v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="46"/>
@@ -6885,7 +7677,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="str">
         <f>"$('#openmodal_"&amp;C13&amp;"').click(function(e){"</f>
-        <v>$('#openmodal_removecoll').click(function(e){</v>
+        <v>$('#openmodal_modal_c_drop').click(function(e){</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
@@ -6904,7 +7696,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="str">
         <f>"    $('#"&amp;C13&amp;"').modal('show');"</f>
-        <v xml:space="preserve">    $('#removecoll').modal('show');</v>
+        <v xml:space="preserve">    $('#modal_c_drop').modal('show');</v>
       </c>
       <c r="C46" s="46"/>
       <c r="D46" s="46"/>
@@ -6920,13 +7712,178 @@
       <c r="E47" s="46"/>
       <c r="F47" s="46"/>
     </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="46" t="s">
+        <v>763</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="46" t="str">
+        <f>"            &lt;h4&gt;"&amp;E12&amp;"&lt;/h4&gt;"</f>
+        <v xml:space="preserve">            &lt;h4&gt;Project details&lt;/h4&gt;</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="46" t="s">
+        <v>760</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L17:N17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L17" location="'Modal edit form'!B50" display="Template improved (click here)"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L44"/>
   <sheetViews>
@@ -7491,7 +8448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q246"/>
   <sheetViews>
@@ -7621,10 +8578,10 @@
       <c r="B12" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="117" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="115"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
@@ -9957,7 +10914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B9"/>
   <sheetViews>
@@ -10005,12 +10962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10204,7 +11161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L66"/>
   <sheetViews>
@@ -10283,7 +11240,7 @@
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10292,7 +11249,7 @@
       <c r="B12" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="78" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10310,15 +11267,15 @@
         <v>606</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="H13" s="12" t="str">
         <f>E13&amp;"."&amp;G13</f>
         <v>emails.reportofadopted</v>
       </c>
-      <c r="K13" s="79" t="str">
+      <c r="K13" s="78" t="str">
         <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
-        <v>c:\wamp\www\github\dosetracker</v>
+        <v>c:\wamp\www\github\cacambas</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -10327,7 +11284,7 @@
       </c>
       <c r="C14" s="17" t="str">
         <f>"Copy-Item "&amp;K13&amp;"\app\views\templates\email2.blade.php "&amp;K13&amp;"\app\views\emails"</f>
-        <v>Copy-Item c:\wamp\www\github\dosetracker\app\views\templates\email2.blade.php c:\wamp\www\github\dosetracker\app\views\emails</v>
+        <v>Copy-Item c:\wamp\www\github\cacambas\app\views\templates\email2.blade.php c:\wamp\www\github\cacambas\app\views\emails</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -10341,7 +11298,7 @@
       </c>
       <c r="C15" s="17" t="str">
         <f>"Rename-Item "&amp;K13&amp;"\app\views\"&amp;E13&amp;"\email2.blade.php "&amp;G13&amp;".blade.php"</f>
-        <v>Rename-Item c:\wamp\www\github\dosetracker\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
+        <v>Rename-Item c:\wamp\www\github\cacambas\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -10352,7 +11309,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -10438,7 +11395,7 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25"/>
@@ -10461,7 +11418,7 @@
         <v>614</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -10473,11 +11430,11 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="74" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="43"/>
-      <c r="F30" s="80" t="str">
+      <c r="F30" s="79" t="str">
         <f>IF(B30&lt;&gt;"",LEFT(B30,FIND("=",B30)-1),"")</f>
         <v>$coll</v>
       </c>
@@ -10493,11 +11450,11 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="74" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="43"/>
-      <c r="F31" s="80" t="str">
+      <c r="F31" s="79" t="str">
         <f t="shared" ref="F31:F34" si="0">IF(B31&lt;&gt;"",LEFT(B31,FIND("=",B31)-1),"")</f>
         <v>$pmanager</v>
       </c>
@@ -10513,11 +11470,11 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="74" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="C32" s="74"/>
       <c r="D32" s="43"/>
-      <c r="F32" s="80" t="str">
+      <c r="F32" s="79" t="str">
         <f t="shared" si="0"/>
         <v>$project</v>
       </c>
@@ -10533,11 +11490,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="74" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="43"/>
-      <c r="F33" s="80" t="str">
+      <c r="F33" s="79" t="str">
         <f t="shared" si="0"/>
         <v>$list</v>
       </c>
@@ -10555,7 +11512,7 @@
       <c r="B34" s="74"/>
       <c r="C34" s="74"/>
       <c r="D34" s="43"/>
-      <c r="F34" s="80" t="str">
+      <c r="F34" s="79" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -10594,11 +11551,11 @@
         <v>621</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="43"/>
-      <c r="F39" s="80" t="str">
+      <c r="F39" s="79" t="str">
         <f>IF(B39&lt;&gt;"",LEFT(B39,FIND("=",B39)-1),"")</f>
         <v>$coll</v>
       </c>
@@ -10614,11 +11571,11 @@
         <v>160</v>
       </c>
       <c r="B40" s="74" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="C40" s="74"/>
       <c r="D40" s="43"/>
-      <c r="F40" s="80" t="str">
+      <c r="F40" s="79" t="str">
         <f t="shared" ref="F40:F43" si="3">IF(B40&lt;&gt;"",LEFT(B40,FIND("=",B40)-1),"")</f>
         <v>$coll</v>
       </c>
@@ -10634,11 +11591,11 @@
         <v>620</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="43"/>
-      <c r="F41" s="81" t="str">
+      <c r="F41" s="80" t="str">
         <f>IF(B41&lt;&gt;"",LEFT(B41,FIND("=",B41)-1),"'support@healmydisease.com'")</f>
         <v>$pmanager</v>
       </c>
@@ -10654,11 +11611,11 @@
         <v>160</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="C42" s="74"/>
       <c r="D42" s="43"/>
-      <c r="F42" s="81" t="str">
+      <c r="F42" s="80" t="str">
         <f>IF(B42&lt;&gt;"",LEFT(B42,FIND("=",B42)-1),"'The HMD team'")</f>
         <v>$pmanager</v>
       </c>
@@ -10674,11 +11631,11 @@
         <v>624</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="C43" s="74"/>
       <c r="D43" s="43"/>
-      <c r="F43" s="80" t="str">
+      <c r="F43" s="79" t="str">
         <f t="shared" si="3"/>
         <v>$subject</v>
       </c>
@@ -10788,7 +11745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -10929,7 +11886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
@@ -11905,118 +12862,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12129,7 +12974,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -12161,7 +13006,7 @@
       </c>
       <c r="C16" s="17" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir dosetracker</v>
+        <v>mkdir cacambas</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="17"/>
@@ -12174,7 +13019,7 @@
       </c>
       <c r="C17" s="17" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd dosetracker</v>
+        <v>cd cacambas</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -12223,7 +13068,7 @@
       </c>
       <c r="C24" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
+        <v>cd c:\wamp\www\github\cacambas</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -12270,9 +13115,9 @@
       <c r="B33" s="114" t="s">
         <v>594</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="72"/>
@@ -12364,6 +13209,118 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12389,12 +13346,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12403,36 +13360,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="84" t="s">
         <v>653</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="99" t="s">
         <v>674</v>
       </c>
     </row>
@@ -12446,111 +13403,111 @@
       <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="98" t="str">
+      <c r="C8" s="97" t="str">
         <f>"cd "&amp;C7</f>
         <v>cd testtwo</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="97" t="s">
         <v>642</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="42" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="97" t="s">
         <v>641</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="97" t="s">
         <v>670</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="F13" s="99" t="str">
+      <c r="F13" s="98" t="str">
         <f>C7</f>
         <v>testtwo</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="98" t="str">
+      <c r="C14" s="97" t="str">
         <f>"git remote add origin https://github.com/alejoto/"&amp;C7&amp;".git"</f>
         <v>git remote add origin https://github.com/alejoto/testtwo.git</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="97" t="s">
         <v>656</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="97" t="s">
         <v>673</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="99" t="s">
         <v>675</v>
       </c>
     </row>
@@ -12560,14 +13517,14 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="97" t="s">
         <v>655</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
@@ -12577,7 +13534,7 @@
         <v>668</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="73" t="s">
@@ -12585,118 +13542,118 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="97" t="s">
         <v>641</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
       <c r="G24" s="73" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="98" t="s">
-        <v>736</v>
-      </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
+      <c r="C25" s="97" t="s">
+        <v>724</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
       <c r="G25" s="73" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" s="42" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="98" t="str">
+      <c r="C27" s="97" t="str">
         <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
-        <v>git commit -m "progress request"</v>
-      </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
+        <v>git commit -m "createproject finished"</v>
+      </c>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="97" t="s">
         <v>656</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="97" t="s">
         <v>673</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="98" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="97" t="s">
         <v>720</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="98" t="s">
-        <v>738</v>
-      </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
+      <c r="C33" s="97" t="s">
+        <v>726</v>
+      </c>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="97" t="s">
         <v>655</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="88"/>
-      <c r="C37" s="98" t="s">
+      <c r="B37" s="87"/>
+      <c r="C37" s="97" t="s">
         <v>673</v>
       </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="88"/>
-      <c r="C38" s="98" t="s">
+      <c r="B38" s="87"/>
+      <c r="C38" s="97" t="s">
         <v>720</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
@@ -12720,14 +13677,14 @@
       <c r="B43" s="42" t="s">
         <v>663</v>
       </c>
-      <c r="K43" s="89" t="s">
+      <c r="K43" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="L43" s="90" t="s">
+      <c r="L43" s="89" t="s">
         <v>658</v>
       </c>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
@@ -12738,27 +13695,27 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="97" t="s">
         <v>665</v>
       </c>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="98" t="s">
+      <c r="C46" s="97" t="s">
         <v>666</v>
       </c>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="91" t="s">
         <v>654</v>
       </c>
     </row>
@@ -12768,56 +13725,56 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="98" t="s">
+      <c r="C51" s="97" t="s">
         <v>636</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="91" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="95" t="s">
         <v>647</v>
       </c>
-      <c r="C53" s="94" t="s">
+      <c r="C53" s="93" t="s">
         <v>648</v>
       </c>
-      <c r="D53" s="93"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="42" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="96" t="s">
+      <c r="B54" s="95" t="s">
         <v>647</v>
       </c>
-      <c r="C54" s="95" t="s">
+      <c r="C54" s="94" t="s">
         <v>649</v>
       </c>
-      <c r="D54" s="93"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="42" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="96"/>
-      <c r="C55" s="96" t="s">
+      <c r="B55" s="95"/>
+      <c r="C55" s="95" t="s">
         <v>652</v>
       </c>
-      <c r="D55" s="96"/>
+      <c r="D55" s="95"/>
       <c r="E55" s="42" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="100" t="s">
+      <c r="B58" s="99" t="s">
         <v>687</v>
       </c>
     </row>
@@ -12831,26 +13788,26 @@
       <c r="D59" s="43"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="98" t="str">
+      <c r="C60" s="97" t="str">
         <f>"git branch "&amp;C59</f>
         <v>git branch two</v>
       </c>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="88" t="s">
+      <c r="B61" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="98" t="str">
+      <c r="C61" s="97" t="str">
         <f>"git checkout "&amp;C59</f>
         <v>git checkout two</v>
       </c>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="42" t="s">
@@ -12867,60 +13824,60 @@
         <v>681</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="F65" s="43"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="98" t="s">
+      <c r="C66" s="97" t="s">
         <v>641</v>
       </c>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D67" s="42" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="88" t="s">
+      <c r="B68" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="98" t="str">
+      <c r="C68" s="97" t="str">
         <f>"git commit -m "&amp;$A$1&amp;E65&amp;$A$1</f>
         <v>git commit -m "fixing request bug"</v>
       </c>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="88" t="s">
+      <c r="B69" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="98" t="str">
+      <c r="C69" s="97" t="str">
         <f>"git push origin "&amp;C59</f>
         <v>git push origin two</v>
       </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="88" t="s">
+      <c r="B71" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="98" t="str">
+      <c r="C71" s="97" t="str">
         <f>"git pull origin "&amp;C59</f>
         <v>git pull origin two</v>
       </c>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
       <c r="F71" s="42" t="s">
         <v>682</v>
       </c>
@@ -12931,35 +13888,35 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="88" t="s">
+      <c r="B74" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="98" t="s">
+      <c r="C74" s="97" t="s">
         <v>684</v>
       </c>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="98" t="str">
+      <c r="C75" s="97" t="str">
         <f>"git merge "&amp;C59</f>
         <v>git merge two</v>
       </c>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="88" t="s">
+      <c r="B76" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="98" t="s">
+      <c r="C76" s="97" t="s">
         <v>657</v>
       </c>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="42" t="s">
@@ -12972,26 +13929,26 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="89" t="s">
+      <c r="B80" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="90" t="str">
+      <c r="C80" s="89" t="str">
         <f>"git branch -d "&amp;C59</f>
         <v>git branch -d two</v>
       </c>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="100"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="89" t="s">
+      <c r="B81" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="90" t="str">
+      <c r="C81" s="89" t="str">
         <f>"git push origin --delete "&amp;C59</f>
         <v>git push origin --delete two</v>
       </c>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13000,12 +13957,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13029,16 +13986,16 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="97" t="s">
         <v>688</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
@@ -13046,16 +14003,16 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="97" t="s">
         <v>719</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13067,8 +14024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -13174,7 +14131,7 @@
       </c>
       <c r="C14" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>dosetracker</v>
+        <v>cacambas</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -13200,7 +14157,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
+        <v>cd c:\wamp\www\github\cacambas</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -13243,7 +14200,7 @@
       </c>
       <c r="C23" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
+        <v>cd c:\wamp\www\github\cacambas</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -13294,7 +14251,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>376</v>
@@ -13304,7 +14261,7 @@
       </c>
       <c r="H33" s="61" t="str">
         <f>D33</f>
-        <v>c3</v>
+        <v>c4</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -13313,18 +14270,18 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>E33&amp;D33&amp;"/"</f>
-        <v>app/views/c3/</v>
+        <v>app/views/c4/</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>380</v>
       </c>
       <c r="H34" s="61" t="str">
         <f>D34&amp;".blade.php"</f>
-        <v>b_teamchecker.blade.php</v>
+        <v>a_base.blade.php</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -13333,7 +14290,7 @@
       </c>
       <c r="C35" s="17" t="str">
         <f>"mkdir "&amp;E33&amp;D33</f>
-        <v>mkdir app/views/c3</v>
+        <v>mkdir app/views/c4</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -13347,7 +14304,7 @@
       </c>
       <c r="C36" s="17" t="str">
         <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D33&amp;B3&amp;" "&amp;D34</f>
-        <v>php artisan generate:view --path="app/views/c3" b_teamchecker</v>
+        <v>php artisan generate:view --path="app/views/c4" a_base</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -13355,7 +14312,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="12" t="str">
         <f>UPPER(LEFT(D33,1))&amp;RIGHT(D33,LEN(D33)-1)&amp;"Controller"</f>
-        <v>C3Controller</v>
+        <v>C4Controller</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -13364,7 +14321,7 @@
       </c>
       <c r="C37" s="17" t="str">
         <f>A4&amp;B5&amp;H36</f>
-        <v>php artisan generate:controller C3Controller</v>
+        <v>php artisan generate:controller C4Controller</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -13381,7 +14338,7 @@
       </c>
       <c r="C39" s="19" t="str">
         <f>E34&amp;H34</f>
-        <v>app/views/c3/b_teamchecker.blade.php</v>
+        <v>app/views/c4/a_base.blade.php</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="10" t="s">
@@ -13464,11 +14421,11 @@
       </c>
       <c r="D48" s="10" t="str">
         <f>" app/Controllers/"&amp;H36&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/C3Controller.php</v>
+        <v xml:space="preserve"> app/Controllers/C4Controller.php</v>
       </c>
       <c r="G48" s="12" t="str">
         <f>UPPER(LEFT(D34,1))&amp;RIGHT(D34,LEN(D34)-1)</f>
-        <v>B_teamchecker</v>
+        <v>A_base</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>382</v>
@@ -13488,7 +14445,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="46" t="str">
         <f>"    return View::make('"&amp;D33&amp;IF(D33&lt;&gt;"",".","")&amp;D34&amp;"'"&amp;")"</f>
-        <v xml:space="preserve">    return View::make('c3.b_teamchecker')</v>
+        <v xml:space="preserve">    return View::make('c4.a_base')</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
@@ -13499,7 +14456,7 @@
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="46" t="str">
         <f>"      -&gt;with('title','"&amp;D34&amp;"');"</f>
-        <v xml:space="preserve">      -&gt;with('title','b_teamchecker');</v>
+        <v xml:space="preserve">      -&gt;with('title','a_base');</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -13531,7 +14488,7 @@
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="46" t="str">
         <f>B6&amp;D33&amp;C1&amp;H36&amp;C2</f>
-        <v>Route::controller('c3','C3Controller');</v>
+        <v>Route::controller('c4','C4Controller');</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -13544,10 +14501,11 @@
       <c r="E56" s="19"/>
     </row>
     <row r="57" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="115" t="s">
         <v>599</v>
       </c>
-      <c r="C57" s="19"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
       <c r="E57" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25"/>
@@ -13598,6 +14556,9 @@
     <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="104" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B57:D57"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B57" location="'tables and models'!A1" display="Tables and models"/>
   </hyperlinks>
@@ -13608,10 +14569,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13716,7 +14679,7 @@
       </c>
       <c r="C14" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>dosetracker</v>
+        <v>cacambas</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -13742,7 +14705,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
+        <v>cd c:\wamp\www\github\cacambas</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -13785,7 +14748,7 @@
       </c>
       <c r="C23" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
+        <v>cd c:\wamp\www\github\cacambas</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -13824,7 +14787,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D31" s="9"/>
       <c r="F31" s="46" t="str">
@@ -13842,7 +14805,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D32" s="9"/>
       <c r="F32" s="46" t="str">
@@ -13875,7 +14838,7 @@
       <c r="K33" s="23"/>
       <c r="M33" s="12" t="str">
         <f>IF(SUM(J38:K47)&gt;0,B2&amp;P47&amp;Q47&amp;B3,"")</f>
-        <v>--fields="genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string"</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25"/>
@@ -13888,16 +14851,14 @@
       <c r="B36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="F36" s="12" t="str">
+      <c r="D36" s="9"/>
+      <c r="F36" s="12" t="e">
         <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>localdrug</v>
-      </c>
-      <c r="G36" s="12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" s="12" t="e">
         <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Localdrug</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
@@ -13931,12 +14892,8 @@
       <c r="B38" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="F38" s="10" t="s">
         <v>73</v>
       </c>
@@ -13944,7 +14901,7 @@
       <c r="H38" s="9"/>
       <c r="J38" s="12">
         <f>IF(C38="",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="12">
         <f>IF(G38="",0,1)</f>
@@ -13955,7 +14912,7 @@
       </c>
       <c r="N38" s="60" t="str">
         <f>IF(AND(C38&lt;&gt;"",D38&lt;&gt;""),IF(N37="concatenator1","",",")&amp;C38&amp;":"&amp;D38,"")</f>
-        <v>genericname:string</v>
+        <v/>
       </c>
       <c r="O38" s="60" t="str">
         <f>IF(AND(G38&lt;&gt;"",H38&lt;&gt;""),","&amp;G38&amp;":"&amp;H38,"")</f>
@@ -13963,7 +14920,7 @@
       </c>
       <c r="P38" s="60" t="str">
         <f>P37&amp;N38</f>
-        <v>genericname:string</v>
+        <v/>
       </c>
       <c r="Q38" s="60" t="str">
         <f>Q37&amp;O38</f>
@@ -13977,12 +14934,8 @@
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
       <c r="F39" s="10" t="s">
         <v>74</v>
       </c>
@@ -13990,7 +14943,7 @@
       <c r="H39" s="9"/>
       <c r="J39" s="12">
         <f t="shared" ref="J39:J47" si="0">IF(C39="",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="12">
         <f t="shared" ref="K39:K47" si="1">IF(G39="",0,1)</f>
@@ -14001,7 +14954,7 @@
       </c>
       <c r="N39" s="60" t="str">
         <f t="shared" ref="N39:N47" si="2">IF(AND(C39&lt;&gt;"",D39&lt;&gt;""),IF(N38="concatenator1","",",")&amp;C39&amp;":"&amp;D39,"")</f>
-        <v>,active_numerator:string</v>
+        <v/>
       </c>
       <c r="O39" s="60" t="str">
         <f t="shared" ref="O39:O47" si="3">IF(AND(G39&lt;&gt;"",H39&lt;&gt;""),","&amp;G39&amp;":"&amp;H39,"")</f>
@@ -14009,7 +14962,7 @@
       </c>
       <c r="P39" s="60" t="str">
         <f t="shared" ref="P39:Q47" si="4">P38&amp;N39</f>
-        <v>genericname:string,active_numerator:string</v>
+        <v/>
       </c>
       <c r="Q39" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14023,12 +14976,8 @@
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
       <c r="F40" s="10" t="s">
         <v>75</v>
       </c>
@@ -14036,7 +14985,7 @@
       <c r="H40" s="9"/>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="12">
         <f t="shared" si="1"/>
@@ -14047,7 +14996,7 @@
       </c>
       <c r="N40" s="60" t="str">
         <f t="shared" si="2"/>
-        <v>,active_ingredient_unit:string</v>
+        <v/>
       </c>
       <c r="O40" s="60" t="str">
         <f t="shared" si="3"/>
@@ -14055,7 +15004,7 @@
       </c>
       <c r="P40" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>genericname:string,active_numerator:string,active_ingredient_unit:string</v>
+        <v/>
       </c>
       <c r="Q40" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14066,12 +15015,8 @@
       <c r="B41" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="F41" s="10" t="s">
         <v>76</v>
       </c>
@@ -14079,7 +15024,7 @@
       <c r="H41" s="9"/>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="12">
         <f t="shared" si="1"/>
@@ -14090,7 +15035,7 @@
       </c>
       <c r="N41" s="60" t="str">
         <f t="shared" si="2"/>
-        <v>,dosage_form:string</v>
+        <v/>
       </c>
       <c r="O41" s="60" t="str">
         <f t="shared" si="3"/>
@@ -14098,7 +15043,7 @@
       </c>
       <c r="P41" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string</v>
+        <v/>
       </c>
       <c r="Q41" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14109,12 +15054,8 @@
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="F42" s="10" t="s">
         <v>77</v>
       </c>
@@ -14122,7 +15063,7 @@
       <c r="H42" s="9"/>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="12">
         <f t="shared" si="1"/>
@@ -14133,7 +15074,7 @@
       </c>
       <c r="N42" s="60" t="str">
         <f t="shared" si="2"/>
-        <v>,commercial_name:string</v>
+        <v/>
       </c>
       <c r="O42" s="60" t="str">
         <f t="shared" si="3"/>
@@ -14141,7 +15082,7 @@
       </c>
       <c r="P42" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string</v>
+        <v/>
       </c>
       <c r="Q42" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14152,12 +15093,8 @@
       <c r="B43" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="F43" s="10" t="s">
         <v>78</v>
       </c>
@@ -14165,7 +15102,7 @@
       <c r="H43" s="9"/>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="12">
         <f t="shared" si="1"/>
@@ -14176,7 +15113,7 @@
       </c>
       <c r="N43" s="60" t="str">
         <f t="shared" si="2"/>
-        <v>,application_route:string</v>
+        <v/>
       </c>
       <c r="O43" s="60" t="str">
         <f t="shared" si="3"/>
@@ -14184,7 +15121,7 @@
       </c>
       <c r="P43" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string</v>
+        <v/>
       </c>
       <c r="Q43" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14195,12 +15132,8 @@
       <c r="B44" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="F44" s="10" t="s">
         <v>79</v>
       </c>
@@ -14208,7 +15141,7 @@
       <c r="H44" s="9"/>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="12">
         <f t="shared" si="1"/>
@@ -14219,7 +15152,7 @@
       </c>
       <c r="N44" s="60" t="str">
         <f t="shared" si="2"/>
-        <v>,labeler:string</v>
+        <v/>
       </c>
       <c r="O44" s="60" t="str">
         <f t="shared" si="3"/>
@@ -14227,7 +15160,7 @@
       </c>
       <c r="P44" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string</v>
+        <v/>
       </c>
       <c r="Q44" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14238,12 +15171,8 @@
       <c r="B45" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="F45" s="10" t="s">
         <v>80</v>
       </c>
@@ -14251,7 +15180,7 @@
       <c r="H45" s="9"/>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="12">
         <f t="shared" si="1"/>
@@ -14262,7 +15191,7 @@
       </c>
       <c r="N45" s="60" t="str">
         <f t="shared" si="2"/>
-        <v>,fdaNDC_id:string</v>
+        <v/>
       </c>
       <c r="O45" s="60" t="str">
         <f t="shared" si="3"/>
@@ -14270,7 +15199,7 @@
       </c>
       <c r="P45" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string</v>
+        <v/>
       </c>
       <c r="Q45" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14309,7 +15238,7 @@
       </c>
       <c r="P46" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string</v>
+        <v/>
       </c>
       <c r="Q46" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14348,7 +15277,7 @@
       </c>
       <c r="P47" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string</v>
+        <v/>
       </c>
       <c r="Q47" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14368,7 +15297,7 @@
       </c>
       <c r="C51" s="17" t="str">
         <f>A4&amp;A5&amp;A6&amp;D36&amp;B1&amp;M33</f>
-        <v>php artisan generate:migration create_localdrugs_table --fields="genericname:string,active_numerator:string,active_ingredient_unit:string,dosage_form:string,commercial_name:string,application_route:string,labeler:string,fdaNDC_id:string"</v>
+        <v xml:space="preserve">php artisan generate:migration create__table </v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -14391,17 +15320,25 @@
       <c r="B53" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="17" t="str">
+      <c r="C53" s="17" t="e">
         <f>A4&amp;B4&amp;G36</f>
-        <v>php artisan generate:model Localdrug</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J54" s="10" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J55" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>259</v>
@@ -14412,9 +15349,9 @@
         <v>122</v>
       </c>
       <c r="C57" s="12"/>
-      <c r="D57" s="12" t="str">
+      <c r="D57" s="12">
         <f>D36</f>
-        <v>localdrugs</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -14422,7 +15359,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>723</v>
+        <v>782</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -14439,7 +15376,7 @@
       </c>
       <c r="C60" s="17" t="str">
         <f>C3&amp;D58&amp;C4&amp;D57&amp;C5&amp;C6&amp;D58&amp;":"&amp;D59&amp;C6</f>
-        <v>php artisan generate:migration add_user_id_to_localdrugs_table --fields="user_id:integer"</v>
+        <v>php artisan generate:migration add_patient_id_to_0_table --fields="patient_id:integer"</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -14469,58 +15406,168 @@
         <v>391</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:2" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="D70" s="43"/>
+      <c r="E70" s="12" t="str">
+        <f>LEFT(C70,LEN(C70)-1)</f>
+        <v>patient</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="D71" s="43"/>
+      <c r="E71" s="12" t="str">
+        <f>LEFT(C71,LEN(C71)-1)</f>
+        <v>drug</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="17" t="str">
+        <f>C3&amp;E71&amp;"_id"&amp;C4&amp;C70&amp;C5&amp;C6&amp;E71&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
+        <v>php artisan generate:migration add_drug_id_to_patients_table --fields="drug_id:integer"</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="17" t="str">
+        <f>C3&amp;E70&amp;"_id"&amp;C4&amp;C71&amp;C5&amp;C6&amp;E70&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
+        <v>php artisan generate:migration add_patient_id_to_drugs_table --fields="patient_id:integer"</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="17" t="str">
+        <f>"php artisan generate:pivot "&amp;C70&amp;" "&amp;C71</f>
+        <v>php artisan generate:pivot patients drugs</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="81" x14ac:dyDescent="0.25"/>
+    <row r="82" x14ac:dyDescent="0.25"/>
+    <row r="83" x14ac:dyDescent="0.25"/>
+    <row r="84" x14ac:dyDescent="0.25"/>
+    <row r="85" x14ac:dyDescent="0.25"/>
+    <row r="86" x14ac:dyDescent="0.25"/>
+    <row r="87" x14ac:dyDescent="0.25"/>
+    <row r="88" x14ac:dyDescent="0.25"/>
+    <row r="89" x14ac:dyDescent="0.25"/>
+    <row r="90" x14ac:dyDescent="0.25"/>
+    <row r="91" x14ac:dyDescent="0.25"/>
+    <row r="92" x14ac:dyDescent="0.25"/>
+    <row r="93" x14ac:dyDescent="0.25"/>
+    <row r="94" x14ac:dyDescent="0.25"/>
+    <row r="95" x14ac:dyDescent="0.25"/>
+    <row r="96" x14ac:dyDescent="0.25"/>
+    <row r="97" x14ac:dyDescent="0.25"/>
+    <row r="98" x14ac:dyDescent="0.25"/>
+    <row r="99" x14ac:dyDescent="0.25"/>
+    <row r="100" x14ac:dyDescent="0.25"/>
+    <row r="101" x14ac:dyDescent="0.25"/>
+    <row r="102" x14ac:dyDescent="0.25"/>
+    <row r="103" x14ac:dyDescent="0.25"/>
+    <row r="104" x14ac:dyDescent="0.25"/>
+    <row r="105" x14ac:dyDescent="0.25"/>
+    <row r="106" x14ac:dyDescent="0.25"/>
+    <row r="107" x14ac:dyDescent="0.25"/>
+    <row r="108" x14ac:dyDescent="0.25"/>
     <row r="109" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
@@ -14531,6 +15578,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14548,22 +15596,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="109" t="s">
-        <v>741</v>
+      <c r="B2" s="106" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="J5" s="79" t="s">
-        <v>750</v>
+        <v>737</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -14572,39 +15620,39 @@
       </c>
       <c r="C6" s="43"/>
       <c r="E6" s="23" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>185</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="J6" s="79" t="str">
+      <c r="J6" s="78" t="str">
         <f>IF(OR(E6=L24,E6=L25),"BelongsTo","enter relationship")</f>
         <v>BelongsTo</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="str">
+      <c r="B7" s="78" t="str">
         <f>UPPER(LEFT(B6,1))&amp;MID(B6,2,LEN(B6)-2)</f>
         <v>User</v>
       </c>
-      <c r="C7" s="79" t="str">
+      <c r="C7" s="78" t="str">
         <f>LOWER(B7)</f>
         <v>user</v>
       </c>
-      <c r="G7" s="79" t="str">
+      <c r="G7" s="78" t="str">
         <f>UPPER(LEFT(G6,1))&amp;MID(G6,2,LEN(G6)-2)</f>
         <v>Project</v>
       </c>
-      <c r="H7" s="79" t="str">
+      <c r="H7" s="78" t="str">
         <f>LOWER(G7)</f>
         <v>project</v>
       </c>
-      <c r="L7" s="79" t="str">
+      <c r="L7" s="78" t="str">
         <f>B7</f>
         <v>User</v>
       </c>
-      <c r="M7" s="79" t="str">
+      <c r="M7" s="78" t="str">
         <f>C7</f>
         <v>user</v>
       </c>
@@ -14667,27 +15715,27 @@
     </row>
     <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="63" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="63" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="63" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="63" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="63" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -14705,31 +15753,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
         <v>704</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="101" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+    <row r="2" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="101" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>712</v>
       </c>
     </row>
@@ -14739,15 +15789,15 @@
       </c>
       <c r="C5" s="42" t="str">
         <f>IF('tables and models'!D36&lt;&gt;"",'tables and models'!D36,"")</f>
-        <v>localdrugs</v>
-      </c>
-      <c r="E5" s="12" t="str">
+        <v/>
+      </c>
+      <c r="E5" s="12" t="e">
         <f>LEFT(C5,LEN(C5)-1)</f>
-        <v>localdrug</v>
-      </c>
-      <c r="F5" s="12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="12" t="e">
         <f>UPPER(LEFT(E5,1))&amp;RIGHT(E5,LEN(E5)-1)</f>
-        <v>Localdrug</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -14776,12 +15826,12 @@
       </c>
       <c r="C9" s="42" t="str">
         <f>IF('tables and models'!C38&lt;&gt;"",'tables and models'!C38,"")</f>
-        <v>genericname</v>
-      </c>
-      <c r="D9" s="103" t="s">
+        <v/>
+      </c>
+      <c r="D9" s="102" t="s">
         <v>694</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="103" t="s">
         <v>702</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -14791,7 +15841,7 @@
         <f>IF('tables and models'!G38&lt;&gt;"",'tables and models'!G38,"")</f>
         <v/>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="102" t="s">
         <v>694</v>
       </c>
       <c r="J9" s="43" t="s">
@@ -14804,9 +15854,9 @@
       </c>
       <c r="C10" s="42" t="str">
         <f>IF('tables and models'!C39&lt;&gt;"",'tables and models'!C39,"")</f>
-        <v>active_numerator</v>
-      </c>
-      <c r="D10" s="103"/>
+        <v/>
+      </c>
+      <c r="D10" s="102"/>
       <c r="E10" s="43"/>
       <c r="G10" s="10" t="s">
         <v>74</v>
@@ -14815,7 +15865,7 @@
         <f>IF('tables and models'!G39&lt;&gt;"",'tables and models'!G39,"")</f>
         <v/>
       </c>
-      <c r="I10" s="103"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -14824,9 +15874,9 @@
       </c>
       <c r="C11" s="42" t="str">
         <f>IF('tables and models'!C40&lt;&gt;"",'tables and models'!C40,"")</f>
-        <v>active_ingredient_unit</v>
-      </c>
-      <c r="D11" s="103"/>
+        <v/>
+      </c>
+      <c r="D11" s="102"/>
       <c r="E11" s="43"/>
       <c r="G11" s="10" t="s">
         <v>75</v>
@@ -14835,7 +15885,7 @@
         <f>IF('tables and models'!G40&lt;&gt;"",'tables and models'!G40,"")</f>
         <v/>
       </c>
-      <c r="I11" s="103"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -14844,9 +15894,9 @@
       </c>
       <c r="C12" s="42" t="str">
         <f>IF('tables and models'!C41&lt;&gt;"",'tables and models'!C41,"")</f>
-        <v>dosage_form</v>
-      </c>
-      <c r="D12" s="103"/>
+        <v/>
+      </c>
+      <c r="D12" s="102"/>
       <c r="E12" s="43"/>
       <c r="G12" s="10" t="s">
         <v>76</v>
@@ -14855,7 +15905,7 @@
         <f>IF('tables and models'!G41&lt;&gt;"",'tables and models'!G41,"")</f>
         <v/>
       </c>
-      <c r="I12" s="103"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -14864,9 +15914,9 @@
       </c>
       <c r="C13" s="42" t="str">
         <f>IF('tables and models'!C42&lt;&gt;"",'tables and models'!C42,"")</f>
-        <v>commercial_name</v>
-      </c>
-      <c r="D13" s="103"/>
+        <v/>
+      </c>
+      <c r="D13" s="102"/>
       <c r="E13" s="43"/>
       <c r="G13" s="10" t="s">
         <v>77</v>
@@ -14875,7 +15925,7 @@
         <f>IF('tables and models'!G42&lt;&gt;"",'tables and models'!G42,"")</f>
         <v/>
       </c>
-      <c r="I13" s="103"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -14884,9 +15934,9 @@
       </c>
       <c r="C14" s="42" t="str">
         <f>IF('tables and models'!C43&lt;&gt;"",'tables and models'!C43,"")</f>
-        <v>application_route</v>
-      </c>
-      <c r="D14" s="103" t="s">
+        <v/>
+      </c>
+      <c r="D14" s="102" t="s">
         <v>694</v>
       </c>
       <c r="E14" s="43" t="s">
@@ -14899,7 +15949,7 @@
         <f>IF('tables and models'!G43&lt;&gt;"",'tables and models'!G43,"")</f>
         <v/>
       </c>
-      <c r="I14" s="103"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -14908,9 +15958,9 @@
       </c>
       <c r="C15" s="42" t="str">
         <f>IF('tables and models'!C44&lt;&gt;"",'tables and models'!C44,"")</f>
-        <v>labeler</v>
-      </c>
-      <c r="D15" s="103"/>
+        <v/>
+      </c>
+      <c r="D15" s="102"/>
       <c r="E15" s="43"/>
       <c r="G15" s="10" t="s">
         <v>79</v>
@@ -14919,7 +15969,7 @@
         <f>IF('tables and models'!G44&lt;&gt;"",'tables and models'!G44,"")</f>
         <v/>
       </c>
-      <c r="I15" s="103"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -14928,9 +15978,9 @@
       </c>
       <c r="C16" s="42" t="str">
         <f>IF('tables and models'!C45&lt;&gt;"",'tables and models'!C45,"")</f>
-        <v>fdaNDC_id</v>
-      </c>
-      <c r="D16" s="103"/>
+        <v/>
+      </c>
+      <c r="D16" s="102"/>
       <c r="E16" s="43"/>
       <c r="G16" s="10" t="s">
         <v>80</v>
@@ -14939,7 +15989,7 @@
         <f>IF('tables and models'!G45&lt;&gt;"",'tables and models'!G45,"")</f>
         <v/>
       </c>
-      <c r="I16" s="103"/>
+      <c r="I16" s="102"/>
       <c r="J16" s="43"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -14950,7 +16000,7 @@
         <f>IF('tables and models'!C46&lt;&gt;"",'tables and models'!C46,"")</f>
         <v/>
       </c>
-      <c r="D17" s="103"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="43"/>
       <c r="G17" s="10" t="s">
         <v>81</v>
@@ -14959,7 +16009,7 @@
         <f>IF('tables and models'!G46&lt;&gt;"",'tables and models'!G46,"")</f>
         <v/>
       </c>
-      <c r="I17" s="103"/>
+      <c r="I17" s="102"/>
       <c r="J17" s="43"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -14970,7 +16020,7 @@
         <f>IF('tables and models'!C47&lt;&gt;"",'tables and models'!C47,"")</f>
         <v/>
       </c>
-      <c r="D18" s="103"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="43"/>
       <c r="G18" s="10" t="s">
         <v>82</v>
@@ -14979,11 +16029,11 @@
         <f>IF('tables and models'!G47&lt;&gt;"",'tables and models'!G47,"")</f>
         <v/>
       </c>
-      <c r="I18" s="103"/>
+      <c r="I18" s="102"/>
       <c r="J18" s="43"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="105" t="s">
         <v>709</v>
       </c>
     </row>
@@ -14997,9 +16047,9 @@
       <c r="D22" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="str">
+      <c r="B24" s="46" t="e">
         <f>"    $"&amp;C22&amp;"    =    "&amp;F5&amp;"::"</f>
-        <v xml:space="preserve">    $myvotes    =    Localdrug::</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -15012,7 +16062,7 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="str">
         <f>IF(D9&lt;&gt;"","        "&amp;IF(C8="column","",$A$2)&amp;$A$1&amp;C9&amp;"' , '"&amp;D9&amp;"'"&amp;E9&amp;")","")</f>
-        <v xml:space="preserve">        where('genericname' , '=''something')</v>
+        <v xml:space="preserve">        where('' , '=''something')</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -15097,7 +16147,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        -&gt;where('application_route' , '='$user)</v>
+        <v xml:space="preserve">        -&gt;where('' , '='$user)</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -15189,7 +16239,7 @@
       <c r="F36" s="46"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="105" t="s">
         <v>707</v>
       </c>
     </row>
@@ -15197,9 +16247,9 @@
       <c r="B39" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="E39" s="10" t="str">
+      <c r="E39" s="10" t="e">
         <f>F5&amp;".php"</f>
-        <v>Localdrug.php</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -15240,7 +16290,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="str">
         <f>"        "&amp;$B$2&amp;C9</f>
-        <v xml:space="preserve">        $query-&gt;where('genericname</v>
+        <v xml:space="preserve">        $query-&gt;where('</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
@@ -17608,7 +18658,7 @@
       </c>
       <c r="E45" s="12"/>
       <c r="H45" s="10" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="794">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -2373,9 +2373,6 @@
     <t>solla2011</t>
   </si>
   <si>
-    <t>healmy5_dose</t>
-  </si>
-  <si>
     <t>root</t>
   </si>
   <si>
@@ -2467,12 +2464,6 @@
   </si>
   <si>
     <t>$list=</t>
-  </si>
-  <si>
-    <t>a_base</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>Project details</t>
@@ -2605,7 +2596,22 @@
     <t>drugs</t>
   </si>
   <si>
-    <t>cacambas</t>
+    <t>healmy5_sentrytest2</t>
+  </si>
+  <si>
+    <t>sentrytest2</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>permissionname</t>
+  </si>
+  <si>
+    <t>permissiondescription</t>
   </si>
 </sst>
 </file>
@@ -6535,7 +6541,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6562,7 +6568,7 @@
       <c r="C9" s="112"/>
       <c r="D9" s="112"/>
       <c r="H9" s="109" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -6571,7 +6577,7 @@
       </c>
       <c r="C10" s="113"/>
       <c r="H10" s="109" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -6580,7 +6586,7 @@
       </c>
       <c r="C11" s="111"/>
       <c r="H11" s="109" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -6590,7 +6596,7 @@
       <c r="C12" s="111"/>
       <c r="D12" s="111"/>
       <c r="H12" s="109" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -6598,7 +6604,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="107" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -6606,7 +6612,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="111" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C16" s="111"/>
       <c r="D16" s="111"/>
@@ -6663,7 +6669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6866,10 +6872,10 @@
       </c>
       <c r="E9" s="73" t="str">
         <f>'view controllers'!D33</f>
-        <v>c4</v>
+        <v>auth</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H9" s="43"/>
     </row>
@@ -6878,7 +6884,7 @@
         <v>546</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6900,7 +6906,7 @@
         <v>549</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -6945,7 +6951,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -6959,7 +6965,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -6973,7 +6979,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -6987,7 +6993,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -7016,7 +7022,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="46" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -7030,7 +7036,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -7044,7 +7050,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -7058,7 +7064,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -7072,7 +7078,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -7086,7 +7092,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="46" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -7100,7 +7106,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -7114,7 +7120,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="46" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -7128,7 +7134,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -7294,10 +7300,10 @@
       </c>
       <c r="E9" s="73" t="str">
         <f>'view controllers'!D33</f>
-        <v>c4</v>
+        <v>auth</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H9" s="43"/>
     </row>
@@ -7306,7 +7312,7 @@
         <v>546</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7328,7 +7334,7 @@
         <v>549</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -7385,7 +7391,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="116" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="M17" s="113"/>
       <c r="N17" s="113"/>
@@ -7714,20 +7720,20 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="46" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -7739,7 +7745,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="46" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -7751,7 +7757,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -7776,7 +7782,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="46" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -7800,7 +7806,7 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="46" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -7812,7 +7818,7 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="46" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -7824,7 +7830,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="46" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -7836,7 +7842,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -11267,7 +11273,7 @@
         <v>606</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H13" s="12" t="str">
         <f>E13&amp;"."&amp;G13</f>
@@ -11275,7 +11281,7 @@
       </c>
       <c r="K13" s="78" t="str">
         <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
-        <v>c:\wamp\www\github\cacambas</v>
+        <v>c:\wamp\www\practice\sentrytest2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -11284,7 +11290,7 @@
       </c>
       <c r="C14" s="17" t="str">
         <f>"Copy-Item "&amp;K13&amp;"\app\views\templates\email2.blade.php "&amp;K13&amp;"\app\views\emails"</f>
-        <v>Copy-Item c:\wamp\www\github\cacambas\app\views\templates\email2.blade.php c:\wamp\www\github\cacambas\app\views\emails</v>
+        <v>Copy-Item c:\wamp\www\practice\sentrytest2\app\views\templates\email2.blade.php c:\wamp\www\practice\sentrytest2\app\views\emails</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -11298,7 +11304,7 @@
       </c>
       <c r="C15" s="17" t="str">
         <f>"Rename-Item "&amp;K13&amp;"\app\views\"&amp;E13&amp;"\email2.blade.php "&amp;G13&amp;".blade.php"</f>
-        <v>Rename-Item c:\wamp\www\github\cacambas\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
+        <v>Rename-Item c:\wamp\www\practice\sentrytest2\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -11309,7 +11315,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -11395,7 +11401,7 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25"/>
@@ -11418,7 +11424,7 @@
         <v>614</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -11430,7 +11436,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="74" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="43"/>
@@ -11450,7 +11456,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="74" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="43"/>
@@ -11470,7 +11476,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="74" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C32" s="74"/>
       <c r="D32" s="43"/>
@@ -11490,7 +11496,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="74" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="43"/>
@@ -11551,7 +11557,7 @@
         <v>621</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="43"/>
@@ -11571,7 +11577,7 @@
         <v>160</v>
       </c>
       <c r="B40" s="74" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C40" s="74"/>
       <c r="D40" s="43"/>
@@ -11591,7 +11597,7 @@
         <v>620</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="43"/>
@@ -11611,7 +11617,7 @@
         <v>160</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C42" s="74"/>
       <c r="D42" s="43"/>
@@ -11631,7 +11637,7 @@
         <v>624</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C43" s="74"/>
       <c r="D43" s="43"/>
@@ -12867,10 +12873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -12974,7 +12980,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -12983,7 +12989,7 @@
         <v>261</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -12993,7 +12999,7 @@
       </c>
       <c r="C15" s="17" t="str">
         <f>+"cd c:\wamp\www\"&amp;C14</f>
-        <v>cd c:\wamp\www\github</v>
+        <v>cd c:\wamp\www\practice</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -13006,33 +13012,33 @@
       </c>
       <c r="C16" s="17" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir cacambas</v>
+        <v>mkdir sentrytest2</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="17" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd cacambas</v>
+        <v>cd sentrytest2</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>86</v>
       </c>
@@ -13044,7 +13050,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>86</v>
       </c>
@@ -13056,32 +13062,32 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd c:\wamp\www\github\cacambas</v>
+        <v>cd c:\wamp\www\practice\sentrytest2</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="51" t="s">
         <v>114</v>
       </c>
@@ -13090,13 +13096,13 @@
       </c>
       <c r="D27" s="53"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="51" t="s">
         <v>114</v>
       </c>
@@ -13105,12 +13111,19 @@
       </c>
       <c r="D30" s="53"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25"/>
+      <c r="L31" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B33" s="114" t="s">
         <v>594</v>
@@ -13195,7 +13208,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Select from list" sqref="C14">
-      <formula1>#REF!</formula1>
+      <formula1>$L$31:$L$32</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -13350,8 +13363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13534,7 +13547,7 @@
         <v>668</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="73" t="s">
@@ -13559,7 +13572,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D25" s="87"/>
       <c r="E25" s="87"/>
@@ -13569,10 +13582,10 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" s="42" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -13616,7 +13629,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -13624,7 +13637,7 @@
         <v>86</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D33" s="87"/>
       <c r="E33" s="87"/>
@@ -13824,7 +13837,7 @@
         <v>681</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F65" s="43"/>
     </row>
@@ -13840,10 +13853,10 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D67" s="42" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -14024,8 +14037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -14131,7 +14144,7 @@
       </c>
       <c r="C14" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>cacambas</v>
+        <v>sentrytest2</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -14141,7 +14154,7 @@
       </c>
       <c r="C15" s="73" t="str">
         <f>'Start project'!C14</f>
-        <v>github</v>
+        <v>practice</v>
       </c>
       <c r="D15" s="23"/>
     </row>
@@ -14157,7 +14170,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\cacambas</v>
+        <v>cd c:\wamp\www\practice\sentrytest2</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -14200,7 +14213,7 @@
       </c>
       <c r="C23" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\cacambas</v>
+        <v>cd c:\wamp\www\practice\sentrytest2</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -14251,7 +14264,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>376</v>
@@ -14261,7 +14274,7 @@
       </c>
       <c r="H33" s="61" t="str">
         <f>D33</f>
-        <v>c4</v>
+        <v>auth</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -14270,18 +14283,18 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>753</v>
+        <v>790</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>E33&amp;D33&amp;"/"</f>
-        <v>app/views/c4/</v>
+        <v>app/views/auth/</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>380</v>
       </c>
       <c r="H34" s="61" t="str">
         <f>D34&amp;".blade.php"</f>
-        <v>a_base.blade.php</v>
+        <v>auth.blade.php</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -14290,7 +14303,7 @@
       </c>
       <c r="C35" s="17" t="str">
         <f>"mkdir "&amp;E33&amp;D33</f>
-        <v>mkdir app/views/c4</v>
+        <v>mkdir app/views/auth</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -14304,7 +14317,7 @@
       </c>
       <c r="C36" s="17" t="str">
         <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D33&amp;B3&amp;" "&amp;D34</f>
-        <v>php artisan generate:view --path="app/views/c4" a_base</v>
+        <v>php artisan generate:view --path="app/views/auth" auth</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -14312,7 +14325,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="12" t="str">
         <f>UPPER(LEFT(D33,1))&amp;RIGHT(D33,LEN(D33)-1)&amp;"Controller"</f>
-        <v>C4Controller</v>
+        <v>AuthController</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -14321,7 +14334,7 @@
       </c>
       <c r="C37" s="17" t="str">
         <f>A4&amp;B5&amp;H36</f>
-        <v>php artisan generate:controller C4Controller</v>
+        <v>php artisan generate:controller AuthController</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -14338,7 +14351,7 @@
       </c>
       <c r="C39" s="19" t="str">
         <f>E34&amp;H34</f>
-        <v>app/views/c4/a_base.blade.php</v>
+        <v>app/views/auth/auth.blade.php</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="10" t="s">
@@ -14421,11 +14434,11 @@
       </c>
       <c r="D48" s="10" t="str">
         <f>" app/Controllers/"&amp;H36&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/C4Controller.php</v>
+        <v xml:space="preserve"> app/Controllers/AuthController.php</v>
       </c>
       <c r="G48" s="12" t="str">
         <f>UPPER(LEFT(D34,1))&amp;RIGHT(D34,LEN(D34)-1)</f>
-        <v>A_base</v>
+        <v>Auth</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>382</v>
@@ -14445,7 +14458,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="46" t="str">
         <f>"    return View::make('"&amp;D33&amp;IF(D33&lt;&gt;"",".","")&amp;D34&amp;"'"&amp;")"</f>
-        <v xml:space="preserve">    return View::make('c4.a_base')</v>
+        <v xml:space="preserve">    return View::make('auth.auth')</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
@@ -14456,7 +14469,7 @@
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="46" t="str">
         <f>"      -&gt;with('title','"&amp;D34&amp;"');"</f>
-        <v xml:space="preserve">      -&gt;with('title','a_base');</v>
+        <v xml:space="preserve">      -&gt;with('title','auth');</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -14488,7 +14501,7 @@
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="46" t="str">
         <f>B6&amp;D33&amp;C1&amp;H36&amp;C2</f>
-        <v>Route::controller('c4','C4Controller');</v>
+        <v>Route::controller('auth','AuthController');</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -14572,8 +14585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -14679,7 +14692,7 @@
       </c>
       <c r="C14" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>cacambas</v>
+        <v>sentrytest2</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -14689,7 +14702,7 @@
       </c>
       <c r="C15" s="73" t="str">
         <f>'Start project'!C14</f>
-        <v>github</v>
+        <v>practice</v>
       </c>
       <c r="D15" s="23"/>
     </row>
@@ -14705,7 +14718,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\cacambas</v>
+        <v>cd c:\wamp\www\practice\sentrytest2</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -14748,7 +14761,7 @@
       </c>
       <c r="C23" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\cacambas</v>
+        <v>cd c:\wamp\www\practice\sentrytest2</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -14787,12 +14800,12 @@
         <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>721</v>
+        <v>788</v>
       </c>
       <c r="D31" s="9"/>
       <c r="F31" s="46" t="str">
         <f>"   'database'  =&gt; '"&amp;C31&amp;"',"</f>
-        <v xml:space="preserve">   'database'  =&gt; 'healmy5_dose',</v>
+        <v xml:space="preserve">   'database'  =&gt; 'healmy5_sentrytest2',</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -14805,7 +14818,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D32" s="9"/>
       <c r="F32" s="46" t="str">
@@ -14838,7 +14851,7 @@
       <c r="K33" s="23"/>
       <c r="M33" s="12" t="str">
         <f>IF(SUM(J38:K47)&gt;0,B2&amp;P47&amp;Q47&amp;B3,"")</f>
-        <v/>
+        <v>--fields="permissionname:string,permissiondescription:string"</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25"/>
@@ -14851,14 +14864,16 @@
       <c r="B36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="F36" s="12" t="e">
+      <c r="D36" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="F36" s="12" t="str">
         <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" s="12" t="e">
+        <v>permission</v>
+      </c>
+      <c r="G36" s="12" t="str">
         <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>#VALUE!</v>
+        <v>Permission</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
@@ -14892,8 +14907,12 @@
       <c r="B38" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="F38" s="10" t="s">
         <v>73</v>
       </c>
@@ -14901,7 +14920,7 @@
       <c r="H38" s="9"/>
       <c r="J38" s="12">
         <f>IF(C38="",0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="12">
         <f>IF(G38="",0,1)</f>
@@ -14912,7 +14931,7 @@
       </c>
       <c r="N38" s="60" t="str">
         <f>IF(AND(C38&lt;&gt;"",D38&lt;&gt;""),IF(N37="concatenator1","",",")&amp;C38&amp;":"&amp;D38,"")</f>
-        <v/>
+        <v>permissionname:string</v>
       </c>
       <c r="O38" s="60" t="str">
         <f>IF(AND(G38&lt;&gt;"",H38&lt;&gt;""),","&amp;G38&amp;":"&amp;H38,"")</f>
@@ -14920,7 +14939,7 @@
       </c>
       <c r="P38" s="60" t="str">
         <f>P37&amp;N38</f>
-        <v/>
+        <v>permissionname:string</v>
       </c>
       <c r="Q38" s="60" t="str">
         <f>Q37&amp;O38</f>
@@ -14934,8 +14953,12 @@
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="F39" s="10" t="s">
         <v>74</v>
       </c>
@@ -14943,7 +14966,7 @@
       <c r="H39" s="9"/>
       <c r="J39" s="12">
         <f t="shared" ref="J39:J47" si="0">IF(C39="",0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="12">
         <f t="shared" ref="K39:K47" si="1">IF(G39="",0,1)</f>
@@ -14954,7 +14977,7 @@
       </c>
       <c r="N39" s="60" t="str">
         <f t="shared" ref="N39:N47" si="2">IF(AND(C39&lt;&gt;"",D39&lt;&gt;""),IF(N38="concatenator1","",",")&amp;C39&amp;":"&amp;D39,"")</f>
-        <v/>
+        <v>,permissiondescription:string</v>
       </c>
       <c r="O39" s="60" t="str">
         <f t="shared" ref="O39:O47" si="3">IF(AND(G39&lt;&gt;"",H39&lt;&gt;""),","&amp;G39&amp;":"&amp;H39,"")</f>
@@ -14962,7 +14985,7 @@
       </c>
       <c r="P39" s="60" t="str">
         <f t="shared" ref="P39:Q47" si="4">P38&amp;N39</f>
-        <v/>
+        <v>permissionname:string,permissiondescription:string</v>
       </c>
       <c r="Q39" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15004,7 +15027,7 @@
       </c>
       <c r="P40" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>permissionname:string,permissiondescription:string</v>
       </c>
       <c r="Q40" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15043,7 +15066,7 @@
       </c>
       <c r="P41" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>permissionname:string,permissiondescription:string</v>
       </c>
       <c r="Q41" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15082,7 +15105,7 @@
       </c>
       <c r="P42" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>permissionname:string,permissiondescription:string</v>
       </c>
       <c r="Q42" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15121,7 +15144,7 @@
       </c>
       <c r="P43" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>permissionname:string,permissiondescription:string</v>
       </c>
       <c r="Q43" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15160,7 +15183,7 @@
       </c>
       <c r="P44" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>permissionname:string,permissiondescription:string</v>
       </c>
       <c r="Q44" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15199,7 +15222,7 @@
       </c>
       <c r="P45" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>permissionname:string,permissiondescription:string</v>
       </c>
       <c r="Q45" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15238,7 +15261,7 @@
       </c>
       <c r="P46" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>permissionname:string,permissiondescription:string</v>
       </c>
       <c r="Q46" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15277,7 +15300,7 @@
       </c>
       <c r="P47" s="60" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>permissionname:string,permissiondescription:string</v>
       </c>
       <c r="Q47" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15297,7 +15320,7 @@
       </c>
       <c r="C51" s="17" t="str">
         <f>A4&amp;A5&amp;A6&amp;D36&amp;B1&amp;M33</f>
-        <v xml:space="preserve">php artisan generate:migration create__table </v>
+        <v>php artisan generate:migration create_permissions_table --fields="permissionname:string,permissiondescription:string"</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -15320,9 +15343,9 @@
       <c r="B53" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="17" t="e">
+      <c r="C53" s="17" t="str">
         <f>A4&amp;B4&amp;G36</f>
-        <v>#VALUE!</v>
+        <v>php artisan generate:model Permission</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -15331,12 +15354,12 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J54" s="10" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J55" s="10" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -15349,9 +15372,9 @@
         <v>122</v>
       </c>
       <c r="C57" s="12"/>
-      <c r="D57" s="12">
+      <c r="D57" s="12" t="str">
         <f>D36</f>
-        <v>0</v>
+        <v>permissions</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -15359,7 +15382,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -15376,7 +15399,7 @@
       </c>
       <c r="C60" s="17" t="str">
         <f>C3&amp;D58&amp;C4&amp;D57&amp;C5&amp;C6&amp;D58&amp;":"&amp;D59&amp;C6</f>
-        <v>php artisan generate:migration add_patient_id_to_0_table --fields="patient_id:integer"</v>
+        <v>php artisan generate:migration add_patient_id_to_permissions_table --fields="patient_id:integer"</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -15419,16 +15442,16 @@
     <row r="67" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D70" s="43"/>
       <c r="E70" s="12" t="str">
@@ -15438,10 +15461,10 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C71" s="43" t="s">
         <v>787</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>790</v>
       </c>
       <c r="D71" s="43"/>
       <c r="E71" s="12" t="str">
@@ -15452,7 +15475,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -15597,21 +15620,21 @@
   <sheetData>
     <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="106" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>737</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -15620,7 +15643,7 @@
       </c>
       <c r="C6" s="43"/>
       <c r="E6" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>185</v>
@@ -15715,27 +15738,27 @@
     </row>
     <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="63" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="63" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="63" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="63" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="63" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -15789,15 +15812,15 @@
       </c>
       <c r="C5" s="42" t="str">
         <f>IF('tables and models'!D36&lt;&gt;"",'tables and models'!D36,"")</f>
-        <v/>
-      </c>
-      <c r="E5" s="12" t="e">
+        <v>permissions</v>
+      </c>
+      <c r="E5" s="12" t="str">
         <f>LEFT(C5,LEN(C5)-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="12" t="e">
+        <v>permission</v>
+      </c>
+      <c r="F5" s="12" t="str">
         <f>UPPER(LEFT(E5,1))&amp;RIGHT(E5,LEN(E5)-1)</f>
-        <v>#VALUE!</v>
+        <v>Permission</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -15826,7 +15849,7 @@
       </c>
       <c r="C9" s="42" t="str">
         <f>IF('tables and models'!C38&lt;&gt;"",'tables and models'!C38,"")</f>
-        <v/>
+        <v>permissionname</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>694</v>
@@ -15854,7 +15877,7 @@
       </c>
       <c r="C10" s="42" t="str">
         <f>IF('tables and models'!C39&lt;&gt;"",'tables and models'!C39,"")</f>
-        <v/>
+        <v>permissiondescription</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="43"/>
@@ -16047,9 +16070,9 @@
       <c r="D22" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="e">
+      <c r="B24" s="46" t="str">
         <f>"    $"&amp;C22&amp;"    =    "&amp;F5&amp;"::"</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve">    $myvotes    =    Permission::</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -16062,7 +16085,7 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="str">
         <f>IF(D9&lt;&gt;"","        "&amp;IF(C8="column","",$A$2)&amp;$A$1&amp;C9&amp;"' , '"&amp;D9&amp;"'"&amp;E9&amp;")","")</f>
-        <v xml:space="preserve">        where('' , '=''something')</v>
+        <v xml:space="preserve">        where('permissionname' , '=''something')</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -16247,9 +16270,9 @@
       <c r="B39" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="E39" s="10" t="e">
+      <c r="E39" s="10" t="str">
         <f>F5&amp;".php"</f>
-        <v>#VALUE!</v>
+        <v>Permission.php</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -16290,7 +16313,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="str">
         <f>"        "&amp;$B$2&amp;C9</f>
-        <v xml:space="preserve">        $query-&gt;where('</v>
+        <v xml:space="preserve">        $query-&gt;where('permissionname</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
@@ -16368,7 +16391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -17911,7 +17934,7 @@
   <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18658,7 +18681,7 @@
       </c>
       <c r="E45" s="12"/>
       <c r="H45" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="793">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -2572,9 +2572,6 @@
     <t>patient_id</t>
   </si>
   <si>
-    <t>patients</t>
-  </si>
-  <si>
     <t>php artisan generate:pivot posts tags</t>
   </si>
   <si>
@@ -2593,9 +2590,6 @@
     <t>Adding foreing keys (skip if already done)</t>
   </si>
   <si>
-    <t>drugs</t>
-  </si>
-  <si>
     <t>healmy5_sentrytest2</t>
   </si>
   <si>
@@ -2605,13 +2599,16 @@
     <t>auth</t>
   </si>
   <si>
-    <t>permissions</t>
-  </si>
-  <si>
-    <t>permissionname</t>
-  </si>
-  <si>
-    <t>permissiondescription</t>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>users_groups</t>
+  </si>
+  <si>
+    <t>group_id</t>
   </si>
 </sst>
 </file>
@@ -12875,7 +12872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -12980,7 +12977,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -14264,7 +14261,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>376</v>
@@ -14283,7 +14280,7 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>E33&amp;D33&amp;"/"</f>
@@ -14585,8 +14582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -14800,7 +14797,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D31" s="9"/>
       <c r="F31" s="46" t="str">
@@ -14851,7 +14848,7 @@
       <c r="K33" s="23"/>
       <c r="M33" s="12" t="str">
         <f>IF(SUM(J38:K47)&gt;0,B2&amp;P47&amp;Q47&amp;B3,"")</f>
-        <v>--fields="permissionname:string,permissiondescription:string"</v>
+        <v>--fields="user_id:integer,group_id:integer"</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25"/>
@@ -14869,11 +14866,11 @@
       </c>
       <c r="F36" s="12" t="str">
         <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>permission</v>
+        <v>users_group</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Permission</v>
+        <v>Users_group</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
@@ -14908,10 +14905,10 @@
         <v>63</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>73</v>
@@ -14931,7 +14928,7 @@
       </c>
       <c r="N38" s="60" t="str">
         <f>IF(AND(C38&lt;&gt;"",D38&lt;&gt;""),IF(N37="concatenator1","",",")&amp;C38&amp;":"&amp;D38,"")</f>
-        <v>permissionname:string</v>
+        <v>user_id:integer</v>
       </c>
       <c r="O38" s="60" t="str">
         <f>IF(AND(G38&lt;&gt;"",H38&lt;&gt;""),","&amp;G38&amp;":"&amp;H38,"")</f>
@@ -14939,7 +14936,7 @@
       </c>
       <c r="P38" s="60" t="str">
         <f>P37&amp;N38</f>
-        <v>permissionname:string</v>
+        <v>user_id:integer</v>
       </c>
       <c r="Q38" s="60" t="str">
         <f>Q37&amp;O38</f>
@@ -14954,10 +14951,10 @@
         <v>64</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>74</v>
@@ -14977,7 +14974,7 @@
       </c>
       <c r="N39" s="60" t="str">
         <f t="shared" ref="N39:N47" si="2">IF(AND(C39&lt;&gt;"",D39&lt;&gt;""),IF(N38="concatenator1","",",")&amp;C39&amp;":"&amp;D39,"")</f>
-        <v>,permissiondescription:string</v>
+        <v>,group_id:integer</v>
       </c>
       <c r="O39" s="60" t="str">
         <f t="shared" ref="O39:O47" si="3">IF(AND(G39&lt;&gt;"",H39&lt;&gt;""),","&amp;G39&amp;":"&amp;H39,"")</f>
@@ -14985,7 +14982,7 @@
       </c>
       <c r="P39" s="60" t="str">
         <f t="shared" ref="P39:Q47" si="4">P38&amp;N39</f>
-        <v>permissionname:string,permissiondescription:string</v>
+        <v>user_id:integer,group_id:integer</v>
       </c>
       <c r="Q39" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15027,7 +15024,7 @@
       </c>
       <c r="P40" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>permissionname:string,permissiondescription:string</v>
+        <v>user_id:integer,group_id:integer</v>
       </c>
       <c r="Q40" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15066,7 +15063,7 @@
       </c>
       <c r="P41" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>permissionname:string,permissiondescription:string</v>
+        <v>user_id:integer,group_id:integer</v>
       </c>
       <c r="Q41" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15105,7 +15102,7 @@
       </c>
       <c r="P42" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>permissionname:string,permissiondescription:string</v>
+        <v>user_id:integer,group_id:integer</v>
       </c>
       <c r="Q42" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15144,7 +15141,7 @@
       </c>
       <c r="P43" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>permissionname:string,permissiondescription:string</v>
+        <v>user_id:integer,group_id:integer</v>
       </c>
       <c r="Q43" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15183,7 +15180,7 @@
       </c>
       <c r="P44" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>permissionname:string,permissiondescription:string</v>
+        <v>user_id:integer,group_id:integer</v>
       </c>
       <c r="Q44" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15222,7 +15219,7 @@
       </c>
       <c r="P45" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>permissionname:string,permissiondescription:string</v>
+        <v>user_id:integer,group_id:integer</v>
       </c>
       <c r="Q45" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15261,7 +15258,7 @@
       </c>
       <c r="P46" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>permissionname:string,permissiondescription:string</v>
+        <v>user_id:integer,group_id:integer</v>
       </c>
       <c r="Q46" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15300,7 +15297,7 @@
       </c>
       <c r="P47" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>permissionname:string,permissiondescription:string</v>
+        <v>user_id:integer,group_id:integer</v>
       </c>
       <c r="Q47" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15320,7 +15317,7 @@
       </c>
       <c r="C51" s="17" t="str">
         <f>A4&amp;A5&amp;A6&amp;D36&amp;B1&amp;M33</f>
-        <v>php artisan generate:migration create_permissions_table --fields="permissionname:string,permissiondescription:string"</v>
+        <v>php artisan generate:migration create_users_groups_table --fields="user_id:integer,group_id:integer"</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -15345,7 +15342,7 @@
       </c>
       <c r="C53" s="17" t="str">
         <f>A4&amp;B4&amp;G36</f>
-        <v>php artisan generate:model Permission</v>
+        <v>php artisan generate:model Users_group</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -15354,12 +15351,12 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J54" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J55" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -15374,7 +15371,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12" t="str">
         <f>D36</f>
-        <v>permissions</v>
+        <v>users_groups</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -15399,7 +15396,7 @@
       </c>
       <c r="C60" s="17" t="str">
         <f>C3&amp;D58&amp;C4&amp;D57&amp;C5&amp;C6&amp;D58&amp;":"&amp;D59&amp;C6</f>
-        <v>php artisan generate:migration add_patient_id_to_permissions_table --fields="patient_id:integer"</v>
+        <v>php artisan generate:migration add_patient_id_to_users_groups_table --fields="patient_id:integer"</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -15442,40 +15439,40 @@
     <row r="67" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>780</v>
+        <v>113</v>
       </c>
       <c r="D70" s="43"/>
       <c r="E70" s="12" t="str">
         <f>LEFT(C70,LEN(C70)-1)</f>
-        <v>patient</v>
+        <v>user</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D71" s="43"/>
       <c r="E71" s="12" t="str">
         <f>LEFT(C71,LEN(C71)-1)</f>
-        <v>drug</v>
+        <v>group</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -15484,7 +15481,7 @@
       </c>
       <c r="C74" s="17" t="str">
         <f>C3&amp;E71&amp;"_id"&amp;C4&amp;C70&amp;C5&amp;C6&amp;E71&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
-        <v>php artisan generate:migration add_drug_id_to_patients_table --fields="drug_id:integer"</v>
+        <v>php artisan generate:migration add_group_id_to_users_table --fields="group_id:integer"</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
@@ -15501,7 +15498,7 @@
       </c>
       <c r="C75" s="17" t="str">
         <f>C3&amp;E70&amp;"_id"&amp;C4&amp;C71&amp;C5&amp;C6&amp;E70&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
-        <v>php artisan generate:migration add_patient_id_to_drugs_table --fields="patient_id:integer"</v>
+        <v>php artisan generate:migration add_user_id_to_groups_table --fields="user_id:integer"</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -15534,7 +15531,7 @@
       </c>
       <c r="C77" s="17" t="str">
         <f>"php artisan generate:pivot "&amp;C70&amp;" "&amp;C71</f>
-        <v>php artisan generate:pivot patients drugs</v>
+        <v>php artisan generate:pivot users groups</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -15812,15 +15809,15 @@
       </c>
       <c r="C5" s="42" t="str">
         <f>IF('tables and models'!D36&lt;&gt;"",'tables and models'!D36,"")</f>
-        <v>permissions</v>
+        <v>users_groups</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>LEFT(C5,LEN(C5)-1)</f>
-        <v>permission</v>
+        <v>users_group</v>
       </c>
       <c r="F5" s="12" t="str">
         <f>UPPER(LEFT(E5,1))&amp;RIGHT(E5,LEN(E5)-1)</f>
-        <v>Permission</v>
+        <v>Users_group</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -15849,7 +15846,7 @@
       </c>
       <c r="C9" s="42" t="str">
         <f>IF('tables and models'!C38&lt;&gt;"",'tables and models'!C38,"")</f>
-        <v>permissionname</v>
+        <v>user_id</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>694</v>
@@ -15877,7 +15874,7 @@
       </c>
       <c r="C10" s="42" t="str">
         <f>IF('tables and models'!C39&lt;&gt;"",'tables and models'!C39,"")</f>
-        <v>permissiondescription</v>
+        <v>group_id</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="43"/>
@@ -16072,7 +16069,7 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="str">
         <f>"    $"&amp;C22&amp;"    =    "&amp;F5&amp;"::"</f>
-        <v xml:space="preserve">    $myvotes    =    Permission::</v>
+        <v xml:space="preserve">    $myvotes    =    Users_group::</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -16085,7 +16082,7 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="str">
         <f>IF(D9&lt;&gt;"","        "&amp;IF(C8="column","",$A$2)&amp;$A$1&amp;C9&amp;"' , '"&amp;D9&amp;"'"&amp;E9&amp;")","")</f>
-        <v xml:space="preserve">        where('permissionname' , '=''something')</v>
+        <v xml:space="preserve">        where('user_id' , '=''something')</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -16272,7 +16269,7 @@
       </c>
       <c r="E39" s="10" t="str">
         <f>F5&amp;".php"</f>
-        <v>Permission.php</v>
+        <v>Users_group.php</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -16313,7 +16310,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="str">
         <f>"        "&amp;$B$2&amp;C9</f>
-        <v xml:space="preserve">        $query-&gt;where('permissionname</v>
+        <v xml:space="preserve">        $query-&gt;where('user_id</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -6538,7 +6538,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7890,7 +7890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13360,8 +13360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14582,8 +14582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -2566,9 +2566,6 @@
     <t>Create a new project</t>
   </si>
   <si>
-    <t>createproject finished</t>
-  </si>
-  <si>
     <t>patient_id</t>
   </si>
   <si>
@@ -2609,6 +2606,9 @@
   </si>
   <si>
     <t>group_id</t>
+  </si>
+  <si>
+    <t>sentry2 part4</t>
   </si>
 </sst>
 </file>
@@ -7890,7 +7890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11169,7 +11169,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -12977,7 +12977,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -13360,8 +13360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13544,7 +13544,7 @@
         <v>668</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="73" t="s">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="C27" s="97" t="str">
         <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
-        <v>git commit -m "createproject finished"</v>
+        <v>git commit -m "sentry2 part4"</v>
       </c>
       <c r="D27" s="87"/>
       <c r="E27" s="87"/>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>376</v>
@@ -14280,7 +14280,7 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>E33&amp;D33&amp;"/"</f>
@@ -14797,7 +14797,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D31" s="9"/>
       <c r="F31" s="46" t="str">
@@ -14862,7 +14862,7 @@
         <v>62</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>LEFT(D36,LEN(D36)-1)</f>
@@ -14905,7 +14905,7 @@
         <v>63</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>92</v>
@@ -14951,7 +14951,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>92</v>
@@ -15351,12 +15351,12 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J54" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J55" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -15379,7 +15379,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -15439,13 +15439,13 @@
     <row r="67" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>113</v>
@@ -15458,10 +15458,10 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D71" s="43"/>
       <c r="E71" s="12" t="str">
@@ -15472,7 +15472,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="16" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="797">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -2098,9 +2098,6 @@
   </si>
   <si>
     <t>This command checks the whole laravel directory to be tracked with git</t>
-  </si>
-  <si>
-    <t>GIT &amp; GITHUB: Helpful git tips</t>
   </si>
   <si>
     <t>IT IS RECOMMENDED TO USE POWERSHELL FOR MANAGING GIT FROM TERMINAL</t>
@@ -2201,9 +2198,6 @@
     <t>FAST git commit</t>
   </si>
   <si>
-    <t>Cmt. name</t>
-  </si>
-  <si>
     <t>directory</t>
   </si>
   <si>
@@ -2590,25 +2584,43 @@
     <t>healmy5_sentrytest2</t>
   </si>
   <si>
-    <t>sentrytest2</t>
-  </si>
-  <si>
-    <t>auth</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>users_groups</t>
-  </si>
-  <si>
-    <t>group_id</t>
-  </si>
-  <si>
-    <t>sentry2 part4</t>
+    <t>dosetracker</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>cardid</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>a_base</t>
+  </si>
+  <si>
+    <t>superadmin finished</t>
+  </si>
+  <si>
+    <t>adverseevent</t>
+  </si>
+  <si>
+    <t>git rm $(git ls-files --deleted)</t>
+  </si>
+  <si>
+    <t>Commit name</t>
   </si>
 </sst>
 </file>
@@ -3292,7 +3304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3417,6 +3429,9 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3748,6 +3763,119 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>302474</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>75599</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Grupo 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="302474" y="2143126"/>
+          <a:ext cx="1316175" cy="304800"/>
+          <a:chOff x="4826849" y="2895601"/>
+          <a:chExt cx="1316175" cy="304800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Imagen 8" descr="GitHub logo"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4826849" y="2895601"/>
+            <a:ext cx="359579" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="CuadroTexto 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5200650" y="2905125"/>
+            <a:ext cx="942374" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100"/>
+              <a:t>Auto GITHUB</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -6537,9 +6665,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6565,7 +6691,7 @@
       <c r="C9" s="112"/>
       <c r="D9" s="112"/>
       <c r="H9" s="109" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -6574,26 +6700,22 @@
       </c>
       <c r="C10" s="113"/>
       <c r="H10" s="109" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="111" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C11" s="111"/>
       <c r="H11" s="109" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="111" t="s">
-        <v>644</v>
-      </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="107"/>
       <c r="H12" s="109" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -6601,7 +6723,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="107" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -6609,7 +6731,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="111" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C16" s="111"/>
       <c r="D16" s="111"/>
@@ -6631,15 +6753,14 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="107" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B10:C10"/>
@@ -6650,7 +6771,6 @@
     <hyperlink ref="B9" location="'view controllers'!A1" display="View and controllers creation"/>
     <hyperlink ref="B10" location="'tables and models'!A1" display="Tables and models"/>
     <hyperlink ref="B19:D19" location="'Laravel mail v1'!A1" display="Mail sender constructor"/>
-    <hyperlink ref="B12:D12" location="'git commands'!A1" display="GIT &amp; GITHUB: Helpful git tips"/>
     <hyperlink ref="B11:C11" location="'query automation v1'!A1" display="Query automation"/>
     <hyperlink ref="B23" location="'Test unit v1'!A1" display="Test unit"/>
     <hyperlink ref="B16:D16" location="dbRelations!A1" display="Database relationships pool"/>
@@ -6869,10 +6989,10 @@
       </c>
       <c r="E9" s="73" t="str">
         <f>'view controllers'!D33</f>
-        <v>auth</v>
+        <v>adverseevent</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H9" s="43"/>
     </row>
@@ -6881,7 +7001,7 @@
         <v>546</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6903,7 +7023,7 @@
         <v>549</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -6948,7 +7068,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -6962,7 +7082,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -6976,7 +7096,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -6990,7 +7110,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -7019,7 +7139,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="46" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -7033,7 +7153,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -7047,7 +7167,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -7061,7 +7181,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -7075,7 +7195,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -7089,7 +7209,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="46" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -7103,7 +7223,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -7117,7 +7237,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -7131,7 +7251,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -7297,10 +7417,10 @@
       </c>
       <c r="E9" s="73" t="str">
         <f>'view controllers'!D33</f>
-        <v>auth</v>
+        <v>adverseevent</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H9" s="43"/>
     </row>
@@ -7309,7 +7429,7 @@
         <v>546</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7331,7 +7451,7 @@
         <v>549</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -7388,7 +7508,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="116" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M17" s="113"/>
       <c r="N17" s="113"/>
@@ -7717,20 +7837,20 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="46" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -7742,7 +7862,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="46" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -7754,7 +7874,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -7779,7 +7899,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="46" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -7803,7 +7923,7 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="46" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -7815,7 +7935,7 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="46" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -7827,7 +7947,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="46" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -7839,7 +7959,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -11270,7 +11390,7 @@
         <v>606</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H13" s="12" t="str">
         <f>E13&amp;"."&amp;G13</f>
@@ -11278,7 +11398,7 @@
       </c>
       <c r="K13" s="78" t="str">
         <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
-        <v>c:\wamp\www\practice\sentrytest2</v>
+        <v>c:\wamp\www\github\dosetracker</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -11287,7 +11407,7 @@
       </c>
       <c r="C14" s="17" t="str">
         <f>"Copy-Item "&amp;K13&amp;"\app\views\templates\email2.blade.php "&amp;K13&amp;"\app\views\emails"</f>
-        <v>Copy-Item c:\wamp\www\practice\sentrytest2\app\views\templates\email2.blade.php c:\wamp\www\practice\sentrytest2\app\views\emails</v>
+        <v>Copy-Item c:\wamp\www\github\dosetracker\app\views\templates\email2.blade.php c:\wamp\www\github\dosetracker\app\views\emails</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -11301,7 +11421,7 @@
       </c>
       <c r="C15" s="17" t="str">
         <f>"Rename-Item "&amp;K13&amp;"\app\views\"&amp;E13&amp;"\email2.blade.php "&amp;G13&amp;".blade.php"</f>
-        <v>Rename-Item c:\wamp\www\practice\sentrytest2\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
+        <v>Rename-Item c:\wamp\www\github\dosetracker\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -11312,7 +11432,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -11398,7 +11518,7 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25"/>
@@ -11421,7 +11541,7 @@
         <v>614</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -11433,7 +11553,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="74" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="43"/>
@@ -11453,7 +11573,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="74" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="43"/>
@@ -11473,7 +11593,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="74" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C32" s="74"/>
       <c r="D32" s="43"/>
@@ -11493,7 +11613,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="74" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="43"/>
@@ -11554,7 +11674,7 @@
         <v>621</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="43"/>
@@ -11574,7 +11694,7 @@
         <v>160</v>
       </c>
       <c r="B40" s="74" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C40" s="74"/>
       <c r="D40" s="43"/>
@@ -11594,7 +11714,7 @@
         <v>620</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="43"/>
@@ -11614,7 +11734,7 @@
         <v>160</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C42" s="74"/>
       <c r="D42" s="43"/>
@@ -11634,7 +11754,7 @@
         <v>624</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C43" s="74"/>
       <c r="D43" s="43"/>
@@ -12872,9 +12992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12977,7 +13095,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -12986,7 +13104,7 @@
         <v>261</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -12996,7 +13114,7 @@
       </c>
       <c r="C15" s="17" t="str">
         <f>+"cd c:\wamp\www\"&amp;C14</f>
-        <v>cd c:\wamp\www\practice</v>
+        <v>cd c:\wamp\www\github</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -13009,7 +13127,7 @@
       </c>
       <c r="C16" s="17" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir sentrytest2</v>
+        <v>mkdir dosetracker</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="17"/>
@@ -13022,7 +13140,7 @@
       </c>
       <c r="C17" s="17" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd sentrytest2</v>
+        <v>cd dosetracker</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -13071,7 +13189,7 @@
       </c>
       <c r="C24" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd c:\wamp\www\practice\sentrytest2</v>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -13358,10 +13476,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13387,7 +13505,7 @@
         <v>635</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
@@ -13395,20 +13513,20 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="90" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="99" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>669</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>671</v>
       </c>
       <c r="D7" s="43"/>
     </row>
@@ -13451,14 +13569,14 @@
         <v>86</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D11" s="87"/>
       <c r="E11" s="87"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F13" s="98" t="str">
         <f>C7</f>
@@ -13484,7 +13602,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
@@ -13497,7 +13615,7 @@
         <v>86</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D16" s="87"/>
       <c r="E16" s="87"/>
@@ -13518,12 +13636,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="99" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -13531,20 +13649,20 @@
         <v>86</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D21" s="87"/>
       <c r="E21" s="87"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>667</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>668</v>
+        <v>666</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>796</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="73" t="s">
@@ -13569,7 +13687,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>723</v>
+        <v>795</v>
       </c>
       <c r="D25" s="87"/>
       <c r="E25" s="87"/>
@@ -13578,20 +13696,28 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="42" t="s">
-        <v>724</v>
-      </c>
+      <c r="B26" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="97" t="str">
+        <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
+        <v>git commit -m "superadmin finished"</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
       <c r="G26" s="42" t="s">
-        <v>723</v>
+        <v>721</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="97" t="str">
-        <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
-        <v>git commit -m "sentry2 part4"</v>
+      <c r="C27" s="97" t="s">
+        <v>655</v>
       </c>
       <c r="D27" s="87"/>
       <c r="E27" s="87"/>
@@ -13601,58 +13727,40 @@
         <v>86</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="D28" s="87"/>
       <c r="E28" s="87"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="87" t="s">
-        <v>86</v>
-      </c>
+      <c r="B29" s="87"/>
       <c r="C29" s="97" t="s">
-        <v>673</v>
+        <v>718</v>
       </c>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
-      <c r="C30" s="97" t="s">
-        <v>720</v>
-      </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
-        <v>726</v>
-      </c>
-    </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="42" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="97" t="s">
-        <v>725</v>
-      </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="87" t="s">
+      <c r="C34" s="97" t="s">
+        <v>723</v>
+      </c>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="97" t="s">
-        <v>655</v>
-      </c>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="87"/>
       <c r="C37" s="97" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
@@ -13660,260 +13768,257 @@
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="87"/>
       <c r="C38" s="97" t="s">
-        <v>720</v>
+        <v>671</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="42" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
-        <v>661</v>
+      <c r="B39" s="87"/>
+      <c r="C39" s="97" t="s">
+        <v>718</v>
+      </c>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="42" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>662</v>
-      </c>
-      <c r="K42" s="42" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="K43" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="L43" s="89" t="s">
-        <v>658</v>
-      </c>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
+        <v>661</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
-        <v>664</v>
-      </c>
-      <c r="K44" s="42" t="s">
-        <v>659</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="K44" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="L44" s="89" t="s">
+        <v>657</v>
+      </c>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="97" t="s">
-        <v>665</v>
-      </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
+      <c r="B45" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="87" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="91" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="42" t="s">
+      <c r="B47" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="97" t="s">
+        <v>665</v>
+      </c>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="91" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="42" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="87" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C52" s="97" t="s">
         <v>636</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="91" t="s">
-        <v>646</v>
-      </c>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="95" t="s">
-        <v>647</v>
-      </c>
-      <c r="C53" s="93" t="s">
-        <v>648</v>
-      </c>
-      <c r="D53" s="92"/>
-      <c r="E53" s="42" t="s">
-        <v>650</v>
+      <c r="B53" s="91" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="95" t="s">
+        <v>646</v>
+      </c>
+      <c r="C54" s="93" t="s">
         <v>647</v>
-      </c>
-      <c r="C54" s="94" t="s">
-        <v>649</v>
       </c>
       <c r="D54" s="92"/>
       <c r="E54" s="42" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="95" t="s">
+        <v>646</v>
+      </c>
+      <c r="C55" s="94" t="s">
+        <v>648</v>
+      </c>
+      <c r="D55" s="92"/>
+      <c r="E55" s="42" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="95"/>
+      <c r="C56" s="95" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="95"/>
-      <c r="C55" s="95" t="s">
-        <v>652</v>
-      </c>
-      <c r="D55" s="95"/>
-      <c r="E55" s="42" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="99" t="s">
-        <v>687</v>
+      <c r="D56" s="95"/>
+      <c r="E56" s="42" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="42" t="s">
-        <v>678</v>
-      </c>
-      <c r="C59" s="43" t="s">
+      <c r="B59" s="99" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="C60" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="D59" s="43"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="97" t="str">
-        <f>"git branch "&amp;C59</f>
-        <v>git branch two</v>
-      </c>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
+      <c r="D60" s="43"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="87" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="97" t="str">
-        <f>"git checkout "&amp;C59</f>
-        <v>git checkout two</v>
+        <f>"git branch "&amp;C60</f>
+        <v>git branch two</v>
       </c>
       <c r="D61" s="87"/>
       <c r="E61" s="87"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="42" t="s">
-        <v>679</v>
-      </c>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="97" t="str">
+        <f>"git checkout "&amp;C60</f>
+        <v>git checkout two</v>
+      </c>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="42" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D65" s="42" t="s">
-        <v>681</v>
-      </c>
-      <c r="E65" s="43" t="s">
+      <c r="B65" s="42" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D66" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>720</v>
+      </c>
+      <c r="F66" s="43"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="97" t="s">
+        <v>641</v>
+      </c>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="42" t="s">
         <v>722</v>
       </c>
-      <c r="F65" s="43"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="97" t="s">
-        <v>641</v>
-      </c>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="G67" s="42" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="97" t="str">
-        <f>"git commit -m "&amp;$A$1&amp;E65&amp;$A$1</f>
-        <v>git commit -m "fixing request bug"</v>
-      </c>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
+      <c r="G68" s="42" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="87" t="s">
         <v>86</v>
       </c>
       <c r="C69" s="97" t="str">
-        <f>"git push origin "&amp;C59</f>
-        <v>git push origin two</v>
+        <f>"git commit -m "&amp;$A$1&amp;E66&amp;$A$1</f>
+        <v>git commit -m "fixing request bug"</v>
       </c>
       <c r="D69" s="87"/>
       <c r="E69" s="87"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="87" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="97" t="str">
-        <f>"git pull origin "&amp;C59</f>
+      <c r="C70" s="97" t="str">
+        <f>"git push origin "&amp;C60</f>
+        <v>git push origin two</v>
+      </c>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="97" t="str">
+        <f>"git pull origin "&amp;C60</f>
         <v>git pull origin two</v>
       </c>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="42" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="42" t="s">
-        <v>683</v>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="42" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="97" t="s">
-        <v>684</v>
-      </c>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
+      <c r="B74" s="42" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="97" t="str">
-        <f>"git merge "&amp;C59</f>
-        <v>git merge two</v>
+      <c r="C75" s="97" t="s">
+        <v>682</v>
       </c>
       <c r="D75" s="87"/>
       <c r="E75" s="87"/>
@@ -13922,43 +14027,54 @@
       <c r="B76" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="97" t="s">
-        <v>657</v>
+      <c r="C76" s="97" t="str">
+        <f>"git merge "&amp;C60</f>
+        <v>git merge two</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="87"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="42" t="s">
-        <v>686</v>
-      </c>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="97" t="s">
+        <v>656</v>
+      </c>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="89" t="str">
-        <f>"git branch -d "&amp;C59</f>
-        <v>git branch -d two</v>
-      </c>
-      <c r="D80" s="100"/>
-      <c r="E80" s="100"/>
+      <c r="B80" s="42" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="88" t="s">
         <v>114</v>
       </c>
       <c r="C81" s="89" t="str">
-        <f>"git push origin --delete "&amp;C59</f>
-        <v>git push origin --delete two</v>
+        <f>"git branch -d "&amp;C60</f>
+        <v>git branch -d two</v>
       </c>
       <c r="D81" s="100"/>
       <c r="E81" s="100"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="89" t="str">
+        <f>"git push origin --delete "&amp;C60</f>
+        <v>git push origin --delete two</v>
+      </c>
+      <c r="D82" s="100"/>
+      <c r="E82" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13982,17 +14098,17 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -14000,7 +14116,7 @@
         <v>86</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D6" s="97"/>
       <c r="E6" s="97"/>
@@ -14009,7 +14125,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -14017,7 +14133,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="97"/>
@@ -14141,7 +14257,7 @@
       </c>
       <c r="C14" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>sentrytest2</v>
+        <v>dosetracker</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -14151,7 +14267,7 @@
       </c>
       <c r="C15" s="73" t="str">
         <f>'Start project'!C14</f>
-        <v>practice</v>
+        <v>github</v>
       </c>
       <c r="D15" s="23"/>
     </row>
@@ -14167,7 +14283,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\practice\sentrytest2</v>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -14210,7 +14326,7 @@
       </c>
       <c r="C23" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\practice\sentrytest2</v>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -14261,7 +14377,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>376</v>
@@ -14271,7 +14387,7 @@
       </c>
       <c r="H33" s="61" t="str">
         <f>D33</f>
-        <v>auth</v>
+        <v>adverseevent</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -14280,18 +14396,18 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>E33&amp;D33&amp;"/"</f>
-        <v>app/views/auth/</v>
+        <v>app/views/adverseevent/</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>380</v>
       </c>
       <c r="H34" s="61" t="str">
         <f>D34&amp;".blade.php"</f>
-        <v>auth.blade.php</v>
+        <v>a_base.blade.php</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -14300,7 +14416,7 @@
       </c>
       <c r="C35" s="17" t="str">
         <f>"mkdir "&amp;E33&amp;D33</f>
-        <v>mkdir app/views/auth</v>
+        <v>mkdir app/views/adverseevent</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -14314,7 +14430,7 @@
       </c>
       <c r="C36" s="17" t="str">
         <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D33&amp;B3&amp;" "&amp;D34</f>
-        <v>php artisan generate:view --path="app/views/auth" auth</v>
+        <v>php artisan generate:view --path="app/views/adverseevent" a_base</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -14322,7 +14438,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="12" t="str">
         <f>UPPER(LEFT(D33,1))&amp;RIGHT(D33,LEN(D33)-1)&amp;"Controller"</f>
-        <v>AuthController</v>
+        <v>AdverseeventController</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -14331,7 +14447,7 @@
       </c>
       <c r="C37" s="17" t="str">
         <f>A4&amp;B5&amp;H36</f>
-        <v>php artisan generate:controller AuthController</v>
+        <v>php artisan generate:controller AdverseeventController</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -14348,7 +14464,7 @@
       </c>
       <c r="C39" s="19" t="str">
         <f>E34&amp;H34</f>
-        <v>app/views/auth/auth.blade.php</v>
+        <v>app/views/adverseevent/a_base.blade.php</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="10" t="s">
@@ -14431,11 +14547,11 @@
       </c>
       <c r="D48" s="10" t="str">
         <f>" app/Controllers/"&amp;H36&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/AuthController.php</v>
+        <v xml:space="preserve"> app/Controllers/AdverseeventController.php</v>
       </c>
       <c r="G48" s="12" t="str">
         <f>UPPER(LEFT(D34,1))&amp;RIGHT(D34,LEN(D34)-1)</f>
-        <v>Auth</v>
+        <v>A_base</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>382</v>
@@ -14455,7 +14571,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="46" t="str">
         <f>"    return View::make('"&amp;D33&amp;IF(D33&lt;&gt;"",".","")&amp;D34&amp;"'"&amp;")"</f>
-        <v xml:space="preserve">    return View::make('auth.auth')</v>
+        <v xml:space="preserve">    return View::make('adverseevent.a_base')</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
@@ -14466,7 +14582,7 @@
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="46" t="str">
         <f>"      -&gt;with('title','"&amp;D34&amp;"');"</f>
-        <v xml:space="preserve">      -&gt;with('title','auth');</v>
+        <v xml:space="preserve">      -&gt;with('title','a_base');</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -14498,7 +14614,7 @@
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="46" t="str">
         <f>B6&amp;D33&amp;C1&amp;H36&amp;C2</f>
-        <v>Route::controller('auth','AuthController');</v>
+        <v>Route::controller('adverseevent','AdverseeventController');</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -14689,7 +14805,7 @@
       </c>
       <c r="C14" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>sentrytest2</v>
+        <v>dosetracker</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -14699,7 +14815,7 @@
       </c>
       <c r="C15" s="73" t="str">
         <f>'Start project'!C14</f>
-        <v>practice</v>
+        <v>github</v>
       </c>
       <c r="D15" s="23"/>
     </row>
@@ -14715,7 +14831,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\practice\sentrytest2</v>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -14758,7 +14874,7 @@
       </c>
       <c r="C23" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\practice\sentrytest2</v>
+        <v>cd c:\wamp\www\github\dosetracker</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -14797,7 +14913,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D31" s="9"/>
       <c r="F31" s="46" t="str">
@@ -14815,7 +14931,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D32" s="9"/>
       <c r="F32" s="46" t="str">
@@ -14848,7 +14964,7 @@
       <c r="K33" s="23"/>
       <c r="M33" s="12" t="str">
         <f>IF(SUM(J38:K47)&gt;0,B2&amp;P47&amp;Q47&amp;B3,"")</f>
-        <v>--fields="user_id:integer,group_id:integer"</v>
+        <v>--fields="cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string"</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25"/>
@@ -14862,15 +14978,15 @@
         <v>62</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>users_group</v>
+        <v>customer</v>
       </c>
       <c r="G36" s="12" t="str">
         <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Users_group</v>
+        <v>Customer</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
@@ -14905,10 +15021,10 @@
         <v>63</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>73</v>
@@ -14928,7 +15044,7 @@
       </c>
       <c r="N38" s="60" t="str">
         <f>IF(AND(C38&lt;&gt;"",D38&lt;&gt;""),IF(N37="concatenator1","",",")&amp;C38&amp;":"&amp;D38,"")</f>
-        <v>user_id:integer</v>
+        <v>cardid:string</v>
       </c>
       <c r="O38" s="60" t="str">
         <f>IF(AND(G38&lt;&gt;"",H38&lt;&gt;""),","&amp;G38&amp;":"&amp;H38,"")</f>
@@ -14936,7 +15052,7 @@
       </c>
       <c r="P38" s="60" t="str">
         <f>P37&amp;N38</f>
-        <v>user_id:integer</v>
+        <v>cardid:string</v>
       </c>
       <c r="Q38" s="60" t="str">
         <f>Q37&amp;O38</f>
@@ -14951,10 +15067,10 @@
         <v>64</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>791</v>
+        <v>160</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>74</v>
@@ -14974,7 +15090,7 @@
       </c>
       <c r="N39" s="60" t="str">
         <f t="shared" ref="N39:N47" si="2">IF(AND(C39&lt;&gt;"",D39&lt;&gt;""),IF(N38="concatenator1","",",")&amp;C39&amp;":"&amp;D39,"")</f>
-        <v>,group_id:integer</v>
+        <v>,name:string</v>
       </c>
       <c r="O39" s="60" t="str">
         <f t="shared" ref="O39:O47" si="3">IF(AND(G39&lt;&gt;"",H39&lt;&gt;""),","&amp;G39&amp;":"&amp;H39,"")</f>
@@ -14982,7 +15098,7 @@
       </c>
       <c r="P39" s="60" t="str">
         <f t="shared" ref="P39:Q47" si="4">P38&amp;N39</f>
-        <v>user_id:integer,group_id:integer</v>
+        <v>cardid:string,name:string</v>
       </c>
       <c r="Q39" s="60" t="str">
         <f t="shared" si="4"/>
@@ -14996,8 +15112,12 @@
       <c r="B40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="F40" s="10" t="s">
         <v>75</v>
       </c>
@@ -15005,7 +15125,7 @@
       <c r="H40" s="9"/>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="12">
         <f t="shared" si="1"/>
@@ -15016,7 +15136,7 @@
       </c>
       <c r="N40" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,surname:string</v>
       </c>
       <c r="O40" s="60" t="str">
         <f t="shared" si="3"/>
@@ -15024,7 +15144,7 @@
       </c>
       <c r="P40" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>user_id:integer,group_id:integer</v>
+        <v>cardid:string,name:string,surname:string</v>
       </c>
       <c r="Q40" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15035,8 +15155,12 @@
       <c r="B41" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="F41" s="10" t="s">
         <v>76</v>
       </c>
@@ -15044,7 +15168,7 @@
       <c r="H41" s="9"/>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="12">
         <f t="shared" si="1"/>
@@ -15055,7 +15179,7 @@
       </c>
       <c r="N41" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,company:string</v>
       </c>
       <c r="O41" s="60" t="str">
         <f t="shared" si="3"/>
@@ -15063,7 +15187,7 @@
       </c>
       <c r="P41" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>user_id:integer,group_id:integer</v>
+        <v>cardid:string,name:string,surname:string,company:string</v>
       </c>
       <c r="Q41" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15074,8 +15198,12 @@
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="F42" s="10" t="s">
         <v>77</v>
       </c>
@@ -15083,7 +15211,7 @@
       <c r="H42" s="9"/>
       <c r="J42" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="12">
         <f t="shared" si="1"/>
@@ -15094,7 +15222,7 @@
       </c>
       <c r="N42" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,mobile:string</v>
       </c>
       <c r="O42" s="60" t="str">
         <f t="shared" si="3"/>
@@ -15102,7 +15230,7 @@
       </c>
       <c r="P42" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>user_id:integer,group_id:integer</v>
+        <v>cardid:string,name:string,surname:string,company:string,mobile:string</v>
       </c>
       <c r="Q42" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15113,8 +15241,12 @@
       <c r="B43" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="F43" s="10" t="s">
         <v>78</v>
       </c>
@@ -15122,7 +15254,7 @@
       <c r="H43" s="9"/>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="12">
         <f t="shared" si="1"/>
@@ -15133,7 +15265,7 @@
       </c>
       <c r="N43" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,phonenumber:string</v>
       </c>
       <c r="O43" s="60" t="str">
         <f t="shared" si="3"/>
@@ -15141,7 +15273,7 @@
       </c>
       <c r="P43" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>user_id:integer,group_id:integer</v>
+        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
       </c>
       <c r="Q43" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15180,7 +15312,7 @@
       </c>
       <c r="P44" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>user_id:integer,group_id:integer</v>
+        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
       </c>
       <c r="Q44" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15219,7 +15351,7 @@
       </c>
       <c r="P45" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>user_id:integer,group_id:integer</v>
+        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
       </c>
       <c r="Q45" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15258,7 +15390,7 @@
       </c>
       <c r="P46" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>user_id:integer,group_id:integer</v>
+        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
       </c>
       <c r="Q46" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15297,7 +15429,7 @@
       </c>
       <c r="P47" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>user_id:integer,group_id:integer</v>
+        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
       </c>
       <c r="Q47" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15317,7 +15449,7 @@
       </c>
       <c r="C51" s="17" t="str">
         <f>A4&amp;A5&amp;A6&amp;D36&amp;B1&amp;M33</f>
-        <v>php artisan generate:migration create_users_groups_table --fields="user_id:integer,group_id:integer"</v>
+        <v>php artisan generate:migration create_customers_table --fields="cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string"</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -15342,7 +15474,7 @@
       </c>
       <c r="C53" s="17" t="str">
         <f>A4&amp;B4&amp;G36</f>
-        <v>php artisan generate:model Users_group</v>
+        <v>php artisan generate:model Customer</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -15351,12 +15483,12 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J54" s="10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J55" s="10" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -15371,7 +15503,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12" t="str">
         <f>D36</f>
-        <v>users_groups</v>
+        <v>customers</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -15379,7 +15511,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -15396,7 +15528,7 @@
       </c>
       <c r="C60" s="17" t="str">
         <f>C3&amp;D58&amp;C4&amp;D57&amp;C5&amp;C6&amp;D58&amp;":"&amp;D59&amp;C6</f>
-        <v>php artisan generate:migration add_patient_id_to_users_groups_table --fields="patient_id:integer"</v>
+        <v>php artisan generate:migration add_patient_id_to_customers_table --fields="patient_id:integer"</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -15439,13 +15571,13 @@
     <row r="67" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>113</v>
@@ -15458,10 +15590,10 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D71" s="43"/>
       <c r="E71" s="12" t="str">
@@ -15472,7 +15604,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -15617,21 +15749,21 @@
   <sheetData>
     <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="106" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J5" s="78" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -15640,7 +15772,7 @@
       </c>
       <c r="C6" s="43"/>
       <c r="E6" s="23" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>185</v>
@@ -15735,27 +15867,27 @@
     </row>
     <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="63" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="63" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="63" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="63" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="63" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -15784,10 +15916,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
@@ -15795,12 +15927,12 @@
         <v>276</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -15809,15 +15941,15 @@
       </c>
       <c r="C5" s="42" t="str">
         <f>IF('tables and models'!D36&lt;&gt;"",'tables and models'!D36,"")</f>
-        <v>users_groups</v>
+        <v>customers</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>LEFT(C5,LEN(C5)-1)</f>
-        <v>users_group</v>
+        <v>customer</v>
       </c>
       <c r="F5" s="12" t="str">
         <f>UPPER(LEFT(E5,1))&amp;RIGHT(E5,LEN(E5)-1)</f>
-        <v>Users_group</v>
+        <v>Customer</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -15825,19 +15957,19 @@
         <v>354</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>354</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -15846,13 +15978,13 @@
       </c>
       <c r="C9" s="42" t="str">
         <f>IF('tables and models'!C38&lt;&gt;"",'tables and models'!C38,"")</f>
-        <v>user_id</v>
+        <v>cardid</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>73</v>
@@ -15862,10 +15994,10 @@
         <v/>
       </c>
       <c r="I9" s="102" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -15874,7 +16006,7 @@
       </c>
       <c r="C10" s="42" t="str">
         <f>IF('tables and models'!C39&lt;&gt;"",'tables and models'!C39,"")</f>
-        <v>group_id</v>
+        <v>name</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="43"/>
@@ -15894,7 +16026,7 @@
       </c>
       <c r="C11" s="42" t="str">
         <f>IF('tables and models'!C40&lt;&gt;"",'tables and models'!C40,"")</f>
-        <v/>
+        <v>surname</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="43"/>
@@ -15914,7 +16046,7 @@
       </c>
       <c r="C12" s="42" t="str">
         <f>IF('tables and models'!C41&lt;&gt;"",'tables and models'!C41,"")</f>
-        <v/>
+        <v>company</v>
       </c>
       <c r="D12" s="102"/>
       <c r="E12" s="43"/>
@@ -15934,7 +16066,7 @@
       </c>
       <c r="C13" s="42" t="str">
         <f>IF('tables and models'!C42&lt;&gt;"",'tables and models'!C42,"")</f>
-        <v/>
+        <v>mobile</v>
       </c>
       <c r="D13" s="102"/>
       <c r="E13" s="43"/>
@@ -15954,13 +16086,13 @@
       </c>
       <c r="C14" s="42" t="str">
         <f>IF('tables and models'!C43&lt;&gt;"",'tables and models'!C43,"")</f>
-        <v/>
+        <v>phonenumber</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>78</v>
@@ -16054,35 +16186,35 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="105" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D22" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="str">
         <f>"    $"&amp;C22&amp;"    =    "&amp;F5&amp;"::"</f>
-        <v xml:space="preserve">    $myvotes    =    Users_group::</v>
+        <v xml:space="preserve">    $myvotes    =    Customer::</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
       <c r="H24" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="str">
         <f>IF(D9&lt;&gt;"","        "&amp;IF(C8="column","",$A$2)&amp;$A$1&amp;C9&amp;"' , '"&amp;D9&amp;"'"&amp;E9&amp;")","")</f>
-        <v xml:space="preserve">        where('user_id' , '=''something')</v>
+        <v xml:space="preserve">        where('cardid' , '=''something')</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -16167,7 +16299,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        -&gt;where('' , '='$user)</v>
+        <v xml:space="preserve">        -&gt;where('phonenumber' , '='$user)</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -16251,7 +16383,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -16260,24 +16392,24 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="105" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E39" s="10" t="str">
         <f>F5&amp;".php"</f>
-        <v>Users_group.php</v>
+        <v>Customer.php</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>711</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>713</v>
       </c>
       <c r="E40" s="12" t="str">
         <f>LEFT(C40,LEN(C40)-1)</f>
@@ -16290,7 +16422,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="46"/>
@@ -16310,7 +16442,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="str">
         <f>"        "&amp;$B$2&amp;C9</f>
-        <v xml:space="preserve">        $query-&gt;where('user_id</v>
+        <v xml:space="preserve">        $query-&gt;where('cardid</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
@@ -16349,27 +16481,27 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="40" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="39" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -16389,7 +16521,7 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17930,8 +18062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18678,7 +18810,7 @@
       </c>
       <c r="E45" s="12"/>
       <c r="H45" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
     <sheet name="Start project" sheetId="21" r:id="rId2"/>
     <sheet name="view controllers" sheetId="22" r:id="rId3"/>
     <sheet name="tables and models" sheetId="23" r:id="rId4"/>
-    <sheet name="dbRelations" sheetId="27" r:id="rId5"/>
+    <sheet name="ST2 snippets" sheetId="29" r:id="rId5"/>
     <sheet name="query automation v1" sheetId="26" r:id="rId6"/>
     <sheet name="AutoLaravel v1" sheetId="6" r:id="rId7"/>
     <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId8"/>
@@ -54,7 +54,7 @@
     <author>maria adelaida Escobar Hurtado</author>
   </authors>
   <commentList>
-    <comment ref="D36" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="803">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -1960,9 +1960,6 @@
   </si>
   <si>
     <t xml:space="preserve">CREATING PROJECT FROM ZERO WITH ALL FEATURES - new project, views, controllers, database and tables - </t>
-  </si>
-  <si>
-    <t>Tables and models</t>
   </si>
   <si>
     <t>Tables and models  &gt;&gt;</t>
@@ -2388,36 +2385,6 @@
     <t>Database relationships pool</t>
   </si>
   <si>
-    <t>DB relations version 1</t>
-  </si>
-  <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>Table1 (singular lowercase)</t>
-  </si>
-  <si>
-    <t>hasMany</t>
-  </si>
-  <si>
-    <t>hasOne</t>
-  </si>
-  <si>
-    <t>BelongsTo</t>
-  </si>
-  <si>
-    <t>Other1</t>
-  </si>
-  <si>
-    <t>Other2</t>
-  </si>
-  <si>
-    <t>Table2 (singular lowercase)</t>
-  </si>
-  <si>
-    <t>inverse relation</t>
-  </si>
-  <si>
     <t>&lt;img class='hmdhide' src="{{asset('assets/img/progressBar.gif')}}"   alt=""  id='progress_bar_for_start_here_email'&gt;</t>
   </si>
   <si>
@@ -2587,47 +2554,98 @@
     <t>groups</t>
   </si>
   <si>
-    <t>dosetracker</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>cardid</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>phonenumber</t>
-  </si>
-  <si>
     <t>a_base</t>
   </si>
   <si>
-    <t>superadmin finished</t>
-  </si>
-  <si>
-    <t>adverseevent</t>
-  </si>
-  <si>
     <t>git rm $(git ls-files --deleted)</t>
   </si>
   <si>
     <t>Commit name</t>
+  </si>
+  <si>
+    <t>smartChartv1</t>
+  </si>
+  <si>
+    <t>temporaluser</t>
+  </si>
+  <si>
+    <t>Building retuning 1</t>
+  </si>
+  <si>
+    <t>List of ST2 snippets</t>
+  </si>
+  <si>
+    <t>lred</t>
+  </si>
+  <si>
+    <t>laravel redirect</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>laravel view::make</t>
+  </si>
+  <si>
+    <t>lif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if sentence </t>
+  </si>
+  <si>
+    <t>@if (…)     @endif</t>
+  </si>
+  <si>
+    <t>return Redirect::to('');</t>
+  </si>
+  <si>
+    <t>return View::make('');</t>
+  </si>
+  <si>
+    <t>LARAVEL SNIPPETS</t>
+  </si>
+  <si>
+    <t>JQUERY SNIPPETS</t>
+  </si>
+  <si>
+    <t>bfields</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>tooltip</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>bsystem</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>anchor (link) tag</t>
+  </si>
+  <si>
+    <t>&lt;a href="{{URL::to('x')}}"&gt;link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>lfor</t>
+  </si>
+  <si>
+    <t>loop for</t>
+  </si>
+  <si>
+    <t>@foreach (…)     @endforeach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2882,13 +2900,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3304,7 +3315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3417,11 +3428,13 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3429,9 +3442,6 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3621,13 +3631,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3637,7 +3647,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="419100" y="3476625"/>
+          <a:off x="419100" y="3857625"/>
           <a:ext cx="285750" cy="171449"/>
           <a:chOff x="6315075" y="2876550"/>
           <a:chExt cx="914400" cy="485775"/>
@@ -3773,13 +3783,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>302474</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>75599</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3791,7 +3801,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="302474" y="2143126"/>
+          <a:off x="302474" y="2524126"/>
           <a:ext cx="1316175" cy="304800"/>
           <a:chOff x="4826849" y="2895601"/>
           <a:chExt cx="1316175" cy="304800"/>
@@ -3875,6 +3885,232 @@
             <a:r>
               <a:rPr lang="es-ES" sz="1100"/>
               <a:t>Auto GITHUB</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Grupo 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="390525" y="4248150"/>
+          <a:ext cx="1256500" cy="342900"/>
+          <a:chOff x="390525" y="3867150"/>
+          <a:chExt cx="1256500" cy="342900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Imagen 10" descr="http://upload.wikimedia.org/wikipedia/en/4/4c/Sublime_Text_Logo.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="390525" y="3867150"/>
+            <a:ext cx="342900" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="CuadroTexto 11"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685800" y="3895725"/>
+            <a:ext cx="961225" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100"/>
+              <a:t>ST2 SNIPPETS</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355955</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Grupo 15">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="352424" y="1876424"/>
+          <a:ext cx="1546581" cy="352425"/>
+          <a:chOff x="4876799" y="3143249"/>
+          <a:chExt cx="1546581" cy="352425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Imagen 13" descr="http://icons.iconarchive.com/icons/double-j-design/ravenna-3d/256/Database-Table-icon.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4876799" y="3143249"/>
+            <a:ext cx="352425" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="CuadroTexto 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5172075" y="3162300"/>
+            <a:ext cx="1251305" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100"/>
+              <a:t>Tables and models</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5057,37 +5293,107 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2548646" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CuadroTexto 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="123825"/>
+          <a:ext cx="2548646" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Laravel table &amp; model generator</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>81533</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
+        <xdr:cNvPr id="8" name="Grupo 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6715125" y="228600"/>
-          <a:ext cx="914400" cy="995933"/>
+          <a:off x="7038975" y="171450"/>
+          <a:ext cx="238125" cy="250370"/>
           <a:chOff x="9210675" y="461392"/>
           <a:chExt cx="914400" cy="995933"/>
         </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvPr id="9" name="Rectángulo redondeado 8"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5098,9 +5404,7 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
+          <a:grpFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -5126,13 +5430,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvPr id="10" name="Rectángulo redondeado 9"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5143,9 +5447,7 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
+          <a:grpFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -5171,63 +5473,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvPr id="11" name="Rectángulo redondeado 10"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5240,8 +5492,8 @@
           </a:prstGeom>
           <a:solidFill>
             <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
@@ -5269,7 +5521,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -5281,37 +5533,118 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>724046</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2309415" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="724046" y="136071"/>
+          <a:ext cx="2309415" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sublime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Text 2 snippets bank</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>100583</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
+        <xdr:cNvPr id="3" name="Grupo 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7953375" y="266700"/>
-          <a:ext cx="914400" cy="995933"/>
+          <a:off x="8149318" y="171451"/>
+          <a:ext cx="238125" cy="250370"/>
           <a:chOff x="9210675" y="461392"/>
           <a:chExt cx="914400" cy="995933"/>
         </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5322,9 +5655,7 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
+          <a:grpFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -5350,13 +5681,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5367,9 +5698,7 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
+          <a:grpFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -5395,63 +5724,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvPr id="7" name="Rectángulo redondeado 6"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5464,8 +5743,8 @@
           </a:prstGeom>
           <a:solidFill>
             <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
@@ -5493,7 +5772,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -6663,118 +6942,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="108"/>
-    <col min="2" max="5" width="11.7109375" style="108" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="108"/>
+    <col min="1" max="1" width="11.42578125" style="107"/>
+    <col min="2" max="5" width="11.7109375" style="107" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:8" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="107" t="s">
+    <row r="1" spans="2:4" s="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" s="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" s="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:4" s="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:4" s="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="106" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="111" t="s">
         <v>593</v>
       </c>
       <c r="C9" s="112"/>
       <c r="D9" s="112"/>
-      <c r="H9" s="109" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="111" t="s">
-        <v>598</v>
-      </c>
-      <c r="C10" s="113"/>
-      <c r="H10" s="109" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="111" t="s">
-        <v>689</v>
-      </c>
-      <c r="C11" s="111"/>
-      <c r="H11" s="109" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="107"/>
-      <c r="H12" s="109" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="107"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="107" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="107"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="111" t="s">
-        <v>725</v>
-      </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="111" t="s">
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="111" t="s">
+        <v>688</v>
+      </c>
+      <c r="C13" s="111"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="106"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="106"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="106" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="106"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="111" t="s">
+        <v>724</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="111" t="s">
         <v>596</v>
-      </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="112"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="111" t="s">
-        <v>601</v>
       </c>
       <c r="C19" s="111"/>
       <c r="D19" s="111"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="107" t="s">
-        <v>714</v>
+      <c r="E19" s="112"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="111" t="s">
+        <v>600</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="K21" s="108" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="108" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="108" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="108" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="106" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:D19"/>
+  <mergeCells count="5">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B17:D17" location="'AutoLaravel v1'!C13" display="Create new laravel project"/>
+    <hyperlink ref="B19:D19" location="'AutoLaravel v1'!C13" display="Create new laravel project"/>
     <hyperlink ref="B8" location="'Start project'!A1" display="Start a project"/>
     <hyperlink ref="B9" location="'view controllers'!A1" display="View and controllers creation"/>
-    <hyperlink ref="B10" location="'tables and models'!A1" display="Tables and models"/>
-    <hyperlink ref="B19:D19" location="'Laravel mail v1'!A1" display="Mail sender constructor"/>
-    <hyperlink ref="B11:C11" location="'query automation v1'!A1" display="Query automation"/>
-    <hyperlink ref="B23" location="'Test unit v1'!A1" display="Test unit"/>
-    <hyperlink ref="B16:D16" location="dbRelations!A1" display="Database relationships pool"/>
-    <hyperlink ref="B14" location="Modal2!A1" display="TB Modal creator"/>
+    <hyperlink ref="B21:D21" location="'Laravel mail v1'!A1" display="Mail sender constructor"/>
+    <hyperlink ref="B13:C13" location="'query automation v1'!A1" display="Query automation"/>
+    <hyperlink ref="B28" location="'Test unit v1'!A1" display="Test unit"/>
+    <hyperlink ref="B18:D18" location="dbRelations!A1" display="Database relationships pool"/>
+    <hyperlink ref="B16" location="Modal2!A1" display="TB Modal creator"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6989,10 +7266,10 @@
       </c>
       <c r="E9" s="73" t="str">
         <f>'view controllers'!D33</f>
-        <v>adverseevent</v>
+        <v>temporaluser</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="H9" s="43"/>
     </row>
@@ -7001,7 +7278,7 @@
         <v>546</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7023,7 +7300,7 @@
         <v>549</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -7068,7 +7345,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -7082,7 +7359,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -7096,7 +7373,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -7110,7 +7387,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -7139,7 +7416,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="46" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -7153,7 +7430,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -7167,7 +7444,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -7181,7 +7458,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -7195,7 +7472,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -7209,7 +7486,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="46" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -7223,7 +7500,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -7237,7 +7514,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="46" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -7251,7 +7528,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -7417,10 +7694,10 @@
       </c>
       <c r="E9" s="73" t="str">
         <f>'view controllers'!D33</f>
-        <v>adverseevent</v>
+        <v>temporaluser</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="H9" s="43"/>
     </row>
@@ -7429,7 +7706,7 @@
         <v>546</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7451,7 +7728,7 @@
         <v>549</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -7508,7 +7785,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="116" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="M17" s="113"/>
       <c r="N17" s="113"/>
@@ -7837,20 +8114,20 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="46" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -7862,7 +8139,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="46" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -7874,7 +8151,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -7899,7 +8176,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="46" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -7923,7 +8200,7 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="46" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -7935,7 +8212,7 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="46" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -7947,7 +8224,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="46" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -7959,7 +8236,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -11309,18 +11586,18 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="66" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -11342,7 +11619,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -11353,7 +11630,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -11370,27 +11647,27 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>602</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="F13" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>603</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>607</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>606</v>
-      </c>
       <c r="G13" s="43" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="H13" s="12" t="str">
         <f>E13&amp;"."&amp;G13</f>
@@ -11398,7 +11675,7 @@
       </c>
       <c r="K13" s="78" t="str">
         <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
-        <v>c:\wamp\www\github\dosetracker</v>
+        <v>c:\wamp\www\github\smartChartv1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -11407,7 +11684,7 @@
       </c>
       <c r="C14" s="17" t="str">
         <f>"Copy-Item "&amp;K13&amp;"\app\views\templates\email2.blade.php "&amp;K13&amp;"\app\views\emails"</f>
-        <v>Copy-Item c:\wamp\www\github\dosetracker\app\views\templates\email2.blade.php c:\wamp\www\github\dosetracker\app\views\emails</v>
+        <v>Copy-Item c:\wamp\www\github\smartChartv1\app\views\templates\email2.blade.php c:\wamp\www\github\smartChartv1\app\views\emails</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -11421,7 +11698,7 @@
       </c>
       <c r="C15" s="17" t="str">
         <f>"Rename-Item "&amp;K13&amp;"\app\views\"&amp;E13&amp;"\email2.blade.php "&amp;G13&amp;".blade.php"</f>
-        <v>Rename-Item c:\wamp\www\github\dosetracker\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
+        <v>Rename-Item c:\wamp\www\github\smartChartv1\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -11432,7 +11709,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -11518,42 +11795,42 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>616</v>
-      </c>
       <c r="G28" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>614</v>
-      </c>
       <c r="L28" s="10" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H29" s="42"/>
       <c r="J29" s="42"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="74" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="43"/>
@@ -11573,7 +11850,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="74" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="43"/>
@@ -11593,7 +11870,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="74" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="C32" s="74"/>
       <c r="D32" s="43"/>
@@ -11613,7 +11890,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="74" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="43"/>
@@ -11659,22 +11936,22 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G38" s="46" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="43"/>
@@ -11694,7 +11971,7 @@
         <v>160</v>
       </c>
       <c r="B40" s="74" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C40" s="74"/>
       <c r="D40" s="43"/>
@@ -11711,10 +11988,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="43"/>
@@ -11734,7 +12011,7 @@
         <v>160</v>
       </c>
       <c r="B42" s="74" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C42" s="74"/>
       <c r="D42" s="43"/>
@@ -11751,10 +12028,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="C43" s="74"/>
       <c r="D43" s="43"/>
@@ -11797,7 +12074,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C49" s="66" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -11808,7 +12085,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C50" s="66" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="66"/>
@@ -11819,7 +12096,7 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C51" s="66" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="66"/>
@@ -11842,7 +12119,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -12992,7 +13269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13095,7 +13374,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -13127,7 +13406,7 @@
       </c>
       <c r="C16" s="17" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir dosetracker</v>
+        <v>mkdir smartChartv1</v>
       </c>
       <c r="D16" s="76"/>
       <c r="E16" s="17"/>
@@ -13140,7 +13419,7 @@
       </c>
       <c r="C17" s="17" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd dosetracker</v>
+        <v>cd smartChartv1</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -13189,7 +13468,7 @@
       </c>
       <c r="C24" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
+        <v>cd c:\wamp\www\github\smartChartv1</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -13478,9 +13757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13502,10 +13779,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H3" s="85"/>
       <c r="I3" s="85"/>
@@ -13513,20 +13790,20 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="90" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="99" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D7" s="43"/>
     </row>
@@ -13546,12 +13823,12 @@
         <v>86</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D9" s="87"/>
       <c r="E9" s="87"/>
       <c r="F9" s="42" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -13559,7 +13836,7 @@
         <v>86</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
@@ -13569,14 +13846,14 @@
         <v>86</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D11" s="87"/>
       <c r="E11" s="87"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F13" s="98" t="str">
         <f>C7</f>
@@ -13602,7 +13879,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
@@ -13615,7 +13892,7 @@
         <v>86</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D16" s="87"/>
       <c r="E16" s="87"/>
@@ -13624,10 +13901,10 @@
       <c r="H16" s="87"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="97"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="97" t="s">
+        <v>717</v>
+      </c>
       <c r="D17" s="87"/>
       <c r="E17" s="87"/>
       <c r="F17" s="87"/>
@@ -13636,12 +13913,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="99" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -13649,24 +13926,24 @@
         <v>86</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D21" s="87"/>
       <c r="E21" s="87"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>666</v>
-      </c>
-      <c r="D23" s="118" t="s">
-        <v>796</v>
+        <v>665</v>
+      </c>
+      <c r="D23" s="110" t="s">
+        <v>776</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="73" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -13674,12 +13951,12 @@
         <v>86</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D24" s="87"/>
       <c r="E24" s="87"/>
       <c r="G24" s="73" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -13687,12 +13964,12 @@
         <v>86</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="D25" s="87"/>
       <c r="E25" s="87"/>
       <c r="G25" s="73" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -13701,15 +13978,15 @@
       </c>
       <c r="C26" s="97" t="str">
         <f>"git commit -m "&amp;A1&amp;E23&amp;A1</f>
-        <v>git commit -m "superadmin finished"</v>
+        <v>git commit -m "Building retuning 1"</v>
       </c>
       <c r="D26" s="87"/>
       <c r="E26" s="87"/>
       <c r="G26" s="42" t="s">
+        <v>720</v>
+      </c>
+      <c r="H26" s="42" t="s">
         <v>721</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -13717,7 +13994,7 @@
         <v>86</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D27" s="87"/>
       <c r="E27" s="87"/>
@@ -13727,7 +14004,7 @@
         <v>86</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D28" s="87"/>
       <c r="E28" s="87"/>
@@ -13735,14 +14012,14 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="87"/>
       <c r="C29" s="97" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -13750,7 +14027,7 @@
         <v>86</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D34" s="87"/>
       <c r="E34" s="87"/>
@@ -13760,7 +14037,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
@@ -13768,7 +14045,7 @@
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="87"/>
       <c r="C38" s="97" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
@@ -13776,48 +14053,48 @@
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="87"/>
       <c r="C39" s="97" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K43" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K44" s="88" t="s">
         <v>114</v>
       </c>
       <c r="L44" s="89" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M44" s="89"/>
       <c r="N44" s="89"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K45" s="42" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
@@ -13825,7 +14102,7 @@
         <v>86</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
@@ -13835,19 +14112,19 @@
         <v>86</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="91" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -13855,58 +14132,58 @@
         <v>86</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D52" s="87"/>
       <c r="E52" s="87"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="91" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="95" t="s">
+        <v>645</v>
+      </c>
+      <c r="C54" s="93" t="s">
         <v>646</v>
-      </c>
-      <c r="C54" s="93" t="s">
-        <v>647</v>
       </c>
       <c r="D54" s="92"/>
       <c r="E54" s="42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="95" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C55" s="94" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D55" s="92"/>
       <c r="E55" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="95"/>
       <c r="C56" s="95" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D56" s="95"/>
       <c r="E56" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="99" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C60" s="43" t="s">
         <v>575</v>
@@ -13937,20 +14214,20 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="42" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D66" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F66" s="43"/>
     </row>
@@ -13959,17 +14236,17 @@
         <v>86</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D67" s="87"/>
       <c r="E67" s="87"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D68" s="42" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -14005,12 +14282,12 @@
       <c r="D72" s="87"/>
       <c r="E72" s="87"/>
       <c r="F72" s="42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -14018,7 +14295,7 @@
         <v>86</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D75" s="87"/>
       <c r="E75" s="87"/>
@@ -14039,19 +14316,19 @@
         <v>86</v>
       </c>
       <c r="C77" s="97" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D77" s="87"/>
       <c r="E77" s="87"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="42" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -14098,17 +14375,17 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -14116,7 +14393,7 @@
         <v>86</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D6" s="97"/>
       <c r="E6" s="97"/>
@@ -14125,7 +14402,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -14133,7 +14410,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="97"/>
@@ -14151,7 +14428,7 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -14257,7 +14534,7 @@
       </c>
       <c r="C14" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>dosetracker</v>
+        <v>smartChartv1</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -14283,7 +14560,7 @@
       </c>
       <c r="C18" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
+        <v>cd c:\wamp\www\github\smartChartv1</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -14326,7 +14603,7 @@
       </c>
       <c r="C23" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
+        <v>cd c:\wamp\www\github\smartChartv1</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -14377,7 +14654,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>376</v>
@@ -14387,7 +14664,7 @@
       </c>
       <c r="H33" s="61" t="str">
         <f>D33</f>
-        <v>adverseevent</v>
+        <v>temporaluser</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -14396,11 +14673,11 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>E33&amp;D33&amp;"/"</f>
-        <v>app/views/adverseevent/</v>
+        <v>app/views/temporaluser/</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>380</v>
@@ -14416,7 +14693,7 @@
       </c>
       <c r="C35" s="17" t="str">
         <f>"mkdir "&amp;E33&amp;D33</f>
-        <v>mkdir app/views/adverseevent</v>
+        <v>mkdir app/views/temporaluser</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -14430,7 +14707,7 @@
       </c>
       <c r="C36" s="17" t="str">
         <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D33&amp;B3&amp;" "&amp;D34</f>
-        <v>php artisan generate:view --path="app/views/adverseevent" a_base</v>
+        <v>php artisan generate:view --path="app/views/temporaluser" a_base</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -14438,7 +14715,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="12" t="str">
         <f>UPPER(LEFT(D33,1))&amp;RIGHT(D33,LEN(D33)-1)&amp;"Controller"</f>
-        <v>AdverseeventController</v>
+        <v>TemporaluserController</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -14447,7 +14724,7 @@
       </c>
       <c r="C37" s="17" t="str">
         <f>A4&amp;B5&amp;H36</f>
-        <v>php artisan generate:controller AdverseeventController</v>
+        <v>php artisan generate:controller TemporaluserController</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -14464,7 +14741,7 @@
       </c>
       <c r="C39" s="19" t="str">
         <f>E34&amp;H34</f>
-        <v>app/views/adverseevent/a_base.blade.php</v>
+        <v>app/views/temporaluser/a_base.blade.php</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="10" t="s">
@@ -14547,7 +14824,7 @@
       </c>
       <c r="D48" s="10" t="str">
         <f>" app/Controllers/"&amp;H36&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/AdverseeventController.php</v>
+        <v xml:space="preserve"> app/Controllers/TemporaluserController.php</v>
       </c>
       <c r="G48" s="12" t="str">
         <f>UPPER(LEFT(D34,1))&amp;RIGHT(D34,LEN(D34)-1)</f>
@@ -14571,7 +14848,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="46" t="str">
         <f>"    return View::make('"&amp;D33&amp;IF(D33&lt;&gt;"",".","")&amp;D34&amp;"'"&amp;")"</f>
-        <v xml:space="preserve">    return View::make('adverseevent.a_base')</v>
+        <v xml:space="preserve">    return View::make('temporaluser.a_base')</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
@@ -14614,7 +14891,7 @@
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="46" t="str">
         <f>B6&amp;D33&amp;C1&amp;H36&amp;C2</f>
-        <v>Route::controller('adverseevent','AdverseeventController');</v>
+        <v>Route::controller('temporaluser','TemporaluserController');</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -14628,7 +14905,7 @@
     </row>
     <row r="57" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B57" s="115" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C57" s="113"/>
       <c r="D57" s="113"/>
@@ -14696,10 +14973,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -14773,482 +15052,356 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="72" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="73" t="str">
+      <c r="C17" s="73" t="str">
         <f>'Start project'!C13</f>
-        <v>dosetracker</v>
-      </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+        <v>smartChartv1</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="73" t="str">
+      <c r="C18" s="73" t="str">
         <f>'Start project'!C14</f>
         <v>github</v>
       </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="17" t="str">
-        <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="C21" s="17" t="str">
+        <f>"cd c:\wamp\www\"&amp;C18&amp;"\"&amp;C17</f>
+        <v>cd c:\wamp\www\github\smartChartv1</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="17" t="str">
-        <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\dosetracker</v>
+      <c r="C23" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="17" t="str">
+        <f>"cd c:\wamp\www\"&amp;C18&amp;"\"&amp;C17</f>
+        <v>cd c:\wamp\www\github\smartChartv1</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="51" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C29" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="53"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="D29" s="53"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="10" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F33" s="10" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="F31" s="46" t="str">
-        <f>"   'database'  =&gt; '"&amp;C31&amp;"',"</f>
+      <c r="C34" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="F34" s="46" t="str">
+        <f>"   'database'  =&gt; '"&amp;C34&amp;"',"</f>
         <v xml:space="preserve">   'database'  =&gt; 'healmy5_sentrytest2',</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="F32" s="46" t="str">
-        <f>"   'username'  =&gt; '"&amp;C32&amp;"',"</f>
-        <v xml:space="preserve">   'username'  =&gt; 'root',</v>
-      </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="M32" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="F33" s="46" t="str">
-        <f>"   'password'  =&gt; '"&amp;C33&amp;"',"</f>
-        <v xml:space="preserve">   'password'  =&gt; '',</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="M33" s="12" t="str">
-        <f>IF(SUM(J38:K47)&gt;0,B2&amp;P47&amp;Q47&amp;B3,"")</f>
-        <v>--fields="cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string"</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+    </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="F35" s="46" t="str">
+        <f>"   'username'  =&gt; '"&amp;C35&amp;"',"</f>
+        <v xml:space="preserve">   'username'  =&gt; 'root',</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="M35" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="F36" s="12" t="str">
-        <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>customer</v>
-      </c>
-      <c r="G36" s="12" t="str">
-        <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Customer</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="M37" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
+        <v>59</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="F36" s="46" t="str">
+        <f>"   'password'  =&gt; '"&amp;C36&amp;"',"</f>
+        <v xml:space="preserve">   'password'  =&gt; '',</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="M36" s="12" t="str">
+        <f>IF(SUM(J41:K50)&gt;0,B2&amp;P50&amp;Q50&amp;B3,"")</f>
+        <v>--fields="name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string"</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="J38" s="12">
-        <f>IF(C38="",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="12">
-        <f>IF(G38="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="N38" s="60" t="str">
-        <f>IF(AND(C38&lt;&gt;"",D38&lt;&gt;""),IF(N37="concatenator1","",",")&amp;C38&amp;":"&amp;D38,"")</f>
-        <v>cardid:string</v>
-      </c>
-      <c r="O38" s="60" t="str">
-        <f>IF(AND(G38&lt;&gt;"",H38&lt;&gt;""),","&amp;G38&amp;":"&amp;H38,"")</f>
-        <v/>
-      </c>
-      <c r="P38" s="60" t="str">
-        <f>P37&amp;N38</f>
-        <v>cardid:string</v>
-      </c>
-      <c r="Q38" s="60" t="str">
-        <f>Q37&amp;O38</f>
-        <v/>
-      </c>
-      <c r="S38" s="60" t="s">
-        <v>416</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="J39" s="12">
-        <f t="shared" ref="J39:J47" si="0">IF(C39="",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K39" s="12">
-        <f t="shared" ref="K39:K47" si="1">IF(G39="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N39" s="60" t="str">
-        <f t="shared" ref="N39:N47" si="2">IF(AND(C39&lt;&gt;"",D39&lt;&gt;""),IF(N38="concatenator1","",",")&amp;C39&amp;":"&amp;D39,"")</f>
-        <v>,name:string</v>
-      </c>
-      <c r="O39" s="60" t="str">
-        <f t="shared" ref="O39:O47" si="3">IF(AND(G39&lt;&gt;"",H39&lt;&gt;""),","&amp;G39&amp;":"&amp;H39,"")</f>
-        <v/>
-      </c>
-      <c r="P39" s="60" t="str">
-        <f t="shared" ref="P39:Q47" si="4">P38&amp;N39</f>
-        <v>cardid:string,name:string</v>
-      </c>
-      <c r="Q39" s="60" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S39" s="60" t="s">
-        <v>417</v>
+        <v>792</v>
+      </c>
+      <c r="F39" s="12" t="str">
+        <f>LEFT(D39,LEN(D39)-1)</f>
+        <v>bfield</v>
+      </c>
+      <c r="G39" s="12" t="str">
+        <f>UPPER(LEFT(F39,1))&amp;RIGHT(F39,LEN(F39)-1)</f>
+        <v>Bfield</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="J40" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K40" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="K40" s="12"/>
       <c r="M40" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N40" s="60" t="str">
-        <f t="shared" si="2"/>
-        <v>,surname:string</v>
-      </c>
-      <c r="O40" s="60" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P40" s="60" t="str">
-        <f t="shared" si="4"/>
-        <v>cardid:string,name:string,surname:string</v>
-      </c>
-      <c r="Q40" s="60" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>91</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>789</v>
+        <v>160</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="J41" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(C41="",0,1)</f>
         <v>1</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="1"/>
+        <f>IF(G41="",0,1)</f>
         <v>0</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N41" s="60" t="str">
-        <f t="shared" si="2"/>
-        <v>,company:string</v>
+        <f>IF(AND(C41&lt;&gt;"",D41&lt;&gt;""),IF(N40="concatenator1","",",")&amp;C41&amp;":"&amp;D41,"")</f>
+        <v>name:string</v>
       </c>
       <c r="O41" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G41&lt;&gt;"",H41&lt;&gt;""),","&amp;G41&amp;":"&amp;H41,"")</f>
         <v/>
       </c>
       <c r="P41" s="60" t="str">
-        <f t="shared" si="4"/>
-        <v>cardid:string,name:string,surname:string,company:string</v>
+        <f>P40&amp;N41</f>
+        <v>name:string</v>
       </c>
       <c r="Q41" s="60" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f>Q40&amp;O41</f>
+        <v/>
+      </c>
+      <c r="S41" s="60" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="J42" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J42:J50" si="0">IF(C42="",0,1)</f>
         <v>1</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K42:K50" si="1">IF(G42="",0,1)</f>
         <v>0</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>400</v>
+        <v>93</v>
       </c>
       <c r="N42" s="60" t="str">
-        <f t="shared" si="2"/>
-        <v>,mobile:string</v>
+        <f t="shared" ref="N42:N50" si="2">IF(AND(C42&lt;&gt;"",D42&lt;&gt;""),IF(N41="concatenator1","",",")&amp;C42&amp;":"&amp;D42,"")</f>
+        <v>,header:string</v>
       </c>
       <c r="O42" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O42:O50" si="3">IF(AND(G42&lt;&gt;"",H42&lt;&gt;""),","&amp;G42&amp;":"&amp;H42,"")</f>
         <v/>
       </c>
       <c r="P42" s="60" t="str">
-        <f t="shared" si="4"/>
-        <v>cardid:string,name:string,surname:string,company:string,mobile:string</v>
+        <f t="shared" ref="P42:Q50" si="4">P41&amp;N42</f>
+        <v>name:string,header:string</v>
       </c>
       <c r="Q42" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="S42" s="60" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -15261,11 +15414,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>401</v>
+        <v>94</v>
       </c>
       <c r="N43" s="60" t="str">
         <f t="shared" si="2"/>
-        <v>,phonenumber:string</v>
+        <v>,tooltip:string</v>
       </c>
       <c r="O43" s="60" t="str">
         <f t="shared" si="3"/>
@@ -15273,7 +15426,7 @@
       </c>
       <c r="P43" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
+        <v>name:string,header:string,tooltip:string</v>
       </c>
       <c r="Q43" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15282,29 +15435,33 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>414</v>
+      </c>
       <c r="F44" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>413</v>
+        <v>95</v>
       </c>
       <c r="N44" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,display:tinyinteger</v>
       </c>
       <c r="O44" s="60" t="str">
         <f t="shared" si="3"/>
@@ -15312,7 +15469,7 @@
       </c>
       <c r="P44" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
+        <v>name:string,header:string,tooltip:string,display:tinyinteger</v>
       </c>
       <c r="Q44" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15321,29 +15478,33 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="F45" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="N45" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,bsystem:string</v>
       </c>
       <c r="O45" s="60" t="str">
         <f t="shared" si="3"/>
@@ -15351,7 +15512,7 @@
       </c>
       <c r="P45" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
+        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string</v>
       </c>
       <c r="Q45" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15360,12 +15521,12 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="F46" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -15378,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>96</v>
+        <v>401</v>
       </c>
       <c r="N46" s="60" t="str">
         <f t="shared" si="2"/>
@@ -15390,7 +15551,7 @@
       </c>
       <c r="P46" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
+        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string</v>
       </c>
       <c r="Q46" s="60" t="str">
         <f t="shared" si="4"/>
@@ -15399,12 +15560,12 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="F47" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -15417,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>97</v>
+        <v>413</v>
       </c>
       <c r="N47" s="60" t="str">
         <f t="shared" si="2"/>
@@ -15429,241 +15590,308 @@
       </c>
       <c r="P47" s="60" t="str">
         <f t="shared" si="4"/>
-        <v>cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string</v>
+        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string</v>
       </c>
       <c r="Q47" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="F48" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="J48" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="N48" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O48" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P48" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string</v>
+      </c>
+      <c r="Q48" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="F49" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="J49" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N49" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O49" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P49" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string</v>
+      </c>
+      <c r="Q49" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="F50" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="J50" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N50" s="60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O50" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P50" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string</v>
+      </c>
+      <c r="Q50" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="17" t="str">
-        <f>A4&amp;A5&amp;A6&amp;D36&amp;B1&amp;M33</f>
-        <v>php artisan generate:migration create_customers_table --fields="cardid:string,name:string,surname:string,company:string,mobile:string,phonenumber:string"</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+      <c r="C54" s="17" t="str">
+        <f>A4&amp;A5&amp;A6&amp;D39&amp;B1&amp;M36</f>
+        <v>php artisan generate:migration create_bfields_table --fields="name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string"</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="17" t="str">
-        <f>A4&amp;B4&amp;G36</f>
-        <v>php artisan generate:model Customer</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="10" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="10" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="17" t="str">
+        <f>A4&amp;B4&amp;G39</f>
+        <v>php artisan generate:model Bfield</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J57" s="10" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J58" s="10" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12" t="str">
-        <f>D36</f>
-        <v>customers</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12" t="str">
+        <f>D39</f>
+        <v>bfields</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
+      <c r="D61" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="17" t="str">
-        <f>C3&amp;D58&amp;C4&amp;D57&amp;C5&amp;C6&amp;D58&amp;":"&amp;D59&amp;C6</f>
-        <v>php artisan generate:migration add_patient_id_to_customers_table --fields="patient_id:integer"</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
+      <c r="C63" s="17" t="str">
+        <f>C3&amp;D61&amp;C4&amp;D60&amp;C5&amp;C6&amp;D61&amp;":"&amp;D62&amp;C6</f>
+        <v>php artisan generate:migration add_patient_id_to_bfields_table --fields="patient_id:integer"</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="43"/>
-      <c r="E70" s="12" t="str">
-        <f>LEFT(C70,LEN(C70)-1)</f>
-        <v>user</v>
-      </c>
-    </row>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>784</v>
-      </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="12" t="str">
-        <f>LEFT(C71,LEN(C71)-1)</f>
-        <v>group</v>
+        <v>770</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>782</v>
+        <v>768</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="43"/>
+      <c r="E73" s="12" t="str">
+        <f>LEFT(C73,LEN(C73)-1)</f>
+        <v>user</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="17" t="str">
-        <f>C3&amp;E71&amp;"_id"&amp;C4&amp;C70&amp;C5&amp;C6&amp;E71&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
-        <v>php artisan generate:migration add_group_id_to_users_table --fields="group_id:integer"</v>
-      </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="17" t="str">
-        <f>C3&amp;E70&amp;"_id"&amp;C4&amp;C71&amp;C5&amp;C6&amp;E70&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
-        <v>php artisan generate:migration add_user_id_to_groups_table --fields="user_id:integer"</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-    </row>
+      <c r="B74" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>773</v>
+      </c>
+      <c r="D74" s="43"/>
+      <c r="E74" s="12" t="str">
+        <f>LEFT(C74,LEN(C74)-1)</f>
+        <v>group</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
+      <c r="B76" s="10" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="17" t="str">
-        <f>"php artisan generate:pivot "&amp;C70&amp;" "&amp;C71</f>
-        <v>php artisan generate:pivot users groups</v>
+        <f>C3&amp;E74&amp;"_id"&amp;C4&amp;C73&amp;C5&amp;C6&amp;E74&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
+        <v>php artisan generate:migration add_group_id_to_users_table --fields="group_id:integer"</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -15678,8 +15906,9 @@
       <c r="B78" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>55</v>
+      <c r="C78" s="17" t="str">
+        <f>C3&amp;E73&amp;"_id"&amp;C4&amp;C74&amp;C5&amp;C6&amp;E73&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
+        <v>php artisan generate:migration add_user_id_to_groups_table --fields="user_id:integer"</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
@@ -15690,24 +15919,70 @@
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25"/>
-    <row r="81" x14ac:dyDescent="0.25"/>
-    <row r="82" x14ac:dyDescent="0.25"/>
-    <row r="83" x14ac:dyDescent="0.25"/>
-    <row r="84" x14ac:dyDescent="0.25"/>
-    <row r="85" x14ac:dyDescent="0.25"/>
-    <row r="86" x14ac:dyDescent="0.25"/>
-    <row r="87" x14ac:dyDescent="0.25"/>
-    <row r="88" x14ac:dyDescent="0.25"/>
-    <row r="89" x14ac:dyDescent="0.25"/>
-    <row r="90" x14ac:dyDescent="0.25"/>
-    <row r="91" x14ac:dyDescent="0.25"/>
-    <row r="92" x14ac:dyDescent="0.25"/>
-    <row r="93" x14ac:dyDescent="0.25"/>
-    <row r="94" x14ac:dyDescent="0.25"/>
-    <row r="95" x14ac:dyDescent="0.25"/>
-    <row r="96" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="17" t="str">
+        <f>"php artisan generate:pivot "&amp;C73&amp;" "&amp;C74</f>
+        <v>php artisan generate:pivot users groups</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="97" x14ac:dyDescent="0.25"/>
     <row r="98" x14ac:dyDescent="0.25"/>
     <row r="99" x14ac:dyDescent="0.25"/>
@@ -15721,10 +15996,13 @@
     <row r="107" x14ac:dyDescent="0.25"/>
     <row r="108" x14ac:dyDescent="0.25"/>
     <row r="109" x14ac:dyDescent="0.25"/>
+    <row r="110" x14ac:dyDescent="0.25"/>
+    <row r="111" x14ac:dyDescent="0.25"/>
+    <row r="112" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59 H38:H47 D38:D47">
-      <formula1>$M$38:$M$47</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62 D41:D50 H41:H50">
+      <formula1>$M$41:$M$50</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15736,10 +16014,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M28"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15747,155 +16026,80 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="106" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="E6" s="23" t="s">
-        <v>729</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="J6" s="78" t="str">
-        <f>IF(OR(E6=L24,E6=L25),"BelongsTo","enter relationship")</f>
-        <v>BelongsTo</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="78" t="str">
-        <f>UPPER(LEFT(B6,1))&amp;MID(B6,2,LEN(B6)-2)</f>
-        <v>User</v>
-      </c>
-      <c r="C7" s="78" t="str">
-        <f>LOWER(B7)</f>
-        <v>user</v>
-      </c>
-      <c r="G7" s="78" t="str">
-        <f>UPPER(LEFT(G6,1))&amp;MID(G6,2,LEN(G6)-2)</f>
-        <v>Project</v>
-      </c>
-      <c r="H7" s="78" t="str">
-        <f>LOWER(G7)</f>
-        <v>project</v>
-      </c>
-      <c r="L7" s="78" t="str">
-        <f>B7</f>
-        <v>User</v>
-      </c>
-      <c r="M7" s="78" t="str">
-        <f>C7</f>
-        <v>user</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="str">
-        <f>"INSERT INSIDE "&amp;B7&amp;" MODEL"</f>
-        <v>INSERT INSIDE User MODEL</v>
-      </c>
-      <c r="G9" s="10" t="str">
-        <f>"INSERT INSIDE "&amp;G7&amp;" MODEL"</f>
-        <v>INSERT INSIDE Project MODEL</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="str">
-        <f>"    public function "&amp;H7&amp;"(){"</f>
-        <v xml:space="preserve">    public function project(){</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="G11" s="46" t="str">
-        <f>"    public function "&amp;M7&amp;"(){"</f>
-        <v xml:space="preserve">    public function user(){</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="str">
-        <f>"        return $this-&gt;"&amp;E6&amp;"('"&amp;G7&amp;"');"</f>
-        <v xml:space="preserve">        return $this-&gt;hasMany('Project');</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="G12" s="46" t="str">
-        <f>"        return $this-&gt;"&amp;J6&amp;"('"&amp;L7&amp;"');"</f>
-        <v xml:space="preserve">        return $this-&gt;BelongsTo('User');</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="G13" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L24" s="63" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="63" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="63" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="63" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="63" t="s">
-        <v>733</v>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>791</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>$L$24:$L$28</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15916,10 +16120,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
@@ -15927,12 +16131,12 @@
         <v>276</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -15940,16 +16144,16 @@
         <v>122</v>
       </c>
       <c r="C5" s="42" t="str">
-        <f>IF('tables and models'!D36&lt;&gt;"",'tables and models'!D36,"")</f>
-        <v>customers</v>
+        <f>IF('tables and models'!D39&lt;&gt;"",'tables and models'!D39,"")</f>
+        <v>bfields</v>
       </c>
       <c r="E5" s="12" t="str">
         <f>LEFT(C5,LEN(C5)-1)</f>
-        <v>customer</v>
+        <v>bfield</v>
       </c>
       <c r="F5" s="12" t="str">
         <f>UPPER(LEFT(E5,1))&amp;RIGHT(E5,LEN(E5)-1)</f>
-        <v>Customer</v>
+        <v>Bfield</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -15957,19 +16161,19 @@
         <v>354</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>690</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>691</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>354</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>690</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -15977,27 +16181,27 @@
         <v>63</v>
       </c>
       <c r="C9" s="42" t="str">
-        <f>IF('tables and models'!C38&lt;&gt;"",'tables and models'!C38,"")</f>
-        <v>cardid</v>
+        <f>IF('tables and models'!C41&lt;&gt;"",'tables and models'!C41,"")</f>
+        <v>name</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="42" t="str">
-        <f>IF('tables and models'!G38&lt;&gt;"",'tables and models'!G38,"")</f>
+        <f>IF('tables and models'!G41&lt;&gt;"",'tables and models'!G41,"")</f>
         <v/>
       </c>
       <c r="I9" s="102" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -16005,8 +16209,8 @@
         <v>64</v>
       </c>
       <c r="C10" s="42" t="str">
-        <f>IF('tables and models'!C39&lt;&gt;"",'tables and models'!C39,"")</f>
-        <v>name</v>
+        <f>IF('tables and models'!C42&lt;&gt;"",'tables and models'!C42,"")</f>
+        <v>header</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="43"/>
@@ -16014,7 +16218,7 @@
         <v>74</v>
       </c>
       <c r="H10" s="42" t="str">
-        <f>IF('tables and models'!G39&lt;&gt;"",'tables and models'!G39,"")</f>
+        <f>IF('tables and models'!G42&lt;&gt;"",'tables and models'!G42,"")</f>
         <v/>
       </c>
       <c r="I10" s="102"/>
@@ -16025,8 +16229,8 @@
         <v>65</v>
       </c>
       <c r="C11" s="42" t="str">
-        <f>IF('tables and models'!C40&lt;&gt;"",'tables and models'!C40,"")</f>
-        <v>surname</v>
+        <f>IF('tables and models'!C43&lt;&gt;"",'tables and models'!C43,"")</f>
+        <v>tooltip</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="43"/>
@@ -16034,7 +16238,7 @@
         <v>75</v>
       </c>
       <c r="H11" s="42" t="str">
-        <f>IF('tables and models'!G40&lt;&gt;"",'tables and models'!G40,"")</f>
+        <f>IF('tables and models'!G43&lt;&gt;"",'tables and models'!G43,"")</f>
         <v/>
       </c>
       <c r="I11" s="102"/>
@@ -16045,8 +16249,8 @@
         <v>66</v>
       </c>
       <c r="C12" s="42" t="str">
-        <f>IF('tables and models'!C41&lt;&gt;"",'tables and models'!C41,"")</f>
-        <v>company</v>
+        <f>IF('tables and models'!C44&lt;&gt;"",'tables and models'!C44,"")</f>
+        <v>display</v>
       </c>
       <c r="D12" s="102"/>
       <c r="E12" s="43"/>
@@ -16054,7 +16258,7 @@
         <v>76</v>
       </c>
       <c r="H12" s="42" t="str">
-        <f>IF('tables and models'!G41&lt;&gt;"",'tables and models'!G41,"")</f>
+        <f>IF('tables and models'!G44&lt;&gt;"",'tables and models'!G44,"")</f>
         <v/>
       </c>
       <c r="I12" s="102"/>
@@ -16065,8 +16269,8 @@
         <v>67</v>
       </c>
       <c r="C13" s="42" t="str">
-        <f>IF('tables and models'!C42&lt;&gt;"",'tables and models'!C42,"")</f>
-        <v>mobile</v>
+        <f>IF('tables and models'!C45&lt;&gt;"",'tables and models'!C45,"")</f>
+        <v>bsystem</v>
       </c>
       <c r="D13" s="102"/>
       <c r="E13" s="43"/>
@@ -16074,7 +16278,7 @@
         <v>77</v>
       </c>
       <c r="H13" s="42" t="str">
-        <f>IF('tables and models'!G42&lt;&gt;"",'tables and models'!G42,"")</f>
+        <f>IF('tables and models'!G45&lt;&gt;"",'tables and models'!G45,"")</f>
         <v/>
       </c>
       <c r="I13" s="102"/>
@@ -16085,20 +16289,20 @@
         <v>68</v>
       </c>
       <c r="C14" s="42" t="str">
-        <f>IF('tables and models'!C43&lt;&gt;"",'tables and models'!C43,"")</f>
-        <v>phonenumber</v>
+        <f>IF('tables and models'!C46&lt;&gt;"",'tables and models'!C46,"")</f>
+        <v/>
       </c>
       <c r="D14" s="102" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>78</v>
       </c>
       <c r="H14" s="42" t="str">
-        <f>IF('tables and models'!G43&lt;&gt;"",'tables and models'!G43,"")</f>
+        <f>IF('tables and models'!G46&lt;&gt;"",'tables and models'!G46,"")</f>
         <v/>
       </c>
       <c r="I14" s="102"/>
@@ -16109,7 +16313,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="42" t="str">
-        <f>IF('tables and models'!C44&lt;&gt;"",'tables and models'!C44,"")</f>
+        <f>IF('tables and models'!C47&lt;&gt;"",'tables and models'!C47,"")</f>
         <v/>
       </c>
       <c r="D15" s="102"/>
@@ -16118,7 +16322,7 @@
         <v>79</v>
       </c>
       <c r="H15" s="42" t="str">
-        <f>IF('tables and models'!G44&lt;&gt;"",'tables and models'!G44,"")</f>
+        <f>IF('tables and models'!G47&lt;&gt;"",'tables and models'!G47,"")</f>
         <v/>
       </c>
       <c r="I15" s="102"/>
@@ -16129,7 +16333,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="42" t="str">
-        <f>IF('tables and models'!C45&lt;&gt;"",'tables and models'!C45,"")</f>
+        <f>IF('tables and models'!C48&lt;&gt;"",'tables and models'!C48,"")</f>
         <v/>
       </c>
       <c r="D16" s="102"/>
@@ -16138,7 +16342,7 @@
         <v>80</v>
       </c>
       <c r="H16" s="42" t="str">
-        <f>IF('tables and models'!G45&lt;&gt;"",'tables and models'!G45,"")</f>
+        <f>IF('tables and models'!G48&lt;&gt;"",'tables and models'!G48,"")</f>
         <v/>
       </c>
       <c r="I16" s="102"/>
@@ -16149,7 +16353,7 @@
         <v>71</v>
       </c>
       <c r="C17" s="42" t="str">
-        <f>IF('tables and models'!C46&lt;&gt;"",'tables and models'!C46,"")</f>
+        <f>IF('tables and models'!C49&lt;&gt;"",'tables and models'!C49,"")</f>
         <v/>
       </c>
       <c r="D17" s="102"/>
@@ -16158,7 +16362,7 @@
         <v>81</v>
       </c>
       <c r="H17" s="42" t="str">
-        <f>IF('tables and models'!G46&lt;&gt;"",'tables and models'!G46,"")</f>
+        <f>IF('tables and models'!G49&lt;&gt;"",'tables and models'!G49,"")</f>
         <v/>
       </c>
       <c r="I17" s="102"/>
@@ -16169,7 +16373,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="42" t="str">
-        <f>IF('tables and models'!C47&lt;&gt;"",'tables and models'!C47,"")</f>
+        <f>IF('tables and models'!C50&lt;&gt;"",'tables and models'!C50,"")</f>
         <v/>
       </c>
       <c r="D18" s="102"/>
@@ -16178,7 +16382,7 @@
         <v>82</v>
       </c>
       <c r="H18" s="42" t="str">
-        <f>IF('tables and models'!G47&lt;&gt;"",'tables and models'!G47,"")</f>
+        <f>IF('tables and models'!G50&lt;&gt;"",'tables and models'!G50,"")</f>
         <v/>
       </c>
       <c r="I18" s="102"/>
@@ -16186,35 +16390,35 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="105" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>697</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>698</v>
       </c>
       <c r="D22" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="str">
         <f>"    $"&amp;C22&amp;"    =    "&amp;F5&amp;"::"</f>
-        <v xml:space="preserve">    $myvotes    =    Customer::</v>
+        <v xml:space="preserve">    $myvotes    =    Bfield::</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
       <c r="H24" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="str">
         <f>IF(D9&lt;&gt;"","        "&amp;IF(C8="column","",$A$2)&amp;$A$1&amp;C9&amp;"' , '"&amp;D9&amp;"'"&amp;E9&amp;")","")</f>
-        <v xml:space="preserve">        where('cardid' , '=''something')</v>
+        <v xml:space="preserve">        where('name' , '=''something')</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -16299,7 +16503,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        -&gt;where('phonenumber' , '='$user)</v>
+        <v xml:space="preserve">        -&gt;where('' , '='$user)</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -16383,7 +16587,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -16392,24 +16596,24 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="105" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E39" s="10" t="str">
         <f>F5&amp;".php"</f>
-        <v>Customer.php</v>
+        <v>Bfield.php</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E40" s="12" t="str">
         <f>LEFT(C40,LEN(C40)-1)</f>
@@ -16422,7 +16626,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="46"/>
@@ -16442,7 +16646,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="str">
         <f>"        "&amp;$B$2&amp;C9</f>
-        <v xml:space="preserve">        $query-&gt;where('cardid</v>
+        <v xml:space="preserve">        $query-&gt;where('name</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
@@ -16481,27 +16685,27 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="40" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -16800,7 +17004,7 @@
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>376</v>
@@ -16819,7 +17023,7 @@
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E38" s="19" t="str">
         <f>E37&amp;D37&amp;"/"</f>
@@ -17259,7 +17463,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D72" s="9"/>
       <c r="F72" s="10" t="s">
@@ -17300,7 +17504,7 @@
         <v>66</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D73" s="9"/>
       <c r="F73" s="10" t="s">
@@ -17341,7 +17545,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D74" s="9"/>
       <c r="F74" s="10" t="s">
@@ -17382,7 +17586,7 @@
         <v>68</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D75" s="9"/>
       <c r="F75" s="10" t="s">
@@ -17423,7 +17627,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D76" s="9"/>
       <c r="F76" s="10" t="s">
@@ -17464,7 +17668,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D77" s="9"/>
       <c r="F77" s="10" t="s">
@@ -18810,7 +19014,7 @@
       </c>
       <c r="E45" s="12"/>
       <c r="H45" s="10" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -17,19 +17,20 @@
     <sheet name="view controllers" sheetId="22" r:id="rId3"/>
     <sheet name="csv" sheetId="30" r:id="rId4"/>
     <sheet name="tables and models" sheetId="23" r:id="rId5"/>
-    <sheet name="ST2 snippets" sheetId="29" r:id="rId6"/>
-    <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId7"/>
-    <sheet name="CRUD v1" sheetId="18" r:id="rId8"/>
-    <sheet name="Modal" sheetId="28" r:id="rId9"/>
-    <sheet name="Modal edit form" sheetId="19" state="hidden" r:id="rId10"/>
-    <sheet name="imperfect update v1" sheetId="20" r:id="rId11"/>
-    <sheet name="amChartsv1" sheetId="17" r:id="rId12"/>
-    <sheet name="laravelAuth v1" sheetId="7" r:id="rId13"/>
-    <sheet name="Laravel mail v1" sheetId="10" r:id="rId14"/>
-    <sheet name="Controller generator" sheetId="11" state="hidden" r:id="rId15"/>
-    <sheet name="table relations v1" sheetId="13" r:id="rId16"/>
-    <sheet name="git commands" sheetId="24" r:id="rId17"/>
-    <sheet name="Test unit v1" sheetId="25" r:id="rId18"/>
+    <sheet name="CRUD" sheetId="31" r:id="rId6"/>
+    <sheet name="ST2 snippets" sheetId="29" r:id="rId7"/>
+    <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId8"/>
+    <sheet name="CRUD v1" sheetId="18" r:id="rId9"/>
+    <sheet name="Modal" sheetId="28" r:id="rId10"/>
+    <sheet name="Modal edit form" sheetId="19" state="hidden" r:id="rId11"/>
+    <sheet name="imperfect update v1" sheetId="20" r:id="rId12"/>
+    <sheet name="amChartsv1" sheetId="17" r:id="rId13"/>
+    <sheet name="laravelAuth v1" sheetId="7" r:id="rId14"/>
+    <sheet name="Laravel mail v1" sheetId="10" r:id="rId15"/>
+    <sheet name="Controller generator" sheetId="11" state="hidden" r:id="rId16"/>
+    <sheet name="table relations v1" sheetId="13" r:id="rId17"/>
+    <sheet name="git commands" sheetId="24" r:id="rId18"/>
+    <sheet name="Test unit v1" sheetId="25" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="665">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -1876,9 +1877,6 @@
     <t>Commit name</t>
   </si>
   <si>
-    <t>temporaluser</t>
-  </si>
-  <si>
     <t>List of ST2 snippets</t>
   </si>
   <si>
@@ -1915,21 +1913,6 @@
     <t>JQUERY SNIPPETS</t>
   </si>
   <si>
-    <t>bfields</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>tooltip</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>bsystem</t>
-  </si>
-  <si>
     <t>la</t>
   </si>
   <si>
@@ -1952,9 +1935,6 @@
   </si>
   <si>
     <t>var base=$('#base') … $.post(url,{object:object},function(d){...});</t>
-  </si>
-  <si>
-    <t>placeholder</t>
   </si>
   <si>
     <t>URL to</t>
@@ -2180,23 +2160,688 @@
     <t>new model scope</t>
   </si>
   <si>
-    <t>axis</t>
-  </si>
-  <si>
     <t>charttype</t>
   </si>
   <si>
-    <t>smartcharts</t>
-  </si>
-  <si>
     <t>charttype as points finished</t>
+  </si>
+  <si>
+    <t>buttondelete</t>
+  </si>
+  <si>
+    <t>html form</t>
+  </si>
+  <si>
+    <t>Rules:</t>
+  </si>
+  <si>
+    <t>1. AJAX post method</t>
+  </si>
+  <si>
+    <t>@foreach(Stuff::all() as $k=&gt;$v)</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Syntax for input ids: input_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[tablename in singular]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[fieldname]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    b. fields ids: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[tablename in singular]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[fieldname]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[row id from table]</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: table stuffs with fields name, description, created_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        @foreach($header as $h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        @endforeach</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c. html class syntax (required for jQuery .each function)= each_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[tablename in singular]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    a. rows ids: each_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[tablename in singular]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[row id from table]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                Confirm deleting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;a id='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stuff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_canceldelete_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{$v-&gt;id}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;cancel&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;a id='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stuff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_confirmdelete_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{$v-&gt;id}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;cancel&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;button id='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stuff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete_row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{$v-&gt;id}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;Delete&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;div id='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stuff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{$h}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{$v-&gt;id}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;{{$v-&gt;description}}&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;div class='row each_stuff' id='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stuff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{$v-&gt;id}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;div class='hide' id='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stuff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verifydelete_row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{$v-&gt;id}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;img class='hide' src='progressbar.gif' id='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stuff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_progressbar_delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{$v-&gt;id}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;?php $header=array(['name',1],['description',1],['created_at',0]);  ?&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;input type="text" id="input_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stuff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>SEE RULES AT THE BOTTOM OF THIS SPREADSHEET</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Placeholder</t>
+  </si>
+  <si>
+    <t>Editable</t>
+  </si>
+  <si>
+    <t>Invisible array</t>
+  </si>
+  <si>
+    <t>comma</t>
+  </si>
+  <si>
+    <t>1 to 3</t>
+  </si>
+  <si>
+    <t>4 to 6</t>
+  </si>
+  <si>
+    <t>7 to 10</t>
+  </si>
+  <si>
+    <t>11 to 13</t>
+  </si>
+  <si>
+    <t>14 to 16</t>
+  </si>
+  <si>
+    <t>17 to 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Syntax for HTML tables (read): div as row (or tr) </t>
+  </si>
+  <si>
+    <t>3. Syntax for save button id: id='createnew[tablename in singular]_row'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;button class='btn' id="createnew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stuff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_row"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>@foreach($header as $h)</t>
+  </si>
+  <si>
+    <t>&lt;div class="row"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div class='span2 text-right'&gt;{{$h[1]}}&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>);  ?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?php $header=array(</t>
+  </si>
+  <si>
+    <t>constantly</t>
+  </si>
+  <si>
+    <t>Virgin Mary helps6</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $(this).hide();</t>
+  </si>
+  <si>
+    <t>h6virginhelps</t>
+  </si>
+  <si>
+    <t>praywithhope</t>
+  </si>
+  <si>
+    <t>pray to her6</t>
+  </si>
+  <si>
+    <t>do not stop6</t>
+  </si>
+  <si>
+    <t>Persevere 6</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var base=$('#base').html();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    });</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2453,8 +3098,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2554,6 +3213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,7 +3324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2750,6 +3415,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2782,10 +3461,10 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF122D46"/>
       <color rgb="FF00642D"/>
       <color rgb="FF08233A"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF660066"/>
       <color rgb="FF660033"/>
       <color rgb="FF3B0731"/>
@@ -3660,10 +4339,347 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>377468</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Grupo 25">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3733800" y="2447925"/>
+          <a:ext cx="1291868" cy="466725"/>
+          <a:chOff x="3886200" y="2857500"/>
+          <a:chExt cx="1291868" cy="466725"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Imagen 23" descr="http://upload.wikimedia.org/wikipedia/mediawiki/4/49/WikiDB_icon.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3886200" y="2857500"/>
+            <a:ext cx="466725" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="CuadroTexto 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4295775" y="2933700"/>
+            <a:ext cx="882293" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100"/>
+              <a:t>HTML CRUD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24383</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7239000" y="171450"/>
+          <a:ext cx="914400" cy="995933"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9324975" y="638175"/>
+            <a:ext cx="674031" cy="368242"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>home</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3895,7 +4911,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4348,35 +5364,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>80392</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59870</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
+        <xdr:cNvPr id="7" name="Grupo 6">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6381750" y="270892"/>
-          <a:ext cx="914400" cy="995933"/>
+          <a:off x="8410575" y="190500"/>
+          <a:ext cx="238125" cy="250370"/>
           <a:chOff x="9210675" y="461392"/>
           <a:chExt cx="914400" cy="995933"/>
         </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvPr id="8" name="Rectángulo redondeado 7"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4387,9 +5406,7 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
+          <a:grpFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -4415,13 +5432,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvPr id="9" name="Rectángulo redondeado 8"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4432,9 +5449,7 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
+          <a:grpFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -4460,63 +5475,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvPr id="10" name="Rectángulo redondeado 9"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4529,8 +5494,8 @@
           </a:prstGeom>
           <a:solidFill>
             <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
@@ -4558,13 +5523,72 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1751633" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CuadroTexto 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="104775"/>
+          <a:ext cx="1751633" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>View &amp; Controllers</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5064,6 +6088,246 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2093522" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="123825"/>
+          <a:ext cx="2093522" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HTML table &amp; forms CRUD</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Grupo 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7010400" y="171450"/>
+          <a:ext cx="238125" cy="250370"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>724046</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
@@ -5310,230 +6574,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14858</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9210675" y="352425"/>
-          <a:ext cx="914400" cy="995933"/>
-          <a:chOff x="9210675" y="461392"/>
-          <a:chExt cx="914400" cy="995933"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9210675" y="704850"/>
-            <a:ext cx="914400" cy="685800"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2633469">
-            <a:off x="9305959" y="461392"/>
-            <a:ext cx="701794" cy="697710"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="981075"/>
-            <a:ext cx="257175" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5762,16 +6802,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>24383</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14858</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5782,7 +6822,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7239000" y="171450"/>
+          <a:off x="9210675" y="352425"/>
           <a:ext cx="914400" cy="995933"/>
           <a:chOff x="9210675" y="461392"/>
           <a:chExt cx="914400" cy="995933"/>
@@ -6335,6 +7375,434 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="42" t="str">
+        <f>'view controllers'!D35</f>
+        <v>Ajax</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;G9&amp;A3&amp;" modal_"&amp;E10</f>
+        <v>php artisan generate:view --path="app/views/charts" modal_import</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>"modal_"&amp;E10</f>
+        <v>modal_import</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="str">
+        <f>A1&amp;C13&amp;A2</f>
+        <v>&lt;div id='modal_import' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="str">
+        <f>"                    &lt;h4&gt;"&amp;E12&amp;"&lt;/h4&gt;"</f>
+        <v xml:space="preserve">                    &lt;h4&gt;Import data from CSV file&lt;/h4&gt;</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D34" s="31" t="str">
+        <f>"&lt;a href='#' id='openmodal_"&amp;C13&amp;"'&gt;"&amp;C13&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href='#' id='openmodal_modal_import'&gt;modal_import&lt;/a&gt;</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D35" s="31" t="str">
+        <f>"@include('"&amp;G9&amp;".modal_"&amp;E10&amp;"')"</f>
+        <v>@include('charts.modal_import')</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="str">
+        <f>"$('#openmodal_"&amp;C13&amp;"').click(function(e){"</f>
+        <v>$('#openmodal_modal_import').click(function(e){</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="31" t="str">
+        <f>"    $('#"&amp;C13&amp;"').modal('show');"</f>
+        <v xml:space="preserve">    $('#modal_import').modal('show');</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
@@ -6382,8 +7850,8 @@
         <v>370</v>
       </c>
       <c r="E9" s="42" t="str">
-        <f>'view controllers'!D33</f>
-        <v>temporaluser</v>
+        <f>'view controllers'!D35</f>
+        <v>Ajax</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>533</v>
@@ -6972,7 +8440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L44"/>
   <sheetViews>
@@ -7537,7 +9005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B9"/>
   <sheetViews>
@@ -7585,7 +9053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K39"/>
   <sheetViews>
@@ -7784,7 +9252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L66"/>
   <sheetViews>
@@ -7898,7 +9366,7 @@
       </c>
       <c r="K13" s="47" t="str">
         <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
-        <v>c:\wamp\www\github\smartcharts</v>
+        <v>c:\wamp\www\practice\buttondelete</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7907,7 +9375,7 @@
       </c>
       <c r="C14" s="17" t="str">
         <f>"Copy-Item "&amp;K13&amp;"\app\views\templates\email2.blade.php "&amp;K13&amp;"\app\views\emails"</f>
-        <v>Copy-Item c:\wamp\www\github\smartcharts\app\views\templates\email2.blade.php c:\wamp\www\github\smartcharts\app\views\emails</v>
+        <v>Copy-Item c:\wamp\www\practice\buttondelete\app\views\templates\email2.blade.php c:\wamp\www\practice\buttondelete\app\views\emails</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -7921,7 +9389,7 @@
       </c>
       <c r="C15" s="17" t="str">
         <f>"Rename-Item "&amp;K13&amp;"\app\views\"&amp;E13&amp;"\email2.blade.php "&amp;G13&amp;".blade.php"</f>
-        <v>Rename-Item c:\wamp\www\github\smartcharts\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
+        <v>Rename-Item c:\wamp\www\practice\buttondelete\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -8368,7 +9836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -8509,7 +9977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
@@ -9488,7 +10956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N86"/>
   <sheetViews>
@@ -9681,7 +11149,7 @@
         <v>554</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="42" t="s">
@@ -10102,7 +11570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G9"/>
   <sheetViews>
@@ -10274,7 +11742,7 @@
         <v>106</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -10283,7 +11751,7 @@
         <v>235</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -10293,7 +11761,7 @@
       </c>
       <c r="C15" s="17" t="str">
         <f>+"cd c:\wamp\www\"&amp;C14</f>
-        <v>cd c:\wamp\www\github</v>
+        <v>cd c:\wamp\www\practice</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -10306,7 +11774,7 @@
       </c>
       <c r="C16" s="17" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir smartcharts</v>
+        <v>mkdir buttondelete</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="17"/>
@@ -10319,7 +11787,7 @@
       </c>
       <c r="C17" s="17" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd smartcharts</v>
+        <v>cd buttondelete</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -10368,7 +11836,7 @@
       </c>
       <c r="C24" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd c:\wamp\www\github\smartcharts</v>
+        <v>cd c:\wamp\www\practice\buttondelete</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -10516,10 +11984,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10593,220 +12063,191 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="7" spans="1:5" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="42" t="str">
+      <c r="C16" s="42" t="str">
         <f>'Start project'!C13</f>
-        <v>smartcharts</v>
-      </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+        <v>buttondelete</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="42" t="str">
+      <c r="C17" s="42" t="str">
         <f>'Start project'!C14</f>
-        <v>github</v>
-      </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+        <v>practice</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="17" t="str">
-        <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\smartcharts</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>52</v>
+      <c r="C20" s="17" t="str">
+        <f>"cd c:\wamp\www\"&amp;C17&amp;"\"&amp;C16</f>
+        <v>cd c:\wamp\www\practice\buttondelete</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="17" t="str">
-        <f>"cd c:\wamp\www\"&amp;C15&amp;"\"&amp;C14</f>
-        <v>cd c:\wamp\www\github\smartcharts</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="35"/>
-    </row>
+      <c r="C25" s="17" t="str">
+        <f>"cd c:\wamp\www\"&amp;C17&amp;"\"&amp;C16</f>
+        <v>cd c:\wamp\www\practice\buttondelete</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="35"/>
+    </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="19"/>
-      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="H33" s="37" t="str">
-        <f>D33</f>
-        <v>temporaluser</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="H35" s="37" t="str">
+        <f>D35</f>
+        <v>Ajax</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="9" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="E34" s="19" t="str">
-        <f>E33&amp;D33&amp;"/"</f>
-        <v>app/views/temporaluser/</v>
-      </c>
-      <c r="G34" s="12" t="s">
+      <c r="E36" s="19" t="str">
+        <f>E35&amp;D35&amp;"/"</f>
+        <v>app/views/Ajax/</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="H34" s="37" t="str">
-        <f>D34&amp;".blade.php"</f>
+      <c r="H36" s="37" t="str">
+        <f>D36&amp;".blade.php"</f>
         <v>a_base.blade.php</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="17" t="str">
-        <f>"mkdir "&amp;E33&amp;D33</f>
-        <v>mkdir app/views/temporaluser</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="17" t="str">
-        <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D33&amp;B3&amp;" "&amp;D34</f>
-        <v>php artisan generate:view --path="app/views/temporaluser" a_base</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="12" t="str">
-        <f>UPPER(LEFT(D33,1))&amp;RIGHT(D33,LEN(D33)-1)&amp;"Controller"</f>
-        <v>TemporaluserController</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -10814,60 +12255,69 @@
         <v>84</v>
       </c>
       <c r="C37" s="17" t="str">
-        <f>A4&amp;B5&amp;H36</f>
-        <v>php artisan generate:controller TemporaluserController</v>
+        <f>"mkdir "&amp;E35&amp;D35</f>
+        <v>mkdir app/views/Ajax</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="B38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="17" t="str">
+        <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D35&amp;B3&amp;" "&amp;D36</f>
+        <v>php artisan generate:view --path="app/views/Ajax" a_base</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="12" t="str">
+        <f>UPPER(LEFT(D35,1))&amp;RIGHT(D35,LEN(D35)-1)&amp;"Controller"</f>
+        <v>AjaxController</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C39" s="19" t="str">
-        <f>E34&amp;H34</f>
-        <v>app/views/temporaluser/a_base.blade.php</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="10" t="s">
-        <v>303</v>
-      </c>
+      <c r="B39" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="17" t="str">
+        <f>A4&amp;B5&amp;H38</f>
+        <v>php artisan generate:controller AjaxController</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="19"/>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="39" t="s">
+      <c r="B41" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="19" t="str">
+        <f>E36&amp;H36</f>
+        <v>app/views/Ajax/a_base.blade.php</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="19"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="39" t="s">
         <v>305</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="40" t="s">
-        <v>330</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -10876,20 +12326,22 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="39" t="s">
-        <v>331</v>
+      <c r="C44" s="40" t="s">
+        <v>329</v>
       </c>
       <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="E44" s="23" t="s">
+        <v>115</v>
+      </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="23"/>
-      <c r="D45" s="31" t="s">
-        <v>116</v>
-      </c>
+      <c r="C45" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
@@ -10897,7 +12349,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -10905,52 +12357,50 @@
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="23"/>
+      <c r="D47" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+    </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="10" t="str">
-        <f>" app/Controllers/"&amp;H36&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/TemporaluserController.php</v>
-      </c>
-      <c r="G48" s="12" t="str">
-        <f>UPPER(LEFT(D34,1))&amp;RIGHT(D34,LEN(D34)-1)</f>
+      <c r="D50" s="10" t="str">
+        <f>" app/Controllers/"&amp;H38&amp;".php"</f>
+        <v xml:space="preserve"> app/Controllers/AjaxController.php</v>
+      </c>
+      <c r="G50" s="12" t="str">
+        <f>UPPER(LEFT(D36,1))&amp;RIGHT(D36,LEN(D36)-1)</f>
         <v>A_base</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="31" t="str">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="31" t="str">
         <f>"public function getIndex() {"</f>
         <v>public function getIndex() {</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="31" t="str">
-        <f>"    return View::make('"&amp;D33&amp;IF(D33&lt;&gt;"",".","")&amp;D34&amp;"'"&amp;")"</f>
-        <v xml:space="preserve">    return View::make('temporaluser.a_base')</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="31" t="str">
-        <f>"      -&gt;with('title','"&amp;D34&amp;"');"</f>
-        <v xml:space="preserve">      -&gt;with('title','a_base');</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -10959,8 +12409,9 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="31" t="s">
-        <v>307</v>
+      <c r="C52" s="31" t="str">
+        <f>"    return View::make('"&amp;D35&amp;IF(D35&lt;&gt;"",".","")&amp;D36&amp;"'"&amp;")"</f>
+        <v xml:space="preserve">    return View::make('Ajax.a_base')</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
@@ -10969,42 +12420,61 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="19"/>
-      <c r="E53" s="19"/>
+      <c r="C53" s="31" t="str">
+        <f>"      -&gt;with('title','"&amp;D36&amp;"');"</f>
+        <v xml:space="preserve">      -&gt;with('title','a_base');</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="19"/>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="31" t="str">
-        <f>B6&amp;D33&amp;C1&amp;H36&amp;C2</f>
-        <v>Route::controller('temporaluser','TemporaluserController');</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" s="19"/>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B57" s="82" t="s">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="31" t="str">
+        <f>B6&amp;D35&amp;C1&amp;H38&amp;C2</f>
+        <v>Route::controller('Ajax','AjaxController');</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="19"/>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B59" s="82" t="s">
         <v>416</v>
       </c>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25"/>
     <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
@@ -11048,13 +12518,15 @@
     <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" x14ac:dyDescent="0.25"/>
+    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="106" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:D59"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B57" location="'tables and models'!A1" display="Tables and models"/>
+    <hyperlink ref="B59" location="'tables and models'!A1" display="Tables and models"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11068,7 +12540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11081,42 +12553,42 @@
     <row r="3" spans="2:10" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="67" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="67" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="76" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="77" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="77" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="77" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -11130,12 +12602,12 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
@@ -11145,21 +12617,21 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -11172,12 +12644,12 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -11190,7 +12662,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -11216,7 +12688,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -11229,7 +12701,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -11266,7 +12738,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
@@ -11322,9 +12794,9 @@
   <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -11433,7 +12905,7 @@
       </c>
       <c r="C17" s="42" t="str">
         <f>'Start project'!C13</f>
-        <v>smartcharts</v>
+        <v>buttondelete</v>
       </c>
       <c r="D17" s="23"/>
     </row>
@@ -11443,7 +12915,7 @@
       </c>
       <c r="C18" s="42" t="str">
         <f>'Start project'!C14</f>
-        <v>github</v>
+        <v>practice</v>
       </c>
       <c r="D18" s="23"/>
     </row>
@@ -11459,7 +12931,7 @@
       </c>
       <c r="C21" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd c:\wamp\www\github\smartcharts</v>
+        <v>cd c:\wamp\www\practice\buttondelete</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -11502,7 +12974,7 @@
       </c>
       <c r="C26" s="17" t="str">
         <f>"cd c:\wamp\www\"&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd c:\wamp\www\github\smartcharts</v>
+        <v>cd c:\wamp\www\practice\buttondelete</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -11592,7 +13064,7 @@
       <c r="K36" s="23"/>
       <c r="M36" s="12" t="str">
         <f>IF(SUM(J41:K50)&gt;0,B2&amp;P50&amp;Q50&amp;B3,"")</f>
-        <v>--fields="name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string,placeholder:string,axis:string"</v>
+        <v>--fields="praywithhope:string,constantly:integer"</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25"/>
@@ -11606,15 +13078,15 @@
         <v>60</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>568</v>
+        <v>657</v>
       </c>
       <c r="F39" s="12" t="str">
         <f>LEFT(D39,LEN(D39)-1)</f>
-        <v>bfield</v>
+        <v>h6virginhelp</v>
       </c>
       <c r="G39" s="12" t="str">
         <f>UPPER(LEFT(F39,1))&amp;RIGHT(F39,LEN(F39)-1)</f>
-        <v>Bfield</v>
+        <v>H6virginhelp</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
@@ -11649,7 +13121,7 @@
         <v>61</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>156</v>
+        <v>658</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>91</v>
@@ -11672,7 +13144,7 @@
       </c>
       <c r="N41" s="36" t="str">
         <f>IF(AND(C41&lt;&gt;"",D41&lt;&gt;""),IF(N40="concatenator1","",",")&amp;C41&amp;":"&amp;D41,"")</f>
-        <v>name:string</v>
+        <v>praywithhope:string</v>
       </c>
       <c r="O41" s="36" t="str">
         <f>IF(AND(G41&lt;&gt;"",H41&lt;&gt;""),","&amp;G41&amp;":"&amp;H41,"")</f>
@@ -11680,7 +13152,7 @@
       </c>
       <c r="P41" s="36" t="str">
         <f>P40&amp;N41</f>
-        <v>name:string</v>
+        <v>praywithhope:string</v>
       </c>
       <c r="Q41" s="36" t="str">
         <f>Q40&amp;O41</f>
@@ -11695,10 +13167,10 @@
         <v>62</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>72</v>
@@ -11718,7 +13190,7 @@
       </c>
       <c r="N42" s="36" t="str">
         <f t="shared" ref="N42:N50" si="2">IF(AND(C42&lt;&gt;"",D42&lt;&gt;""),IF(N41="concatenator1","",",")&amp;C42&amp;":"&amp;D42,"")</f>
-        <v>,header:string</v>
+        <v>,constantly:integer</v>
       </c>
       <c r="O42" s="36" t="str">
         <f t="shared" ref="O42:O50" si="3">IF(AND(G42&lt;&gt;"",H42&lt;&gt;""),","&amp;G42&amp;":"&amp;H42,"")</f>
@@ -11726,7 +13198,7 @@
       </c>
       <c r="P42" s="36" t="str">
         <f t="shared" ref="P42:Q50" si="4">P41&amp;N42</f>
-        <v>name:string,header:string</v>
+        <v>praywithhope:string,constantly:integer</v>
       </c>
       <c r="Q42" s="36" t="str">
         <f t="shared" si="4"/>
@@ -11740,12 +13212,8 @@
       <c r="B43" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="F43" s="10" t="s">
         <v>73</v>
       </c>
@@ -11753,7 +13221,7 @@
       <c r="H43" s="9"/>
       <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="12">
         <f t="shared" si="1"/>
@@ -11764,7 +13232,7 @@
       </c>
       <c r="N43" s="36" t="str">
         <f t="shared" si="2"/>
-        <v>,tooltip:string</v>
+        <v/>
       </c>
       <c r="O43" s="36" t="str">
         <f t="shared" si="3"/>
@@ -11772,7 +13240,7 @@
       </c>
       <c r="P43" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>name:string,header:string,tooltip:string</v>
+        <v>praywithhope:string,constantly:integer</v>
       </c>
       <c r="Q43" s="36" t="str">
         <f t="shared" si="4"/>
@@ -11783,12 +13251,8 @@
       <c r="B44" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>325</v>
-      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="F44" s="10" t="s">
         <v>74</v>
       </c>
@@ -11796,7 +13260,7 @@
       <c r="H44" s="9"/>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="12">
         <f t="shared" si="1"/>
@@ -11807,7 +13271,7 @@
       </c>
       <c r="N44" s="36" t="str">
         <f t="shared" si="2"/>
-        <v>,display:tinyinteger</v>
+        <v/>
       </c>
       <c r="O44" s="36" t="str">
         <f t="shared" si="3"/>
@@ -11815,7 +13279,7 @@
       </c>
       <c r="P44" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>name:string,header:string,tooltip:string,display:tinyinteger</v>
+        <v>praywithhope:string,constantly:integer</v>
       </c>
       <c r="Q44" s="36" t="str">
         <f t="shared" si="4"/>
@@ -11826,12 +13290,8 @@
       <c r="B45" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="F45" s="10" t="s">
         <v>75</v>
       </c>
@@ -11839,7 +13299,7 @@
       <c r="H45" s="9"/>
       <c r="J45" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="12">
         <f t="shared" si="1"/>
@@ -11850,7 +13310,7 @@
       </c>
       <c r="N45" s="36" t="str">
         <f t="shared" si="2"/>
-        <v>,bsystem:string</v>
+        <v/>
       </c>
       <c r="O45" s="36" t="str">
         <f t="shared" si="3"/>
@@ -11858,7 +13318,7 @@
       </c>
       <c r="P45" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string</v>
+        <v>praywithhope:string,constantly:integer</v>
       </c>
       <c r="Q45" s="36" t="str">
         <f t="shared" si="4"/>
@@ -11869,12 +13329,8 @@
       <c r="B46" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
       <c r="F46" s="10" t="s">
         <v>76</v>
       </c>
@@ -11882,7 +13338,7 @@
       <c r="H46" s="9"/>
       <c r="J46" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="12">
         <f t="shared" si="1"/>
@@ -11893,7 +13349,7 @@
       </c>
       <c r="N46" s="36" t="str">
         <f t="shared" si="2"/>
-        <v>,placeholder:string</v>
+        <v/>
       </c>
       <c r="O46" s="36" t="str">
         <f t="shared" si="3"/>
@@ -11901,7 +13357,7 @@
       </c>
       <c r="P46" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string,placeholder:string</v>
+        <v>praywithhope:string,constantly:integer</v>
       </c>
       <c r="Q46" s="36" t="str">
         <f t="shared" si="4"/>
@@ -11912,12 +13368,8 @@
       <c r="B47" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="F47" s="10" t="s">
         <v>77</v>
       </c>
@@ -11925,7 +13377,7 @@
       <c r="H47" s="9"/>
       <c r="J47" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="12">
         <f t="shared" si="1"/>
@@ -11936,7 +13388,7 @@
       </c>
       <c r="N47" s="36" t="str">
         <f t="shared" si="2"/>
-        <v>,axis:string</v>
+        <v/>
       </c>
       <c r="O47" s="36" t="str">
         <f t="shared" si="3"/>
@@ -11944,7 +13396,7 @@
       </c>
       <c r="P47" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string,placeholder:string,axis:string</v>
+        <v>praywithhope:string,constantly:integer</v>
       </c>
       <c r="Q47" s="36" t="str">
         <f t="shared" si="4"/>
@@ -11983,7 +13435,7 @@
       </c>
       <c r="P48" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string,placeholder:string,axis:string</v>
+        <v>praywithhope:string,constantly:integer</v>
       </c>
       <c r="Q48" s="36" t="str">
         <f t="shared" si="4"/>
@@ -12022,7 +13474,7 @@
       </c>
       <c r="P49" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string,placeholder:string,axis:string</v>
+        <v>praywithhope:string,constantly:integer</v>
       </c>
       <c r="Q49" s="36" t="str">
         <f t="shared" si="4"/>
@@ -12061,7 +13513,7 @@
       </c>
       <c r="P50" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string,placeholder:string,axis:string</v>
+        <v>praywithhope:string,constantly:integer</v>
       </c>
       <c r="Q50" s="36" t="str">
         <f t="shared" si="4"/>
@@ -12081,7 +13533,7 @@
       </c>
       <c r="C54" s="17" t="str">
         <f>A4&amp;A5&amp;A6&amp;D39&amp;B1&amp;M36</f>
-        <v>php artisan generate:migration create_bfields_table --fields="name:string,header:string,tooltip:string,display:tinyinteger,bsystem:string,placeholder:string,axis:string"</v>
+        <v>php artisan generate:migration create_h6virginhelps_table --fields="praywithhope:string,constantly:integer"</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -12106,7 +13558,7 @@
       </c>
       <c r="C56" s="17" t="str">
         <f>A4&amp;B4&amp;G39</f>
-        <v>php artisan generate:model Bfield</v>
+        <v>php artisan generate:model H6virginhelp</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
@@ -12135,7 +13587,7 @@
       <c r="C60" s="12"/>
       <c r="D60" s="12" t="str">
         <f>D39</f>
-        <v>bfields</v>
+        <v>h6virginhelps</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
@@ -12143,7 +13595,7 @@
         <v>234</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
@@ -12160,7 +13612,7 @@
       </c>
       <c r="C63" s="17" t="str">
         <f>C3&amp;D61&amp;C4&amp;D60&amp;C5&amp;C6&amp;D61&amp;":"&amp;D62&amp;C6</f>
-        <v>php artisan generate:migration add_charttype_to_bfields_table --fields="charttype:string"</v>
+        <v>php artisan generate:migration add_charttype_to_h6virginhelps_table --fields="charttype:string"</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
@@ -12324,7 +13776,11 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>611</v>
+      </c>
+    </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25"/>
@@ -12368,6 +13824,1114 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="11" width="11.42578125" style="10"/>
+    <col min="12" max="12" width="8.42578125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="88" t="str">
+        <f>IF(AND('tables and models'!C41&lt;&gt;"",'tables and models'!D41&lt;&gt;""),'tables and models'!C41,"")</f>
+        <v>praywithhope</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>659</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>654</v>
+      </c>
+      <c r="E7" s="93">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>11</v>
+      </c>
+      <c r="H7" s="88" t="str">
+        <f>IF(AND('tables and models'!G41&lt;&gt;"",'tables and models'!H41&lt;&gt;""),'tables and models'!G41,"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="90" t="str">
+        <f>IF(AND(L6&lt;&gt;"comma",B7&lt;&gt;""),",","")</f>
+        <v/>
+      </c>
+      <c r="M7" s="89" t="str">
+        <f>IF(B7&lt;&gt;"",L7&amp;"array('"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"')","")</f>
+        <v>array('praywithhope','pray to her6','Virgin Mary helps6','1')</v>
+      </c>
+      <c r="N7" s="90" t="str">
+        <f>IF(AND(N6&lt;&gt;"comma",H7&lt;&gt;""),",","")</f>
+        <v/>
+      </c>
+      <c r="O7" s="89" t="str">
+        <f>IF(H7&lt;&gt;"",N7&amp;"array('"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"','"&amp;K7&amp;"')","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="88" t="str">
+        <f>IF(AND('tables and models'!C42&lt;&gt;"",'tables and models'!D42&lt;&gt;""),'tables and models'!C42,"")</f>
+        <v>constantly</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>661</v>
+      </c>
+      <c r="E8" s="93">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>12</v>
+      </c>
+      <c r="H8" s="88" t="str">
+        <f>IF(AND('tables and models'!G42&lt;&gt;"",'tables and models'!H42&lt;&gt;""),'tables and models'!G42,"")</f>
+        <v/>
+      </c>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="90" t="str">
+        <f t="shared" ref="L8:L16" si="0">IF(AND(L7&lt;&gt;"comma",B8&lt;&gt;""),",","")</f>
+        <v>,</v>
+      </c>
+      <c r="M8" s="89" t="str">
+        <f t="shared" ref="M8:M16" si="1">IF(B8&lt;&gt;"",L8&amp;"array('"&amp;B8&amp;"','"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"')","")</f>
+        <v>,array('constantly','do not stop6','Persevere 6','0')</v>
+      </c>
+      <c r="N8" s="90" t="str">
+        <f t="shared" ref="N8:N16" si="2">IF(AND(N7&lt;&gt;"comma",H8&lt;&gt;""),",","")</f>
+        <v/>
+      </c>
+      <c r="O8" s="89" t="str">
+        <f t="shared" ref="O8:O16" si="3">IF(H8&lt;&gt;"",N8&amp;"array('"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"','"&amp;K8&amp;"')","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>3</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="G9" s="10">
+        <v>13</v>
+      </c>
+      <c r="H9" s="88" t="str">
+        <f>IF(AND('tables and models'!G43&lt;&gt;"",'tables and models'!H43&lt;&gt;""),'tables and models'!G43,"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N9" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O9" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="G10" s="10">
+        <v>14</v>
+      </c>
+      <c r="H10" s="88" t="str">
+        <f>IF(AND('tables and models'!G44&lt;&gt;"",'tables and models'!H44&lt;&gt;""),'tables and models'!G44,"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N10" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O10" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>5</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="G11" s="10">
+        <v>15</v>
+      </c>
+      <c r="H11" s="88" t="str">
+        <f>IF(AND('tables and models'!G45&lt;&gt;"",'tables and models'!H45&lt;&gt;""),'tables and models'!G45,"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O11" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>6</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="G12" s="10">
+        <v>16</v>
+      </c>
+      <c r="H12" s="88" t="str">
+        <f>IF(AND('tables and models'!G46&lt;&gt;"",'tables and models'!H46&lt;&gt;""),'tables and models'!G46,"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N12" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O12" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>7</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="G13" s="10">
+        <v>17</v>
+      </c>
+      <c r="H13" s="88" t="str">
+        <f>IF(AND('tables and models'!G47&lt;&gt;"",'tables and models'!H47&lt;&gt;""),'tables and models'!G47,"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N13" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O13" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>8</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="G14" s="10">
+        <v>18</v>
+      </c>
+      <c r="H14" s="88" t="str">
+        <f>IF(AND('tables and models'!G48&lt;&gt;"",'tables and models'!H48&lt;&gt;""),'tables and models'!G48,"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N14" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O14" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>9</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="G15" s="10">
+        <v>19</v>
+      </c>
+      <c r="H15" s="88" t="str">
+        <f>IF(AND('tables and models'!G49&lt;&gt;"",'tables and models'!H49&lt;&gt;""),'tables and models'!G49,"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M15" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N15" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O15" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>10</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="G16" s="10">
+        <v>20</v>
+      </c>
+      <c r="H16" s="88" t="str">
+        <f>IF(AND('tables and models'!G50&lt;&gt;"",'tables and models'!H50&lt;&gt;""),'tables and models'!G50,"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N16" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O16" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="91" t="s">
+        <v>652</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B20" s="91" t="str">
+        <f>"        "&amp;M7&amp;M8&amp;M9</f>
+        <v xml:space="preserve">        array('praywithhope','pray to her6','Virgin Mary helps6','1'),array('constantly','do not stop6','Persevere 6','0')</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B21" s="91" t="str">
+        <f>"        "&amp;M10&amp;M11&amp;M12</f>
+        <v xml:space="preserve">        </v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B22" s="91" t="str">
+        <f>"        "&amp;M13&amp;M14&amp;M15&amp;M16</f>
+        <v xml:space="preserve">        </v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="B23" s="91" t="str">
+        <f>"        "&amp;O7&amp;O8&amp;O9</f>
+        <v xml:space="preserve">        </v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="B24" s="91" t="str">
+        <f>"        "&amp;O10&amp;O11&amp;O12</f>
+        <v xml:space="preserve">        </v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B25" s="91" t="str">
+        <f>"        "&amp;O13&amp;O14&amp;O15&amp;O16</f>
+        <v xml:space="preserve">        </v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="91" t="s">
+        <v>651</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="92" t="s">
+        <v>648</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="92" t="s">
+        <v>649</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="91" t="str">
+        <f>"    &lt;div class='span2'&gt;&lt;input class='newinput_"&amp;'tables and models'!F39&amp;"' type='text' id='input_"&amp;'tables and models'!F39&amp;"_{{$h[0]}}' placeholder='{{$h[2]}}'&gt;&lt;/div&gt;"</f>
+        <v xml:space="preserve">    &lt;div class='span2'&gt;&lt;input class='newinput_h6virginhelp' type='text' id='input_h6virginhelp_{{$h[0]}}' placeholder='{{$h[2]}}'&gt;&lt;/div&gt;</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="91" t="str">
+        <f>"&lt;button class='btn' id='createnew"&amp;'tables and models'!F39&amp;"_row'&gt;Save&lt;/button&gt;"</f>
+        <v>&lt;button class='btn' id='createnewh6virginhelp_row'&gt;Save&lt;/button&gt;</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="91" t="str">
+        <f>"&lt;img class='hide' id='wait_while_creating_"&amp;'tables and models'!F39&amp;"' src='{{URL::to("&amp;P1&amp;"assets/img/progressBar.gif"&amp;P1&amp;")}}'/&gt;"</f>
+        <v>&lt;img class='hide' id='wait_while_creating_h6virginhelp' src='{{URL::to("assets/img/progressBar.gif")}}'/&gt;</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="str">
+        <f>"$('#createnew"&amp;'tables and models'!F39&amp;"_row').click(function(){"</f>
+        <v>$('#createnewh6virginhelp_row').click(function(){</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="91" t="str">
+        <f>"    $('#wait_while_creating_"&amp;'tables and models'!F39&amp;"').show(); "</f>
+        <v xml:space="preserve">    $('#wait_while_creating_h6virginhelp').show(); </v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="91" t="str">
+        <f>"    $.post(base+'/ajax/"&amp;'tables and models'!F39&amp;"',{},function(d){"</f>
+        <v xml:space="preserve">    $.post(base+'/ajax/h6virginhelp',{},function(d){</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="84" t="s">
+        <v>631</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="84" t="s">
+        <v>647</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="84" t="s">
+        <v>630</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="85" t="s">
+        <v>614</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="84" t="s">
+        <v>627</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="85" t="s">
+        <v>618</v>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="85" t="s">
+        <v>619</v>
+      </c>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+    </row>
+    <row r="77" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="84" t="s">
+        <v>625</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+    </row>
+    <row r="78" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="84" t="s">
+        <v>628</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+    </row>
+    <row r="79" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="84" t="s">
+        <v>622</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+    </row>
+    <row r="80" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="84" t="s">
+        <v>623</v>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+    </row>
+    <row r="81" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="84" t="s">
+        <v>624</v>
+      </c>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+    </row>
+    <row r="82" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="84" t="s">
+        <v>629</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+    </row>
+    <row r="83" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="84" t="s">
+        <v>540</v>
+      </c>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+    </row>
+    <row r="84" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="87"/>
+      <c r="D85" s="87"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="87"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
@@ -12385,94 +14949,94 @@
     <row r="3" spans="2:5" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>558</v>
-      </c>
       <c r="E8" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>560</v>
-      </c>
       <c r="E9" s="37" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="37" t="s">
         <v>562</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -12480,32 +15044,32 @@
         <v>161</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -12514,7 +15078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I66"/>
   <sheetViews>
@@ -12861,7 +15425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D29"/>
   <sheetViews>
@@ -13016,432 +15580,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="E9" s="42" t="str">
-        <f>'view controllers'!D33</f>
-        <v>temporaluser</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="17" t="str">
-        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;G9&amp;A3&amp;" modal_"&amp;E10</f>
-        <v>php artisan generate:view --path="app/views/charts" modal_import</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>"modal_"&amp;E10</f>
-        <v>modal_import</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="str">
-        <f>A1&amp;C13&amp;A2</f>
-        <v>&lt;div id='modal_import' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="str">
-        <f>"                    &lt;h4&gt;"&amp;E12&amp;"&lt;/h4&gt;"</f>
-        <v xml:space="preserve">                    &lt;h4&gt;Import data from CSV file&lt;/h4&gt;</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
-        <v>542</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
-        <v>543</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="D34" s="31" t="str">
-        <f>"&lt;a href='#' id='openmodal_"&amp;C13&amp;"'&gt;"&amp;C13&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href='#' id='openmodal_modal_import'&gt;modal_import&lt;/a&gt;</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="D35" s="31" t="str">
-        <f>"@include('"&amp;G9&amp;".modal_"&amp;E10&amp;"')"</f>
-        <v>@include('charts.modal_import')</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="str">
-        <f>"$('#openmodal_"&amp;C13&amp;"').click(function(e){"</f>
-        <v>$('#openmodal_modal_import').click(function(e){</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="31" t="str">
-        <f>"    $('#"&amp;C13&amp;"').modal('show');"</f>
-        <v xml:space="preserve">    $('#modal_import').modal('show');</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariaadelaida\Desktop\github\edry2\public\support docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariaadelaida\Desktop\laravel projects\github\edry2\public\support docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="509">
   <si>
     <t>sublime_text  .</t>
   </si>
@@ -2283,10 +2283,31 @@
     <t>{{--  --}}</t>
   </si>
   <si>
-    <t>date format selector</t>
-  </si>
-  <si>
-    <t>testable</t>
+    <t>path</t>
+  </si>
+  <si>
+    <t>C:\Users\mariaadelaida\Desktop\"laravel projects"\</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>layout update</t>
+  </si>
+  <si>
+    <t>* 9</t>
+  </si>
+  <si>
+    <t>Request feedback only after fixing issues you found as natural user.</t>
+  </si>
+  <si>
+    <t>drawer</t>
+  </si>
+  <si>
+    <t>hide / show div</t>
+  </si>
+  <si>
+    <t>predefined function "drawer_section(section)" .</t>
   </si>
 </sst>
 </file>
@@ -2751,7 +2772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2854,9 +2875,15 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -6831,7 +6858,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6934,7 +6963,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="89"/>
+      <c r="H20" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="56" t="s">
@@ -7318,7 +7352,7 @@
       </c>
       <c r="K13" s="33" t="str">
         <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
-        <v>c:\wamp\www\practice\testable</v>
+        <v>C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7327,7 +7361,7 @@
       </c>
       <c r="C14" s="8" t="str">
         <f>"Copy-Item "&amp;K13&amp;"\app\views\templates\email2.blade.php "&amp;K13&amp;"\app\views\emails"</f>
-        <v>Copy-Item c:\wamp\www\practice\testable\app\views\templates\email2.blade.php c:\wamp\www\practice\testable\app\views\emails</v>
+        <v>Copy-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3\app\views\templates\email2.blade.php C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3\app\views\emails</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -7341,7 +7375,7 @@
       </c>
       <c r="C15" s="8" t="str">
         <f>"Rename-Item "&amp;K13&amp;"\app\views\"&amp;E13&amp;"\email2.blade.php "&amp;G13&amp;".blade.php"</f>
-        <v>Rename-Item c:\wamp\www\practice\testable\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
+        <v>Rename-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -7793,7 +7827,7 @@
   <sheetPr codeName="Hoja13"/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="E2" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
@@ -7845,10 +7879,10 @@
       <c r="B11" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="94" t="s">
         <v>474</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="94"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
@@ -7981,10 +8015,10 @@
       <c r="D27" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="F27" s="17"/>
+      <c r="E27" s="94" t="s">
+        <v>503</v>
+      </c>
+      <c r="F27" s="94"/>
       <c r="G27" s="28" t="s">
         <v>218</v>
       </c>
@@ -8021,7 +8055,7 @@
       </c>
       <c r="C30" s="52" t="str">
         <f>"git commit -m "&amp;A1&amp;E27&amp;A1</f>
-        <v>git commit -m "date format selector"</v>
+        <v>git commit -m "layout update"</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="42"/>
@@ -8228,10 +8262,10 @@
       <c r="B64" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="17"/>
+      <c r="D64" s="94"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="42" t="s">
@@ -8269,10 +8303,10 @@
       <c r="D70" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="F70" s="17"/>
+      <c r="F70" s="94"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="42" t="s">
@@ -8397,6 +8431,7 @@
       <c r="E86" s="55"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8409,7 +8444,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B33" sqref="B33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8419,7 +8454,7 @@
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
@@ -8430,7 +8465,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -8441,7 +8476,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
@@ -8449,7 +8484,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -8460,7 +8495,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -8472,7 +8507,7 @@
         <v>_table --fields=</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -8483,13 +8518,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="90" t="s">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
@@ -8497,55 +8538,55 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="8" t="str">
-        <f>+"cd c:\wamp\www\"&amp;C14</f>
-        <v>cd c:\wamp\www\practice</v>
+        <f>+"cd "&amp;H8&amp;C14</f>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="8" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir testable</v>
+        <v>mkdir t3</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="8"/>
@@ -8558,7 +8599,7 @@
       </c>
       <c r="C17" s="8" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd testable</v>
+        <v>cd t3</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -8606,8 +8647,8 @@
         <v>34</v>
       </c>
       <c r="C24" s="8" t="str">
-        <f>"cd c:\wamp\www\"&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd c:\wamp\www\practice\testable</v>
+        <f>"cd "&amp;H8&amp;C14&amp;"\"&amp;C13</f>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -8658,12 +8699,12 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
@@ -8761,7 +8802,7 @@
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8771,7 +8812,7 @@
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
@@ -8782,7 +8823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -8793,7 +8834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
@@ -8801,7 +8842,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -8812,7 +8853,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -8824,7 +8865,7 @@
         <v>_table --fields=</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -8835,15 +8876,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="90" t="s">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>53</v>
       </c>
@@ -8851,25 +8898,25 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="28" t="str">
         <f>'Start project'!C13</f>
-        <v>testable</v>
+        <v>t3</v>
       </c>
       <c r="D16" s="13"/>
     </row>
@@ -8879,7 +8926,7 @@
       </c>
       <c r="C17" s="28" t="str">
         <f>'Start project'!C14</f>
-        <v>practice</v>
+        <v>github</v>
       </c>
       <c r="D17" s="13"/>
     </row>
@@ -8894,8 +8941,8 @@
         <v>34</v>
       </c>
       <c r="C20" s="8" t="str">
-        <f>"cd c:\wamp\www\"&amp;C17&amp;"\"&amp;C16</f>
-        <v>cd c:\wamp\www\practice\testable</v>
+        <f>"cd "&amp;H10&amp;C17&amp;"\"&amp;C16</f>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -8937,8 +8984,8 @@
         <v>34</v>
       </c>
       <c r="C25" s="8" t="str">
-        <f>"cd c:\wamp\www\"&amp;C17&amp;"\"&amp;C16</f>
-        <v>cd c:\wamp\www\practice\testable</v>
+        <f>"cd "&amp;H10&amp;C17&amp;"\"&amp;C16</f>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -9297,11 +9344,11 @@
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25"/>
@@ -9371,9 +9418,9 @@
   <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -9383,7 +9430,7 @@
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
@@ -9394,7 +9441,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -9405,7 +9452,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
@@ -9413,7 +9460,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -9424,7 +9471,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -9436,7 +9483,7 @@
         <v>_table --fields=</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -9447,16 +9494,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="90" t="s">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
@@ -9464,25 +9518,25 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="28" t="str">
         <f>'Start project'!C13</f>
-        <v>testable</v>
+        <v>t3</v>
       </c>
       <c r="D17" s="13"/>
     </row>
@@ -9492,7 +9546,7 @@
       </c>
       <c r="C18" s="28" t="str">
         <f>'Start project'!C14</f>
-        <v>practice</v>
+        <v>github</v>
       </c>
       <c r="D18" s="13"/>
     </row>
@@ -9507,8 +9561,8 @@
         <v>34</v>
       </c>
       <c r="C21" s="8" t="str">
-        <f>"cd c:\wamp\www\"&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd c:\wamp\www\practice\testable</v>
+        <f>"cd "&amp;H10&amp;C18&amp;"\"&amp;C17</f>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -9550,8 +9604,8 @@
         <v>34</v>
       </c>
       <c r="C26" s="8" t="str">
-        <f>"cd c:\wamp\www\"&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd c:\wamp\www\practice\testable</v>
+        <f>"cd "&amp;H10&amp;C18&amp;"\"&amp;C17</f>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -15082,11 +15136,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="B1:E21"/>
+  <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15242,6 +15296,17 @@
       </c>
       <c r="E21" s="3" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,22 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7155" tabRatio="666" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
     <sheet name="Start project" sheetId="21" r:id="rId2"/>
     <sheet name="view controllers" sheetId="22" r:id="rId3"/>
-    <sheet name="tables and models" sheetId="23" r:id="rId4"/>
-    <sheet name="CRUD" sheetId="31" r:id="rId5"/>
-    <sheet name="csv" sheetId="30" r:id="rId6"/>
-    <sheet name="ST2 snippets" sheetId="29" r:id="rId7"/>
-    <sheet name="Modal" sheetId="28" r:id="rId8"/>
-    <sheet name="imperfect update v1" sheetId="20" r:id="rId9"/>
-    <sheet name="amChartsv1" sheetId="17" r:id="rId10"/>
-    <sheet name="laravelAuth v1" sheetId="7" r:id="rId11"/>
-    <sheet name="Laravel mail v1" sheetId="10" r:id="rId12"/>
-    <sheet name="git commands" sheetId="24" r:id="rId13"/>
+    <sheet name="brain programming" sheetId="33" r:id="rId4"/>
+    <sheet name="cleaning protocol" sheetId="32" r:id="rId5"/>
+    <sheet name="tables and models" sheetId="23" r:id="rId6"/>
+    <sheet name="CRUD" sheetId="31" r:id="rId7"/>
+    <sheet name="csv" sheetId="30" r:id="rId8"/>
+    <sheet name="ST2 snippets" sheetId="29" r:id="rId9"/>
+    <sheet name="Modal" sheetId="28" r:id="rId10"/>
+    <sheet name="imperfect update v1" sheetId="20" r:id="rId11"/>
+    <sheet name="amChartsv1" sheetId="17" r:id="rId12"/>
+    <sheet name="laravelAuth v1" sheetId="7" r:id="rId13"/>
+    <sheet name="Laravel mail v1" sheetId="10" r:id="rId14"/>
+    <sheet name="git commands" sheetId="24" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="542">
   <si>
     <t>sublime_text  .</t>
   </si>
@@ -737,9 +739,6 @@
   </si>
   <si>
     <t>php var</t>
-  </si>
-  <si>
-    <t>$mssgdata=array(</t>
   </si>
   <si>
     <t>Sender and recipient data</t>
@@ -948,9 +947,6 @@
     <t>WORKING WITH BRANCHES (useful when many colls are on same project)</t>
   </si>
   <si>
-    <t>Test unit</t>
-  </si>
-  <si>
     <t>solla2011</t>
   </si>
   <si>
@@ -975,28 +971,10 @@
     <t>View tester: open EmailtesterController.php</t>
   </si>
   <si>
-    <t>test url</t>
-  </si>
-  <si>
-    <t>$coll=</t>
-  </si>
-  <si>
-    <t>$pmanager=</t>
-  </si>
-  <si>
     <t>$project=</t>
   </si>
   <si>
     <t>Controller tester</t>
-  </si>
-  <si>
-    <t>$subject='Progress report';</t>
-  </si>
-  <si>
-    <t>reportofadopted</t>
-  </si>
-  <si>
-    <t>$list=</t>
   </si>
   <si>
     <t xml:space="preserve">        &lt;/div&gt;</t>
@@ -1983,12 +1961,6 @@
     <t xml:space="preserve">    });</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Ajax controller (app/controllers/AjaxController.php)</t>
   </si>
   <si>
@@ -2187,21 +2159,6 @@
     <t xml:space="preserve">            Sure to delete?</t>
   </si>
   <si>
-    <t>c2_center</t>
-  </si>
-  <si>
-    <t>More details about this task</t>
-  </si>
-  <si>
-    <t>a07kWusage</t>
-  </si>
-  <si>
-    <t>c4/c1_left</t>
-  </si>
-  <si>
-    <t>f_projectcompleted</t>
-  </si>
-  <si>
     <t>MODAL GENERATOR VERSION 2</t>
   </si>
   <si>
@@ -2289,12 +2246,6 @@
     <t>C:\Users\mariaadelaida\Desktop\"laravel projects"\</t>
   </si>
   <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>layout update</t>
-  </si>
-  <si>
     <t>* 9</t>
   </si>
   <si>
@@ -2308,6 +2259,156 @@
   </si>
   <si>
     <t>predefined function "drawer_section(section)" .</t>
+  </si>
+  <si>
+    <t>As many projects are timewasting activities,  here will be consigned some criteria for quiting from purposeless and useless projects and / or tasks</t>
+  </si>
+  <si>
+    <t>IS IT HARD TO BE BETTER THAN OVERALL COMPETITORS?</t>
+  </si>
+  <si>
+    <t>IS PROJECT GENERATING RESOURCES (TIME, SKILLS, MONEY, FOOD).</t>
+  </si>
+  <si>
+    <t>BETA VERSION!!!</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>$('#some_id').attr('someattribute');</t>
+  </si>
+  <si>
+    <t>Main principle: HUMAN REACTIONS ARE MAINLY BECAUSE THEY ARE SPIRITS BEFORE BRAINS BEFORE BODIES</t>
+  </si>
+  <si>
+    <t>Instinct</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Program for instinct</t>
+  </si>
+  <si>
+    <t>Fidelize with rationale</t>
+  </si>
+  <si>
+    <t>Self centered</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Tangible</t>
+  </si>
+  <si>
+    <t>Beginning and end</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Diagnose the pain and fears</t>
+  </si>
+  <si>
+    <t>Differentiate your claims</t>
+  </si>
+  <si>
+    <t>Demonstrate the gains</t>
+  </si>
+  <si>
+    <t>Deliver to the reptilian brain</t>
+  </si>
+  <si>
+    <t>Team management</t>
+  </si>
+  <si>
+    <t>$coordinator=</t>
+  </si>
+  <si>
+    <t>$mssgdata=compact(</t>
+  </si>
+  <si>
+    <t>Already existing project</t>
+  </si>
+  <si>
+    <t>Project score</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>enter key trigger</t>
+  </si>
+  <si>
+    <t>$('#some_id').keyup(function(e)  {…})</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>js / php zero div rule</t>
+  </si>
+  <si>
+    <t>c4project</t>
+  </si>
+  <si>
+    <t>a_transfercoordination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test url </t>
+  </si>
+  <si>
+    <t>$email=</t>
+  </si>
+  <si>
+    <t>leavingproject</t>
+  </si>
+  <si>
+    <t>$user=</t>
+  </si>
+  <si>
+    <t>$taskingeasy= no_reply@taskingeasy.com;</t>
+  </si>
+  <si>
+    <t>$subject='Collaborator left project';</t>
+  </si>
+  <si>
+    <t>mssgs</t>
+  </si>
+  <si>
+    <t>bottleneck</t>
+  </si>
+  <si>
+    <t>datepicker bug fixed</t>
+  </si>
+  <si>
+    <t>facturasalud</t>
+  </si>
+  <si>
+    <t>validations</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>customer_id</t>
   </si>
 </sst>
 </file>
@@ -2772,7 +2873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2878,12 +2979,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4100,10 +4205,463 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>626016</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>575561</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Grupo 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3731166" y="4562475"/>
+          <a:ext cx="1492595" cy="409575"/>
+          <a:chOff x="3731166" y="4562475"/>
+          <a:chExt cx="1492595" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Imagen 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3731166" y="4562475"/>
+            <a:ext cx="392146" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4029075" y="4619625"/>
+            <a:ext cx="1194686" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100"/>
+              <a:t>Cleaning protocol</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>675034</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="Grupo 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="428624" y="4862601"/>
+          <a:ext cx="1789460" cy="547599"/>
+          <a:chOff x="428624" y="4862601"/>
+          <a:chExt cx="1789460" cy="547599"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="Imagen 34"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="428624" y="4862601"/>
+            <a:ext cx="518263" cy="547599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="CuadroTexto 35"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="895350" y="4953000"/>
+            <a:ext cx="1322734" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100"/>
+              <a:t>Neuroprogramming</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>724046</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1692323" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="724046" y="136071"/>
+          <a:ext cx="1692323" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AmCharts</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> builder V1</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Grupo 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8115300" y="171451"/>
+          <a:ext cx="238125" cy="257174"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4327,7 +4885,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5017,6 +5575,238 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>59870</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8382000" y="190500"/>
+          <a:ext cx="238125" cy="250370"/>
+          <a:chOff x="9210675" y="461392"/>
+          <a:chExt cx="914400" cy="995933"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="704850"/>
+            <a:ext cx="914400" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2633469">
+            <a:off x="9305959" y="461392"/>
+            <a:ext cx="701794" cy="697710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="981075"/>
+            <a:ext cx="257175" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2460032" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CuadroTexto 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="104775"/>
+          <a:ext cx="2460032" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cleaning protocol version 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5255,7 +6045,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5607,7 +6397,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5858,7 +6648,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -6109,7 +6899,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -6290,257 +7080,6 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="11" name="Rectángulo redondeado 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="981075"/>
-            <a:ext cx="257175" cy="476250"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1050"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>724046</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1692323" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="724046" y="136071"/>
-          <a:ext cx="1692323" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>AmCharts</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> builder V1</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Grupo 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8115300" y="171451"/>
-          <a:ext cx="238125" cy="257174"/>
-          <a:chOff x="9210675" y="461392"/>
-          <a:chExt cx="914400" cy="995933"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9210675" y="704850"/>
-            <a:ext cx="914400" cy="685800"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1050"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2633469">
-            <a:off x="9305959" y="461392"/>
-            <a:ext cx="701794" cy="697710"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1050"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6856,13 +7395,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="57"/>
     <col min="2" max="5" width="11.7109375" style="57" customWidth="1"/>
@@ -6881,104 +7418,98 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I8" s="57" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I9" s="58" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H11" s="89" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H12" s="89" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H13" s="89" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="H14" s="89" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="56"/>
       <c r="I15" s="57" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="56"/>
       <c r="H16" s="89" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="56"/>
       <c r="H17" s="89" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H18" s="89" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H19" s="89" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H20" s="89" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
-        <v>265</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" location="'Start project'!A1" display="Start a project"/>
-    <hyperlink ref="B28" location="'Test unit v1'!A1" display="Test unit"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6988,12 +7519,1012 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja8"/>
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="28" t="str">
+        <f>'view controllers'!D35</f>
+        <v>mssgs</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;G11&amp;A3&amp;" modal_"&amp;E12</f>
+        <v>php artisan generate:view --path="app/views/c4project" modal_a_transfercoordination</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>"modal_"&amp;E12</f>
+        <v>modal_a_transfercoordination</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="str">
+        <f>A1&amp;C15&amp;A2</f>
+        <v>&lt;div id='modal_a_transfercoordination' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="str">
+        <f>"                    &lt;h4&gt;"&amp;E14&amp;"&lt;/h4&gt;"</f>
+        <v xml:space="preserve">                    &lt;h4&gt;Project score&lt;/h4&gt;</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="18" t="str">
+        <f>"&lt;a href='#' id='openmodal_"&amp;C15&amp;"'&gt;"&amp;C15&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href='#' id='openmodal_modal_a_transfercoordination'&gt;modal_a_transfercoordination&lt;/a&gt;</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="18" t="str">
+        <f>"@include('"&amp;G11&amp;".modal_"&amp;E12&amp;"')"</f>
+        <v>@include('c4project.modal_a_transfercoordination')</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="18" t="str">
+        <f>"$('#openmodal_"&amp;C15&amp;"').click(function(e){"</f>
+        <v>$('#openmodal_modal_a_transfercoordination').click(function(e){</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="str">
+        <f>"    $('#"&amp;C15&amp;"').modal('show');"</f>
+        <v xml:space="preserve">    $('#modal_a_transfercoordination').modal('show');</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="B2:L44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>LEFT(C2,LEN(C2)-1)</f>
+        <v>prayer</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>UPPER(LEFT(E2,1))&amp;RIGHT(E2,LEN(E2)-1)</f>
+        <v>Prayer</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="2">
+        <v>11</v>
+      </c>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="2">
+        <v>12</v>
+      </c>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="2">
+        <v>13</v>
+      </c>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="2">
+        <v>14</v>
+      </c>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="2">
+        <v>15</v>
+      </c>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="E10" s="2">
+        <v>16</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="K10" s="2">
+        <v>16</v>
+      </c>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="E11" s="2">
+        <v>17</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="K11" s="2">
+        <v>17</v>
+      </c>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="E12" s="2">
+        <v>18</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="K12" s="2">
+        <v>18</v>
+      </c>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="E13" s="2">
+        <v>19</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="H13" s="2">
+        <v>9</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="K13" s="2">
+        <v>19</v>
+      </c>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="K14" s="2">
+        <v>20</v>
+      </c>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="str">
+        <f>"$data={"&amp;C5&amp;":"&amp;C5&amp;IF(C6&lt;&gt;"",","&amp;C6&amp;":"&amp;C6,"")&amp;IF(C7&lt;&gt;"",","&amp;C7&amp;":"&amp;C7,"")&amp;IF(C8&lt;&gt;"",","&amp;C8&amp;":"&amp;C8,"")&amp;IF(C9&lt;&gt;"",","&amp;C9&amp;":"&amp;C9,"")</f>
+        <v>$data={one:one,two:two,three:three,four:four,five:five</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="str">
+        <f>IF(C10&lt;&gt;"",","&amp;C10&amp;":"&amp;C10,"")&amp;IF(C11&lt;&gt;"",","&amp;C11&amp;":"&amp;C11,"")&amp;IF(C12&lt;&gt;"",","&amp;C12&amp;":"&amp;C12,"")&amp;IF(C13&lt;&gt;"",","&amp;C13&amp;":"&amp;C13,"")&amp;IF(C14&lt;&gt;"",","&amp;C14&amp;":"&amp;C14,"")</f>
+        <v/>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="str">
+        <f>IF(F5&lt;&gt;"",","&amp;F5&amp;":"&amp;F5,"")&amp;IF(F6&lt;&gt;"",","&amp;F6&amp;":"&amp;F6,"")&amp;IF(F7&lt;&gt;"",","&amp;F7&amp;":"&amp;F7,"")&amp;IF(F8&lt;&gt;"",","&amp;F8&amp;":"&amp;F8,"")&amp;IF(F9&lt;&gt;"",","&amp;F9&amp;":"&amp;F9,"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="str">
+        <f>IF(F10&lt;&gt;"",","&amp;F10&amp;":"&amp;F10,"")&amp;IF(F11&lt;&gt;"",","&amp;F11&amp;":"&amp;F11,"")&amp;IF(F12&lt;&gt;"",","&amp;F12&amp;":"&amp;F12,"")&amp;IF(F13&lt;&gt;"",","&amp;F13&amp;":"&amp;F13,"")&amp;IF(F14&lt;&gt;"",","&amp;F14&amp;":"&amp;F14,"")</f>
+        <v/>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="str">
+        <f>IF(C5&lt;&gt;"","$"&amp;I5&amp;" = $_POST['"&amp;C5&amp;"'];","")&amp;IF(C6&lt;&gt;"","$"&amp;I6&amp;" = $_POST['"&amp;C6&amp;"'];","")&amp;IF(C7&lt;&gt;"","$"&amp;I7&amp;" = $_POST['"&amp;C7&amp;"'];","")&amp;IF(C8&lt;&gt;"","$"&amp;I8&amp;" = $_POST['"&amp;C8&amp;"'];","")</f>
+        <v>$prayername = $_POST['one'];$prayercontent = $_POST['two'];$age = $_POST['three'];$saint = $_POST['four'];</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="str">
+        <f>IF(C9&lt;&gt;"","$"&amp;I9&amp;" = $_POST['"&amp;C9&amp;"'];","")&amp;IF(C10&lt;&gt;"","$"&amp;I10&amp;" = $_POST['"&amp;C10&amp;"'];","")&amp;IF(C11&lt;&gt;"","$"&amp;I11&amp;" = $_POST['"&amp;C11&amp;"'];","")&amp;IF(C12&lt;&gt;"","$"&amp;I12&amp;" = $_POST['"&amp;C12&amp;"'];","")</f>
+        <v>$comment = $_POST['five'];</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="str">
+        <f>IF(C13&lt;&gt;"","$"&amp;I13&amp;" = $_POST['"&amp;C13&amp;"'];","")&amp;IF(C14&lt;&gt;"","$"&amp;I14&amp;" = $_POST['"&amp;C14&amp;"'];","")</f>
+        <v/>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="str">
+        <f>IF(F5&lt;&gt;"","$"&amp;I5&amp;" = $_POST['"&amp;F5&amp;"'];","")&amp;IF(F6&lt;&gt;"","$"&amp;I6&amp;" = $_POST['"&amp;F6&amp;"'];","")&amp;IF(F7&lt;&gt;"","$"&amp;I7&amp;" = $_POST['"&amp;F7&amp;"'];","")&amp;IF(F8&lt;&gt;"","$"&amp;I8&amp;" = $_POST['"&amp;F8&amp;"'];","")</f>
+        <v/>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="str">
+        <f>IF(F9&lt;&gt;"","$"&amp;I9&amp;" = $_POST['"&amp;F9&amp;"'];","")&amp;IF(F10&lt;&gt;"","$"&amp;I10&amp;" = $_POST['"&amp;F10&amp;"'];","")&amp;IF(F11&lt;&gt;"","$"&amp;I11&amp;" = $_POST['"&amp;F11&amp;"'];","")&amp;IF(F12&lt;&gt;"","$"&amp;I12&amp;" = $_POST['"&amp;F12&amp;"'];","")</f>
+        <v/>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="str">
+        <f>IF(F13&lt;&gt;"","$"&amp;I13&amp;" = $_POST['"&amp;F13&amp;"'];","")&amp;IF(F14&lt;&gt;"","$"&amp;I14&amp;" = $_POST['"&amp;F14&amp;"'];","")</f>
+        <v/>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="str">
+        <f>IF(I5&lt;&gt;"","    "&amp;IF(I4&lt;&gt;"columns",",","")&amp;"'"&amp;I5&amp;"'  =&gt;  $"&amp;I5,"")&amp;IF(I6&lt;&gt;"",IF(I5&lt;&gt;"columns",",","")&amp;"'"&amp;I6&amp;"'  =&gt;  $"&amp;I6,"")&amp;IF(I7&lt;&gt;"",IF(I6&lt;&gt;"columns",",","")&amp;"'"&amp;I7&amp;"'  =&gt;  $"&amp;I7,"")&amp;IF(I8&lt;&gt;"",IF(I7&lt;&gt;"columns",",","")&amp;"'"&amp;I8&amp;"'  =&gt;  $"&amp;I8,"")</f>
+        <v xml:space="preserve">    'prayername'  =&gt;  $prayername,'prayercontent'  =&gt;  $prayercontent,'age'  =&gt;  $age,'saint'  =&gt;  $saint</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="str">
+        <f>IF(I9&lt;&gt;"","    "&amp;IF(I8&lt;&gt;"columns",",","")&amp;"'"&amp;I9&amp;"'  =&gt;  $"&amp;I9,"")&amp;IF(I10&lt;&gt;"",IF(I9&lt;&gt;"columns",",","")&amp;"'"&amp;I10&amp;"'  =&gt;  $"&amp;I10,"")&amp;IF(I11&lt;&gt;"","    "&amp;IF(I10&lt;&gt;"columns",",","")&amp;"'"&amp;I11&amp;"'  =&gt;  $"&amp;I11,"")&amp;IF(I12&lt;&gt;"",IF(I11&lt;&gt;"columns",",","")&amp;"'"&amp;I12&amp;"'  =&gt;  $"&amp;I12,"")</f>
+        <v xml:space="preserve">    ,'comment'  =&gt;  $comment</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="str">
+        <f>IF(I13&lt;&gt;"","    "&amp;IF(I12&lt;&gt;"columns",",","")&amp;"'"&amp;I13&amp;"'  =&gt;  $"&amp;I13,"")&amp;IF(I14&lt;&gt;"",IF(I13&lt;&gt;"columns",",","")&amp;"'"&amp;I14&amp;"'  =&gt;  $"&amp;I14,"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="str">
+        <f>IF(L5&lt;&gt;"","    "&amp;IF(I14&lt;&gt;"columns",",","")&amp;"'"&amp;L5&amp;"'  =&gt;  $"&amp;L5,"")&amp;IF(L6&lt;&gt;"",IF(L5&lt;&gt;"columns",",","")&amp;"'"&amp;L6&amp;"'  =&gt;  $"&amp;L6,"")&amp;IF(L7&lt;&gt;"",IF(L6&lt;&gt;"columns",",","")&amp;"'"&amp;L7&amp;"'  =&gt;  $"&amp;L7,"")&amp;IF(L8&lt;&gt;"",IF(L7&lt;&gt;"columns",",","")&amp;"'"&amp;L8&amp;"'  =&gt;  $"&amp;L8,"")</f>
+        <v/>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="str">
+        <f>IF(L9&lt;&gt;"","    "&amp;IF(L8&lt;&gt;"columns",",","")&amp;"'"&amp;L9&amp;"'  =&gt;  $"&amp;L9,"")&amp;IF(L10&lt;&gt;"",IF(L9&lt;&gt;"columns",",","")&amp;"'"&amp;L10&amp;"'  =&gt;  $"&amp;L10,"")&amp;IF(L11&lt;&gt;"",IF(L10&lt;&gt;"columns",",","")&amp;"'"&amp;L11&amp;"'  =&gt;  $"&amp;L11,"")&amp;IF(L12&lt;&gt;"",IF(L11&lt;&gt;"columns",",","")&amp;"'"&amp;L12&amp;"'  =&gt;  $"&amp;L12,"")</f>
+        <v/>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="str">
+        <f>IF(L13&lt;&gt;"","    "&amp;IF(L12&lt;&gt;"columns",",","")&amp;"'"&amp;L13&amp;"'  =&gt;  $"&amp;L13,"")&amp;IF(L14&lt;&gt;"",IF(L13&lt;&gt;"columns",",","")&amp;"'"&amp;L14&amp;"'  =&gt;  $"&amp;L14,"")</f>
+        <v/>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja10"/>
   <dimension ref="B1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -7037,7 +8568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja11"/>
   <dimension ref="B3:K39"/>
@@ -7046,7 +8577,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="11.42578125" style="2"/>
     <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -7237,16 +8768,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja12"/>
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -7344,15 +8875,15 @@
         <v>194</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>280</v>
+        <v>529</v>
       </c>
       <c r="H13" s="3" t="str">
         <f>E13&amp;"."&amp;G13</f>
-        <v>emails.reportofadopted</v>
+        <v>emails.leavingproject</v>
       </c>
       <c r="K13" s="33" t="str">
         <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
-        <v>C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
+        <v>C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7361,7 +8892,7 @@
       </c>
       <c r="C14" s="8" t="str">
         <f>"Copy-Item "&amp;K13&amp;"\app\views\templates\email2.blade.php "&amp;K13&amp;"\app\views\emails"</f>
-        <v>Copy-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3\app\views\templates\email2.blade.php C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3\app\views\emails</v>
+        <v>Copy-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud\app\views\templates\email2.blade.php C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud\app\views\emails</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -7375,7 +8906,7 @@
       </c>
       <c r="C15" s="8" t="str">
         <f>"Rename-Item "&amp;K13&amp;"\app\views\"&amp;E13&amp;"\email2.blade.php "&amp;G13&amp;".blade.php"</f>
-        <v>Rename-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3\app\views\emails\email2.blade.php reportofadopted.blade.php</v>
+        <v>Rename-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud\app\views\emails\email2.blade.php leavingproject.blade.php</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -7386,13 +8917,13 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="str">
         <f>"public function get"&amp;UPPER(LEFT(G13,1))&amp;RIGHT(G13,LEN(G13)-1)&amp;"() {"</f>
-        <v>public function getReportofadopted() {</v>
+        <v>public function getLeavingproject() {</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -7443,7 +8974,7 @@
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="str">
         <f>"    return View::make('"&amp;E13&amp;"."&amp;G13&amp;"');"</f>
-        <v xml:space="preserve">    return View::make('emails.reportofadopted');</v>
+        <v xml:space="preserve">    return View::make('emails.leavingproject');</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -7472,7 +9003,11 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>274</v>
+        <v>527</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f>"/emailtester/"&amp;G13</f>
+        <v>/emailtester/leavingproject</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25"/>
@@ -7495,59 +9030,59 @@
         <v>202</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="18" t="s">
-        <v>205</v>
+        <v>517</v>
       </c>
       <c r="H29" s="16"/>
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>275</v>
+        <v>516</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="17"/>
       <c r="F30" s="34" t="str">
         <f>IF(B30&lt;&gt;"",LEFT(B30,FIND("=",B30)-1),"")</f>
-        <v>$coll</v>
+        <v>$coordinator</v>
       </c>
       <c r="G30" s="18" t="str">
-        <f>IF(F30&lt;&gt;"",IF(G29="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F30,LEN(F30)-1)&amp;"'   =&gt;   "&amp;F30,"")</f>
-        <v>'coll'   =&gt;   $coll</v>
+        <f>IF(F30&lt;&gt;"",IF(G29="$mssgdata=compact(","",",")&amp;"'"&amp;RIGHT(F30,LEN(F30)-1)&amp;"'     ","")</f>
+        <v xml:space="preserve">'coordinator'     </v>
       </c>
       <c r="H30" s="16"/>
       <c r="J30" s="16" t="str">
         <f>IF(F30&lt;&gt;"","{{"&amp;F30&amp;"}}","")</f>
-        <v>{{$coll}}</v>
+        <v>{{$coordinator}}</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>276</v>
+        <v>530</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="17"/>
       <c r="F31" s="34" t="str">
         <f t="shared" ref="F31:F34" si="0">IF(B31&lt;&gt;"",LEFT(B31,FIND("=",B31)-1),"")</f>
-        <v>$pmanager</v>
+        <v>$user</v>
       </c>
       <c r="G31" s="18" t="str">
-        <f>IF(F31&lt;&gt;"",IF(G30="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F31,LEN(F31)-1)&amp;"'   =&gt;   "&amp;F31,"")</f>
-        <v>,'pmanager'   =&gt;   $pmanager</v>
+        <f>IF(F31&lt;&gt;"",IF(G30="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F31,LEN(F31)-1)&amp;"'  ","")</f>
+        <v xml:space="preserve">,'user'  </v>
       </c>
       <c r="H31" s="16"/>
       <c r="J31" s="16" t="str">
         <f t="shared" ref="J31:J34" si="1">IF(F31&lt;&gt;"","{{"&amp;F31&amp;"}}","")</f>
-        <v>{{$pmanager}}</v>
+        <v>{{$user}}</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="17"/>
@@ -7556,8 +9091,8 @@
         <v>$project</v>
       </c>
       <c r="G32" s="18" t="str">
-        <f t="shared" ref="G32:G34" si="2">IF(F32&lt;&gt;"",IF(G31="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F32,LEN(F32)-1)&amp;"'   =&gt;   "&amp;F32,"")</f>
-        <v>,'project'   =&gt;   $project</v>
+        <f>IF(F32&lt;&gt;"",IF(G31="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F32,LEN(F32)-1)&amp;"'   ","")</f>
+        <v xml:space="preserve">,'project'   </v>
       </c>
       <c r="H32" s="16"/>
       <c r="J32" s="16" t="str">
@@ -7566,23 +9101,21 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
-        <v>281</v>
-      </c>
+      <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="17"/>
       <c r="F33" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>$list</v>
+        <v/>
       </c>
       <c r="G33" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>,'list'   =&gt;   $list</v>
+        <f>IF(F33&lt;&gt;"",IF(G32="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F33,LEN(F33)-1)&amp;"'     ","")</f>
+        <v/>
       </c>
       <c r="H33" s="16"/>
       <c r="J33" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>{{$list}}</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -7594,7 +9127,7 @@
         <v/>
       </c>
       <c r="G34" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F34&lt;&gt;"",IF(G33="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F34,LEN(F34)-1)&amp;"'     ","")</f>
         <v/>
       </c>
       <c r="H34" s="16"/>
@@ -7613,32 +9146,32 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G38" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>275</v>
+        <v>528</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="17"/>
       <c r="F39" s="34" t="str">
         <f>IF(B39&lt;&gt;"",LEFT(B39,FIND("=",B39)-1),"")</f>
-        <v>$coll</v>
+        <v>$email</v>
       </c>
       <c r="G39" s="18" t="str">
         <f>"    'recipient'    =&gt;    "&amp;F39</f>
-        <v xml:space="preserve">    'recipient'    =&gt;    $coll</v>
+        <v xml:space="preserve">    'recipient'    =&gt;    $email</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
@@ -7648,37 +9181,37 @@
         <v>97</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>275</v>
+        <v>528</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="17"/>
       <c r="F40" s="34" t="str">
-        <f t="shared" ref="F40:F43" si="3">IF(B40&lt;&gt;"",LEFT(B40,FIND("=",B40)-1),"")</f>
-        <v>$coll</v>
+        <f t="shared" ref="F40:F43" si="2">IF(B40&lt;&gt;"",LEFT(B40,FIND("=",B40)-1),"")</f>
+        <v>$email</v>
       </c>
       <c r="G40" s="18" t="str">
         <f>"   , 'r_name'    =&gt;    "&amp;F40</f>
-        <v xml:space="preserve">   , 'r_name'    =&gt;    $coll</v>
+        <v xml:space="preserve">   , 'r_name'    =&gt;    $email</v>
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>276</v>
+        <v>531</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="17"/>
       <c r="F41" s="35" t="str">
         <f>IF(B41&lt;&gt;"",LEFT(B41,FIND("=",B41)-1),"'support@healmydisease.com'")</f>
-        <v>$pmanager</v>
+        <v>$taskingeasy</v>
       </c>
       <c r="G41" s="18" t="str">
         <f>"   , 'sender'    =&gt;    "&amp;F41</f>
-        <v xml:space="preserve">   , 'sender'    =&gt;    $pmanager</v>
+        <v xml:space="preserve">   , 'sender'    =&gt;    $taskingeasy</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
@@ -7688,32 +9221,32 @@
         <v>97</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>276</v>
+        <v>516</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="17"/>
       <c r="F42" s="35" t="str">
         <f>IF(B42&lt;&gt;"",LEFT(B42,FIND("=",B42)-1),"'The HMD team'")</f>
-        <v>$pmanager</v>
+        <v>$coordinator</v>
       </c>
       <c r="G42" s="18" t="str">
         <f>"   , 's_name'    =&gt;    "&amp;F42</f>
-        <v xml:space="preserve">   , 's_name'    =&gt;    $pmanager</v>
+        <v xml:space="preserve">   , 's_name'    =&gt;    $coordinator</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>279</v>
+        <v>532</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="17"/>
       <c r="F43" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>$subject</v>
       </c>
       <c r="G43" s="18" t="str">
@@ -7740,7 +9273,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C48" s="25" t="str">
         <f>"Mail::send(   '"&amp;H13&amp;"',   $mssgdata,  function($message) use ($maildata) {"</f>
-        <v>Mail::send(   'emails.reportofadopted',   $mssgdata,  function($message) use ($maildata) {</v>
+        <v>Mail::send(   'emails.leavingproject',   $mssgdata,  function($message) use ($maildata) {</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -7751,7 +9284,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C49" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -7762,7 +9295,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C50" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="25"/>
@@ -7773,7 +9306,7 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C51" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="25"/>
@@ -7796,7 +9329,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -7822,31 +9355,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja13"/>
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView topLeftCell="E2" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G6" s="36" t="s">
         <v>52</v>
       </c>
@@ -7854,37 +9392,37 @@
       <c r="I6" s="37"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
       <c r="J7" s="41"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>474</v>
-      </c>
-      <c r="D11" s="94"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="91"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
         <v>34</v>
       </c>
@@ -7895,49 +9433,49 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F17" s="53" t="str">
         <f>C11</f>
         <v>saferhealth</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="42" t="s">
         <v>34</v>
       </c>
@@ -7951,12 +9489,12 @@
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
@@ -7964,12 +9502,12 @@
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -7977,10 +9515,10 @@
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
@@ -7988,450 +9526,470 @@
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="54" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="93" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="52" t="str">
+        <f>"cd "&amp;L5&amp;"github\"&amp;'Start project'!C13</f>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="E27" s="94" t="s">
-        <v>503</v>
-      </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="G28" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
-      <c r="G29" s="28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="52" t="str">
-        <f>"git commit -m "&amp;A1&amp;E27&amp;A1</f>
-        <v>git commit -m "layout update"</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="G30" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="91" t="s">
+        <v>535</v>
+      </c>
+      <c r="F31" s="91"/>
+      <c r="G31" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="42"/>
+      <c r="G32" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="42" t="s">
+        <v>34</v>
+      </c>
       <c r="C33" s="52" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="42" t="s">
+      <c r="G33" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
+      <c r="C34" s="52" t="str">
+        <f>"git commit -m "&amp;A1&amp;E31&amp;A1</f>
+        <v>git commit -m "datepicker bug fixed"</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="G34" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C35" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="42"/>
+      <c r="C37" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="42" t="s">
+        <v>34</v>
+      </c>
       <c r="C42" s="52" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
-      <c r="C43" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="42"/>
+      <c r="C46" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="42"/>
+      <c r="C47" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="K51" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="K47" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
+      <c r="K52" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L52" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="K48" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" s="44" t="s">
+      <c r="K53" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="K49" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="42" t="s">
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C55" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="42" t="s">
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="46" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="46" t="s">
+      <c r="C60" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="50" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="50" t="s">
+      <c r="C62" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="D62" s="47"/>
+      <c r="E62" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="16" t="s">
+      <c r="D63" s="47"/>
+      <c r="E63" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="16" t="s">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="50"/>
+      <c r="C64" s="50" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="50"/>
-      <c r="C60" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="54" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C64" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="D64" s="94"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="52" t="str">
-        <f>"git branch "&amp;C64</f>
-        <v>git branch two</v>
-      </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="52" t="str">
-        <f>"git checkout "&amp;C64</f>
-        <v>git checkout two</v>
-      </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="54" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="91"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="52" t="str">
+        <f>"git branch "&amp;C68</f>
+        <v>git branch two</v>
+      </c>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="52" t="str">
+        <f>"git checkout "&amp;C68</f>
+        <v>git checkout two</v>
+      </c>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="16" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="E70" s="94" t="s">
+      <c r="E74" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="91"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="F70" s="94"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="42" t="s">
+      <c r="G76" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="42" t="s">
+      <c r="C77" s="52" t="str">
+        <f>"git commit -m "&amp;$A$1&amp;E74&amp;$A$1</f>
+        <v>git commit -m "fixing request bug"</v>
+      </c>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="52" t="str">
-        <f>"git commit -m "&amp;$A$1&amp;E70&amp;$A$1</f>
-        <v>git commit -m "fixing request bug"</v>
-      </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="52" t="str">
-        <f>"git push origin "&amp;C64</f>
+      <c r="C78" s="52" t="str">
+        <f>"git push origin "&amp;C68</f>
         <v>git push origin two</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="52" t="str">
-        <f>"git pull origin "&amp;C64</f>
-        <v>git pull origin two</v>
-      </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C80" s="52" t="str">
-        <f>"git merge "&amp;C64</f>
-        <v>git merge two</v>
+        <f>"git pull origin "&amp;C68</f>
+        <v>git pull origin two</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="42"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="42" t="s">
+      <c r="F80" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="16" t="s">
-        <v>263</v>
-      </c>
+      <c r="C83" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="52" t="str">
+        <f>"git merge "&amp;C68</f>
+        <v>git merge two</v>
+      </c>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="43" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="44" t="str">
-        <f>"git branch -d "&amp;C64</f>
+      <c r="C89" s="44" t="str">
+        <f>"git branch -d "&amp;C68</f>
         <v>git branch -d two</v>
       </c>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="43" t="s">
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="44" t="str">
-        <f>"git push origin --delete "&amp;C64</f>
+      <c r="C90" s="44" t="str">
+        <f>"git push origin --delete "&amp;C68</f>
         <v>git push origin --delete two</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8444,10 +10002,10 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+      <selection activeCell="C15" sqref="C15:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -8524,10 +10082,10 @@
         <v>52</v>
       </c>
       <c r="G8" s="90" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8554,7 +10112,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -8586,7 +10144,7 @@
       </c>
       <c r="C16" s="8" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir t3</v>
+        <v>mkdir facturasalud</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="8"/>
@@ -8599,7 +10157,7 @@
       </c>
       <c r="C17" s="8" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd t3</v>
+        <v>cd facturasalud</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -8648,7 +10206,7 @@
       </c>
       <c r="C24" s="8" t="str">
         <f>"cd "&amp;H8&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -8699,12 +10257,12 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
@@ -8799,13 +10357,13 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C22"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -8884,10 +10442,10 @@
         <v>52</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8916,7 +10474,7 @@
       </c>
       <c r="C16" s="28" t="str">
         <f>'Start project'!C13</f>
-        <v>t3</v>
+        <v>facturasalud</v>
       </c>
       <c r="D16" s="13"/>
     </row>
@@ -8942,7 +10500,7 @@
       </c>
       <c r="C20" s="8" t="str">
         <f>"cd "&amp;H10&amp;C17&amp;"\"&amp;C16</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -8985,7 +10543,7 @@
       </c>
       <c r="C25" s="8" t="str">
         <f>"cd "&amp;H10&amp;C17&amp;"\"&amp;C16</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -9036,7 +10594,7 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="1" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>112</v>
@@ -9046,7 +10604,7 @@
       </c>
       <c r="H35" s="23" t="str">
         <f>D35</f>
-        <v>c2_center</v>
+        <v>mssgs</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -9055,11 +10613,11 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E36" s="10" t="str">
         <f>E35&amp;D35&amp;"/"</f>
-        <v>app/views/c2_center/</v>
+        <v>app/views/mssgs/</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>116</v>
@@ -9075,7 +10633,7 @@
       </c>
       <c r="C37" s="8" t="str">
         <f>"mkdir "&amp;E35&amp;D35</f>
-        <v>mkdir app/views/c2_center</v>
+        <v>mkdir app/views/mssgs</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -9089,7 +10647,7 @@
       </c>
       <c r="C38" s="8" t="str">
         <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D35&amp;B3&amp;" "&amp;D36</f>
-        <v>php artisan generate:view --path="app/views/c2_center" a_base</v>
+        <v>php artisan generate:view --path="app/views/mssgs" a_base</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -9097,7 +10655,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="3" t="str">
         <f>UPPER(LEFT(D35,1))&amp;RIGHT(D35,LEN(D35)-1)&amp;"Controller"</f>
-        <v>C2_centerController</v>
+        <v>MssgsController</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -9106,7 +10664,7 @@
       </c>
       <c r="C39" s="8" t="str">
         <f>A4&amp;B5&amp;H38</f>
-        <v>php artisan generate:controller C2_centerController</v>
+        <v>php artisan generate:controller MssgsController</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -9123,7 +10681,7 @@
       </c>
       <c r="C41" s="10" t="str">
         <f>E36&amp;H36</f>
-        <v>app/views/c2_center/a_base.blade.php</v>
+        <v>app/views/mssgs/a_base.blade.php</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="2" t="s">
@@ -9198,7 +10756,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C49" s="25" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -9208,7 +10766,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="13" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -9218,7 +10776,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="18" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -9236,7 +10794,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" s="18" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -9264,7 +10822,7 @@
       </c>
       <c r="D56" s="2" t="str">
         <f>" app/Controllers/"&amp;H38&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/C2_centerController.php</v>
+        <v xml:space="preserve"> app/Controllers/MssgsController.php</v>
       </c>
       <c r="G56" s="3" t="str">
         <f>UPPER(LEFT(D36,1))&amp;RIGHT(D36,LEN(D36)-1)</f>
@@ -9288,7 +10846,7 @@
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C58" s="18" t="str">
         <f>"    return View::make('"&amp;D35&amp;IF(D35&lt;&gt;"",".","")&amp;D36&amp;"'"&amp;")"</f>
-        <v xml:space="preserve">    return View::make('c2_center.a_base')</v>
+        <v xml:space="preserve">    return View::make('mssgs.a_base')</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -9331,7 +10889,7 @@
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63" s="18" t="str">
         <f>B6&amp;D35&amp;C1&amp;H38&amp;C2</f>
-        <v>Route::controller('c2_center','C2_centerController');</v>
+        <v>Route::controller('mssgs','MssgsController');</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -9344,11 +10902,11 @@
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B65" s="93" t="s">
+      <c r="B65" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25"/>
@@ -9413,17 +10971,154 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -9499,10 +11194,10 @@
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G10" s="90" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -9536,7 +11231,7 @@
       </c>
       <c r="C17" s="28" t="str">
         <f>'Start project'!C13</f>
-        <v>t3</v>
+        <v>facturasalud</v>
       </c>
       <c r="D17" s="13"/>
     </row>
@@ -9562,7 +11257,7 @@
       </c>
       <c r="C21" s="8" t="str">
         <f>"cd "&amp;H10&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -9605,7 +11300,7 @@
       </c>
       <c r="C26" s="8" t="str">
         <f>"cd "&amp;H10&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\t3</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -9643,8 +11338,8 @@
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>298</v>
+      <c r="C34" s="92" t="s">
+        <v>290</v>
       </c>
       <c r="D34" s="1"/>
       <c r="F34" s="18" t="str">
@@ -9661,8 +11356,8 @@
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>267</v>
+      <c r="C35" s="92" t="s">
+        <v>265</v>
       </c>
       <c r="D35" s="1"/>
       <c r="F35" s="18" t="str">
@@ -9682,7 +11377,7 @@
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="1"/>
       <c r="F36" s="18" t="str">
         <f>"   'password'  =&gt; '"&amp;C36&amp;"',"</f>
@@ -9695,7 +11390,7 @@
       <c r="K36" s="13"/>
       <c r="M36" s="3" t="str">
         <f>IF(SUM(J41:K50)&gt;0,B2&amp;P50&amp;Q50&amp;B3,"")</f>
-        <v>--fields="name:string,amount:integer,description:string"</v>
+        <v>--fields="year:string, from:date, to:date, customer_id:integer"</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25"/>
@@ -9708,16 +11403,16 @@
       <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>1</v>
+      <c r="D39" s="92" t="s">
+        <v>537</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>LEFT(D39,LEN(D39)-1)</f>
-        <v>prayer</v>
+        <v>validation</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>UPPER(LEFT(F39,1))&amp;RIGHT(F39,LEN(F39)-1)</f>
-        <v>Prayer</v>
+        <v>Validation</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
@@ -9751,17 +11446,17 @@
       <c r="B41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="92" t="s">
+        <v>538</v>
+      </c>
+      <c r="D41" s="92" t="s">
         <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
       <c r="J41" s="3">
         <f>IF(C41="",0,1)</f>
         <v>1</v>
@@ -9774,16 +11469,16 @@
         <v>40</v>
       </c>
       <c r="N41" s="22" t="str">
-        <f>IF(AND(C41&lt;&gt;"",D41&lt;&gt;""),IF(N40="concatenator1","",",")&amp;C41&amp;":"&amp;D41,"")</f>
-        <v>name:string</v>
+        <f>IF(AND(C41&lt;&gt;"",D41&lt;&gt;""),IF(N40="concatenator1","",", ")&amp;C41&amp;":"&amp;D41,"")</f>
+        <v>year:string</v>
       </c>
       <c r="O41" s="22" t="str">
-        <f>IF(AND(G41&lt;&gt;"",H41&lt;&gt;""),","&amp;G41&amp;":"&amp;H41,"")</f>
+        <f>IF(AND(G41&lt;&gt;"",H41&lt;&gt;""),", "&amp;G41&amp;":"&amp;H41,"")</f>
         <v/>
       </c>
       <c r="P41" s="22" t="str">
         <f>P40&amp;N41</f>
-        <v>name:string</v>
+        <v>year:string</v>
       </c>
       <c r="Q41" s="22" t="str">
         <f>Q40&amp;O41</f>
@@ -9797,17 +11492,17 @@
       <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>40</v>
+      <c r="C42" s="92" t="s">
+        <v>539</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
       <c r="J42" s="3">
         <f t="shared" ref="J42:J50" si="0">IF(C42="",0,1)</f>
         <v>1</v>
@@ -9820,19 +11515,19 @@
         <v>41</v>
       </c>
       <c r="N42" s="22" t="str">
-        <f t="shared" ref="N42:N50" si="2">IF(AND(C42&lt;&gt;"",D42&lt;&gt;""),IF(N41="concatenator1","",",")&amp;C42&amp;":"&amp;D42,"")</f>
-        <v>,amount:integer</v>
+        <f>IF(AND(C42&lt;&gt;"",D42&lt;&gt;""),IF(N41="concatenator1","",", ")&amp;C42&amp;":"&amp;D42,"")</f>
+        <v>, from:date</v>
       </c>
       <c r="O42" s="22" t="str">
-        <f t="shared" ref="O42:O50" si="3">IF(AND(G42&lt;&gt;"",H42&lt;&gt;""),","&amp;G42&amp;":"&amp;H42,"")</f>
+        <f t="shared" ref="O42:O50" si="2">IF(AND(G42&lt;&gt;"",H42&lt;&gt;""),", "&amp;G42&amp;":"&amp;H42,"")</f>
         <v/>
       </c>
       <c r="P42" s="22" t="str">
-        <f t="shared" ref="P42:Q50" si="4">P41&amp;N42</f>
-        <v>name:string,amount:integer</v>
+        <f t="shared" ref="P42:Q50" si="3">P41&amp;N42</f>
+        <v>year:string, from:date</v>
       </c>
       <c r="Q42" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S42" s="22" t="s">
@@ -9843,17 +11538,17 @@
       <c r="B43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>41</v>
+      <c r="C43" s="92" t="s">
+        <v>540</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
       <c r="J43" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9866,19 +11561,19 @@
         <v>42</v>
       </c>
       <c r="N43" s="22" t="str">
+        <f t="shared" ref="N43:N50" si="4">IF(AND(C43&lt;&gt;"",D43&lt;&gt;""),IF(N42="concatenator1","",", ")&amp;C43&amp;":"&amp;D43,"")</f>
+        <v>, to:date</v>
+      </c>
+      <c r="O43" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>,description:string</v>
-      </c>
-      <c r="O43" s="22" t="str">
+        <v/>
+      </c>
+      <c r="P43" s="22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P43" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>name:string,amount:integer,description:string</v>
+        <v>year:string, from:date, to:date</v>
       </c>
       <c r="Q43" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -9886,16 +11581,20 @@
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="92" t="s">
+        <v>541</v>
+      </c>
+      <c r="D44" s="92" t="s">
+        <v>40</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
       <c r="J44" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="1"/>
@@ -9905,19 +11604,19 @@
         <v>43</v>
       </c>
       <c r="N44" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>, customer_id:integer</v>
+      </c>
+      <c r="O44" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O44" s="22" t="str">
+      <c r="P44" s="22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P44" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>name:string,amount:integer,description:string</v>
+        <v>year:string, from:date, to:date, customer_id:integer</v>
       </c>
       <c r="Q44" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -9925,13 +11624,13 @@
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
       <c r="F45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
       <c r="J45" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9944,19 +11643,19 @@
         <v>134</v>
       </c>
       <c r="N45" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O45" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O45" s="22" t="str">
+      <c r="P45" s="22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P45" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>name:string,amount:integer,description:string</v>
+        <v>year:string, from:date, to:date, customer_id:integer</v>
       </c>
       <c r="Q45" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -9964,13 +11663,13 @@
       <c r="B46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
       <c r="F46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
       <c r="J46" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9983,19 +11682,19 @@
         <v>135</v>
       </c>
       <c r="N46" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O46" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O46" s="22" t="str">
+      <c r="P46" s="22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P46" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>name:string,amount:integer,description:string</v>
+        <v>year:string, from:date, to:date, customer_id:integer</v>
       </c>
       <c r="Q46" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -10003,13 +11702,13 @@
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
       <c r="F47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
       <c r="J47" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10022,19 +11721,19 @@
         <v>137</v>
       </c>
       <c r="N47" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O47" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O47" s="22" t="str">
+      <c r="P47" s="22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P47" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>name:string,amount:integer,description:string</v>
+        <v>year:string, from:date, to:date, customer_id:integer</v>
       </c>
       <c r="Q47" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -10042,13 +11741,13 @@
       <c r="B48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
       <c r="F48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
       <c r="J48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10061,19 +11760,19 @@
         <v>138</v>
       </c>
       <c r="N48" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O48" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O48" s="22" t="str">
+      <c r="P48" s="22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P48" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>name:string,amount:integer,description:string</v>
+        <v>year:string, from:date, to:date, customer_id:integer</v>
       </c>
       <c r="Q48" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -10081,13 +11780,13 @@
       <c r="B49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
       <c r="F49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
       <c r="J49" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10100,19 +11799,19 @@
         <v>44</v>
       </c>
       <c r="N49" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O49" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O49" s="22" t="str">
+      <c r="P49" s="22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P49" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>name:string,amount:integer,description:string</v>
+        <v>year:string, from:date, to:date, customer_id:integer</v>
       </c>
       <c r="Q49" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -10120,13 +11819,13 @@
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
       <c r="F50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
       <c r="J50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10139,19 +11838,19 @@
         <v>45</v>
       </c>
       <c r="N50" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O50" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O50" s="22" t="str">
+      <c r="P50" s="22" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P50" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>name:string,amount:integer,description:string</v>
+        <v>year:string, from:date, to:date, customer_id:integer</v>
       </c>
       <c r="Q50" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -10168,7 +11867,7 @@
       </c>
       <c r="C54" s="8" t="str">
         <f>A4&amp;A5&amp;A6&amp;D39&amp;B1&amp;M36</f>
-        <v>php artisan generate:migration create_prayers_table --fields="name:string,amount:integer,description:string"</v>
+        <v>php artisan generate:migration create_validations_table --fields="year:string, from:date, to:date, customer_id:integer"</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -10193,7 +11892,7 @@
       </c>
       <c r="C56" s="8" t="str">
         <f>A4&amp;B4&amp;G39</f>
-        <v>php artisan generate:model Prayer</v>
+        <v>php artisan generate:model Validation</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -10202,12 +11901,12 @@
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J57" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J58" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -10222,23 +11921,23 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="str">
         <f>D39</f>
-        <v>prayers</v>
+        <v>validations</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>470</v>
+      <c r="D61" s="92" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>40</v>
+      <c r="D62" s="92" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
@@ -10247,7 +11946,7 @@
       </c>
       <c r="C63" s="8" t="str">
         <f>C3&amp;D61&amp;C4&amp;D60&amp;C5&amp;C6&amp;D61&amp;":"&amp;D62&amp;C6</f>
-        <v>php artisan generate:migration add_a07kWusage_to_prayers_table --fields="a07kWusage:integer"</v>
+        <v>php artisan generate:migration add_bottleneck_to_validations_table --fields="bottleneck:tinyinteger"</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -10290,15 +11989,15 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C73" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" s="91" t="s">
         <v>61</v>
       </c>
       <c r="D73" s="17"/>
@@ -10309,10 +12008,10 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>299</v>
+        <v>287</v>
+      </c>
+      <c r="C74" s="91" t="s">
+        <v>291</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="3" t="str">
@@ -10323,7 +12022,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
@@ -10413,7 +12112,7 @@
     <row r="83" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25"/>
@@ -10457,17 +12156,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:AS257"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="11.42578125" style="2"/>
     <col min="12" max="12" width="12.140625" style="2" customWidth="1"/>
@@ -10492,67 +12191,67 @@
     <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="X13" s="78"/>
       <c r="AF13" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -10561,10 +12260,10 @@
       </c>
       <c r="B14" s="68" t="str">
         <f>IF(AND('tables and models'!C41&lt;&gt;"",'tables and models'!D41&lt;&gt;""),'tables and models'!C41,"")</f>
-        <v>name</v>
+        <v>year</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D14" s="73" t="str">
         <f>C14</f>
@@ -10589,7 +12288,7 @@
       </c>
       <c r="M14" s="69" t="str">
         <f>IF(B14&lt;&gt;"",L14&amp;"array('"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"')","")</f>
-        <v>array('name','pray','pray','1')</v>
+        <v>array('year','pray','pray','1')</v>
       </c>
       <c r="N14" s="70" t="str">
         <f>IF(AND(N13&lt;&gt;"comma",H14&lt;&gt;""),",","")</f>
@@ -10601,7 +12300,7 @@
       </c>
       <c r="P14" s="75" t="str">
         <f>IF(B14&lt;&gt;"","var "&amp;B14&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;B14&amp;"').val();","")</f>
-        <v>var name=$('#input_prayer_name').val();</v>
+        <v>var year=$('#input_validation_year').val();</v>
       </c>
       <c r="V14" s="75" t="str">
         <f>IF(H14&lt;&gt;"","var "&amp;H14&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;H14&amp;"').val();","")</f>
@@ -10613,11 +12312,11 @@
       </c>
       <c r="X14" s="77" t="str">
         <f>IF(B14&lt;&gt;"",B14&amp;":"&amp;B14,"")</f>
-        <v>name:name</v>
+        <v>year:year</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f>Y13&amp;W14&amp;X14</f>
-        <v>name:name</v>
+        <v>year:year</v>
       </c>
       <c r="AC14" s="79" t="str">
         <f>IF(AD14&lt;&gt;"",",","")</f>
@@ -10633,7 +12332,7 @@
       </c>
       <c r="AF14" s="76" t="str">
         <f>IF(B14&lt;&gt;"","$_POST['"&amp;B14&amp;"']","")</f>
-        <v>$_POST['name']</v>
+        <v>$_POST['year']</v>
       </c>
       <c r="AL14" s="76" t="str">
         <f>IF(H14&lt;&gt;"","$_POST['"&amp;H14&amp;"']","")</f>
@@ -10641,7 +12340,7 @@
       </c>
       <c r="AM14" s="82" t="str">
         <f>IF(B14&lt;&gt;"","$insert-&gt;"&amp;B14&amp;"="&amp;AF14&amp;";","")</f>
-        <v>$insert-&gt;name=$_POST['name'];</v>
+        <v>$insert-&gt;year=$_POST['year'];</v>
       </c>
       <c r="AS14" s="82" t="str">
         <f>IF(H14&lt;&gt;"","$insert-&gt;"&amp;H14&amp;"="&amp;AL14&amp;";","")</f>
@@ -10654,10 +12353,10 @@
       </c>
       <c r="B15" s="68" t="str">
         <f>IF(AND('tables and models'!C42&lt;&gt;"",'tables and models'!D42&lt;&gt;""),'tables and models'!C42,"")</f>
-        <v>amount</v>
+        <v>from</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D15" s="73" t="str">
         <f>C15</f>
@@ -10682,7 +12381,7 @@
       </c>
       <c r="M15" s="69" t="str">
         <f t="shared" ref="M15:M23" si="2">IF(B15&lt;&gt;"",L15&amp;"array('"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"')","")</f>
-        <v>,array('amount','number','number','2')</v>
+        <v>,array('from','number','number','2')</v>
       </c>
       <c r="N15" s="70" t="str">
         <f t="shared" ref="N15:N23" si="3">IF(AND(N14&lt;&gt;"comma",H15&lt;&gt;""),",","")</f>
@@ -10694,7 +12393,7 @@
       </c>
       <c r="P15" s="75" t="str">
         <f>IF(B15&lt;&gt;"","var "&amp;B15&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;B15&amp;"').val();","")</f>
-        <v>var amount=$('#input_prayer_amount').val();</v>
+        <v>var from=$('#input_validation_from').val();</v>
       </c>
       <c r="V15" s="75" t="str">
         <f>IF(H15&lt;&gt;"","var "&amp;H15&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;H15&amp;"').val();","")</f>
@@ -10706,11 +12405,11 @@
       </c>
       <c r="X15" s="77" t="str">
         <f t="shared" ref="X15:X23" si="6">IF(B15&lt;&gt;"",B15&amp;":"&amp;B15,"")</f>
-        <v>amount:amount</v>
+        <v>from:from</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" ref="Y15:Y23" si="7">Y14&amp;W15&amp;X15</f>
-        <v>name:name,amount:amount</v>
+        <v>year:year,from:from</v>
       </c>
       <c r="AC15" s="79" t="str">
         <f t="shared" ref="AC15:AC23" si="8">IF(AD15&lt;&gt;"",",","")</f>
@@ -10726,7 +12425,7 @@
       </c>
       <c r="AF15" s="76" t="str">
         <f t="shared" ref="AF15:AF23" si="10">IF(B15&lt;&gt;"","$_POST['"&amp;B15&amp;"']","")</f>
-        <v>$_POST['amount']</v>
+        <v>$_POST['from']</v>
       </c>
       <c r="AL15" s="76" t="str">
         <f t="shared" ref="AL15:AL23" si="11">IF(H15&lt;&gt;"","$_POST['"&amp;H15&amp;"']","")</f>
@@ -10734,7 +12433,7 @@
       </c>
       <c r="AM15" s="82" t="str">
         <f t="shared" ref="AM15:AM23" si="12">IF(B15&lt;&gt;"","$insert-&gt;"&amp;B15&amp;"="&amp;AF15&amp;";","")</f>
-        <v>$insert-&gt;amount=$_POST['amount'];</v>
+        <v>$insert-&gt;from=$_POST['from'];</v>
       </c>
       <c r="AS15" s="82" t="str">
         <f t="shared" ref="AS15:AS23" si="13">IF(H15&lt;&gt;"","$insert-&gt;"&amp;H15&amp;"="&amp;AL15&amp;";","")</f>
@@ -10747,10 +12446,10 @@
       </c>
       <c r="B16" s="68" t="str">
         <f>IF(AND('tables and models'!C43&lt;&gt;"",'tables and models'!D43&lt;&gt;""),'tables and models'!C43,"")</f>
-        <v>description</v>
+        <v>to</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D16" s="73" t="str">
         <f>C16</f>
@@ -10775,7 +12474,7 @@
       </c>
       <c r="M16" s="69" t="str">
         <f t="shared" si="2"/>
-        <v>,array('description','answer','answer','1')</v>
+        <v>,array('to','answer','answer','1')</v>
       </c>
       <c r="N16" s="70" t="str">
         <f t="shared" si="3"/>
@@ -10787,7 +12486,7 @@
       </c>
       <c r="P16" s="75" t="str">
         <f>IF(B16&lt;&gt;"","var "&amp;B16&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;B16&amp;"').val();","")</f>
-        <v>var description=$('#input_prayer_description').val();</v>
+        <v>var to=$('#input_validation_to').val();</v>
       </c>
       <c r="V16" s="75" t="str">
         <f>IF(H16&lt;&gt;"","var "&amp;H16&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;H16&amp;"').val();","")</f>
@@ -10799,11 +12498,11 @@
       </c>
       <c r="X16" s="77" t="str">
         <f t="shared" si="6"/>
-        <v>description:description</v>
+        <v>to:to</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="AC16" s="79" t="str">
         <f t="shared" si="8"/>
@@ -10819,7 +12518,7 @@
       </c>
       <c r="AF16" s="76" t="str">
         <f t="shared" si="10"/>
-        <v>$_POST['description']</v>
+        <v>$_POST['to']</v>
       </c>
       <c r="AL16" s="76" t="str">
         <f t="shared" si="11"/>
@@ -10827,7 +12526,7 @@
       </c>
       <c r="AM16" s="82" t="str">
         <f t="shared" si="12"/>
-        <v>$insert-&gt;description=$_POST['description'];</v>
+        <v>$insert-&gt;to=$_POST['to'];</v>
       </c>
       <c r="AS16" s="82" t="str">
         <f t="shared" si="13"/>
@@ -10840,7 +12539,7 @@
       </c>
       <c r="B17" s="68" t="str">
         <f>IF(AND('tables and models'!C44&lt;&gt;"",'tables and models'!D44&lt;&gt;""),'tables and models'!C44,"")</f>
-        <v/>
+        <v>customer_id</v>
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
@@ -10857,11 +12556,11 @@
       <c r="K17" s="73"/>
       <c r="L17" s="70" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>,</v>
       </c>
       <c r="M17" s="69" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>,array('customer_id','','','')</v>
       </c>
       <c r="N17" s="70" t="str">
         <f t="shared" si="3"/>
@@ -10873,7 +12572,7 @@
       </c>
       <c r="P17" s="75" t="str">
         <f>IF(B17&lt;&gt;"","var "&amp;B17&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;B17&amp;"').val();","")</f>
-        <v/>
+        <v>var customer_id=$('#input_validation_customer_id').val();</v>
       </c>
       <c r="V17" s="75" t="str">
         <f>IF(H17&lt;&gt;"","var "&amp;H17&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;H17&amp;"').val();","")</f>
@@ -10881,15 +12580,15 @@
       </c>
       <c r="W17" s="80" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>,</v>
       </c>
       <c r="X17" s="77" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>customer_id:customer_id</v>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to,customer_id:customer_id</v>
       </c>
       <c r="AC17" s="79" t="str">
         <f t="shared" si="8"/>
@@ -10905,7 +12604,7 @@
       </c>
       <c r="AF17" s="76" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>$_POST['customer_id']</v>
       </c>
       <c r="AL17" s="76" t="str">
         <f t="shared" si="11"/>
@@ -10913,7 +12612,7 @@
       </c>
       <c r="AM17" s="82" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>$insert-&gt;customer_id=$_POST['customer_id'];</v>
       </c>
       <c r="AS17" s="82" t="str">
         <f t="shared" si="13"/>
@@ -10975,7 +12674,7 @@
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to,customer_id:customer_id</v>
       </c>
       <c r="AC18" s="79" t="str">
         <f t="shared" si="8"/>
@@ -11061,7 +12760,7 @@
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to,customer_id:customer_id</v>
       </c>
       <c r="AC19" s="79" t="str">
         <f t="shared" si="8"/>
@@ -11147,7 +12846,7 @@
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to,customer_id:customer_id</v>
       </c>
       <c r="AC20" s="79" t="str">
         <f t="shared" si="8"/>
@@ -11233,7 +12932,7 @@
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to,customer_id:customer_id</v>
       </c>
       <c r="AC21" s="79" t="str">
         <f t="shared" si="8"/>
@@ -11319,7 +13018,7 @@
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to,customer_id:customer_id</v>
       </c>
       <c r="AC22" s="79" t="str">
         <f t="shared" si="8"/>
@@ -11405,7 +13104,7 @@
       </c>
       <c r="Y23" s="81" t="str">
         <f t="shared" si="7"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to,customer_id:customer_id</v>
       </c>
       <c r="AC23" s="79" t="str">
         <f t="shared" si="8"/>
@@ -11438,7 +13137,7 @@
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B26" s="71" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -11451,11 +13150,11 @@
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B27" s="71" t="str">
         <f>"        "&amp;M14&amp;M15&amp;M16</f>
-        <v xml:space="preserve">        array('name','pray','pray','1'),array('amount','number','number','2'),array('description','answer','answer','1')</v>
+        <v xml:space="preserve">        array('year','pray','pray','1'),array('from','number','number','2'),array('to','answer','answer','1')</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -11468,11 +13167,11 @@
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B28" s="71" t="str">
         <f>"        "&amp;M17&amp;M18&amp;M19</f>
-        <v xml:space="preserve">        </v>
+        <v xml:space="preserve">        ,array('customer_id','','','')</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -11485,7 +13184,7 @@
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B29" s="71" t="str">
         <f>"        "&amp;M20&amp;M21&amp;M22&amp;M23</f>
@@ -11502,7 +13201,7 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B30" s="71" t="str">
         <f>"        "&amp;O14&amp;O15&amp;O16</f>
@@ -11519,7 +13218,7 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B31" s="71" t="str">
         <f>"        "&amp;O17&amp;O18&amp;O19</f>
@@ -11536,7 +13235,7 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B32" s="71" t="str">
         <f>"        "&amp;O20&amp;O21&amp;O22&amp;O23</f>
@@ -11553,7 +13252,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="71" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -11566,7 +13265,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -11579,7 +13278,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="72" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -11592,7 +13291,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -11605,7 +13304,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -11618,7 +13317,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="72" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -11632,7 +13331,7 @@
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="71" t="str">
         <f>"        &lt;input class='newinput_"&amp;'tables and models'!F39&amp;"' type='text' id='input_"&amp;'tables and models'!F39&amp;"_{{$h[0]}}' placeholder='{{$h[2]}}'&gt;"</f>
-        <v xml:space="preserve">        &lt;input class='newinput_prayer' type='text' id='input_prayer_{{$h[0]}}' placeholder='{{$h[2]}}'&gt;</v>
+        <v xml:space="preserve">        &lt;input class='newinput_validation' type='text' id='input_validation_{{$h[0]}}' placeholder='{{$h[2]}}'&gt;</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -11645,7 +13344,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="72" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -11659,7 +13358,7 @@
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="83" t="str">
         <f>"        &lt;select class='newselect_"&amp;'tables and models'!F39&amp;"'  id='input_"&amp;'tables and models'!F39&amp;"_{{$h[0]}}' &gt;"</f>
-        <v xml:space="preserve">        &lt;select class='newselect_prayer'  id='input_prayer_{{$h[0]}}' &gt;</v>
+        <v xml:space="preserve">        &lt;select class='newselect_validation'  id='input_validation_{{$h[0]}}' &gt;</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -11672,7 +13371,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -11685,7 +13384,7 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="84" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -11698,7 +13397,7 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="72" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -11711,7 +13410,7 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="72" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -11724,7 +13423,7 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="72" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -11737,7 +13436,7 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="72" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -11750,7 +13449,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="72" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -11763,7 +13462,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="72" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -11777,7 +13476,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="72" t="str">
         <f>"        &lt;input class='newinput_"&amp;'tables and models'!F39&amp;"' type='hidden' id='input_"&amp;'tables and models'!F39&amp;"_{{$h[0]}}' &gt;"</f>
-        <v xml:space="preserve">        &lt;input class='newinput_prayer' type='hidden' id='input_prayer_{{$h[0]}}' &gt;</v>
+        <v xml:space="preserve">        &lt;input class='newinput_validation' type='hidden' id='input_validation_{{$h[0]}}' &gt;</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -11790,7 +13489,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="72" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -11843,7 +13542,7 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="71" t="str">
         <f>"&lt;button class='btn' id='createnew"&amp;'tables and models'!F39&amp;"_row'&gt;Save&lt;/button&gt;"</f>
-        <v>&lt;button class='btn' id='createnewprayer_row'&gt;Save&lt;/button&gt;</v>
+        <v>&lt;button class='btn' id='createnewvalidation_row'&gt;Save&lt;/button&gt;</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -11857,7 +13556,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="71" t="str">
         <f>"&lt;img class='hide' id='wait_while_creating_"&amp;'tables and models'!F39&amp;"' src='{{URL::to("&amp;P1&amp;"assets/img/progressBar.gif"&amp;P1&amp;")}}'/&gt;"</f>
-        <v>&lt;img class='hide' id='wait_while_creating_prayer' src='{{URL::to("assets/img/progressBar.gif")}}'/&gt;</v>
+        <v>&lt;img class='hide' id='wait_while_creating_validation' src='{{URL::to("assets/img/progressBar.gif")}}'/&gt;</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -11870,13 +13569,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="str">
         <f>"$('#createnew"&amp;'tables and models'!F39&amp;"_row').click(function(){"</f>
-        <v>$('#createnewprayer_row').click(function(){</v>
+        <v>$('#createnewvalidation_row').click(function(){</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -11889,11 +13588,11 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B62" s="76" t="str">
         <f>"    "&amp;P14&amp;P15&amp;P16</f>
-        <v xml:space="preserve">    var name=$('#input_prayer_name').val();var amount=$('#input_prayer_amount').val();var description=$('#input_prayer_description').val();</v>
+        <v xml:space="preserve">    var year=$('#input_validation_year').val();var from=$('#input_validation_from').val();var to=$('#input_validation_to').val();</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -11906,11 +13605,11 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B63" s="76" t="str">
         <f>"    "&amp;P17&amp;P18&amp;P19</f>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">    var customer_id=$('#input_validation_customer_id').val();</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -11923,7 +13622,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B64" s="76" t="str">
         <f>"    "&amp;P20&amp;P21&amp;P22&amp;P23</f>
@@ -11940,7 +13639,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B65" s="76" t="str">
         <f>"    "&amp;V14&amp;V15&amp;V16</f>
@@ -11957,7 +13656,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B66" s="76" t="str">
         <f>"    "&amp;V17&amp;V18&amp;V19</f>
@@ -11974,7 +13673,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B67" s="76" t="str">
         <f>"    "&amp;V20&amp;V21&amp;V22&amp;V23</f>
@@ -11991,7 +13690,7 @@
     </row>
     <row r="68" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="74" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C68" s="74"/>
       <c r="D68" s="74"/>
@@ -12005,7 +13704,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" s="71" t="str">
         <f>"    $('#wait_while_creating_"&amp;'tables and models'!F39&amp;"').show(); "</f>
-        <v xml:space="preserve">    $('#wait_while_creating_prayer').show(); </v>
+        <v xml:space="preserve">    $('#wait_while_creating_validation').show(); </v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -12018,7 +13717,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -12032,7 +13731,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="71" t="str">
         <f>"    $.post(base+'/ajax/"&amp;'tables and models'!F39&amp;"new',{"&amp;Y23&amp;AE23&amp;"},function(d){"</f>
-        <v xml:space="preserve">    $.post(base+'/ajax/prayernew',{name:name,amount:amount,description:description},function(d){</v>
+        <v xml:space="preserve">    $.post(base+'/ajax/validationnew',{year:year,from:from,to:to,customer_id:customer_id},function(d){</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -12046,7 +13745,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="str">
         <f>"        $('#createnew"&amp;'tables and models'!F39&amp;"_row').show();"</f>
-        <v xml:space="preserve">        $('#createnewprayer_row').show();</v>
+        <v xml:space="preserve">        $('#createnewvalidation_row').show();</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -12060,7 +13759,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="str">
         <f>"        $('#wait_while_creating_"&amp;'tables and models'!F39&amp;"').hide();"</f>
-        <v xml:space="preserve">        $('#wait_while_creating_prayer').hide();</v>
+        <v xml:space="preserve">        $('#wait_while_creating_validation').hide();</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -12074,7 +13773,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="str">
         <f>"        $('.newinput_"&amp;'tables and models'!F39&amp;"').val('');"</f>
-        <v xml:space="preserve">        $('.newinput_prayer').val('');</v>
+        <v xml:space="preserve">        $('.newinput_validation').val('');</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -12087,7 +13786,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -12113,13 +13812,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" s="71" t="str">
         <f>"    public function post"&amp;'tables and models'!G39&amp;"new (){"</f>
-        <v xml:space="preserve">    public function postPrayernew (){</v>
+        <v xml:space="preserve">    public function postValidationnew (){</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -12133,7 +13832,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="str">
         <f>"    $insert=new "&amp;'tables and models'!G39&amp;";"</f>
-        <v xml:space="preserve">    $insert=new Prayer;</v>
+        <v xml:space="preserve">    $insert=new Validation;</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -12146,11 +13845,11 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B82" s="76" t="str">
         <f>"    "&amp;AM14&amp;AM15&amp;AM16</f>
-        <v xml:space="preserve">    $insert-&gt;name=$_POST['name'];$insert-&gt;amount=$_POST['amount'];$insert-&gt;description=$_POST['description'];</v>
+        <v xml:space="preserve">    $insert-&gt;year=$_POST['year'];$insert-&gt;from=$_POST['from'];$insert-&gt;to=$_POST['to'];</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -12163,11 +13862,11 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B83" s="76" t="str">
         <f>"    "&amp;AM17&amp;AM18&amp;AM19</f>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">    $insert-&gt;customer_id=$_POST['customer_id'];</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -12180,7 +13879,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B84" s="76" t="str">
         <f>"    "&amp;AM20&amp;AM21&amp;AM22&amp;AM23</f>
@@ -12197,7 +13896,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B85" s="76" t="str">
         <f>"    "&amp;AS14&amp;AS15&amp;AS16</f>
@@ -12214,7 +13913,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B86" s="76" t="str">
         <f>"    "&amp;AS17&amp;AS18&amp;AS19</f>
@@ -12231,7 +13930,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B87" s="76" t="str">
         <f>"    "&amp;AS20&amp;AS21&amp;AS22&amp;AS23</f>
@@ -12248,7 +13947,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -12261,7 +13960,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -12274,7 +13973,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -12298,28 +13997,28 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.25">
@@ -12328,10 +14027,10 @@
       </c>
       <c r="B97" s="85" t="str">
         <f>IF(AND('tables and models'!C41&lt;&gt;"",'tables and models'!D41&lt;&gt;""),'tables and models'!C41,"")</f>
-        <v>name</v>
+        <v>year</v>
       </c>
       <c r="C97" s="76" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D97" s="76">
         <v>1</v>
@@ -12363,15 +14062,15 @@
       </c>
       <c r="N97" s="79" t="str">
         <f>IF(B97&lt;&gt;"",M97&amp;"array('"&amp;B97&amp;"','"&amp;C97&amp;"','"&amp;D97&amp;"','"&amp;E97&amp;"','"&amp;F97&amp;"')","")</f>
-        <v>array('name','Name','1','1','1')</v>
+        <v>array('year','Name','1','1','1')</v>
       </c>
       <c r="O97" s="8" t="str">
         <f>IF(AND(B97&lt;&gt;"",E97=1),M97&amp;B97&amp;":"&amp;B97,"")</f>
-        <v>name:name</v>
+        <v>year:year</v>
       </c>
       <c r="P97" s="82" t="str">
         <f>P96&amp;O97</f>
-        <v>name:name</v>
+        <v>year:year</v>
       </c>
       <c r="S97" s="86" t="str">
         <f>IF(AND(G97&lt;&gt;1,H97&lt;&gt;""),",","")</f>
@@ -12391,7 +14090,7 @@
       </c>
       <c r="X97" s="88" t="str">
         <f>IF(AND(B97&lt;&gt;"",E97=1),"var "&amp;B97&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;B97&amp;"'+id).val();","")</f>
-        <v>var name=$('#input_prayername'+id).val();</v>
+        <v>var year=$('#input_validationyear'+id).val();</v>
       </c>
       <c r="AD97" s="88" t="str">
         <f>IF(AND(H97&lt;&gt;"",K97=1),"var "&amp;H97&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;H97&amp;"'+id).val();","")</f>
@@ -12399,11 +14098,11 @@
       </c>
       <c r="AF97" s="79" t="str">
         <f>IF(AND(B97&lt;&gt;"",E97=1),M97&amp;"'"&amp;B97&amp;"'=&gt;$_POST['"&amp;B97&amp;"']","")</f>
-        <v>'name'=&gt;$_POST['name']</v>
+        <v>'year'=&gt;$_POST['year']</v>
       </c>
       <c r="AG97" s="82" t="str">
         <f>AG96&amp;AF97</f>
-        <v>'name'=&gt;$_POST['name']</v>
+        <v>'year'=&gt;$_POST['year']</v>
       </c>
       <c r="AL97" s="79" t="str">
         <f>IF(AND(H97&lt;&gt;"",K97=1),S97&amp;"'"&amp;H97&amp;"'=&gt;$_POST['"&amp;H97&amp;"']","")</f>
@@ -12420,10 +14119,10 @@
       </c>
       <c r="B98" s="85" t="str">
         <f>IF(AND('tables and models'!C42&lt;&gt;"",'tables and models'!D42&lt;&gt;""),'tables and models'!C42,"")</f>
-        <v>amount</v>
+        <v>from</v>
       </c>
       <c r="C98" s="76" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D98" s="76">
         <v>1</v>
@@ -12453,15 +14152,15 @@
       </c>
       <c r="N98" s="79" t="str">
         <f t="shared" ref="N98:N106" si="15">IF(B98&lt;&gt;"",M98&amp;"array('"&amp;B98&amp;"','"&amp;C98&amp;"','"&amp;D98&amp;"','"&amp;E98&amp;"','"&amp;F98&amp;"')","")</f>
-        <v>,array('amount','Amount','1','1','1')</v>
+        <v>,array('from','Amount','1','1','1')</v>
       </c>
       <c r="O98" s="8" t="str">
         <f t="shared" ref="O98:O106" si="16">IF(AND(B98&lt;&gt;"",E98=1),M98&amp;B98&amp;":"&amp;B98,"")</f>
-        <v>,amount:amount</v>
+        <v>,from:from</v>
       </c>
       <c r="P98" s="82" t="str">
         <f>P97&amp;O98</f>
-        <v>name:name,amount:amount</v>
+        <v>year:year,from:from</v>
       </c>
       <c r="S98" s="86" t="str">
         <f t="shared" ref="S98:S106" si="17">IF(AND(G98&lt;&gt;1,H98&lt;&gt;""),",","")</f>
@@ -12481,7 +14180,7 @@
       </c>
       <c r="X98" s="88" t="str">
         <f>IF(AND(B98&lt;&gt;"",E98=1),"var "&amp;B98&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;B98&amp;"'+id).val();","")</f>
-        <v>var amount=$('#input_prayeramount'+id).val();</v>
+        <v>var from=$('#input_validationfrom'+id).val();</v>
       </c>
       <c r="AD98" s="88" t="str">
         <f>IF(AND(H98&lt;&gt;"",K98=1),"var "&amp;H98&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;H98&amp;"'+id).val();","")</f>
@@ -12489,11 +14188,11 @@
       </c>
       <c r="AF98" s="79" t="str">
         <f t="shared" ref="AF98:AF106" si="20">IF(AND(B98&lt;&gt;"",E98=1),M98&amp;"'"&amp;B98&amp;"'=&gt;$_POST['"&amp;B98&amp;"']","")</f>
-        <v>,'amount'=&gt;$_POST['amount']</v>
+        <v>,'from'=&gt;$_POST['from']</v>
       </c>
       <c r="AG98" s="82" t="str">
         <f t="shared" ref="AG98:AG106" si="21">AG97&amp;AF98</f>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from']</v>
       </c>
       <c r="AL98" s="79" t="str">
         <f t="shared" ref="AL98:AL106" si="22">IF(AND(H98&lt;&gt;"",K98=1),S98&amp;"'"&amp;H98&amp;"'=&gt;$_POST['"&amp;H98&amp;"']","")</f>
@@ -12510,10 +14209,10 @@
       </c>
       <c r="B99" s="85" t="str">
         <f>IF(AND('tables and models'!C43&lt;&gt;"",'tables and models'!D43&lt;&gt;""),'tables and models'!C43,"")</f>
-        <v>description</v>
+        <v>to</v>
       </c>
       <c r="C99" s="76" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D99" s="76">
         <v>1</v>
@@ -12543,15 +14242,15 @@
       </c>
       <c r="N99" s="79" t="str">
         <f t="shared" si="15"/>
-        <v>,array('description','Description','1','1','1')</v>
+        <v>,array('to','Description','1','1','1')</v>
       </c>
       <c r="O99" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>,description:description</v>
+        <v>,to:to</v>
       </c>
       <c r="P99" s="82" t="str">
         <f t="shared" ref="P99:P106" si="24">P98&amp;O99</f>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="S99" s="86" t="str">
         <f t="shared" si="17"/>
@@ -12571,7 +14270,7 @@
       </c>
       <c r="X99" s="88" t="str">
         <f>IF(AND(B99&lt;&gt;"",E99=1),"var "&amp;B99&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;B99&amp;"'+id).val();","")</f>
-        <v>var description=$('#input_prayerdescription'+id).val();</v>
+        <v>var to=$('#input_validationto'+id).val();</v>
       </c>
       <c r="AD99" s="88" t="str">
         <f>IF(AND(H99&lt;&gt;"",K99=1),"var "&amp;H99&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;H99&amp;"'+id).val();","")</f>
@@ -12579,11 +14278,11 @@
       </c>
       <c r="AF99" s="79" t="str">
         <f t="shared" si="20"/>
-        <v>,'description'=&gt;$_POST['description']</v>
+        <v>,'to'=&gt;$_POST['to']</v>
       </c>
       <c r="AG99" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
       <c r="AL99" s="79" t="str">
         <f t="shared" si="22"/>
@@ -12600,7 +14299,7 @@
       </c>
       <c r="B100" s="85" t="str">
         <f>IF(AND('tables and models'!C44&lt;&gt;"",'tables and models'!D44&lt;&gt;""),'tables and models'!C44,"")</f>
-        <v/>
+        <v>customer_id</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -12619,11 +14318,11 @@
       <c r="L100" s="76"/>
       <c r="M100" s="86" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>,</v>
       </c>
       <c r="N100" s="79" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>,array('customer_id','','','','')</v>
       </c>
       <c r="O100" s="8" t="str">
         <f t="shared" si="16"/>
@@ -12631,7 +14330,7 @@
       </c>
       <c r="P100" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="S100" s="86" t="str">
         <f t="shared" si="17"/>
@@ -12663,7 +14362,7 @@
       </c>
       <c r="AG100" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
       <c r="AL100" s="79" t="str">
         <f t="shared" si="22"/>
@@ -12711,7 +14410,7 @@
       </c>
       <c r="P101" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="S101" s="86" t="str">
         <f t="shared" si="17"/>
@@ -12743,7 +14442,7 @@
       </c>
       <c r="AG101" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
       <c r="AL101" s="79" t="str">
         <f t="shared" si="22"/>
@@ -12791,7 +14490,7 @@
       </c>
       <c r="P102" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="S102" s="86" t="str">
         <f t="shared" si="17"/>
@@ -12823,7 +14522,7 @@
       </c>
       <c r="AG102" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
       <c r="AL102" s="79" t="str">
         <f t="shared" si="22"/>
@@ -12871,7 +14570,7 @@
       </c>
       <c r="P103" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="S103" s="86" t="str">
         <f t="shared" si="17"/>
@@ -12903,7 +14602,7 @@
       </c>
       <c r="AG103" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
       <c r="AL103" s="79" t="str">
         <f t="shared" si="22"/>
@@ -12951,7 +14650,7 @@
       </c>
       <c r="P104" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="S104" s="86" t="str">
         <f t="shared" si="17"/>
@@ -12983,7 +14682,7 @@
       </c>
       <c r="AG104" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
       <c r="AL104" s="79" t="str">
         <f t="shared" si="22"/>
@@ -13031,7 +14730,7 @@
       </c>
       <c r="P105" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="S105" s="86" t="str">
         <f t="shared" si="17"/>
@@ -13063,7 +14762,7 @@
       </c>
       <c r="AG105" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
       <c r="AL105" s="79" t="str">
         <f t="shared" si="22"/>
@@ -13111,7 +14810,7 @@
       </c>
       <c r="P106" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="S106" s="86" t="str">
         <f t="shared" si="17"/>
@@ -13143,7 +14842,7 @@
       </c>
       <c r="AG106" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
       <c r="AL106" s="79" t="str">
         <f t="shared" si="22"/>
@@ -13157,21 +14856,21 @@
     <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="P107" s="2" t="str">
         <f>P106&amp;V106</f>
-        <v>name:name,amount:amount,description:description</v>
+        <v>year:year,from:from,to:to</v>
       </c>
       <c r="AG107" s="2" t="str">
         <f>AG106&amp;AM106</f>
-        <v>'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.25">
@@ -13189,7 +14888,7 @@
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B112" s="13" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -13202,11 +14901,11 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B113" s="71" t="str">
         <f>"    "&amp;N97&amp;N98&amp;N99</f>
-        <v xml:space="preserve">    array('name','Name','1','1','1'),array('amount','Amount','1','1','1'),array('description','Description','1','1','1')</v>
+        <v xml:space="preserve">    array('year','Name','1','1','1'),array('from','Amount','1','1','1'),array('to','Description','1','1','1')</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -13219,11 +14918,11 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B114" s="71" t="str">
         <f>"    "&amp;N100&amp;N101&amp;N102</f>
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">    ,array('customer_id','','','','')</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
@@ -13236,7 +14935,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B115" s="71" t="str">
         <f>"    "&amp;N103&amp;N104&amp;N105&amp;N106</f>
@@ -13253,7 +14952,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B116" s="71" t="str">
         <f>"    "&amp;T97&amp;T98&amp;T99</f>
@@ -13270,7 +14969,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B117" s="71" t="str">
         <f>"    "&amp;T100&amp;T101&amp;T102</f>
@@ -13287,7 +14986,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B118" s="71" t="str">
         <f>"    "&amp;T103&amp;T104&amp;T105&amp;T106</f>
@@ -13330,13 +15029,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C123" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" s="13" t="str">
         <f>"@foreach("&amp;'tables and models'!G39&amp;"::all() as $m) {{--m first letter of model word--}}"</f>
-        <v>@foreach(Prayer::all() as $m) {{--m first letter of model word--}}</v>
+        <v>@foreach(Validation::all() as $m) {{--m first letter of model word--}}</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -13349,7 +15048,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -13363,7 +15062,7 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B126" s="13" t="str">
         <f>"    &lt;div id='"&amp;'tables and models'!F39&amp;"_row{{$m-&gt;id}}' class='"&amp;'tables and models'!F39&amp;"_row'&gt;"</f>
-        <v xml:space="preserve">    &lt;div id='prayer_row{{$m-&gt;id}}' class='prayer_row'&gt;</v>
+        <v xml:space="preserve">    &lt;div id='validation_row{{$m-&gt;id}}' class='validation_row'&gt;</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -13391,7 +15090,7 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B128" s="71" t="str">
         <f>"        &lt;?php $class='';$m_id=''; if($r[3]==1){$class='"&amp;'tables and models'!F39&amp;"_editable'.$m-&gt;id;$m_id='"&amp;'tables and models'!F39&amp;"_'.$r[0].'_row'.$m-&gt;id;}   ?&gt;"</f>
-        <v xml:space="preserve">        &lt;?php $class='';$m_id=''; if($r[3]==1){$class='prayer_editable'.$m-&gt;id;$m_id='prayer_'.$r[0].'_row'.$m-&gt;id;}   ?&gt;</v>
+        <v xml:space="preserve">        &lt;?php $class='';$m_id=''; if($r[3]==1){$class='validation_editable'.$m-&gt;id;$m_id='validation_'.$r[0].'_row'.$m-&gt;id;}   ?&gt;</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -13415,7 +15114,7 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="13" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -13443,7 +15142,7 @@
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="13" t="str">
         <f>"            &lt;spam class='hmdhide "&amp;'tables and models'!F39&amp;"_inputhidden{{$m-&gt;id}}'&gt;"</f>
-        <v xml:space="preserve">            &lt;spam class='hmdhide prayer_inputhidden{{$m-&gt;id}}'&gt;</v>
+        <v xml:space="preserve">            &lt;spam class='hmdhide validation_inputhidden{{$m-&gt;id}}'&gt;</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
@@ -13471,7 +15170,7 @@
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="13" t="str">
         <f>"                &lt;input type='text' value='{{$m-&gt;$r[0]}}' id='input_"&amp;'tables and models'!F39&amp;"{{$r[0].$m-&gt;id}}'&gt;"</f>
-        <v xml:space="preserve">                &lt;input type='text' value='{{$m-&gt;$r[0]}}' id='input_prayer{{$r[0].$m-&gt;id}}'&gt;</v>
+        <v xml:space="preserve">                &lt;input type='text' value='{{$m-&gt;$r[0]}}' id='input_validation{{$r[0].$m-&gt;id}}'&gt;</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
@@ -13498,7 +15197,7 @@
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="13" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
@@ -13525,7 +15224,7 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="13" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -13552,7 +15251,7 @@
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="72" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
@@ -13566,7 +15265,7 @@
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="13" t="str">
         <f>"        &lt;spam&gt;&lt;button class='btn' id='edit_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Edit&lt;/button&gt;&lt;/spam&gt;"</f>
-        <v xml:space="preserve">        &lt;spam&gt;&lt;button class='btn' id='edit_prayer{{$m-&gt;id}}'&gt;Edit&lt;/button&gt;&lt;/spam&gt;</v>
+        <v xml:space="preserve">        &lt;spam&gt;&lt;button class='btn' id='edit_validation{{$m-&gt;id}}'&gt;Edit&lt;/button&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
@@ -13580,7 +15279,7 @@
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="13" t="str">
         <f>"        &lt;spam class='"&amp;'tables and models'!F39&amp;"_inputhidden{{$m-&gt;id}} hmdhide'&gt;"</f>
-        <v xml:space="preserve">        &lt;spam class='prayer_inputhidden{{$m-&gt;id}} hmdhide'&gt;</v>
+        <v xml:space="preserve">        &lt;spam class='validation_inputhidden{{$m-&gt;id}} hmdhide'&gt;</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
@@ -13594,7 +15293,7 @@
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="13" t="str">
         <f>"            &lt;button class='btn' id='canceledit_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Cancel&lt;/button&gt;"</f>
-        <v xml:space="preserve">            &lt;button class='btn' id='canceledit_prayer{{$m-&gt;id}}'&gt;Cancel&lt;/button&gt;</v>
+        <v xml:space="preserve">            &lt;button class='btn' id='canceledit_validation{{$m-&gt;id}}'&gt;Cancel&lt;/button&gt;</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
@@ -13608,7 +15307,7 @@
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="13" t="str">
         <f>"            &lt;button class='btn' id='confirmedit_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Update&lt;/button&gt;"</f>
-        <v xml:space="preserve">            &lt;button class='btn' id='confirmedit_prayer{{$m-&gt;id}}'&gt;Update&lt;/button&gt;</v>
+        <v xml:space="preserve">            &lt;button class='btn' id='confirmedit_validation{{$m-&gt;id}}'&gt;Update&lt;/button&gt;</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
@@ -13621,7 +15320,7 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
@@ -13635,7 +15334,7 @@
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="13" t="str">
         <f>"        &lt;spam&gt;&lt;button class='btn' id='delete_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Delete&lt;/button&gt;&lt;/spam&gt;"</f>
-        <v xml:space="preserve">        &lt;spam&gt;&lt;button class='btn' id='delete_prayer{{$m-&gt;id}}'&gt;Delete&lt;/button&gt;&lt;/spam&gt;</v>
+        <v xml:space="preserve">        &lt;spam&gt;&lt;button class='btn' id='delete_validation{{$m-&gt;id}}'&gt;Delete&lt;/button&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
@@ -13649,7 +15348,7 @@
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="13" t="str">
         <f>"        &lt;spam class='"&amp;'tables and models'!F39&amp;"_deletehidden{{$m-&gt;id}} hmdhide'&gt;"</f>
-        <v xml:space="preserve">        &lt;spam class='prayer_deletehidden{{$m-&gt;id}} hmdhide'&gt;</v>
+        <v xml:space="preserve">        &lt;spam class='validation_deletehidden{{$m-&gt;id}} hmdhide'&gt;</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
@@ -13662,7 +15361,7 @@
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
@@ -13676,7 +15375,7 @@
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="13" t="str">
         <f>"            &lt;a class='' id='canceldelete_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Cancel&lt;/a&gt;"</f>
-        <v xml:space="preserve">            &lt;a class='' id='canceldelete_prayer{{$m-&gt;id}}'&gt;Cancel&lt;/a&gt;</v>
+        <v xml:space="preserve">            &lt;a class='' id='canceldelete_validation{{$m-&gt;id}}'&gt;Cancel&lt;/a&gt;</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
@@ -13690,7 +15389,7 @@
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="13" t="str">
         <f>"            &lt;a class='' id='yesdelete_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Confirm&lt;/a&gt;"</f>
-        <v xml:space="preserve">            &lt;a class='' id='yesdelete_prayer{{$m-&gt;id}}'&gt;Confirm&lt;/a&gt;</v>
+        <v xml:space="preserve">            &lt;a class='' id='yesdelete_validation{{$m-&gt;id}}'&gt;Confirm&lt;/a&gt;</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
@@ -13703,7 +15402,7 @@
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="13" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
@@ -13717,7 +15416,7 @@
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="13" t="str">
         <f>"        &lt;img class='hmdhide' id='wait_while_updating_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}' src='{{URL::to("&amp;P1&amp;"assets/img/progressBar.gif"&amp;P1&amp;")}}'/&gt;"</f>
-        <v xml:space="preserve">        &lt;img class='hmdhide' id='wait_while_updating_prayer{{$m-&gt;id}}' src='{{URL::to("assets/img/progressBar.gif")}}'/&gt;</v>
+        <v xml:space="preserve">        &lt;img class='hmdhide' id='wait_while_updating_validation{{$m-&gt;id}}' src='{{URL::to("assets/img/progressBar.gif")}}'/&gt;</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -13767,13 +15466,13 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="13" t="str">
         <f>"$('."&amp;'tables and models'!F39&amp;"_row').each(function(){"</f>
-        <v>$('.prayer_row').each(function(){</v>
+        <v>$('.validation_row').each(function(){</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -13786,7 +15485,7 @@
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="13" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
@@ -13800,7 +15499,7 @@
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="13" t="str">
         <f>"    id=id.replace('"&amp;'tables and models'!F39&amp;"_row','');"</f>
-        <v xml:space="preserve">    id=id.replace('prayer_row','');</v>
+        <v xml:space="preserve">    id=id.replace('validation_row','');</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
@@ -13814,7 +15513,7 @@
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="13" t="str">
         <f>"    start_action"&amp;'tables and models'!F39&amp;"(id);"</f>
-        <v xml:space="preserve">    start_actionprayer(id);</v>
+        <v xml:space="preserve">    start_actionvalidation(id);</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
@@ -13827,7 +15526,7 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="72" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
@@ -13865,7 +15564,7 @@
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="13" t="str">
         <f>"function start_action"&amp;'tables and models'!F39&amp;"(id) {"</f>
-        <v>function start_actionprayer(id) {</v>
+        <v>function start_actionvalidation(id) {</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
@@ -13879,7 +15578,7 @@
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="13" t="str">
         <f>"    $('#edit_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#edit_prayer'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#edit_validation'+id).click(function(){</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
@@ -13892,7 +15591,7 @@
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="13" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
@@ -13906,7 +15605,7 @@
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_editable'+id).hide();"</f>
-        <v xml:space="preserve">        $('.prayer_editable'+id).hide();</v>
+        <v xml:space="preserve">        $('.validation_editable'+id).hide();</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
@@ -13920,7 +15619,7 @@
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_inputhidden'+id).show();"</f>
-        <v xml:space="preserve">        $('.prayer_inputhidden'+id).show();</v>
+        <v xml:space="preserve">        $('.validation_inputhidden'+id).show();</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
@@ -13933,7 +15632,7 @@
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
@@ -13947,7 +15646,7 @@
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="13" t="str">
         <f>"    $('#canceledit_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#canceledit_prayer'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#canceledit_validation'+id).click(function(){</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
@@ -13961,7 +15660,7 @@
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="13" t="str">
         <f>"            $('#edit_"&amp;'tables and models'!F39&amp;"'+id).show();"</f>
-        <v xml:space="preserve">            $('#edit_prayer'+id).show();</v>
+        <v xml:space="preserve">            $('#edit_validation'+id).show();</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
@@ -13975,7 +15674,7 @@
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="13" t="str">
         <f>"            $('."&amp;'tables and models'!F39&amp;"_editable'+id).show();"</f>
-        <v xml:space="preserve">            $('.prayer_editable'+id).show();</v>
+        <v xml:space="preserve">            $('.validation_editable'+id).show();</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
@@ -13989,7 +15688,7 @@
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="13" t="str">
         <f>"            $('."&amp;'tables and models'!F39&amp;"_inputhidden'+id).hide();"</f>
-        <v xml:space="preserve">            $('.prayer_inputhidden'+id).hide();</v>
+        <v xml:space="preserve">            $('.validation_inputhidden'+id).hide();</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
@@ -14002,7 +15701,7 @@
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
@@ -14016,7 +15715,7 @@
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" s="13" t="str">
         <f>"    $('#confirmedit_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#confirmedit_prayer'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#confirmedit_validation'+id).click(function(){</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
@@ -14030,7 +15729,7 @@
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B177" s="13" t="str">
         <f>"        $('#wait_while_updating_"&amp;'tables and models'!F39&amp;"'+id).show();"</f>
-        <v xml:space="preserve">        $('#wait_while_updating_prayer'+id).show();</v>
+        <v xml:space="preserve">        $('#wait_while_updating_validation'+id).show();</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
@@ -14044,7 +15743,7 @@
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B178" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_inputhidden'+id).hide();"</f>
-        <v xml:space="preserve">        $('.prayer_inputhidden'+id).hide();</v>
+        <v xml:space="preserve">        $('.validation_inputhidden'+id).hide();</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -14058,7 +15757,7 @@
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B179" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_editable'+id).show();"</f>
-        <v xml:space="preserve">        $('.prayer_editable'+id).show();</v>
+        <v xml:space="preserve">        $('.validation_editable'+id).show();</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
@@ -14072,7 +15771,7 @@
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B180" s="13" t="str">
         <f>"        $('#delete_"&amp;'tables and models'!F39&amp;"'+id).hide();"</f>
-        <v xml:space="preserve">        $('#delete_prayer'+id).hide();</v>
+        <v xml:space="preserve">        $('#delete_validation'+id).hide();</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
@@ -14086,7 +15785,7 @@
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B181" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_deletehidden'+id).hide();"</f>
-        <v xml:space="preserve">        $('.prayer_deletehidden'+id).hide();</v>
+        <v xml:space="preserve">        $('.validation_deletehidden'+id).hide();</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
@@ -14099,7 +15798,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" s="13" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
@@ -14112,11 +15811,11 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="24" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B183" s="13" t="str">
         <f>"        "&amp;X97&amp;X98&amp;X99&amp;X100&amp;X101&amp;X102&amp;X103&amp;X104&amp;X105&amp;X106</f>
-        <v xml:space="preserve">        var name=$('#input_prayername'+id).val();var amount=$('#input_prayeramount'+id).val();var description=$('#input_prayerdescription'+id).val();</v>
+        <v xml:space="preserve">        var year=$('#input_validationyear'+id).val();var from=$('#input_validationfrom'+id).val();var to=$('#input_validationto'+id).val();</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
@@ -14129,7 +15828,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B184" s="13" t="str">
         <f>"        "&amp;AD97&amp;AD98&amp;AD99&amp;AD100&amp;AD101&amp;AD102&amp;AD103&amp;AD104&amp;AD105&amp;AD106</f>
@@ -14148,7 +15847,7 @@
       <c r="A185" s="24"/>
       <c r="B185" s="13" t="str">
         <f>"        $.post(base+'/ajax/"&amp;'tables and models'!F39&amp;"update',{id:id,"&amp;Y23&amp;AE23&amp;"},function(d){"</f>
-        <v xml:space="preserve">        $.post(base+'/ajax/prayerupdate',{id:id,name:name,amount:amount,description:description},function(d){</v>
+        <v xml:space="preserve">        $.post(base+'/ajax/validationupdate',{id:id,year:year,from:from,to:to,customer_id:customer_id},function(d){</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -14162,7 +15861,7 @@
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="24"/>
       <c r="B186" s="13" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
@@ -14175,7 +15874,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B187" s="13" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
@@ -14188,7 +15887,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -14202,7 +15901,7 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" s="13" t="str">
         <f>"    $('#delete_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#delete_prayer'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#delete_validation'+id).click(function(){</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
@@ -14215,7 +15914,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B190" s="13" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
@@ -14229,7 +15928,7 @@
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_deletehidden'+id).show();"</f>
-        <v xml:space="preserve">        $('.prayer_deletehidden'+id).show();</v>
+        <v xml:space="preserve">        $('.validation_deletehidden'+id).show();</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
@@ -14242,7 +15941,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -14256,7 +15955,7 @@
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="13" t="str">
         <f>"    $('#canceldelete_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#canceldelete_prayer'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#canceldelete_validation'+id).click(function(){</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
@@ -14270,7 +15969,7 @@
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_deletehidden'+id).hide();"</f>
-        <v xml:space="preserve">        $('.prayer_deletehidden'+id).hide();</v>
+        <v xml:space="preserve">        $('.validation_deletehidden'+id).hide();</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
@@ -14284,7 +15983,7 @@
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="13" t="str">
         <f>"        $('#delete_"&amp;'tables and models'!F39&amp;"'+id).show();"</f>
-        <v xml:space="preserve">        $('#delete_prayer'+id).show();</v>
+        <v xml:space="preserve">        $('#delete_validation'+id).show();</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
@@ -14297,7 +15996,7 @@
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -14311,7 +16010,7 @@
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="13" t="str">
         <f>"    $('#yesdelete_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#yesdelete_prayer'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#yesdelete_validation'+id).click(function(){</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
@@ -14325,7 +16024,7 @@
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_deletehidden'+id).hide();"</f>
-        <v xml:space="preserve">        $('.prayer_deletehidden'+id).hide();</v>
+        <v xml:space="preserve">        $('.validation_deletehidden'+id).hide();</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
@@ -14339,7 +16038,7 @@
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="13" t="str">
         <f>"        $('#wait_while_updating_"&amp;'tables and models'!F39&amp;"'+id).show();"</f>
-        <v xml:space="preserve">        $('#wait_while_updating_prayer'+id).show();</v>
+        <v xml:space="preserve">        $('#wait_while_updating_validation'+id).show();</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
@@ -14352,7 +16051,7 @@
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" s="13" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
@@ -14366,7 +16065,7 @@
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" s="13" t="str">
         <f>"        $.post(base+'/ajax/"&amp;'tables and models'!F39&amp;"delete',{id:id,},function(d){"</f>
-        <v xml:space="preserve">        $.post(base+'/ajax/prayerdelete',{id:id,},function(d){</v>
+        <v xml:space="preserve">        $.post(base+'/ajax/validationdelete',{id:id,},function(d){</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
@@ -14379,7 +16078,7 @@
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B202" s="13" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
@@ -14392,7 +16091,7 @@
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" s="13" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -14405,7 +16104,7 @@
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
@@ -14431,13 +16130,13 @@
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" s="13" t="str">
         <f>"    public function post"&amp;'tables and models'!G39&amp;"update (){"</f>
-        <v xml:space="preserve">    public function postPrayerupdate (){</v>
+        <v xml:space="preserve">    public function postValidationupdate (){</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
@@ -14450,7 +16149,7 @@
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B209" s="13" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
@@ -14463,7 +16162,7 @@
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210" s="13" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
@@ -14477,7 +16176,7 @@
     <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B211" s="13" t="str">
         <f>"            "&amp;AG107</f>
-        <v xml:space="preserve">            'name'=&gt;$_POST['name'],'amount'=&gt;$_POST['amount'],'description'=&gt;$_POST['description']</v>
+        <v xml:space="preserve">            'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
@@ -14490,7 +16189,7 @@
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B212" s="13" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
@@ -14504,7 +16203,7 @@
     <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B213" s="13" t="str">
         <f>"        "&amp;'tables and models'!G39&amp;"::find($id)-&gt;update($u);"</f>
-        <v xml:space="preserve">        Prayer::find($id)-&gt;update($u);</v>
+        <v xml:space="preserve">        Validation::find($id)-&gt;update($u);</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
@@ -14517,7 +16216,7 @@
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B214" s="13" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
@@ -14555,7 +16254,7 @@
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B217" s="13" t="str">
         <f>"    public function post"&amp;'tables and models'!G39&amp;"delete (){"</f>
-        <v xml:space="preserve">    public function postPrayerdelete (){</v>
+        <v xml:space="preserve">    public function postValidationdelete (){</v>
       </c>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
@@ -14569,7 +16268,7 @@
     <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B218" s="13" t="str">
         <f>"        "&amp;'tables and models'!G39&amp;"::find($_POST['id'])-&gt;delete();"</f>
-        <v xml:space="preserve">        Prayer::find($_POST['id'])-&gt;delete();</v>
+        <v xml:space="preserve">        Validation::find($_POST['id'])-&gt;delete();</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
@@ -14582,7 +16281,7 @@
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B219" s="13" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
@@ -14641,22 +16340,22 @@
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="64" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
@@ -14665,12 +16364,12 @@
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="64" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C231" s="17"/>
       <c r="D231" s="17"/>
@@ -14679,32 +16378,32 @@
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="64" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C238" s="17"/>
       <c r="D238" s="17"/>
@@ -14714,7 +16413,7 @@
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="65" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C239" s="17"/>
       <c r="D239" s="17"/>
@@ -14724,7 +16423,7 @@
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="64" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C240" s="17"/>
       <c r="D240" s="17"/>
@@ -14734,7 +16433,7 @@
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="65" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C241" s="17"/>
       <c r="D241" s="17"/>
@@ -14744,7 +16443,7 @@
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="64" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C242" s="17"/>
       <c r="D242" s="17"/>
@@ -14754,7 +16453,7 @@
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="65" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C243" s="17"/>
       <c r="D243" s="17"/>
@@ -14764,7 +16463,7 @@
     </row>
     <row r="244" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B244" s="64" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C244" s="17"/>
       <c r="D244" s="17"/>
@@ -14774,7 +16473,7 @@
     </row>
     <row r="245" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B245" s="64" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C245" s="17"/>
       <c r="D245" s="17"/>
@@ -14784,7 +16483,7 @@
     </row>
     <row r="246" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" s="64" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C246" s="17"/>
       <c r="D246" s="17"/>
@@ -14794,7 +16493,7 @@
     </row>
     <row r="247" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B247" s="64" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C247" s="17"/>
       <c r="D247" s="17"/>
@@ -14804,7 +16503,7 @@
     </row>
     <row r="248" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" s="64" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C248" s="17"/>
       <c r="D248" s="17"/>
@@ -14815,7 +16514,7 @@
     </row>
     <row r="249" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="64" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C249" s="17"/>
       <c r="D249" s="17"/>
@@ -14826,7 +16525,7 @@
     </row>
     <row r="250" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="64" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C250" s="17"/>
       <c r="D250" s="17"/>
@@ -14857,17 +16556,17 @@
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -14877,7 +16576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B1:J31"/>
@@ -14887,7 +16586,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -14897,42 +16596,42 @@
     <row r="3" spans="2:10" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="53" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="62" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="63" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="63" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="63" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -14946,12 +16645,12 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -14961,21 +16660,21 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -14988,12 +16687,12 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -15006,7 +16705,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -15032,7 +16731,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -15045,7 +16744,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -15082,7 +16781,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -15133,17 +16832,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -15153,105 +16852,105 @@
     <row r="3" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -15259,1058 +16958,88 @@
         <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>508</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:K43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="28" t="str">
-        <f>'view controllers'!D35</f>
-        <v>c2_center</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="8" t="str">
-        <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;G11&amp;A3&amp;" modal_"&amp;E12</f>
-        <v>php artisan generate:view --path="app/views/c4/c1_left" modal_f_projectcompleted</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f>"modal_"&amp;E12</f>
-        <v>modal_f_projectcompleted</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="str">
-        <f>A1&amp;C15&amp;A2</f>
-        <v>&lt;div id='modal_f_projectcompleted' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="str">
-        <f>"                    &lt;h4&gt;"&amp;E14&amp;"&lt;/h4&gt;"</f>
-        <v xml:space="preserve">                    &lt;h4&gt;More details about this task&lt;/h4&gt;</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="18" t="str">
-        <f>"&lt;a href='#' id='openmodal_"&amp;C15&amp;"'&gt;"&amp;C15&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href='#' id='openmodal_modal_f_projectcompleted'&gt;modal_f_projectcompleted&lt;/a&gt;</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="18" t="str">
-        <f>"@include('"&amp;G11&amp;".modal_"&amp;E12&amp;"')"</f>
-        <v>@include('c4/c1_left.modal_f_projectcompleted')</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="str">
-        <f>"$('#openmodal_"&amp;C15&amp;"').click(function(e){"</f>
-        <v>$('#openmodal_modal_f_projectcompleted').click(function(e){</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="str">
-        <f>"    $('#"&amp;C15&amp;"').modal('show');"</f>
-        <v xml:space="preserve">    $('#modal_f_projectcompleted').modal('show');</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja9"/>
-  <dimension ref="B2:L44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f>LEFT(C2,LEN(C2)-1)</f>
-        <v>prayer</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <f>UPPER(LEFT(E2,1))&amp;RIGHT(E2,LEN(E2)-1)</f>
-        <v>Prayer</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="2">
-        <v>11</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="2">
-        <v>11</v>
-      </c>
-      <c r="L5" s="29"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" s="2">
-        <v>12</v>
-      </c>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="2">
-        <v>13</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="K7" s="2">
-        <v>13</v>
-      </c>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="2">
-        <v>14</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="H8" s="2">
-        <v>4</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" s="2">
-        <v>14</v>
-      </c>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="2">
-        <v>15</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" s="2">
-        <v>15</v>
-      </c>
-      <c r="L9" s="29"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>6</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="E10" s="2">
-        <v>16</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="H10" s="2">
-        <v>6</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="K10" s="2">
-        <v>16</v>
-      </c>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>7</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="E11" s="2">
-        <v>17</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="H11" s="2">
-        <v>7</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="K11" s="2">
-        <v>17</v>
-      </c>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="E12" s="2">
-        <v>18</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="H12" s="2">
-        <v>8</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="K12" s="2">
-        <v>18</v>
-      </c>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="E13" s="2">
-        <v>19</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="H13" s="2">
-        <v>9</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="K13" s="2">
-        <v>19</v>
-      </c>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="E14" s="2">
-        <v>20</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="H14" s="2">
-        <v>10</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="K14" s="2">
-        <v>20</v>
-      </c>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="str">
-        <f>"$data={"&amp;C5&amp;":"&amp;C5&amp;IF(C6&lt;&gt;"",","&amp;C6&amp;":"&amp;C6,"")&amp;IF(C7&lt;&gt;"",","&amp;C7&amp;":"&amp;C7,"")&amp;IF(C8&lt;&gt;"",","&amp;C8&amp;":"&amp;C8,"")&amp;IF(C9&lt;&gt;"",","&amp;C9&amp;":"&amp;C9,"")</f>
-        <v>$data={one:one,two:two,three:three,four:four,five:five</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="str">
-        <f>IF(C10&lt;&gt;"",","&amp;C10&amp;":"&amp;C10,"")&amp;IF(C11&lt;&gt;"",","&amp;C11&amp;":"&amp;C11,"")&amp;IF(C12&lt;&gt;"",","&amp;C12&amp;":"&amp;C12,"")&amp;IF(C13&lt;&gt;"",","&amp;C13&amp;":"&amp;C13,"")&amp;IF(C14&lt;&gt;"",","&amp;C14&amp;":"&amp;C14,"")</f>
-        <v/>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="str">
-        <f>IF(F5&lt;&gt;"",","&amp;F5&amp;":"&amp;F5,"")&amp;IF(F6&lt;&gt;"",","&amp;F6&amp;":"&amp;F6,"")&amp;IF(F7&lt;&gt;"",","&amp;F7&amp;":"&amp;F7,"")&amp;IF(F8&lt;&gt;"",","&amp;F8&amp;":"&amp;F8,"")&amp;IF(F9&lt;&gt;"",","&amp;F9&amp;":"&amp;F9,"")</f>
-        <v/>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="str">
-        <f>IF(F10&lt;&gt;"",","&amp;F10&amp;":"&amp;F10,"")&amp;IF(F11&lt;&gt;"",","&amp;F11&amp;":"&amp;F11,"")&amp;IF(F12&lt;&gt;"",","&amp;F12&amp;":"&amp;F12,"")&amp;IF(F13&lt;&gt;"",","&amp;F13&amp;":"&amp;F13,"")&amp;IF(F14&lt;&gt;"",","&amp;F14&amp;":"&amp;F14,"")</f>
-        <v/>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="str">
-        <f>IF(C5&lt;&gt;"","$"&amp;I5&amp;" = $_POST['"&amp;C5&amp;"'];","")&amp;IF(C6&lt;&gt;"","$"&amp;I6&amp;" = $_POST['"&amp;C6&amp;"'];","")&amp;IF(C7&lt;&gt;"","$"&amp;I7&amp;" = $_POST['"&amp;C7&amp;"'];","")&amp;IF(C8&lt;&gt;"","$"&amp;I8&amp;" = $_POST['"&amp;C8&amp;"'];","")</f>
-        <v>$prayername = $_POST['one'];$prayercontent = $_POST['two'];$age = $_POST['three'];$saint = $_POST['four'];</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="str">
-        <f>IF(C9&lt;&gt;"","$"&amp;I9&amp;" = $_POST['"&amp;C9&amp;"'];","")&amp;IF(C10&lt;&gt;"","$"&amp;I10&amp;" = $_POST['"&amp;C10&amp;"'];","")&amp;IF(C11&lt;&gt;"","$"&amp;I11&amp;" = $_POST['"&amp;C11&amp;"'];","")&amp;IF(C12&lt;&gt;"","$"&amp;I12&amp;" = $_POST['"&amp;C12&amp;"'];","")</f>
-        <v>$comment = $_POST['five'];</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="str">
-        <f>IF(C13&lt;&gt;"","$"&amp;I13&amp;" = $_POST['"&amp;C13&amp;"'];","")&amp;IF(C14&lt;&gt;"","$"&amp;I14&amp;" = $_POST['"&amp;C14&amp;"'];","")</f>
-        <v/>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="str">
-        <f>IF(F5&lt;&gt;"","$"&amp;I5&amp;" = $_POST['"&amp;F5&amp;"'];","")&amp;IF(F6&lt;&gt;"","$"&amp;I6&amp;" = $_POST['"&amp;F6&amp;"'];","")&amp;IF(F7&lt;&gt;"","$"&amp;I7&amp;" = $_POST['"&amp;F7&amp;"'];","")&amp;IF(F8&lt;&gt;"","$"&amp;I8&amp;" = $_POST['"&amp;F8&amp;"'];","")</f>
-        <v/>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="str">
-        <f>IF(F9&lt;&gt;"","$"&amp;I9&amp;" = $_POST['"&amp;F9&amp;"'];","")&amp;IF(F10&lt;&gt;"","$"&amp;I10&amp;" = $_POST['"&amp;F10&amp;"'];","")&amp;IF(F11&lt;&gt;"","$"&amp;I11&amp;" = $_POST['"&amp;F11&amp;"'];","")&amp;IF(F12&lt;&gt;"","$"&amp;I12&amp;" = $_POST['"&amp;F12&amp;"'];","")</f>
-        <v/>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="str">
-        <f>IF(F13&lt;&gt;"","$"&amp;I13&amp;" = $_POST['"&amp;F13&amp;"'];","")&amp;IF(F14&lt;&gt;"","$"&amp;I14&amp;" = $_POST['"&amp;F14&amp;"'];","")</f>
-        <v/>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="str">
-        <f>IF(I5&lt;&gt;"","    "&amp;IF(I4&lt;&gt;"columns",",","")&amp;"'"&amp;I5&amp;"'  =&gt;  $"&amp;I5,"")&amp;IF(I6&lt;&gt;"",IF(I5&lt;&gt;"columns",",","")&amp;"'"&amp;I6&amp;"'  =&gt;  $"&amp;I6,"")&amp;IF(I7&lt;&gt;"",IF(I6&lt;&gt;"columns",",","")&amp;"'"&amp;I7&amp;"'  =&gt;  $"&amp;I7,"")&amp;IF(I8&lt;&gt;"",IF(I7&lt;&gt;"columns",",","")&amp;"'"&amp;I8&amp;"'  =&gt;  $"&amp;I8,"")</f>
-        <v xml:space="preserve">    'prayername'  =&gt;  $prayername,'prayercontent'  =&gt;  $prayercontent,'age'  =&gt;  $age,'saint'  =&gt;  $saint</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="str">
-        <f>IF(I9&lt;&gt;"","    "&amp;IF(I8&lt;&gt;"columns",",","")&amp;"'"&amp;I9&amp;"'  =&gt;  $"&amp;I9,"")&amp;IF(I10&lt;&gt;"",IF(I9&lt;&gt;"columns",",","")&amp;"'"&amp;I10&amp;"'  =&gt;  $"&amp;I10,"")&amp;IF(I11&lt;&gt;"","    "&amp;IF(I10&lt;&gt;"columns",",","")&amp;"'"&amp;I11&amp;"'  =&gt;  $"&amp;I11,"")&amp;IF(I12&lt;&gt;"",IF(I11&lt;&gt;"columns",",","")&amp;"'"&amp;I12&amp;"'  =&gt;  $"&amp;I12,"")</f>
-        <v xml:space="preserve">    ,'comment'  =&gt;  $comment</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="str">
-        <f>IF(I13&lt;&gt;"","    "&amp;IF(I12&lt;&gt;"columns",",","")&amp;"'"&amp;I13&amp;"'  =&gt;  $"&amp;I13,"")&amp;IF(I14&lt;&gt;"",IF(I13&lt;&gt;"columns",",","")&amp;"'"&amp;I14&amp;"'  =&gt;  $"&amp;I14,"")</f>
-        <v/>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="str">
-        <f>IF(L5&lt;&gt;"","    "&amp;IF(I14&lt;&gt;"columns",",","")&amp;"'"&amp;L5&amp;"'  =&gt;  $"&amp;L5,"")&amp;IF(L6&lt;&gt;"",IF(L5&lt;&gt;"columns",",","")&amp;"'"&amp;L6&amp;"'  =&gt;  $"&amp;L6,"")&amp;IF(L7&lt;&gt;"",IF(L6&lt;&gt;"columns",",","")&amp;"'"&amp;L7&amp;"'  =&gt;  $"&amp;L7,"")&amp;IF(L8&lt;&gt;"",IF(L7&lt;&gt;"columns",",","")&amp;"'"&amp;L8&amp;"'  =&gt;  $"&amp;L8,"")</f>
-        <v/>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="str">
-        <f>IF(L9&lt;&gt;"","    "&amp;IF(L8&lt;&gt;"columns",",","")&amp;"'"&amp;L9&amp;"'  =&gt;  $"&amp;L9,"")&amp;IF(L10&lt;&gt;"",IF(L9&lt;&gt;"columns",",","")&amp;"'"&amp;L10&amp;"'  =&gt;  $"&amp;L10,"")&amp;IF(L11&lt;&gt;"",IF(L10&lt;&gt;"columns",",","")&amp;"'"&amp;L11&amp;"'  =&gt;  $"&amp;L11,"")&amp;IF(L12&lt;&gt;"",IF(L11&lt;&gt;"columns",",","")&amp;"'"&amp;L12&amp;"'  =&gt;  $"&amp;L12,"")</f>
-        <v/>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="str">
-        <f>IF(L13&lt;&gt;"","    "&amp;IF(L12&lt;&gt;"columns",",","")&amp;"'"&amp;L13&amp;"'  =&gt;  $"&amp;L13,"")&amp;IF(L14&lt;&gt;"",IF(L13&lt;&gt;"columns",",","")&amp;"'"&amp;L14&amp;"'  =&gt;  $"&amp;L14,"")</f>
-        <v/>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7155" tabRatio="666" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7155" tabRatio="666"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="555">
   <si>
     <t>sublime_text  .</t>
   </si>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>Tables and models  &gt;&gt;</t>
-  </si>
-  <si>
-    <t>AUTOMATED LARAVEL MAIL SENDER CONSTRUCTOR VERSION 2</t>
   </si>
   <si>
     <t>Check mail configuration at app/config/mail.php</t>
@@ -971,9 +968,6 @@
     <t>View tester: open EmailtesterController.php</t>
   </si>
   <si>
-    <t>$project=</t>
-  </si>
-  <si>
     <t>Controller tester</t>
   </si>
   <si>
@@ -1026,9 +1020,6 @@
   </si>
   <si>
     <t>healmy5_sentrytest2</t>
-  </si>
-  <si>
-    <t>groups</t>
   </si>
   <si>
     <t>a_base</t>
@@ -2162,9 +2153,6 @@
     <t>MODAL GENERATOR VERSION 2</t>
   </si>
   <si>
-    <t>saferhealth</t>
-  </si>
-  <si>
     <t>STATIC PROGRAMMING RULES (IF ALREADY AUTOMATED DELETE THEM)</t>
   </si>
   <si>
@@ -2333,18 +2321,12 @@
     <t>Team management</t>
   </si>
   <si>
-    <t>$coordinator=</t>
-  </si>
-  <si>
     <t>$mssgdata=compact(</t>
   </si>
   <si>
     <t>Already existing project</t>
   </si>
   <si>
-    <t>Project score</t>
-  </si>
-  <si>
     <t>enter</t>
   </si>
   <si>
@@ -2360,55 +2342,112 @@
     <t>js / php zero div rule</t>
   </si>
   <si>
-    <t>c4project</t>
-  </si>
-  <si>
-    <t>a_transfercoordination</t>
-  </si>
-  <si>
     <t xml:space="preserve">test url </t>
   </si>
   <si>
-    <t>$email=</t>
-  </si>
-  <si>
-    <t>leavingproject</t>
-  </si>
-  <si>
-    <t>$user=</t>
-  </si>
-  <si>
     <t>$taskingeasy= no_reply@taskingeasy.com;</t>
   </si>
   <si>
     <t>$subject='Collaborator left project';</t>
   </si>
   <si>
-    <t>mssgs</t>
-  </si>
-  <si>
-    <t>bottleneck</t>
-  </si>
-  <si>
-    <t>datepicker bug fixed</t>
-  </si>
-  <si>
-    <t>facturasalud</t>
-  </si>
-  <si>
-    <t>validations</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>customer_id</t>
+    <t>extends</t>
+  </si>
+  <si>
+    <t>Template invocation</t>
+  </si>
+  <si>
+    <t>@extends('***') …</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>html attribute</t>
+  </si>
+  <si>
+    <t>value attribute</t>
+  </si>
+  <si>
+    <t>zero division rule</t>
+  </si>
+  <si>
+    <t>$('#some_id').html();</t>
+  </si>
+  <si>
+    <t>$('#some_id').val();</t>
+  </si>
+  <si>
+    <t>holds</t>
+  </si>
+  <si>
+    <t>thres</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>BOOTSTRAP SNIPPETS</t>
+  </si>
+  <si>
+    <t>fluid12</t>
+  </si>
+  <si>
+    <t>row.flud&gt;.span12</t>
+  </si>
+  <si>
+    <t>&lt;div class='row-fluid…</t>
+  </si>
+  <si>
+    <t>c4/c1_left</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>progressreport</t>
+  </si>
+  <si>
+    <t>Not approved from coordinator</t>
+  </si>
+  <si>
+    <t>requestcoordinatortoapprove</t>
+  </si>
+  <si>
+    <t>$coord=</t>
+  </si>
+  <si>
+    <t>$requester=</t>
+  </si>
+  <si>
+    <t>$tasks=</t>
+  </si>
+  <si>
+    <t>l_projectdocuments</t>
+  </si>
+  <si>
+    <t>projectfiles</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>edry2</t>
+  </si>
+  <si>
+    <t>bootstrap3.1</t>
   </si>
 </sst>
 </file>
@@ -4665,35 +4704,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>24383</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2720</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
+        <xdr:cNvPr id="7" name="Grupo 6">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7239000" y="171450"/>
-          <a:ext cx="914400" cy="995933"/>
+          <a:off x="8439150" y="133350"/>
+          <a:ext cx="238125" cy="250370"/>
           <a:chOff x="9210675" y="461392"/>
           <a:chExt cx="914400" cy="995933"/>
         </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvPr id="8" name="Rectángulo redondeado 7"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4704,9 +4746,7 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
+          <a:grpFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -4732,13 +4772,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvPr id="9" name="Rectángulo redondeado 8"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4749,9 +4789,7 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
+          <a:grpFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -4777,63 +4815,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="CuadroTexto 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9324975" y="638175"/>
-            <a:ext cx="674031" cy="368242"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>home</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
+          <xdr:cNvPr id="10" name="Rectángulo redondeado 9"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4846,8 +4834,8 @@
           </a:prstGeom>
           <a:solidFill>
             <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:ln>
@@ -4875,13 +4863,72 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:endParaRPr lang="es-ES" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2149563" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CuadroTexto 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="295275"/>
+          <a:ext cx="2149563" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Automated mail sender</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7397,7 +7444,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7418,93 +7465,93 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I8" s="57" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I9" s="58" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H11" s="89" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H12" s="89" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H13" s="89" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="H14" s="89" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="56"/>
       <c r="I15" s="57" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="56"/>
       <c r="H16" s="89" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="56"/>
       <c r="H17" s="89" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H18" s="89" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H19" s="89" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H20" s="89" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7525,7 +7572,7 @@
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7559,7 +7606,7 @@
     <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7573,10 +7620,10 @@
       </c>
       <c r="E11" s="28" t="str">
         <f>'view controllers'!D35</f>
-        <v>mssgs</v>
+        <v>progressreport</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="H11" s="17"/>
     </row>
@@ -7585,7 +7632,7 @@
         <v>159</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7594,7 +7641,7 @@
       </c>
       <c r="C13" s="8" t="str">
         <f>"php artisan generate:view --path="&amp;A3&amp;"app/views/"&amp;G11&amp;A3&amp;" modal_"&amp;E12</f>
-        <v>php artisan generate:view --path="app/views/c4project" modal_a_transfercoordination</v>
+        <v>php artisan generate:view --path="app/views/c4/c1_left" modal_l_projectdocuments</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -7607,7 +7654,7 @@
         <v>162</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -7618,13 +7665,13 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>"modal_"&amp;E12</f>
-        <v>modal_a_transfercoordination</v>
+        <v>modal_l_projectdocuments</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="str">
         <f>A1&amp;C15&amp;A2</f>
-        <v>&lt;div id='modal_a_transfercoordination' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
+        <v>&lt;div id='modal_l_projectdocuments' class="modal hide fade" tabindex="-1" role="dialog" aria-labelledby="myModalLabel" aria-hidden="true"&gt;</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -7652,7 +7699,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -7666,7 +7713,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -7680,7 +7727,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -7694,7 +7741,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -7709,7 +7756,7 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
         <f>"                    &lt;h4&gt;"&amp;E14&amp;"&lt;/h4&gt;"</f>
-        <v xml:space="preserve">                    &lt;h4&gt;Project score&lt;/h4&gt;</v>
+        <v xml:space="preserve">                    &lt;h4&gt;Not approved from coordinator&lt;/h4&gt;</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -7723,7 +7770,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -7737,7 +7784,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -7751,7 +7798,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -7765,7 +7812,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -7779,7 +7826,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -7793,7 +7840,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -7807,7 +7854,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -7821,7 +7868,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -7835,7 +7882,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -7881,7 +7928,7 @@
       </c>
       <c r="D36" s="18" t="str">
         <f>"&lt;a href='#' id='openmodal_"&amp;C15&amp;"'&gt;"&amp;C15&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href='#' id='openmodal_modal_a_transfercoordination'&gt;modal_a_transfercoordination&lt;/a&gt;</v>
+        <v>&lt;a href='#' id='openmodal_modal_l_projectdocuments'&gt;modal_l_projectdocuments&lt;/a&gt;</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -7894,7 +7941,7 @@
       </c>
       <c r="D37" s="18" t="str">
         <f>"@include('"&amp;G11&amp;".modal_"&amp;E12&amp;"')"</f>
-        <v>@include('c4project.modal_a_transfercoordination')</v>
+        <v>@include('c4/c1_left.modal_l_projectdocuments')</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
@@ -7909,7 +7956,7 @@
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
         <f>"$('#openmodal_"&amp;C15&amp;"').click(function(e){"</f>
-        <v>$('#openmodal_modal_a_transfercoordination').click(function(e){</v>
+        <v>$('#openmodal_modal_l_projectdocuments').click(function(e){</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -7928,7 +7975,7 @@
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
         <f>"    $('#"&amp;C15&amp;"').modal('show');"</f>
-        <v xml:space="preserve">    $('#modal_a_transfercoordination').modal('show');</v>
+        <v xml:space="preserve">    $('#modal_l_projectdocuments').modal('show');</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -8771,10 +8818,12 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja12"/>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8791,32 +8840,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="2" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="25" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -8827,7 +8862,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -8838,7 +8873,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -8848,65 +8883,62 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="C10" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>196</v>
-      </c>
-    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f>E13&amp;"."&amp;G13</f>
-        <v>emails.leavingproject</v>
-      </c>
-      <c r="K13" s="33" t="str">
+      <c r="G14" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f>E14&amp;"."&amp;G14</f>
+        <v>emails.requestcoordinatortoapprove</v>
+      </c>
+      <c r="K14" s="33" t="str">
         <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
-        <v>C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="8" t="str">
-        <f>"Copy-Item "&amp;K13&amp;"\app\views\templates\email2.blade.php "&amp;K13&amp;"\app\views\emails"</f>
-        <v>Copy-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud\app\views\templates\email2.blade.php C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud\app\views\emails</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+        <v>C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="8" t="str">
-        <f>"Rename-Item "&amp;K13&amp;"\app\views\"&amp;E13&amp;"\email2.blade.php "&amp;G13&amp;".blade.php"</f>
-        <v>Rename-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud\app\views\emails\email2.blade.php leavingproject.blade.php</v>
+        <f>"Copy-Item "&amp;K14&amp;"\app\views\templates\email2.blade.php "&amp;K14&amp;"\app\views\emails"</f>
+        <v>Copy-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2\app\views\templates\email2.blade.php C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2\app\views\emails</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -8914,29 +8946,31 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f>"Rename-Item "&amp;K14&amp;"\app\views\"&amp;E14&amp;"\email2.blade.php "&amp;G14&amp;".blade.php"</f>
+        <v>Rename-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2\app\views\emails\email2.blade.php requestcoordinatortoapprove.blade.php</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="str">
-        <f>"public function get"&amp;UPPER(LEFT(G13,1))&amp;RIGHT(G13,LEN(G13)-1)&amp;"() {"</f>
-        <v>public function getLeavingproject() {</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="13" t="str">
+        <f>"public function get"&amp;UPPER(LEFT(G14,1))&amp;RIGHT(G14,LEN(G14)-1)&amp;"() {"</f>
+        <v>public function getRequestcoordinatortoapprove() {</v>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -8972,10 +9006,7 @@
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="str">
-        <f>"    return View::make('"&amp;E13&amp;"."&amp;G13&amp;"');"</f>
-        <v xml:space="preserve">    return View::make('emails.leavingproject');</v>
-      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -8987,8 +9018,9 @@
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>2</v>
+      <c r="B23" s="13" t="str">
+        <f>"    return View::make('"&amp;E14&amp;"."&amp;G14&amp;"');"</f>
+        <v xml:space="preserve">    return View::make('emails.requestcoordinatortoapprove');</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -9000,122 +9032,118 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f>"/emailtester/"&amp;G13</f>
-        <v>/emailtester/leavingproject</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f>"/emailtester/"&amp;G14</f>
+        <v>/emailtester/requestcoordinatortoapprove</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="L29" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="17"/>
-      <c r="F30" s="34" t="str">
-        <f>IF(B30&lt;&gt;"",LEFT(B30,FIND("=",B30)-1),"")</f>
-        <v>$coordinator</v>
-      </c>
-      <c r="G30" s="18" t="str">
-        <f>IF(F30&lt;&gt;"",IF(G29="$mssgdata=compact(","",",")&amp;"'"&amp;RIGHT(F30,LEN(F30)-1)&amp;"'     ","")</f>
-        <v xml:space="preserve">'coordinator'     </v>
+      <c r="G30" s="18" t="s">
+        <v>512</v>
       </c>
       <c r="H30" s="16"/>
-      <c r="J30" s="16" t="str">
-        <f>IF(F30&lt;&gt;"","{{"&amp;F30&amp;"}}","")</f>
-        <v>{{$coordinator}}</v>
-      </c>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="17"/>
       <c r="F31" s="34" t="str">
-        <f t="shared" ref="F31:F34" si="0">IF(B31&lt;&gt;"",LEFT(B31,FIND("=",B31)-1),"")</f>
-        <v>$user</v>
+        <f>IF(B31&lt;&gt;"",LEFT(B31,FIND("=",B31)-1),"")</f>
+        <v>$coord</v>
       </c>
       <c r="G31" s="18" t="str">
-        <f>IF(F31&lt;&gt;"",IF(G30="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F31,LEN(F31)-1)&amp;"'  ","")</f>
-        <v xml:space="preserve">,'user'  </v>
+        <f>IF(F31&lt;&gt;"",IF(G30="$mssgdata=compact(","",",")&amp;"'"&amp;RIGHT(F31,LEN(F31)-1)&amp;"'     ","")</f>
+        <v xml:space="preserve">'coord'     </v>
       </c>
       <c r="H31" s="16"/>
       <c r="J31" s="16" t="str">
-        <f t="shared" ref="J31:J34" si="1">IF(F31&lt;&gt;"","{{"&amp;F31&amp;"}}","")</f>
-        <v>{{$user}}</v>
+        <f>IF(F31&lt;&gt;"","{{"&amp;F31&amp;"}}","")</f>
+        <v>{{$coord}}</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
-        <v>272</v>
+        <v>546</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="17"/>
       <c r="F32" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>$project</v>
+        <f t="shared" ref="F32:F35" si="0">IF(B32&lt;&gt;"",LEFT(B32,FIND("=",B32)-1),"")</f>
+        <v>$requester</v>
       </c>
       <c r="G32" s="18" t="str">
-        <f>IF(F32&lt;&gt;"",IF(G31="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F32,LEN(F32)-1)&amp;"'   ","")</f>
-        <v xml:space="preserve">,'project'   </v>
+        <f>IF(F32&lt;&gt;"",IF(G31="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F32,LEN(F32)-1)&amp;"'  ","")</f>
+        <v xml:space="preserve">,'requester'  </v>
       </c>
       <c r="H32" s="16"/>
       <c r="J32" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>{{$project}}</v>
+        <f t="shared" ref="J32:J35" si="1">IF(F32&lt;&gt;"","{{"&amp;F32&amp;"}}","")</f>
+        <v>{{$requester}}</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
+      <c r="B33" s="29" t="s">
+        <v>547</v>
+      </c>
       <c r="C33" s="29"/>
       <c r="D33" s="17"/>
       <c r="F33" s="34" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>$tasks</v>
       </c>
       <c r="G33" s="18" t="str">
-        <f>IF(F33&lt;&gt;"",IF(G32="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F33,LEN(F33)-1)&amp;"'     ","")</f>
-        <v/>
+        <f>IF(F33&lt;&gt;"",IF(G32="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F33,LEN(F33)-1)&amp;"'   ","")</f>
+        <v xml:space="preserve">,'tasks'   </v>
       </c>
       <c r="H33" s="16"/>
       <c r="J33" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{{$tasks}}</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -9137,154 +9165,159 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="18" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="17"/>
+      <c r="F35" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="18" t="str">
+        <f>IF(F35&lt;&gt;"",IF(G34="$mssgdata=array(","",",")&amp;"'"&amp;RIGHT(F35,LEN(F35)-1)&amp;"'     ","")</f>
+        <v/>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="J35" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="H36" s="16"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="18" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="17"/>
-      <c r="F39" s="34" t="str">
-        <f>IF(B39&lt;&gt;"",LEFT(B39,FIND("=",B39)-1),"")</f>
-        <v>$email</v>
-      </c>
-      <c r="G39" s="18" t="str">
-        <f>"    'recipient'    =&gt;    "&amp;F39</f>
-        <v xml:space="preserve">    'recipient'    =&gt;    $email</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="17"/>
       <c r="F40" s="34" t="str">
-        <f t="shared" ref="F40:F43" si="2">IF(B40&lt;&gt;"",LEFT(B40,FIND("=",B40)-1),"")</f>
-        <v>$email</v>
+        <f>IF(B40&lt;&gt;"",LEFT(B40,FIND("=",B40)-1),"")</f>
+        <v>$coord</v>
       </c>
       <c r="G40" s="18" t="str">
-        <f>"   , 'r_name'    =&gt;    "&amp;F40</f>
-        <v xml:space="preserve">   , 'r_name'    =&gt;    $email</v>
+        <f>"    'recipient'    =&gt;    "&amp;F40</f>
+        <v xml:space="preserve">    'recipient'    =&gt;    $coord</v>
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="17"/>
-      <c r="F41" s="35" t="str">
-        <f>IF(B41&lt;&gt;"",LEFT(B41,FIND("=",B41)-1),"'support@healmydisease.com'")</f>
-        <v>$taskingeasy</v>
+      <c r="F41" s="34" t="str">
+        <f t="shared" ref="F41:F44" si="2">IF(B41&lt;&gt;"",LEFT(B41,FIND("=",B41)-1),"")</f>
+        <v>$coord</v>
       </c>
       <c r="G41" s="18" t="str">
-        <f>"   , 'sender'    =&gt;    "&amp;F41</f>
-        <v xml:space="preserve">   , 'sender'    =&gt;    $taskingeasy</v>
+        <f>"   , 'r_name'    =&gt;    "&amp;F41</f>
+        <v xml:space="preserve">   , 'r_name'    =&gt;    $coord</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="17"/>
       <c r="F42" s="35" t="str">
-        <f>IF(B42&lt;&gt;"",LEFT(B42,FIND("=",B42)-1),"'The HMD team'")</f>
-        <v>$coordinator</v>
+        <f>IF(B42&lt;&gt;"",LEFT(B42,FIND("=",B42)-1),"'support@healmydisease.com'")</f>
+        <v>$taskingeasy</v>
       </c>
       <c r="G42" s="18" t="str">
-        <f>"   , 's_name'    =&gt;    "&amp;F42</f>
-        <v xml:space="preserve">   , 's_name'    =&gt;    $coordinator</v>
+        <f>"   , 'sender'    =&gt;    "&amp;F42</f>
+        <v xml:space="preserve">   , 'sender'    =&gt;    $taskingeasy</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>532</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="17"/>
-      <c r="F43" s="34" t="str">
+      <c r="F43" s="35" t="str">
+        <f>IF(B43&lt;&gt;"",LEFT(B43,FIND("=",B43)-1),"'The TaskingEasy team'")</f>
+        <v>'The TaskingEasy team'</v>
+      </c>
+      <c r="G43" s="18" t="str">
+        <f>"   , 's_name'    =&gt;    "&amp;F43</f>
+        <v xml:space="preserve">   , 's_name'    =&gt;    'The TaskingEasy team'</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="17"/>
+      <c r="F44" s="34" t="str">
         <f t="shared" si="2"/>
         <v>$subject</v>
       </c>
-      <c r="G43" s="18" t="str">
-        <f>"   , 'subject'    =&gt;    "&amp;F43</f>
+      <c r="G44" s="18" t="str">
+        <f>"   , 'subject'    =&gt;    "&amp;F44</f>
         <v xml:space="preserve">   , 'subject'    =&gt;    $subject</v>
-      </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+    </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="25" t="str">
-        <f>"Mail::send(   '"&amp;H13&amp;"',   $mssgdata,  function($message) use ($maildata) {"</f>
-        <v>Mail::send(   'emails.leavingproject',   $mssgdata,  function($message) use ($maildata) {</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-    </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="25" t="s">
-        <v>209</v>
+      <c r="C49" s="25" t="str">
+        <f>"Mail::send(   '"&amp;H14&amp;"',   $mssgdata,  function($message) use ($maildata) {"</f>
+        <v>Mail::send(   'emails.requestcoordinatortoapprove',   $mssgdata,  function($message) use ($maildata) {</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -9295,10 +9328,10 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C50" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D50" s="13"/>
-      <c r="E50" s="25"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -9306,7 +9339,7 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C51" s="25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="25"/>
@@ -9317,28 +9350,38 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C52" s="25" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
@@ -9347,7 +9390,13 @@
     <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" x14ac:dyDescent="0.25"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" x14ac:dyDescent="0.25"/>
+    <row r="68" x14ac:dyDescent="0.25"/>
+    <row r="69" x14ac:dyDescent="0.25"/>
+    <row r="70" x14ac:dyDescent="0.25"/>
+    <row r="71" x14ac:dyDescent="0.25"/>
+    <row r="72" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9358,12 +9407,12 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja13"/>
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9381,7 +9430,7 @@
     <row r="4" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L5" s="16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -9394,10 +9443,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
@@ -9405,20 +9454,20 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="D11" s="91"/>
     </row>
@@ -9428,7 +9477,7 @@
       </c>
       <c r="C12" s="52" t="str">
         <f>"cd "&amp;C11</f>
-        <v>cd saferhealth</v>
+        <v>cd smart</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
@@ -9438,12 +9487,12 @@
         <v>34</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -9451,7 +9500,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
@@ -9461,18 +9510,18 @@
         <v>34</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F17" s="53" t="str">
         <f>C11</f>
-        <v>saferhealth</v>
+        <v>smart</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -9481,7 +9530,7 @@
       </c>
       <c r="C18" s="52" t="str">
         <f>"git remote add origin https://github.com/alejoto/"&amp;C11&amp;".git"</f>
-        <v>git remote add origin https://github.com/alejoto/saferhealth.git</v>
+        <v>git remote add origin https://github.com/alejoto/smart.git</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
@@ -9494,7 +9543,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
@@ -9507,7 +9556,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -9518,7 +9567,7 @@
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
@@ -9528,7 +9577,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="93" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -9537,7 +9586,7 @@
       </c>
       <c r="C24" s="52" t="str">
         <f>"cd "&amp;L5&amp;"github\"&amp;'Start project'!C13</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="42"/>
@@ -9549,12 +9598,12 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -9562,24 +9611,24 @@
         <v>34</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="F31" s="91"/>
       <c r="G31" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -9587,12 +9636,12 @@
         <v>34</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
       <c r="G32" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -9600,12 +9649,12 @@
         <v>34</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
       <c r="G33" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -9614,15 +9663,15 @@
       </c>
       <c r="C34" s="52" t="str">
         <f>"git commit -m "&amp;A1&amp;E31&amp;A1</f>
-        <v>git commit -m "datepicker bug fixed"</v>
+        <v>git commit -m "bootstrap3.1"</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
       <c r="G34" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -9630,7 +9679,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -9640,7 +9689,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
@@ -9648,14 +9697,14 @@
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="42"/>
       <c r="C37" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -9663,25 +9712,27 @@
         <v>34</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>269</v>
+        <v>541</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="42" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
+      <c r="C43" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
+      <c r="B46" s="42" t="s">
+        <v>34</v>
+      </c>
       <c r="C46" s="52" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
@@ -9689,305 +9740,313 @@
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="52" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>239</v>
+      <c r="B48" s="42"/>
+      <c r="C48" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="K51" s="16" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="K52" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
+        <v>239</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>237</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="K53" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L53" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
+      <c r="B54" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
-        <v>216</v>
+      <c r="B56" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="46" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="46" t="s">
-        <v>224</v>
-      </c>
+      <c r="C61" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="16" t="s">
-        <v>228</v>
+      <c r="B62" s="46" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="48" t="s">
         <v>225</v>
-      </c>
-      <c r="C63" s="49" t="s">
-        <v>227</v>
       </c>
       <c r="D63" s="47"/>
       <c r="E63" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="47"/>
+      <c r="E64" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="50"/>
+      <c r="C65" s="50" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="50"/>
-      <c r="C64" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="54" t="s">
-        <v>263</v>
+      <c r="D65" s="50"/>
+      <c r="E65" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C68" s="91" t="s">
+      <c r="B68" s="54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="D68" s="91"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="52" t="str">
-        <f>"git branch "&amp;C68</f>
-        <v>git branch two</v>
-      </c>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
+      <c r="D69" s="91"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C70" s="52" t="str">
-        <f>"git checkout "&amp;C68</f>
-        <v>git checkout two</v>
+        <f>"git branch "&amp;C69</f>
+        <v>git branch two</v>
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="42"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="16" t="s">
-        <v>255</v>
-      </c>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="52" t="str">
+        <f>"git checkout "&amp;C69</f>
+        <v>git checkout two</v>
+      </c>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="16" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E74" s="91" t="s">
+      <c r="E75" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="F75" s="91"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G77" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="F74" s="91"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="52" t="str">
-        <f>"git commit -m "&amp;$A$1&amp;E74&amp;$A$1</f>
-        <v>git commit -m "fixing request bug"</v>
-      </c>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C78" s="52" t="str">
-        <f>"git push origin "&amp;C68</f>
-        <v>git push origin two</v>
+        <f>"git commit -m "&amp;$A$1&amp;E75&amp;$A$1</f>
+        <v>git commit -m "fixing request bug"</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="42"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="42" t="s">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="52" t="str">
-        <f>"git pull origin "&amp;C68</f>
+      <c r="C79" s="52" t="str">
+        <f>"git push origin "&amp;C69</f>
+        <v>git push origin two</v>
+      </c>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="52" t="str">
+        <f>"git pull origin "&amp;C69</f>
         <v>git pull origin two</v>
       </c>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="16" t="s">
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="52" t="str">
-        <f>"git merge "&amp;C68</f>
-        <v>git merge two</v>
+      <c r="C84" s="52" t="s">
+        <v>259</v>
       </c>
       <c r="D84" s="42"/>
       <c r="E84" s="42"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="52" t="s">
-        <v>235</v>
+      <c r="C85" s="52" t="str">
+        <f>"git merge "&amp;C69</f>
+        <v>git merge two</v>
       </c>
       <c r="D85" s="42"/>
       <c r="E85" s="42"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="44" t="str">
-        <f>"git branch -d "&amp;C68</f>
-        <v>git branch -d two</v>
-      </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="44" t="str">
-        <f>"git push origin --delete "&amp;C68</f>
-        <v>git push origin --delete two</v>
+        <f>"git branch -d "&amp;C69</f>
+        <v>git branch -d two</v>
       </c>
       <c r="D90" s="55"/>
       <c r="E90" s="55"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="44" t="str">
+        <f>"git push origin --delete "&amp;C69</f>
+        <v>git push origin --delete two</v>
+      </c>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10002,7 +10061,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C17"/>
+      <selection activeCell="B33" sqref="B33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10082,10 +10141,10 @@
         <v>52</v>
       </c>
       <c r="G8" s="90" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10112,7 +10171,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -10144,7 +10203,7 @@
       </c>
       <c r="C16" s="8" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir facturasalud</v>
+        <v>mkdir edry2</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="8"/>
@@ -10157,7 +10216,7 @@
       </c>
       <c r="C17" s="8" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd facturasalud</v>
+        <v>cd edry2</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -10206,7 +10265,7 @@
       </c>
       <c r="C24" s="8" t="str">
         <f>"cd "&amp;H8&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -10357,10 +10416,10 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10442,10 +10501,10 @@
         <v>52</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10474,7 +10533,7 @@
       </c>
       <c r="C16" s="28" t="str">
         <f>'Start project'!C13</f>
-        <v>facturasalud</v>
+        <v>edry2</v>
       </c>
       <c r="D16" s="13"/>
     </row>
@@ -10500,7 +10559,7 @@
       </c>
       <c r="C20" s="8" t="str">
         <f>"cd "&amp;H10&amp;C17&amp;"\"&amp;C16</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -10543,7 +10602,7 @@
       </c>
       <c r="C25" s="8" t="str">
         <f>"cd "&amp;H10&amp;C17&amp;"\"&amp;C16</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -10594,7 +10653,7 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="1" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>112</v>
@@ -10604,7 +10663,7 @@
       </c>
       <c r="H35" s="23" t="str">
         <f>D35</f>
-        <v>mssgs</v>
+        <v>progressreport</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -10613,11 +10672,11 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E36" s="10" t="str">
         <f>E35&amp;D35&amp;"/"</f>
-        <v>app/views/mssgs/</v>
+        <v>app/views/progressreport/</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>116</v>
@@ -10633,7 +10692,7 @@
       </c>
       <c r="C37" s="8" t="str">
         <f>"mkdir "&amp;E35&amp;D35</f>
-        <v>mkdir app/views/mssgs</v>
+        <v>mkdir app/views/progressreport</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -10647,7 +10706,7 @@
       </c>
       <c r="C38" s="8" t="str">
         <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D35&amp;B3&amp;" "&amp;D36</f>
-        <v>php artisan generate:view --path="app/views/mssgs" a_base</v>
+        <v>php artisan generate:view --path="app/views/progressreport" a_base</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -10655,7 +10714,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="3" t="str">
         <f>UPPER(LEFT(D35,1))&amp;RIGHT(D35,LEN(D35)-1)&amp;"Controller"</f>
-        <v>MssgsController</v>
+        <v>ProgressreportController</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -10664,7 +10723,7 @@
       </c>
       <c r="C39" s="8" t="str">
         <f>A4&amp;B5&amp;H38</f>
-        <v>php artisan generate:controller MssgsController</v>
+        <v>php artisan generate:controller ProgressreportController</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -10681,7 +10740,7 @@
       </c>
       <c r="C41" s="10" t="str">
         <f>E36&amp;H36</f>
-        <v>app/views/mssgs/a_base.blade.php</v>
+        <v>app/views/progressreport/a_base.blade.php</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="2" t="s">
@@ -10756,7 +10815,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C49" s="25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -10766,7 +10825,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -10776,7 +10835,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -10794,7 +10853,7 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -10822,7 +10881,7 @@
       </c>
       <c r="D56" s="2" t="str">
         <f>" app/Controllers/"&amp;H38&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/MssgsController.php</v>
+        <v xml:space="preserve"> app/Controllers/ProgressreportController.php</v>
       </c>
       <c r="G56" s="3" t="str">
         <f>UPPER(LEFT(D36,1))&amp;RIGHT(D36,LEN(D36)-1)</f>
@@ -10846,7 +10905,7 @@
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C58" s="18" t="str">
         <f>"    return View::make('"&amp;D35&amp;IF(D35&lt;&gt;"",".","")&amp;D36&amp;"'"&amp;")"</f>
-        <v xml:space="preserve">    return View::make('mssgs.a_base')</v>
+        <v xml:space="preserve">    return View::make('progressreport.a_base')</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -10889,7 +10948,7 @@
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63" s="18" t="str">
         <f>B6&amp;D35&amp;C1&amp;H38&amp;C2</f>
-        <v>Route::controller('mssgs','MssgsController');</v>
+        <v>Route::controller('progressreport','ProgressreportController');</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -10974,7 +11033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10983,80 +11044,80 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J10" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -11083,22 +11144,22 @@
     <row r="3" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -11113,9 +11174,9 @@
   <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -11194,10 +11255,10 @@
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G10" s="90" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11231,7 +11292,7 @@
       </c>
       <c r="C17" s="28" t="str">
         <f>'Start project'!C13</f>
-        <v>facturasalud</v>
+        <v>edry2</v>
       </c>
       <c r="D17" s="13"/>
     </row>
@@ -11257,7 +11318,7 @@
       </c>
       <c r="C21" s="8" t="str">
         <f>"cd "&amp;H10&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -11300,7 +11361,7 @@
       </c>
       <c r="C26" s="8" t="str">
         <f>"cd "&amp;H10&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\facturasalud</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -11339,7 +11400,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D34" s="1"/>
       <c r="F34" s="18" t="str">
@@ -11357,7 +11418,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D35" s="1"/>
       <c r="F35" s="18" t="str">
@@ -11390,7 +11451,7 @@
       <c r="K36" s="13"/>
       <c r="M36" s="3" t="str">
         <f>IF(SUM(J41:K50)&gt;0,B2&amp;P50&amp;Q50&amp;B3,"")</f>
-        <v>--fields="year:string, from:date, to:date, customer_id:integer"</v>
+        <v>--fields="filename:string, location:string, project_id:integer"</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25"/>
@@ -11404,15 +11465,15 @@
         <v>10</v>
       </c>
       <c r="D39" s="92" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>LEFT(D39,LEN(D39)-1)</f>
-        <v>validation</v>
+        <v>projectfile</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>UPPER(LEFT(F39,1))&amp;RIGHT(F39,LEN(F39)-1)</f>
-        <v>Validation</v>
+        <v>Projectfile</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
@@ -11447,7 +11508,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="D41" s="92" t="s">
         <v>41</v>
@@ -11470,7 +11531,7 @@
       </c>
       <c r="N41" s="22" t="str">
         <f>IF(AND(C41&lt;&gt;"",D41&lt;&gt;""),IF(N40="concatenator1","",", ")&amp;C41&amp;":"&amp;D41,"")</f>
-        <v>year:string</v>
+        <v>filename:string</v>
       </c>
       <c r="O41" s="22" t="str">
         <f>IF(AND(G41&lt;&gt;"",H41&lt;&gt;""),", "&amp;G41&amp;":"&amp;H41,"")</f>
@@ -11478,7 +11539,7 @@
       </c>
       <c r="P41" s="22" t="str">
         <f>P40&amp;N41</f>
-        <v>year:string</v>
+        <v>filename:string</v>
       </c>
       <c r="Q41" s="22" t="str">
         <f>Q40&amp;O41</f>
@@ -11493,10 +11554,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="D42" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>22</v>
@@ -11516,7 +11577,7 @@
       </c>
       <c r="N42" s="22" t="str">
         <f>IF(AND(C42&lt;&gt;"",D42&lt;&gt;""),IF(N41="concatenator1","",", ")&amp;C42&amp;":"&amp;D42,"")</f>
-        <v>, from:date</v>
+        <v>, location:string</v>
       </c>
       <c r="O42" s="22" t="str">
         <f t="shared" ref="O42:O50" si="2">IF(AND(G42&lt;&gt;"",H42&lt;&gt;""),", "&amp;G42&amp;":"&amp;H42,"")</f>
@@ -11524,7 +11585,7 @@
       </c>
       <c r="P42" s="22" t="str">
         <f t="shared" ref="P42:Q50" si="3">P41&amp;N42</f>
-        <v>year:string, from:date</v>
+        <v>filename:string, location:string</v>
       </c>
       <c r="Q42" s="22" t="str">
         <f t="shared" si="3"/>
@@ -11539,10 +11600,10 @@
         <v>13</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D43" s="92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>23</v>
@@ -11562,7 +11623,7 @@
       </c>
       <c r="N43" s="22" t="str">
         <f t="shared" ref="N43:N50" si="4">IF(AND(C43&lt;&gt;"",D43&lt;&gt;""),IF(N42="concatenator1","",", ")&amp;C43&amp;":"&amp;D43,"")</f>
-        <v>, to:date</v>
+        <v>, project_id:integer</v>
       </c>
       <c r="O43" s="22" t="str">
         <f t="shared" si="2"/>
@@ -11570,7 +11631,7 @@
       </c>
       <c r="P43" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>year:string, from:date, to:date</v>
+        <v>filename:string, location:string, project_id:integer</v>
       </c>
       <c r="Q43" s="22" t="str">
         <f t="shared" si="3"/>
@@ -11581,12 +11642,8 @@
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="92" t="s">
-        <v>541</v>
-      </c>
-      <c r="D44" s="92" t="s">
-        <v>40</v>
-      </c>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
       <c r="F44" s="2" t="s">
         <v>24</v>
       </c>
@@ -11594,7 +11651,7 @@
       <c r="H44" s="92"/>
       <c r="J44" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="1"/>
@@ -11605,7 +11662,7 @@
       </c>
       <c r="N44" s="22" t="str">
         <f t="shared" si="4"/>
-        <v>, customer_id:integer</v>
+        <v/>
       </c>
       <c r="O44" s="22" t="str">
         <f t="shared" si="2"/>
@@ -11613,7 +11670,7 @@
       </c>
       <c r="P44" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>year:string, from:date, to:date, customer_id:integer</v>
+        <v>filename:string, location:string, project_id:integer</v>
       </c>
       <c r="Q44" s="22" t="str">
         <f t="shared" si="3"/>
@@ -11652,7 +11709,7 @@
       </c>
       <c r="P45" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>year:string, from:date, to:date, customer_id:integer</v>
+        <v>filename:string, location:string, project_id:integer</v>
       </c>
       <c r="Q45" s="22" t="str">
         <f t="shared" si="3"/>
@@ -11691,7 +11748,7 @@
       </c>
       <c r="P46" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>year:string, from:date, to:date, customer_id:integer</v>
+        <v>filename:string, location:string, project_id:integer</v>
       </c>
       <c r="Q46" s="22" t="str">
         <f t="shared" si="3"/>
@@ -11730,7 +11787,7 @@
       </c>
       <c r="P47" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>year:string, from:date, to:date, customer_id:integer</v>
+        <v>filename:string, location:string, project_id:integer</v>
       </c>
       <c r="Q47" s="22" t="str">
         <f t="shared" si="3"/>
@@ -11769,7 +11826,7 @@
       </c>
       <c r="P48" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>year:string, from:date, to:date, customer_id:integer</v>
+        <v>filename:string, location:string, project_id:integer</v>
       </c>
       <c r="Q48" s="22" t="str">
         <f t="shared" si="3"/>
@@ -11808,7 +11865,7 @@
       </c>
       <c r="P49" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>year:string, from:date, to:date, customer_id:integer</v>
+        <v>filename:string, location:string, project_id:integer</v>
       </c>
       <c r="Q49" s="22" t="str">
         <f t="shared" si="3"/>
@@ -11847,7 +11904,7 @@
       </c>
       <c r="P50" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>year:string, from:date, to:date, customer_id:integer</v>
+        <v>filename:string, location:string, project_id:integer</v>
       </c>
       <c r="Q50" s="22" t="str">
         <f t="shared" si="3"/>
@@ -11867,7 +11924,7 @@
       </c>
       <c r="C54" s="8" t="str">
         <f>A4&amp;A5&amp;A6&amp;D39&amp;B1&amp;M36</f>
-        <v>php artisan generate:migration create_validations_table --fields="year:string, from:date, to:date, customer_id:integer"</v>
+        <v>php artisan generate:migration create_projectfiles_table --fields="filename:string, location:string, project_id:integer"</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -11892,7 +11949,7 @@
       </c>
       <c r="C56" s="8" t="str">
         <f>A4&amp;B4&amp;G39</f>
-        <v>php artisan generate:model Validation</v>
+        <v>php artisan generate:model Projectfile</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -11901,12 +11958,12 @@
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J57" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J58" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
@@ -11921,7 +11978,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="str">
         <f>D39</f>
-        <v>validations</v>
+        <v>projectfiles</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
@@ -11946,7 +12003,7 @@
       </c>
       <c r="C63" s="8" t="str">
         <f>C3&amp;D61&amp;C4&amp;D60&amp;C5&amp;C6&amp;D61&amp;":"&amp;D62&amp;C6</f>
-        <v>php artisan generate:migration add_bottleneck_to_validations_table --fields="bottleneck:tinyinteger"</v>
+        <v>php artisan generate:migration add_checked_to_projectfiles_table --fields="checked:tinyinteger"</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -11989,40 +12046,40 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C73" s="91" t="s">
-        <v>61</v>
+        <v>533</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="3" t="str">
         <f>LEFT(C73,LEN(C73)-1)</f>
-        <v>user</v>
+        <v>thre</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>291</v>
+        <v>532</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="3" t="str">
         <f>LEFT(C74,LEN(C74)-1)</f>
-        <v>group</v>
+        <v>hold</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
@@ -12031,7 +12088,7 @@
       </c>
       <c r="C77" s="8" t="str">
         <f>C3&amp;E74&amp;"_id"&amp;C4&amp;C73&amp;C5&amp;C6&amp;E74&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
-        <v>php artisan generate:migration add_group_id_to_users_table --fields="group_id:integer"</v>
+        <v>php artisan generate:migration add_hold_id_to_thres_table --fields="hold_id:integer"</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -12048,7 +12105,7 @@
       </c>
       <c r="C78" s="8" t="str">
         <f>C3&amp;E73&amp;"_id"&amp;C4&amp;C74&amp;C5&amp;C6&amp;E73&amp;"_id"&amp;":"&amp;"integer"&amp;C6</f>
-        <v>php artisan generate:migration add_user_id_to_groups_table --fields="user_id:integer"</v>
+        <v>php artisan generate:migration add_thre_id_to_holds_table --fields="thre_id:integer"</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -12081,7 +12138,7 @@
       </c>
       <c r="C80" s="8" t="str">
         <f>"php artisan generate:pivot "&amp;C73&amp;" "&amp;C74</f>
-        <v>php artisan generate:pivot users groups</v>
+        <v>php artisan generate:pivot thres holds</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -12112,7 +12169,7 @@
     <row r="83" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25"/>
@@ -12191,67 +12248,67 @@
     <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="L13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="X13" s="78"/>
       <c r="AF13" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -12260,10 +12317,10 @@
       </c>
       <c r="B14" s="68" t="str">
         <f>IF(AND('tables and models'!C41&lt;&gt;"",'tables and models'!D41&lt;&gt;""),'tables and models'!C41,"")</f>
-        <v>year</v>
+        <v>filename</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D14" s="73" t="str">
         <f>C14</f>
@@ -12288,7 +12345,7 @@
       </c>
       <c r="M14" s="69" t="str">
         <f>IF(B14&lt;&gt;"",L14&amp;"array('"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;D14&amp;"','"&amp;E14&amp;"')","")</f>
-        <v>array('year','pray','pray','1')</v>
+        <v>array('filename','pray','pray','1')</v>
       </c>
       <c r="N14" s="70" t="str">
         <f>IF(AND(N13&lt;&gt;"comma",H14&lt;&gt;""),",","")</f>
@@ -12300,7 +12357,7 @@
       </c>
       <c r="P14" s="75" t="str">
         <f>IF(B14&lt;&gt;"","var "&amp;B14&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;B14&amp;"').val();","")</f>
-        <v>var year=$('#input_validation_year').val();</v>
+        <v>var filename=$('#input_projectfile_filename').val();</v>
       </c>
       <c r="V14" s="75" t="str">
         <f>IF(H14&lt;&gt;"","var "&amp;H14&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;H14&amp;"').val();","")</f>
@@ -12312,11 +12369,11 @@
       </c>
       <c r="X14" s="77" t="str">
         <f>IF(B14&lt;&gt;"",B14&amp;":"&amp;B14,"")</f>
-        <v>year:year</v>
+        <v>filename:filename</v>
       </c>
       <c r="Y14" s="2" t="str">
         <f>Y13&amp;W14&amp;X14</f>
-        <v>year:year</v>
+        <v>filename:filename</v>
       </c>
       <c r="AC14" s="79" t="str">
         <f>IF(AD14&lt;&gt;"",",","")</f>
@@ -12332,7 +12389,7 @@
       </c>
       <c r="AF14" s="76" t="str">
         <f>IF(B14&lt;&gt;"","$_POST['"&amp;B14&amp;"']","")</f>
-        <v>$_POST['year']</v>
+        <v>$_POST['filename']</v>
       </c>
       <c r="AL14" s="76" t="str">
         <f>IF(H14&lt;&gt;"","$_POST['"&amp;H14&amp;"']","")</f>
@@ -12340,7 +12397,7 @@
       </c>
       <c r="AM14" s="82" t="str">
         <f>IF(B14&lt;&gt;"","$insert-&gt;"&amp;B14&amp;"="&amp;AF14&amp;";","")</f>
-        <v>$insert-&gt;year=$_POST['year'];</v>
+        <v>$insert-&gt;filename=$_POST['filename'];</v>
       </c>
       <c r="AS14" s="82" t="str">
         <f>IF(H14&lt;&gt;"","$insert-&gt;"&amp;H14&amp;"="&amp;AL14&amp;";","")</f>
@@ -12353,10 +12410,10 @@
       </c>
       <c r="B15" s="68" t="str">
         <f>IF(AND('tables and models'!C42&lt;&gt;"",'tables and models'!D42&lt;&gt;""),'tables and models'!C42,"")</f>
-        <v>from</v>
+        <v>location</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D15" s="73" t="str">
         <f>C15</f>
@@ -12381,7 +12438,7 @@
       </c>
       <c r="M15" s="69" t="str">
         <f t="shared" ref="M15:M23" si="2">IF(B15&lt;&gt;"",L15&amp;"array('"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"')","")</f>
-        <v>,array('from','number','number','2')</v>
+        <v>,array('location','number','number','2')</v>
       </c>
       <c r="N15" s="70" t="str">
         <f t="shared" ref="N15:N23" si="3">IF(AND(N14&lt;&gt;"comma",H15&lt;&gt;""),",","")</f>
@@ -12393,7 +12450,7 @@
       </c>
       <c r="P15" s="75" t="str">
         <f>IF(B15&lt;&gt;"","var "&amp;B15&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;B15&amp;"').val();","")</f>
-        <v>var from=$('#input_validation_from').val();</v>
+        <v>var location=$('#input_projectfile_location').val();</v>
       </c>
       <c r="V15" s="75" t="str">
         <f>IF(H15&lt;&gt;"","var "&amp;H15&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;H15&amp;"').val();","")</f>
@@ -12405,11 +12462,11 @@
       </c>
       <c r="X15" s="77" t="str">
         <f t="shared" ref="X15:X23" si="6">IF(B15&lt;&gt;"",B15&amp;":"&amp;B15,"")</f>
-        <v>from:from</v>
+        <v>location:location</v>
       </c>
       <c r="Y15" s="2" t="str">
         <f t="shared" ref="Y15:Y23" si="7">Y14&amp;W15&amp;X15</f>
-        <v>year:year,from:from</v>
+        <v>filename:filename,location:location</v>
       </c>
       <c r="AC15" s="79" t="str">
         <f t="shared" ref="AC15:AC23" si="8">IF(AD15&lt;&gt;"",",","")</f>
@@ -12425,7 +12482,7 @@
       </c>
       <c r="AF15" s="76" t="str">
         <f t="shared" ref="AF15:AF23" si="10">IF(B15&lt;&gt;"","$_POST['"&amp;B15&amp;"']","")</f>
-        <v>$_POST['from']</v>
+        <v>$_POST['location']</v>
       </c>
       <c r="AL15" s="76" t="str">
         <f t="shared" ref="AL15:AL23" si="11">IF(H15&lt;&gt;"","$_POST['"&amp;H15&amp;"']","")</f>
@@ -12433,7 +12490,7 @@
       </c>
       <c r="AM15" s="82" t="str">
         <f t="shared" ref="AM15:AM23" si="12">IF(B15&lt;&gt;"","$insert-&gt;"&amp;B15&amp;"="&amp;AF15&amp;";","")</f>
-        <v>$insert-&gt;from=$_POST['from'];</v>
+        <v>$insert-&gt;location=$_POST['location'];</v>
       </c>
       <c r="AS15" s="82" t="str">
         <f t="shared" ref="AS15:AS23" si="13">IF(H15&lt;&gt;"","$insert-&gt;"&amp;H15&amp;"="&amp;AL15&amp;";","")</f>
@@ -12446,10 +12503,10 @@
       </c>
       <c r="B16" s="68" t="str">
         <f>IF(AND('tables and models'!C43&lt;&gt;"",'tables and models'!D43&lt;&gt;""),'tables and models'!C43,"")</f>
-        <v>to</v>
+        <v>project_id</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D16" s="73" t="str">
         <f>C16</f>
@@ -12474,7 +12531,7 @@
       </c>
       <c r="M16" s="69" t="str">
         <f t="shared" si="2"/>
-        <v>,array('to','answer','answer','1')</v>
+        <v>,array('project_id','answer','answer','1')</v>
       </c>
       <c r="N16" s="70" t="str">
         <f t="shared" si="3"/>
@@ -12486,7 +12543,7 @@
       </c>
       <c r="P16" s="75" t="str">
         <f>IF(B16&lt;&gt;"","var "&amp;B16&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;B16&amp;"').val();","")</f>
-        <v>var to=$('#input_validation_to').val();</v>
+        <v>var project_id=$('#input_projectfile_project_id').val();</v>
       </c>
       <c r="V16" s="75" t="str">
         <f>IF(H16&lt;&gt;"","var "&amp;H16&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;H16&amp;"').val();","")</f>
@@ -12498,11 +12555,11 @@
       </c>
       <c r="X16" s="77" t="str">
         <f t="shared" si="6"/>
-        <v>to:to</v>
+        <v>project_id:project_id</v>
       </c>
       <c r="Y16" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="AC16" s="79" t="str">
         <f t="shared" si="8"/>
@@ -12518,7 +12575,7 @@
       </c>
       <c r="AF16" s="76" t="str">
         <f t="shared" si="10"/>
-        <v>$_POST['to']</v>
+        <v>$_POST['project_id']</v>
       </c>
       <c r="AL16" s="76" t="str">
         <f t="shared" si="11"/>
@@ -12526,7 +12583,7 @@
       </c>
       <c r="AM16" s="82" t="str">
         <f t="shared" si="12"/>
-        <v>$insert-&gt;to=$_POST['to'];</v>
+        <v>$insert-&gt;project_id=$_POST['project_id'];</v>
       </c>
       <c r="AS16" s="82" t="str">
         <f t="shared" si="13"/>
@@ -12539,7 +12596,7 @@
       </c>
       <c r="B17" s="68" t="str">
         <f>IF(AND('tables and models'!C44&lt;&gt;"",'tables and models'!D44&lt;&gt;""),'tables and models'!C44,"")</f>
-        <v>customer_id</v>
+        <v/>
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
@@ -12556,11 +12613,11 @@
       <c r="K17" s="73"/>
       <c r="L17" s="70" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="M17" s="69" t="str">
         <f t="shared" si="2"/>
-        <v>,array('customer_id','','','')</v>
+        <v/>
       </c>
       <c r="N17" s="70" t="str">
         <f t="shared" si="3"/>
@@ -12572,7 +12629,7 @@
       </c>
       <c r="P17" s="75" t="str">
         <f>IF(B17&lt;&gt;"","var "&amp;B17&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;B17&amp;"').val();","")</f>
-        <v>var customer_id=$('#input_validation_customer_id').val();</v>
+        <v/>
       </c>
       <c r="V17" s="75" t="str">
         <f>IF(H17&lt;&gt;"","var "&amp;H17&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;"_"&amp;H17&amp;"').val();","")</f>
@@ -12580,15 +12637,15 @@
       </c>
       <c r="W17" s="80" t="str">
         <f t="shared" si="5"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="X17" s="77" t="str">
         <f t="shared" si="6"/>
-        <v>customer_id:customer_id</v>
+        <v/>
       </c>
       <c r="Y17" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>year:year,from:from,to:to,customer_id:customer_id</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="AC17" s="79" t="str">
         <f t="shared" si="8"/>
@@ -12604,7 +12661,7 @@
       </c>
       <c r="AF17" s="76" t="str">
         <f t="shared" si="10"/>
-        <v>$_POST['customer_id']</v>
+        <v/>
       </c>
       <c r="AL17" s="76" t="str">
         <f t="shared" si="11"/>
@@ -12612,7 +12669,7 @@
       </c>
       <c r="AM17" s="82" t="str">
         <f t="shared" si="12"/>
-        <v>$insert-&gt;customer_id=$_POST['customer_id'];</v>
+        <v/>
       </c>
       <c r="AS17" s="82" t="str">
         <f t="shared" si="13"/>
@@ -12674,7 +12731,7 @@
       </c>
       <c r="Y18" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>year:year,from:from,to:to,customer_id:customer_id</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="AC18" s="79" t="str">
         <f t="shared" si="8"/>
@@ -12760,7 +12817,7 @@
       </c>
       <c r="Y19" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>year:year,from:from,to:to,customer_id:customer_id</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="AC19" s="79" t="str">
         <f t="shared" si="8"/>
@@ -12846,7 +12903,7 @@
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>year:year,from:from,to:to,customer_id:customer_id</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="AC20" s="79" t="str">
         <f t="shared" si="8"/>
@@ -12932,7 +12989,7 @@
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>year:year,from:from,to:to,customer_id:customer_id</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="AC21" s="79" t="str">
         <f t="shared" si="8"/>
@@ -13018,7 +13075,7 @@
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>year:year,from:from,to:to,customer_id:customer_id</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="AC22" s="79" t="str">
         <f t="shared" si="8"/>
@@ -13104,7 +13161,7 @@
       </c>
       <c r="Y23" s="81" t="str">
         <f t="shared" si="7"/>
-        <v>year:year,from:from,to:to,customer_id:customer_id</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="AC23" s="79" t="str">
         <f t="shared" si="8"/>
@@ -13137,7 +13194,7 @@
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B26" s="71" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -13150,11 +13207,11 @@
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B27" s="71" t="str">
         <f>"        "&amp;M14&amp;M15&amp;M16</f>
-        <v xml:space="preserve">        array('year','pray','pray','1'),array('from','number','number','2'),array('to','answer','answer','1')</v>
+        <v xml:space="preserve">        array('filename','pray','pray','1'),array('location','number','number','2'),array('project_id','answer','answer','1')</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -13167,11 +13224,11 @@
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B28" s="71" t="str">
         <f>"        "&amp;M17&amp;M18&amp;M19</f>
-        <v xml:space="preserve">        ,array('customer_id','','','')</v>
+        <v xml:space="preserve">        </v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -13184,7 +13241,7 @@
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B29" s="71" t="str">
         <f>"        "&amp;M20&amp;M21&amp;M22&amp;M23</f>
@@ -13201,7 +13258,7 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B30" s="71" t="str">
         <f>"        "&amp;O14&amp;O15&amp;O16</f>
@@ -13218,7 +13275,7 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B31" s="71" t="str">
         <f>"        "&amp;O17&amp;O18&amp;O19</f>
@@ -13235,7 +13292,7 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B32" s="71" t="str">
         <f>"        "&amp;O20&amp;O21&amp;O22&amp;O23</f>
@@ -13252,7 +13309,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="71" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -13265,7 +13322,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="72" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -13278,7 +13335,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="72" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -13291,7 +13348,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -13304,7 +13361,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -13317,7 +13374,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="72" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -13331,7 +13388,7 @@
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="71" t="str">
         <f>"        &lt;input class='newinput_"&amp;'tables and models'!F39&amp;"' type='text' id='input_"&amp;'tables and models'!F39&amp;"_{{$h[0]}}' placeholder='{{$h[2]}}'&gt;"</f>
-        <v xml:space="preserve">        &lt;input class='newinput_validation' type='text' id='input_validation_{{$h[0]}}' placeholder='{{$h[2]}}'&gt;</v>
+        <v xml:space="preserve">        &lt;input class='newinput_projectfile' type='text' id='input_projectfile_{{$h[0]}}' placeholder='{{$h[2]}}'&gt;</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -13344,7 +13401,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="72" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -13358,7 +13415,7 @@
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="83" t="str">
         <f>"        &lt;select class='newselect_"&amp;'tables and models'!F39&amp;"'  id='input_"&amp;'tables and models'!F39&amp;"_{{$h[0]}}' &gt;"</f>
-        <v xml:space="preserve">        &lt;select class='newselect_validation'  id='input_validation_{{$h[0]}}' &gt;</v>
+        <v xml:space="preserve">        &lt;select class='newselect_projectfile'  id='input_projectfile_{{$h[0]}}' &gt;</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -13371,7 +13428,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -13384,7 +13441,7 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="84" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -13397,7 +13454,7 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="72" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -13410,7 +13467,7 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="72" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -13423,7 +13480,7 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="72" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -13436,7 +13493,7 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="72" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -13449,7 +13506,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="72" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -13462,7 +13519,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="72" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -13476,7 +13533,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="72" t="str">
         <f>"        &lt;input class='newinput_"&amp;'tables and models'!F39&amp;"' type='hidden' id='input_"&amp;'tables and models'!F39&amp;"_{{$h[0]}}' &gt;"</f>
-        <v xml:space="preserve">        &lt;input class='newinput_validation' type='hidden' id='input_validation_{{$h[0]}}' &gt;</v>
+        <v xml:space="preserve">        &lt;input class='newinput_projectfile' type='hidden' id='input_projectfile_{{$h[0]}}' &gt;</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -13489,7 +13546,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="72" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -13542,7 +13599,7 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="71" t="str">
         <f>"&lt;button class='btn' id='createnew"&amp;'tables and models'!F39&amp;"_row'&gt;Save&lt;/button&gt;"</f>
-        <v>&lt;button class='btn' id='createnewvalidation_row'&gt;Save&lt;/button&gt;</v>
+        <v>&lt;button class='btn' id='createnewprojectfile_row'&gt;Save&lt;/button&gt;</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -13556,7 +13613,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="71" t="str">
         <f>"&lt;img class='hide' id='wait_while_creating_"&amp;'tables and models'!F39&amp;"' src='{{URL::to("&amp;P1&amp;"assets/img/progressBar.gif"&amp;P1&amp;")}}'/&gt;"</f>
-        <v>&lt;img class='hide' id='wait_while_creating_validation' src='{{URL::to("assets/img/progressBar.gif")}}'/&gt;</v>
+        <v>&lt;img class='hide' id='wait_while_creating_projectfile' src='{{URL::to("assets/img/progressBar.gif")}}'/&gt;</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -13569,13 +13626,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="str">
         <f>"$('#createnew"&amp;'tables and models'!F39&amp;"_row').click(function(){"</f>
-        <v>$('#createnewvalidation_row').click(function(){</v>
+        <v>$('#createnewprojectfile_row').click(function(){</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -13588,11 +13645,11 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B62" s="76" t="str">
         <f>"    "&amp;P14&amp;P15&amp;P16</f>
-        <v xml:space="preserve">    var year=$('#input_validation_year').val();var from=$('#input_validation_from').val();var to=$('#input_validation_to').val();</v>
+        <v xml:space="preserve">    var filename=$('#input_projectfile_filename').val();var location=$('#input_projectfile_location').val();var project_id=$('#input_projectfile_project_id').val();</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -13605,11 +13662,11 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B63" s="76" t="str">
         <f>"    "&amp;P17&amp;P18&amp;P19</f>
-        <v xml:space="preserve">    var customer_id=$('#input_validation_customer_id').val();</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -13622,7 +13679,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B64" s="76" t="str">
         <f>"    "&amp;P20&amp;P21&amp;P22&amp;P23</f>
@@ -13639,7 +13696,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B65" s="76" t="str">
         <f>"    "&amp;V14&amp;V15&amp;V16</f>
@@ -13656,7 +13713,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B66" s="76" t="str">
         <f>"    "&amp;V17&amp;V18&amp;V19</f>
@@ -13673,7 +13730,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B67" s="76" t="str">
         <f>"    "&amp;V20&amp;V21&amp;V22&amp;V23</f>
@@ -13690,7 +13747,7 @@
     </row>
     <row r="68" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="74" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C68" s="74"/>
       <c r="D68" s="74"/>
@@ -13704,7 +13761,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" s="71" t="str">
         <f>"    $('#wait_while_creating_"&amp;'tables and models'!F39&amp;"').show(); "</f>
-        <v xml:space="preserve">    $('#wait_while_creating_validation').show(); </v>
+        <v xml:space="preserve">    $('#wait_while_creating_projectfile').show(); </v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -13717,7 +13774,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -13731,7 +13788,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="71" t="str">
         <f>"    $.post(base+'/ajax/"&amp;'tables and models'!F39&amp;"new',{"&amp;Y23&amp;AE23&amp;"},function(d){"</f>
-        <v xml:space="preserve">    $.post(base+'/ajax/validationnew',{year:year,from:from,to:to,customer_id:customer_id},function(d){</v>
+        <v xml:space="preserve">    $.post(base+'/ajax/projectfilenew',{filename:filename,location:location,project_id:project_id},function(d){</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -13745,7 +13802,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="str">
         <f>"        $('#createnew"&amp;'tables and models'!F39&amp;"_row').show();"</f>
-        <v xml:space="preserve">        $('#createnewvalidation_row').show();</v>
+        <v xml:space="preserve">        $('#createnewprojectfile_row').show();</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -13759,7 +13816,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="str">
         <f>"        $('#wait_while_creating_"&amp;'tables and models'!F39&amp;"').hide();"</f>
-        <v xml:space="preserve">        $('#wait_while_creating_validation').hide();</v>
+        <v xml:space="preserve">        $('#wait_while_creating_projectfile').hide();</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -13773,7 +13830,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="str">
         <f>"        $('.newinput_"&amp;'tables and models'!F39&amp;"').val('');"</f>
-        <v xml:space="preserve">        $('.newinput_validation').val('');</v>
+        <v xml:space="preserve">        $('.newinput_projectfile').val('');</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -13786,7 +13843,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -13812,13 +13869,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" s="71" t="str">
         <f>"    public function post"&amp;'tables and models'!G39&amp;"new (){"</f>
-        <v xml:space="preserve">    public function postValidationnew (){</v>
+        <v xml:space="preserve">    public function postProjectfilenew (){</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -13832,7 +13889,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="str">
         <f>"    $insert=new "&amp;'tables and models'!G39&amp;";"</f>
-        <v xml:space="preserve">    $insert=new Validation;</v>
+        <v xml:space="preserve">    $insert=new Projectfile;</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -13845,11 +13902,11 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B82" s="76" t="str">
         <f>"    "&amp;AM14&amp;AM15&amp;AM16</f>
-        <v xml:space="preserve">    $insert-&gt;year=$_POST['year'];$insert-&gt;from=$_POST['from'];$insert-&gt;to=$_POST['to'];</v>
+        <v xml:space="preserve">    $insert-&gt;filename=$_POST['filename'];$insert-&gt;location=$_POST['location'];$insert-&gt;project_id=$_POST['project_id'];</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -13862,11 +13919,11 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B83" s="76" t="str">
         <f>"    "&amp;AM17&amp;AM18&amp;AM19</f>
-        <v xml:space="preserve">    $insert-&gt;customer_id=$_POST['customer_id'];</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -13879,7 +13936,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B84" s="76" t="str">
         <f>"    "&amp;AM20&amp;AM21&amp;AM22&amp;AM23</f>
@@ -13896,7 +13953,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B85" s="76" t="str">
         <f>"    "&amp;AS14&amp;AS15&amp;AS16</f>
@@ -13913,7 +13970,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B86" s="76" t="str">
         <f>"    "&amp;AS17&amp;AS18&amp;AS19</f>
@@ -13930,7 +13987,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B87" s="76" t="str">
         <f>"    "&amp;AS20&amp;AS21&amp;AS22&amp;AS23</f>
@@ -13947,7 +14004,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -13960,7 +14017,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -13973,7 +14030,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -13997,28 +14054,28 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.25">
@@ -14027,10 +14084,10 @@
       </c>
       <c r="B97" s="85" t="str">
         <f>IF(AND('tables and models'!C41&lt;&gt;"",'tables and models'!D41&lt;&gt;""),'tables and models'!C41,"")</f>
-        <v>year</v>
+        <v>filename</v>
       </c>
       <c r="C97" s="76" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D97" s="76">
         <v>1</v>
@@ -14062,15 +14119,15 @@
       </c>
       <c r="N97" s="79" t="str">
         <f>IF(B97&lt;&gt;"",M97&amp;"array('"&amp;B97&amp;"','"&amp;C97&amp;"','"&amp;D97&amp;"','"&amp;E97&amp;"','"&amp;F97&amp;"')","")</f>
-        <v>array('year','Name','1','1','1')</v>
+        <v>array('filename','Name','1','1','1')</v>
       </c>
       <c r="O97" s="8" t="str">
         <f>IF(AND(B97&lt;&gt;"",E97=1),M97&amp;B97&amp;":"&amp;B97,"")</f>
-        <v>year:year</v>
+        <v>filename:filename</v>
       </c>
       <c r="P97" s="82" t="str">
         <f>P96&amp;O97</f>
-        <v>year:year</v>
+        <v>filename:filename</v>
       </c>
       <c r="S97" s="86" t="str">
         <f>IF(AND(G97&lt;&gt;1,H97&lt;&gt;""),",","")</f>
@@ -14090,7 +14147,7 @@
       </c>
       <c r="X97" s="88" t="str">
         <f>IF(AND(B97&lt;&gt;"",E97=1),"var "&amp;B97&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;B97&amp;"'+id).val();","")</f>
-        <v>var year=$('#input_validationyear'+id).val();</v>
+        <v>var filename=$('#input_projectfilefilename'+id).val();</v>
       </c>
       <c r="AD97" s="88" t="str">
         <f>IF(AND(H97&lt;&gt;"",K97=1),"var "&amp;H97&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;H97&amp;"'+id).val();","")</f>
@@ -14098,11 +14155,11 @@
       </c>
       <c r="AF97" s="79" t="str">
         <f>IF(AND(B97&lt;&gt;"",E97=1),M97&amp;"'"&amp;B97&amp;"'=&gt;$_POST['"&amp;B97&amp;"']","")</f>
-        <v>'year'=&gt;$_POST['year']</v>
+        <v>'filename'=&gt;$_POST['filename']</v>
       </c>
       <c r="AG97" s="82" t="str">
         <f>AG96&amp;AF97</f>
-        <v>'year'=&gt;$_POST['year']</v>
+        <v>'filename'=&gt;$_POST['filename']</v>
       </c>
       <c r="AL97" s="79" t="str">
         <f>IF(AND(H97&lt;&gt;"",K97=1),S97&amp;"'"&amp;H97&amp;"'=&gt;$_POST['"&amp;H97&amp;"']","")</f>
@@ -14119,10 +14176,10 @@
       </c>
       <c r="B98" s="85" t="str">
         <f>IF(AND('tables and models'!C42&lt;&gt;"",'tables and models'!D42&lt;&gt;""),'tables and models'!C42,"")</f>
-        <v>from</v>
+        <v>location</v>
       </c>
       <c r="C98" s="76" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D98" s="76">
         <v>1</v>
@@ -14152,15 +14209,15 @@
       </c>
       <c r="N98" s="79" t="str">
         <f t="shared" ref="N98:N106" si="15">IF(B98&lt;&gt;"",M98&amp;"array('"&amp;B98&amp;"','"&amp;C98&amp;"','"&amp;D98&amp;"','"&amp;E98&amp;"','"&amp;F98&amp;"')","")</f>
-        <v>,array('from','Amount','1','1','1')</v>
+        <v>,array('location','Amount','1','1','1')</v>
       </c>
       <c r="O98" s="8" t="str">
         <f t="shared" ref="O98:O106" si="16">IF(AND(B98&lt;&gt;"",E98=1),M98&amp;B98&amp;":"&amp;B98,"")</f>
-        <v>,from:from</v>
+        <v>,location:location</v>
       </c>
       <c r="P98" s="82" t="str">
         <f>P97&amp;O98</f>
-        <v>year:year,from:from</v>
+        <v>filename:filename,location:location</v>
       </c>
       <c r="S98" s="86" t="str">
         <f t="shared" ref="S98:S106" si="17">IF(AND(G98&lt;&gt;1,H98&lt;&gt;""),",","")</f>
@@ -14180,7 +14237,7 @@
       </c>
       <c r="X98" s="88" t="str">
         <f>IF(AND(B98&lt;&gt;"",E98=1),"var "&amp;B98&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;B98&amp;"'+id).val();","")</f>
-        <v>var from=$('#input_validationfrom'+id).val();</v>
+        <v>var location=$('#input_projectfilelocation'+id).val();</v>
       </c>
       <c r="AD98" s="88" t="str">
         <f>IF(AND(H98&lt;&gt;"",K98=1),"var "&amp;H98&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;H98&amp;"'+id).val();","")</f>
@@ -14188,11 +14245,11 @@
       </c>
       <c r="AF98" s="79" t="str">
         <f t="shared" ref="AF98:AF106" si="20">IF(AND(B98&lt;&gt;"",E98=1),M98&amp;"'"&amp;B98&amp;"'=&gt;$_POST['"&amp;B98&amp;"']","")</f>
-        <v>,'from'=&gt;$_POST['from']</v>
+        <v>,'location'=&gt;$_POST['location']</v>
       </c>
       <c r="AG98" s="82" t="str">
         <f t="shared" ref="AG98:AG106" si="21">AG97&amp;AF98</f>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location']</v>
       </c>
       <c r="AL98" s="79" t="str">
         <f t="shared" ref="AL98:AL106" si="22">IF(AND(H98&lt;&gt;"",K98=1),S98&amp;"'"&amp;H98&amp;"'=&gt;$_POST['"&amp;H98&amp;"']","")</f>
@@ -14209,10 +14266,10 @@
       </c>
       <c r="B99" s="85" t="str">
         <f>IF(AND('tables and models'!C43&lt;&gt;"",'tables and models'!D43&lt;&gt;""),'tables and models'!C43,"")</f>
-        <v>to</v>
+        <v>project_id</v>
       </c>
       <c r="C99" s="76" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D99" s="76">
         <v>1</v>
@@ -14242,15 +14299,15 @@
       </c>
       <c r="N99" s="79" t="str">
         <f t="shared" si="15"/>
-        <v>,array('to','Description','1','1','1')</v>
+        <v>,array('project_id','Description','1','1','1')</v>
       </c>
       <c r="O99" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>,to:to</v>
+        <v>,project_id:project_id</v>
       </c>
       <c r="P99" s="82" t="str">
         <f t="shared" ref="P99:P106" si="24">P98&amp;O99</f>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="S99" s="86" t="str">
         <f t="shared" si="17"/>
@@ -14270,7 +14327,7 @@
       </c>
       <c r="X99" s="88" t="str">
         <f>IF(AND(B99&lt;&gt;"",E99=1),"var "&amp;B99&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;B99&amp;"'+id).val();","")</f>
-        <v>var to=$('#input_validationto'+id).val();</v>
+        <v>var project_id=$('#input_projectfileproject_id'+id).val();</v>
       </c>
       <c r="AD99" s="88" t="str">
         <f>IF(AND(H99&lt;&gt;"",K99=1),"var "&amp;H99&amp;"=$('#input_"&amp;'tables and models'!$F$39&amp;H99&amp;"'+id).val();","")</f>
@@ -14278,11 +14335,11 @@
       </c>
       <c r="AF99" s="79" t="str">
         <f t="shared" si="20"/>
-        <v>,'to'=&gt;$_POST['to']</v>
+        <v>,'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="AG99" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="AL99" s="79" t="str">
         <f t="shared" si="22"/>
@@ -14299,7 +14356,7 @@
       </c>
       <c r="B100" s="85" t="str">
         <f>IF(AND('tables and models'!C44&lt;&gt;"",'tables and models'!D44&lt;&gt;""),'tables and models'!C44,"")</f>
-        <v>customer_id</v>
+        <v/>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -14318,11 +14375,11 @@
       <c r="L100" s="76"/>
       <c r="M100" s="86" t="str">
         <f t="shared" si="14"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="N100" s="79" t="str">
         <f t="shared" si="15"/>
-        <v>,array('customer_id','','','','')</v>
+        <v/>
       </c>
       <c r="O100" s="8" t="str">
         <f t="shared" si="16"/>
@@ -14330,7 +14387,7 @@
       </c>
       <c r="P100" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="S100" s="86" t="str">
         <f t="shared" si="17"/>
@@ -14362,7 +14419,7 @@
       </c>
       <c r="AG100" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="AL100" s="79" t="str">
         <f t="shared" si="22"/>
@@ -14410,7 +14467,7 @@
       </c>
       <c r="P101" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="S101" s="86" t="str">
         <f t="shared" si="17"/>
@@ -14442,7 +14499,7 @@
       </c>
       <c r="AG101" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="AL101" s="79" t="str">
         <f t="shared" si="22"/>
@@ -14490,7 +14547,7 @@
       </c>
       <c r="P102" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="S102" s="86" t="str">
         <f t="shared" si="17"/>
@@ -14522,7 +14579,7 @@
       </c>
       <c r="AG102" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="AL102" s="79" t="str">
         <f t="shared" si="22"/>
@@ -14570,7 +14627,7 @@
       </c>
       <c r="P103" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="S103" s="86" t="str">
         <f t="shared" si="17"/>
@@ -14602,7 +14659,7 @@
       </c>
       <c r="AG103" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="AL103" s="79" t="str">
         <f t="shared" si="22"/>
@@ -14650,7 +14707,7 @@
       </c>
       <c r="P104" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="S104" s="86" t="str">
         <f t="shared" si="17"/>
@@ -14682,7 +14739,7 @@
       </c>
       <c r="AG104" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="AL104" s="79" t="str">
         <f t="shared" si="22"/>
@@ -14730,7 +14787,7 @@
       </c>
       <c r="P105" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="S105" s="86" t="str">
         <f t="shared" si="17"/>
@@ -14762,7 +14819,7 @@
       </c>
       <c r="AG105" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="AL105" s="79" t="str">
         <f t="shared" si="22"/>
@@ -14810,7 +14867,7 @@
       </c>
       <c r="P106" s="82" t="str">
         <f t="shared" si="24"/>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="S106" s="86" t="str">
         <f t="shared" si="17"/>
@@ -14842,7 +14899,7 @@
       </c>
       <c r="AG106" s="82" t="str">
         <f t="shared" si="21"/>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="AL106" s="79" t="str">
         <f t="shared" si="22"/>
@@ -14856,21 +14913,21 @@
     <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="P107" s="2" t="str">
         <f>P106&amp;V106</f>
-        <v>year:year,from:from,to:to</v>
+        <v>filename:filename,location:location,project_id:project_id</v>
       </c>
       <c r="AG107" s="2" t="str">
         <f>AG106&amp;AM106</f>
-        <v>'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v>'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.25">
@@ -14888,7 +14945,7 @@
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B112" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -14901,11 +14958,11 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B113" s="71" t="str">
         <f>"    "&amp;N97&amp;N98&amp;N99</f>
-        <v xml:space="preserve">    array('year','Name','1','1','1'),array('from','Amount','1','1','1'),array('to','Description','1','1','1')</v>
+        <v xml:space="preserve">    array('filename','Name','1','1','1'),array('location','Amount','1','1','1'),array('project_id','Description','1','1','1')</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -14918,11 +14975,11 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B114" s="71" t="str">
         <f>"    "&amp;N100&amp;N101&amp;N102</f>
-        <v xml:space="preserve">    ,array('customer_id','','','','')</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
@@ -14935,7 +14992,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B115" s="71" t="str">
         <f>"    "&amp;N103&amp;N104&amp;N105&amp;N106</f>
@@ -14952,7 +15009,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B116" s="71" t="str">
         <f>"    "&amp;T97&amp;T98&amp;T99</f>
@@ -14969,7 +15026,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B117" s="71" t="str">
         <f>"    "&amp;T100&amp;T101&amp;T102</f>
@@ -14986,7 +15043,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B118" s="71" t="str">
         <f>"    "&amp;T103&amp;T104&amp;T105&amp;T106</f>
@@ -15029,13 +15086,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C123" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" s="13" t="str">
         <f>"@foreach("&amp;'tables and models'!G39&amp;"::all() as $m) {{--m first letter of model word--}}"</f>
-        <v>@foreach(Validation::all() as $m) {{--m first letter of model word--}}</v>
+        <v>@foreach(Projectfile::all() as $m) {{--m first letter of model word--}}</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -15048,7 +15105,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -15062,7 +15119,7 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B126" s="13" t="str">
         <f>"    &lt;div id='"&amp;'tables and models'!F39&amp;"_row{{$m-&gt;id}}' class='"&amp;'tables and models'!F39&amp;"_row'&gt;"</f>
-        <v xml:space="preserve">    &lt;div id='validation_row{{$m-&gt;id}}' class='validation_row'&gt;</v>
+        <v xml:space="preserve">    &lt;div id='projectfile_row{{$m-&gt;id}}' class='projectfile_row'&gt;</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -15090,7 +15147,7 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B128" s="71" t="str">
         <f>"        &lt;?php $class='';$m_id=''; if($r[3]==1){$class='"&amp;'tables and models'!F39&amp;"_editable'.$m-&gt;id;$m_id='"&amp;'tables and models'!F39&amp;"_'.$r[0].'_row'.$m-&gt;id;}   ?&gt;"</f>
-        <v xml:space="preserve">        &lt;?php $class='';$m_id=''; if($r[3]==1){$class='validation_editable'.$m-&gt;id;$m_id='validation_'.$r[0].'_row'.$m-&gt;id;}   ?&gt;</v>
+        <v xml:space="preserve">        &lt;?php $class='';$m_id=''; if($r[3]==1){$class='projectfile_editable'.$m-&gt;id;$m_id='projectfile_'.$r[0].'_row'.$m-&gt;id;}   ?&gt;</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -15114,7 +15171,7 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -15142,7 +15199,7 @@
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="13" t="str">
         <f>"            &lt;spam class='hmdhide "&amp;'tables and models'!F39&amp;"_inputhidden{{$m-&gt;id}}'&gt;"</f>
-        <v xml:space="preserve">            &lt;spam class='hmdhide validation_inputhidden{{$m-&gt;id}}'&gt;</v>
+        <v xml:space="preserve">            &lt;spam class='hmdhide projectfile_inputhidden{{$m-&gt;id}}'&gt;</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
@@ -15170,7 +15227,7 @@
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="13" t="str">
         <f>"                &lt;input type='text' value='{{$m-&gt;$r[0]}}' id='input_"&amp;'tables and models'!F39&amp;"{{$r[0].$m-&gt;id}}'&gt;"</f>
-        <v xml:space="preserve">                &lt;input type='text' value='{{$m-&gt;$r[0]}}' id='input_validation{{$r[0].$m-&gt;id}}'&gt;</v>
+        <v xml:space="preserve">                &lt;input type='text' value='{{$m-&gt;$r[0]}}' id='input_projectfile{{$r[0].$m-&gt;id}}'&gt;</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
@@ -15197,7 +15254,7 @@
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
@@ -15224,7 +15281,7 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -15251,7 +15308,7 @@
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="72" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
@@ -15265,7 +15322,7 @@
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="13" t="str">
         <f>"        &lt;spam&gt;&lt;button class='btn' id='edit_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Edit&lt;/button&gt;&lt;/spam&gt;"</f>
-        <v xml:space="preserve">        &lt;spam&gt;&lt;button class='btn' id='edit_validation{{$m-&gt;id}}'&gt;Edit&lt;/button&gt;&lt;/spam&gt;</v>
+        <v xml:space="preserve">        &lt;spam&gt;&lt;button class='btn' id='edit_projectfile{{$m-&gt;id}}'&gt;Edit&lt;/button&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
@@ -15279,7 +15336,7 @@
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="13" t="str">
         <f>"        &lt;spam class='"&amp;'tables and models'!F39&amp;"_inputhidden{{$m-&gt;id}} hmdhide'&gt;"</f>
-        <v xml:space="preserve">        &lt;spam class='validation_inputhidden{{$m-&gt;id}} hmdhide'&gt;</v>
+        <v xml:space="preserve">        &lt;spam class='projectfile_inputhidden{{$m-&gt;id}} hmdhide'&gt;</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
@@ -15293,7 +15350,7 @@
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="13" t="str">
         <f>"            &lt;button class='btn' id='canceledit_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Cancel&lt;/button&gt;"</f>
-        <v xml:space="preserve">            &lt;button class='btn' id='canceledit_validation{{$m-&gt;id}}'&gt;Cancel&lt;/button&gt;</v>
+        <v xml:space="preserve">            &lt;button class='btn' id='canceledit_projectfile{{$m-&gt;id}}'&gt;Cancel&lt;/button&gt;</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
@@ -15307,7 +15364,7 @@
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="13" t="str">
         <f>"            &lt;button class='btn' id='confirmedit_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Update&lt;/button&gt;"</f>
-        <v xml:space="preserve">            &lt;button class='btn' id='confirmedit_validation{{$m-&gt;id}}'&gt;Update&lt;/button&gt;</v>
+        <v xml:space="preserve">            &lt;button class='btn' id='confirmedit_projectfile{{$m-&gt;id}}'&gt;Update&lt;/button&gt;</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
@@ -15320,7 +15377,7 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
@@ -15334,7 +15391,7 @@
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="13" t="str">
         <f>"        &lt;spam&gt;&lt;button class='btn' id='delete_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Delete&lt;/button&gt;&lt;/spam&gt;"</f>
-        <v xml:space="preserve">        &lt;spam&gt;&lt;button class='btn' id='delete_validation{{$m-&gt;id}}'&gt;Delete&lt;/button&gt;&lt;/spam&gt;</v>
+        <v xml:space="preserve">        &lt;spam&gt;&lt;button class='btn' id='delete_projectfile{{$m-&gt;id}}'&gt;Delete&lt;/button&gt;&lt;/spam&gt;</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
@@ -15348,7 +15405,7 @@
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="13" t="str">
         <f>"        &lt;spam class='"&amp;'tables and models'!F39&amp;"_deletehidden{{$m-&gt;id}} hmdhide'&gt;"</f>
-        <v xml:space="preserve">        &lt;spam class='validation_deletehidden{{$m-&gt;id}} hmdhide'&gt;</v>
+        <v xml:space="preserve">        &lt;spam class='projectfile_deletehidden{{$m-&gt;id}} hmdhide'&gt;</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
@@ -15361,7 +15418,7 @@
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
@@ -15375,7 +15432,7 @@
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="13" t="str">
         <f>"            &lt;a class='' id='canceldelete_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Cancel&lt;/a&gt;"</f>
-        <v xml:space="preserve">            &lt;a class='' id='canceldelete_validation{{$m-&gt;id}}'&gt;Cancel&lt;/a&gt;</v>
+        <v xml:space="preserve">            &lt;a class='' id='canceldelete_projectfile{{$m-&gt;id}}'&gt;Cancel&lt;/a&gt;</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
@@ -15389,7 +15446,7 @@
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="13" t="str">
         <f>"            &lt;a class='' id='yesdelete_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}'&gt;Confirm&lt;/a&gt;"</f>
-        <v xml:space="preserve">            &lt;a class='' id='yesdelete_validation{{$m-&gt;id}}'&gt;Confirm&lt;/a&gt;</v>
+        <v xml:space="preserve">            &lt;a class='' id='yesdelete_projectfile{{$m-&gt;id}}'&gt;Confirm&lt;/a&gt;</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
@@ -15402,7 +15459,7 @@
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
@@ -15416,7 +15473,7 @@
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="13" t="str">
         <f>"        &lt;img class='hmdhide' id='wait_while_updating_"&amp;'tables and models'!F39&amp;"{{$m-&gt;id}}' src='{{URL::to("&amp;P1&amp;"assets/img/progressBar.gif"&amp;P1&amp;")}}'/&gt;"</f>
-        <v xml:space="preserve">        &lt;img class='hmdhide' id='wait_while_updating_validation{{$m-&gt;id}}' src='{{URL::to("assets/img/progressBar.gif")}}'/&gt;</v>
+        <v xml:space="preserve">        &lt;img class='hmdhide' id='wait_while_updating_projectfile{{$m-&gt;id}}' src='{{URL::to("assets/img/progressBar.gif")}}'/&gt;</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -15466,13 +15523,13 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="13" t="str">
         <f>"$('."&amp;'tables and models'!F39&amp;"_row').each(function(){"</f>
-        <v>$('.validation_row').each(function(){</v>
+        <v>$('.projectfile_row').each(function(){</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -15485,7 +15542,7 @@
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="13" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
@@ -15499,7 +15556,7 @@
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="13" t="str">
         <f>"    id=id.replace('"&amp;'tables and models'!F39&amp;"_row','');"</f>
-        <v xml:space="preserve">    id=id.replace('validation_row','');</v>
+        <v xml:space="preserve">    id=id.replace('projectfile_row','');</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
@@ -15513,7 +15570,7 @@
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="13" t="str">
         <f>"    start_action"&amp;'tables and models'!F39&amp;"(id);"</f>
-        <v xml:space="preserve">    start_actionvalidation(id);</v>
+        <v xml:space="preserve">    start_actionprojectfile(id);</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
@@ -15526,7 +15583,7 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="72" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
@@ -15564,7 +15621,7 @@
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="13" t="str">
         <f>"function start_action"&amp;'tables and models'!F39&amp;"(id) {"</f>
-        <v>function start_actionvalidation(id) {</v>
+        <v>function start_actionprojectfile(id) {</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
@@ -15578,7 +15635,7 @@
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="13" t="str">
         <f>"    $('#edit_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#edit_validation'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#edit_projectfile'+id).click(function(){</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
@@ -15591,7 +15648,7 @@
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
@@ -15605,7 +15662,7 @@
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_editable'+id).hide();"</f>
-        <v xml:space="preserve">        $('.validation_editable'+id).hide();</v>
+        <v xml:space="preserve">        $('.projectfile_editable'+id).hide();</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
@@ -15619,7 +15676,7 @@
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_inputhidden'+id).show();"</f>
-        <v xml:space="preserve">        $('.validation_inputhidden'+id).show();</v>
+        <v xml:space="preserve">        $('.projectfile_inputhidden'+id).show();</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
@@ -15632,7 +15689,7 @@
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
@@ -15646,7 +15703,7 @@
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="13" t="str">
         <f>"    $('#canceledit_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#canceledit_validation'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#canceledit_projectfile'+id).click(function(){</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
@@ -15660,7 +15717,7 @@
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="13" t="str">
         <f>"            $('#edit_"&amp;'tables and models'!F39&amp;"'+id).show();"</f>
-        <v xml:space="preserve">            $('#edit_validation'+id).show();</v>
+        <v xml:space="preserve">            $('#edit_projectfile'+id).show();</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
@@ -15674,7 +15731,7 @@
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="13" t="str">
         <f>"            $('."&amp;'tables and models'!F39&amp;"_editable'+id).show();"</f>
-        <v xml:space="preserve">            $('.validation_editable'+id).show();</v>
+        <v xml:space="preserve">            $('.projectfile_editable'+id).show();</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
@@ -15688,7 +15745,7 @@
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="13" t="str">
         <f>"            $('."&amp;'tables and models'!F39&amp;"_inputhidden'+id).hide();"</f>
-        <v xml:space="preserve">            $('.validation_inputhidden'+id).hide();</v>
+        <v xml:space="preserve">            $('.projectfile_inputhidden'+id).hide();</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
@@ -15701,7 +15758,7 @@
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
@@ -15715,7 +15772,7 @@
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" s="13" t="str">
         <f>"    $('#confirmedit_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#confirmedit_validation'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#confirmedit_projectfile'+id).click(function(){</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
@@ -15729,7 +15786,7 @@
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B177" s="13" t="str">
         <f>"        $('#wait_while_updating_"&amp;'tables and models'!F39&amp;"'+id).show();"</f>
-        <v xml:space="preserve">        $('#wait_while_updating_validation'+id).show();</v>
+        <v xml:space="preserve">        $('#wait_while_updating_projectfile'+id).show();</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
@@ -15743,7 +15800,7 @@
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B178" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_inputhidden'+id).hide();"</f>
-        <v xml:space="preserve">        $('.validation_inputhidden'+id).hide();</v>
+        <v xml:space="preserve">        $('.projectfile_inputhidden'+id).hide();</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -15757,7 +15814,7 @@
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B179" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_editable'+id).show();"</f>
-        <v xml:space="preserve">        $('.validation_editable'+id).show();</v>
+        <v xml:space="preserve">        $('.projectfile_editable'+id).show();</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
@@ -15771,7 +15828,7 @@
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B180" s="13" t="str">
         <f>"        $('#delete_"&amp;'tables and models'!F39&amp;"'+id).hide();"</f>
-        <v xml:space="preserve">        $('#delete_validation'+id).hide();</v>
+        <v xml:space="preserve">        $('#delete_projectfile'+id).hide();</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
@@ -15785,7 +15842,7 @@
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B181" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_deletehidden'+id).hide();"</f>
-        <v xml:space="preserve">        $('.validation_deletehidden'+id).hide();</v>
+        <v xml:space="preserve">        $('.projectfile_deletehidden'+id).hide();</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
@@ -15798,7 +15855,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
@@ -15811,11 +15868,11 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="24" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B183" s="13" t="str">
         <f>"        "&amp;X97&amp;X98&amp;X99&amp;X100&amp;X101&amp;X102&amp;X103&amp;X104&amp;X105&amp;X106</f>
-        <v xml:space="preserve">        var year=$('#input_validationyear'+id).val();var from=$('#input_validationfrom'+id).val();var to=$('#input_validationto'+id).val();</v>
+        <v xml:space="preserve">        var filename=$('#input_projectfilefilename'+id).val();var location=$('#input_projectfilelocation'+id).val();var project_id=$('#input_projectfileproject_id'+id).val();</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
@@ -15828,7 +15885,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B184" s="13" t="str">
         <f>"        "&amp;AD97&amp;AD98&amp;AD99&amp;AD100&amp;AD101&amp;AD102&amp;AD103&amp;AD104&amp;AD105&amp;AD106</f>
@@ -15847,7 +15904,7 @@
       <c r="A185" s="24"/>
       <c r="B185" s="13" t="str">
         <f>"        $.post(base+'/ajax/"&amp;'tables and models'!F39&amp;"update',{id:id,"&amp;Y23&amp;AE23&amp;"},function(d){"</f>
-        <v xml:space="preserve">        $.post(base+'/ajax/validationupdate',{id:id,year:year,from:from,to:to,customer_id:customer_id},function(d){</v>
+        <v xml:space="preserve">        $.post(base+'/ajax/projectfileupdate',{id:id,filename:filename,location:location,project_id:project_id},function(d){</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -15861,7 +15918,7 @@
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="24"/>
       <c r="B186" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
@@ -15874,7 +15931,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B187" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
@@ -15887,7 +15944,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -15901,7 +15958,7 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" s="13" t="str">
         <f>"    $('#delete_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#delete_validation'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#delete_projectfile'+id).click(function(){</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
@@ -15914,7 +15971,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B190" s="13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
@@ -15928,7 +15985,7 @@
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_deletehidden'+id).show();"</f>
-        <v xml:space="preserve">        $('.validation_deletehidden'+id).show();</v>
+        <v xml:space="preserve">        $('.projectfile_deletehidden'+id).show();</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
@@ -15941,7 +15998,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -15955,7 +16012,7 @@
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="13" t="str">
         <f>"    $('#canceldelete_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#canceldelete_validation'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#canceldelete_projectfile'+id).click(function(){</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
@@ -15969,7 +16026,7 @@
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_deletehidden'+id).hide();"</f>
-        <v xml:space="preserve">        $('.validation_deletehidden'+id).hide();</v>
+        <v xml:space="preserve">        $('.projectfile_deletehidden'+id).hide();</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
@@ -15983,7 +16040,7 @@
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="13" t="str">
         <f>"        $('#delete_"&amp;'tables and models'!F39&amp;"'+id).show();"</f>
-        <v xml:space="preserve">        $('#delete_validation'+id).show();</v>
+        <v xml:space="preserve">        $('#delete_projectfile'+id).show();</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
@@ -15996,7 +16053,7 @@
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -16010,7 +16067,7 @@
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="13" t="str">
         <f>"    $('#yesdelete_"&amp;'tables and models'!F39&amp;"'+id).click(function(){"</f>
-        <v xml:space="preserve">    $('#yesdelete_validation'+id).click(function(){</v>
+        <v xml:space="preserve">    $('#yesdelete_projectfile'+id).click(function(){</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
@@ -16024,7 +16081,7 @@
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="13" t="str">
         <f>"        $('."&amp;'tables and models'!F39&amp;"_deletehidden'+id).hide();"</f>
-        <v xml:space="preserve">        $('.validation_deletehidden'+id).hide();</v>
+        <v xml:space="preserve">        $('.projectfile_deletehidden'+id).hide();</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
@@ -16038,7 +16095,7 @@
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="13" t="str">
         <f>"        $('#wait_while_updating_"&amp;'tables and models'!F39&amp;"'+id).show();"</f>
-        <v xml:space="preserve">        $('#wait_while_updating_validation'+id).show();</v>
+        <v xml:space="preserve">        $('#wait_while_updating_projectfile'+id).show();</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
@@ -16051,7 +16108,7 @@
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
@@ -16065,7 +16122,7 @@
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" s="13" t="str">
         <f>"        $.post(base+'/ajax/"&amp;'tables and models'!F39&amp;"delete',{id:id,},function(d){"</f>
-        <v xml:space="preserve">        $.post(base+'/ajax/validationdelete',{id:id,},function(d){</v>
+        <v xml:space="preserve">        $.post(base+'/ajax/projectfiledelete',{id:id,},function(d){</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
@@ -16078,7 +16135,7 @@
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B202" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
@@ -16091,7 +16148,7 @@
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -16104,7 +16161,7 @@
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
@@ -16130,13 +16187,13 @@
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" s="13" t="str">
         <f>"    public function post"&amp;'tables and models'!G39&amp;"update (){"</f>
-        <v xml:space="preserve">    public function postValidationupdate (){</v>
+        <v xml:space="preserve">    public function postProjectfileupdate (){</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
@@ -16149,7 +16206,7 @@
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B209" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
@@ -16162,7 +16219,7 @@
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210" s="13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
@@ -16176,7 +16233,7 @@
     <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B211" s="13" t="str">
         <f>"            "&amp;AG107</f>
-        <v xml:space="preserve">            'year'=&gt;$_POST['year'],'from'=&gt;$_POST['from'],'to'=&gt;$_POST['to']</v>
+        <v xml:space="preserve">            'filename'=&gt;$_POST['filename'],'location'=&gt;$_POST['location'],'project_id'=&gt;$_POST['project_id']</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
@@ -16189,7 +16246,7 @@
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B212" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
@@ -16203,7 +16260,7 @@
     <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B213" s="13" t="str">
         <f>"        "&amp;'tables and models'!G39&amp;"::find($id)-&gt;update($u);"</f>
-        <v xml:space="preserve">        Validation::find($id)-&gt;update($u);</v>
+        <v xml:space="preserve">        Projectfile::find($id)-&gt;update($u);</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
@@ -16216,7 +16273,7 @@
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B214" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
@@ -16254,7 +16311,7 @@
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B217" s="13" t="str">
         <f>"    public function post"&amp;'tables and models'!G39&amp;"delete (){"</f>
-        <v xml:space="preserve">    public function postValidationdelete (){</v>
+        <v xml:space="preserve">    public function postProjectfiledelete (){</v>
       </c>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
@@ -16268,7 +16325,7 @@
     <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B218" s="13" t="str">
         <f>"        "&amp;'tables and models'!G39&amp;"::find($_POST['id'])-&gt;delete();"</f>
-        <v xml:space="preserve">        Validation::find($_POST['id'])-&gt;delete();</v>
+        <v xml:space="preserve">        Projectfile::find($_POST['id'])-&gt;delete();</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
@@ -16281,7 +16338,7 @@
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B219" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
@@ -16340,22 +16397,22 @@
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="64" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
@@ -16364,12 +16421,12 @@
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="64" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C231" s="17"/>
       <c r="D231" s="17"/>
@@ -16378,32 +16435,32 @@
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="64" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C238" s="17"/>
       <c r="D238" s="17"/>
@@ -16413,7 +16470,7 @@
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="65" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C239" s="17"/>
       <c r="D239" s="17"/>
@@ -16423,7 +16480,7 @@
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="64" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C240" s="17"/>
       <c r="D240" s="17"/>
@@ -16433,7 +16490,7 @@
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="65" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C241" s="17"/>
       <c r="D241" s="17"/>
@@ -16443,7 +16500,7 @@
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="64" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C242" s="17"/>
       <c r="D242" s="17"/>
@@ -16453,7 +16510,7 @@
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="65" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C243" s="17"/>
       <c r="D243" s="17"/>
@@ -16463,7 +16520,7 @@
     </row>
     <row r="244" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B244" s="64" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C244" s="17"/>
       <c r="D244" s="17"/>
@@ -16473,7 +16530,7 @@
     </row>
     <row r="245" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B245" s="64" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C245" s="17"/>
       <c r="D245" s="17"/>
@@ -16483,7 +16540,7 @@
     </row>
     <row r="246" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" s="64" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C246" s="17"/>
       <c r="D246" s="17"/>
@@ -16493,7 +16550,7 @@
     </row>
     <row r="247" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B247" s="64" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C247" s="17"/>
       <c r="D247" s="17"/>
@@ -16503,7 +16560,7 @@
     </row>
     <row r="248" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" s="64" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C248" s="17"/>
       <c r="D248" s="17"/>
@@ -16514,7 +16571,7 @@
     </row>
     <row r="249" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="64" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C249" s="17"/>
       <c r="D249" s="17"/>
@@ -16525,7 +16582,7 @@
     </row>
     <row r="250" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C250" s="17"/>
       <c r="D250" s="17"/>
@@ -16556,17 +16613,17 @@
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -16596,42 +16653,42 @@
     <row r="3" spans="2:10" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="53" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="62" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="63" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="63" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="63" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -16645,12 +16702,12 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -16660,21 +16717,21 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -16687,12 +16744,12 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -16705,7 +16762,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -16731,7 +16788,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -16744,7 +16801,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -16781,7 +16838,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -16835,11 +16892,11 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="B1:E25"/>
+  <dimension ref="B1:E33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16852,194 +16909,247 @@
     <row r="3" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>306</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>339</v>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>479</v>
+        <v>334</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>480</v>
+        <v>335</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>481</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>489</v>
+        <v>336</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>490</v>
+        <v>337</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>491</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>524</v>
+        <v>493</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/support docs/Laravel DRY v4.xlsx
+++ b/public/support docs/Laravel DRY v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7155" tabRatio="666"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7155" tabRatio="666" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
@@ -2444,10 +2444,10 @@
     <t>location</t>
   </si>
   <si>
-    <t>edry2</t>
-  </si>
-  <si>
     <t>bootstrap3.1</t>
+  </si>
+  <si>
+    <t>dosetracker</t>
   </si>
 </sst>
 </file>
@@ -7444,7 +7444,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8929,7 +8931,7 @@
       </c>
       <c r="K14" s="33" t="str">
         <f>RIGHT('Start project'!C24,LEN('Start project'!C24)-3)</f>
-        <v>C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
+        <v>C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8938,7 +8940,7 @@
       </c>
       <c r="C15" s="8" t="str">
         <f>"Copy-Item "&amp;K14&amp;"\app\views\templates\email2.blade.php "&amp;K14&amp;"\app\views\emails"</f>
-        <v>Copy-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2\app\views\templates\email2.blade.php C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2\app\views\emails</v>
+        <v>Copy-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker\app\views\templates\email2.blade.php C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker\app\views\emails</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -8952,7 +8954,7 @@
       </c>
       <c r="C16" s="8" t="str">
         <f>"Rename-Item "&amp;K14&amp;"\app\views\"&amp;E14&amp;"\email2.blade.php "&amp;G14&amp;".blade.php"</f>
-        <v>Rename-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2\app\views\emails\email2.blade.php requestcoordinatortoapprove.blade.php</v>
+        <v>Rename-Item C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker\app\views\emails\email2.blade.php requestcoordinatortoapprove.blade.php</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -9586,7 +9588,7 @@
       </c>
       <c r="C24" s="52" t="str">
         <f>"cd "&amp;L5&amp;"github\"&amp;'Start project'!C13</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="42"/>
@@ -9624,7 +9626,7 @@
         <v>291</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F31" s="91"/>
       <c r="G31" s="28" t="s">
@@ -10171,7 +10173,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -10203,7 +10205,7 @@
       </c>
       <c r="C16" s="8" t="str">
         <f>"mkdir "&amp;C13</f>
-        <v>mkdir edry2</v>
+        <v>mkdir dosetracker</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="8"/>
@@ -10216,7 +10218,7 @@
       </c>
       <c r="C17" s="8" t="str">
         <f>"cd "&amp;C13</f>
-        <v>cd edry2</v>
+        <v>cd dosetracker</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -10265,7 +10267,7 @@
       </c>
       <c r="C24" s="8" t="str">
         <f>"cd "&amp;H8&amp;C14&amp;"\"&amp;C13</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -10416,10 +10418,10 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10533,7 +10535,7 @@
       </c>
       <c r="C16" s="28" t="str">
         <f>'Start project'!C13</f>
-        <v>edry2</v>
+        <v>dosetracker</v>
       </c>
       <c r="D16" s="13"/>
     </row>
@@ -10559,7 +10561,7 @@
       </c>
       <c r="C20" s="8" t="str">
         <f>"cd "&amp;H10&amp;C17&amp;"\"&amp;C16</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -10602,7 +10604,7 @@
       </c>
       <c r="C25" s="8" t="str">
         <f>"cd "&amp;H10&amp;C17&amp;"\"&amp;C16</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -11292,7 +11294,7 @@
       </c>
       <c r="C17" s="28" t="str">
         <f>'Start project'!C13</f>
-        <v>edry2</v>
+        <v>dosetracker</v>
       </c>
       <c r="D17" s="13"/>
     </row>
@@ -11318,7 +11320,7 @@
       </c>
       <c r="C21" s="8" t="str">
         <f>"cd "&amp;H10&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -11361,7 +11363,7 @@
       </c>
       <c r="C26" s="8" t="str">
         <f>"cd "&amp;H10&amp;C18&amp;"\"&amp;C17</f>
-        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\edry2</v>
+        <v>cd C:\Users\mariaadelaida\Desktop\"laravel projects"\github\dosetracker</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
